--- a/Survey Lines.xlsx
+++ b/Survey Lines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823BD35F-FAF7-47DA-8CAB-B9470EF7DC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7389C9-991C-4F5B-9261-FC0C2B7B7D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
-  <si>
-    <t>Vessels</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
   <si>
     <t>INSTRUCTIONS:</t>
   </si>
@@ -50,13 +47,7 @@
     <t>Ground</t>
   </si>
   <si>
-    <t>1) Use the "Vessels", "Ground", and "Extra Boxes" drop downs to select the proper configuration for the survey.</t>
-  </si>
-  <si>
     <t>Extra Boxes</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>2) Copy standard/leftside format for "Table" sheet, use Converted/rightside format for "R Plan" sheet</t>
@@ -133,30 +124,6 @@
     <t>End Lon</t>
   </si>
   <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>LJ</t>
-  </si>
-  <si>
-    <t>LM</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
     <t>GERMAN BANK</t>
   </si>
   <si>
@@ -212,6 +179,24 @@
   </si>
   <si>
     <t>Scots Bay</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Main Box</t>
+  </si>
+  <si>
+    <t>1) Use the "Main Box", "Ground", and "Extra Boxes" drop downs to select the proper configuration for the survey.</t>
+  </si>
+  <si>
+    <t>Scotia</t>
+  </si>
+  <si>
+    <t>Comeau</t>
+  </si>
+  <si>
+    <t>Connor</t>
   </si>
 </sst>
 </file>
@@ -293,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -305,6 +290,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -546,13 +532,13 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -574,13 +560,13 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -602,13 +588,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -631,7 +617,7 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="D4" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -654,7 +640,7 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="D5" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -677,7 +663,7 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="D6" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -700,7 +686,7 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -731,22 +717,22 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>IF(B2="German Bank", "German Bank Box", IF(B2="Scots Bay", "Main Survey Box",""))</f>
         <v>Main Survey Box</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L9" s="1" t="str">
         <f>IF(B2="German Bank", "Seal Island Box", IF(B3="North", "North Box", IF(B3="East", "East Box", IF(B3="Both", "East Box",""))))</f>
-        <v/>
+        <v>East Box</v>
       </c>
       <c r="P9" s="1" t="str">
         <f>IF(B2="German Bank", "Converted Format for 'R Plan' Sheet", IF(B3&lt;&gt;"None", "Converted Format for 'R Plan' Sheet", ""))</f>
-        <v/>
+        <v>Converted Format for 'R Plan' Sheet</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -777,28 +763,28 @@
       </c>
       <c r="L10" s="6" t="str">
         <f t="array" ref="L10:S34">IF(B2="German Bank",'Back End'!L6:S30, IF(B3="North", 'Back End'!AF18:AM22, IF(B3="East", 'Back End'!AF6:AM10,IF(B3="Both", 'Back End'!AF6:AM10,""))))</f>
-        <v/>
-      </c>
-      <c r="M10" s="6" t="str">
-        <v/>
+        <v>START POINT</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
       </c>
       <c r="N10" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O10" s="6" t="str">
-        <v/>
+        <v>TURN POINT</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
       </c>
       <c r="P10" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q10" s="6" t="str">
-        <v/>
+        <v>START POINT</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
       </c>
       <c r="R10" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S10" s="6" t="str">
-        <v/>
+        <v>TURN POINT</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -829,29 +815,29 @@
       <c r="I11" s="6">
         <v>-64.825000000000003</v>
       </c>
-      <c r="L11" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M11" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N11" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O11" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P11" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q11" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R11" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S11" s="6" t="str">
-        <v/>
+      <c r="L11" s="6">
+        <v>4516.12</v>
+      </c>
+      <c r="M11" s="6">
+        <v>6445.43</v>
+      </c>
+      <c r="N11" s="6">
+        <v>4519.7</v>
+      </c>
+      <c r="O11" s="6">
+        <v>6433</v>
+      </c>
+      <c r="P11" s="6">
+        <v>45.268666666666668</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>-64.757166666666663</v>
+      </c>
+      <c r="R11" s="6">
+        <v>45.328333333333333</v>
+      </c>
+      <c r="S11" s="6">
+        <v>-64.55</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -859,52 +845,52 @@
         <v>2</v>
       </c>
       <c r="B12" s="6">
-        <v>4510.5212000000001</v>
+        <v>4511.5636000000004</v>
       </c>
       <c r="C12" s="6">
         <v>6514</v>
       </c>
       <c r="D12" s="6">
-        <v>4519.0817999999999</v>
+        <v>4519.8454000000002</v>
       </c>
       <c r="E12" s="6">
-        <v>6450.0757333333331</v>
+        <v>6451.2272000000003</v>
       </c>
       <c r="F12" s="6">
-        <v>45.175353333333334</v>
+        <v>45.192726666666665</v>
       </c>
       <c r="G12" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H12" s="6">
-        <v>45.31803</v>
+        <v>45.330756666666666</v>
       </c>
       <c r="I12" s="6">
-        <v>-64.834595555555495</v>
-      </c>
-      <c r="L12" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M12" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N12" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O12" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P12" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q12" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R12" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S12" s="6" t="str">
-        <v/>
+        <v>-64.853786666666664</v>
+      </c>
+      <c r="L12" s="6">
+        <v>4517.0016666666661</v>
+      </c>
+      <c r="M12" s="6">
+        <v>6446.7466666666669</v>
+      </c>
+      <c r="N12" s="6">
+        <v>4520.9916666666668</v>
+      </c>
+      <c r="O12" s="6">
+        <v>6433</v>
+      </c>
+      <c r="P12" s="6">
+        <v>45.283361111111169</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>-64.779111111111163</v>
+      </c>
+      <c r="R12" s="6">
+        <v>45.349861111111167</v>
+      </c>
+      <c r="S12" s="6">
+        <v>-64.55</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -912,52 +898,52 @@
         <v>3</v>
       </c>
       <c r="B13" s="6">
-        <v>4511.0424000000003</v>
+        <v>4513.1272000000008</v>
       </c>
       <c r="C13" s="6">
         <v>6514</v>
       </c>
       <c r="D13" s="6">
-        <v>4519.4636</v>
+        <v>4520.9908000000005</v>
       </c>
       <c r="E13" s="6">
-        <v>6450.6514666666662</v>
+        <v>6452.9544000000005</v>
       </c>
       <c r="F13" s="6">
-        <v>45.184040000000003</v>
+        <v>45.218786666666666</v>
       </c>
       <c r="G13" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H13" s="6">
-        <v>45.324393333333333</v>
+        <v>45.349846666666664</v>
       </c>
       <c r="I13" s="6">
-        <v>-64.844191111111172</v>
-      </c>
-      <c r="L13" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M13" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N13" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O13" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P13" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q13" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R13" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S13" s="6" t="str">
-        <v/>
+        <v>-64.88257333333334</v>
+      </c>
+      <c r="L13" s="6">
+        <v>4517.8833333333323</v>
+      </c>
+      <c r="M13" s="6">
+        <v>6448.0633333333335</v>
+      </c>
+      <c r="N13" s="6">
+        <v>4522.2833333333338</v>
+      </c>
+      <c r="O13" s="6">
+        <v>6433</v>
+      </c>
+      <c r="P13" s="6">
+        <v>45.2980555555555</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>-64.801055555555493</v>
+      </c>
+      <c r="R13" s="6">
+        <v>45.371388888888831</v>
+      </c>
+      <c r="S13" s="6">
+        <v>-64.55</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -965,52 +951,52 @@
         <v>4</v>
       </c>
       <c r="B14" s="6">
-        <v>4511.5636000000004</v>
+        <v>4514.6908000000012</v>
       </c>
       <c r="C14" s="6">
         <v>6514</v>
       </c>
       <c r="D14" s="6">
-        <v>4519.8454000000002</v>
+        <v>4522.1362000000008</v>
       </c>
       <c r="E14" s="6">
-        <v>6451.2271999999994</v>
+        <v>6454.6816000000008</v>
       </c>
       <c r="F14" s="6">
-        <v>45.192726666666665</v>
+        <v>45.244846666666668</v>
       </c>
       <c r="G14" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H14" s="6">
-        <v>45.330756666666666</v>
+        <v>45.36893666666667</v>
       </c>
       <c r="I14" s="6">
-        <v>-64.853786666666664</v>
-      </c>
-      <c r="L14" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M14" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N14" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O14" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P14" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q14" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R14" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S14" s="6" t="str">
-        <v/>
+        <v>-64.911360000000002</v>
+      </c>
+      <c r="L14" s="6">
+        <v>4518.7649999999985</v>
+      </c>
+      <c r="M14" s="6">
+        <v>6449.38</v>
+      </c>
+      <c r="N14" s="6">
+        <v>4523.5750000000007</v>
+      </c>
+      <c r="O14" s="6">
+        <v>6433</v>
+      </c>
+      <c r="P14" s="6">
+        <v>45.312750000000001</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>-64.822999999999993</v>
+      </c>
+      <c r="R14" s="6">
+        <v>45.392916666666665</v>
+      </c>
+      <c r="S14" s="6">
+        <v>-64.55</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1018,52 +1004,52 @@
         <v>5</v>
       </c>
       <c r="B15" s="6">
-        <v>4512.0848000000005</v>
+        <v>4516.2544000000016</v>
       </c>
       <c r="C15" s="6">
         <v>6514</v>
       </c>
       <c r="D15" s="6">
-        <v>4520.2272000000003</v>
+        <v>4523.2816000000012</v>
       </c>
       <c r="E15" s="6">
-        <v>6451.8029333333325</v>
+        <v>6456.4088000000011</v>
       </c>
       <c r="F15" s="6">
-        <v>45.201413333333335</v>
+        <v>45.270906666666669</v>
       </c>
       <c r="G15" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H15" s="6">
-        <v>45.337119999999999</v>
+        <v>45.388026666666669</v>
       </c>
       <c r="I15" s="6">
-        <v>-64.863382222222171</v>
-      </c>
-      <c r="L15" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M15" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N15" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O15" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P15" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q15" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R15" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S15" s="6" t="str">
-        <v/>
+        <v>-64.940146666666664</v>
+      </c>
+      <c r="L15" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M15" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N15" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O15" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P15" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q15" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R15" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S15" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1071,52 +1057,52 @@
         <v>6</v>
       </c>
       <c r="B16" s="6">
-        <v>4512.6060000000007</v>
+        <v>4517.818000000002</v>
       </c>
       <c r="C16" s="6">
         <v>6514</v>
       </c>
       <c r="D16" s="6">
-        <v>4520.6090000000004</v>
+        <v>4524.4270000000015</v>
       </c>
       <c r="E16" s="6">
-        <v>6452.3786666666656</v>
+        <v>6458.1360000000013</v>
       </c>
       <c r="F16" s="6">
-        <v>45.210099999999997</v>
+        <v>45.29696666666667</v>
       </c>
       <c r="G16" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H16" s="6">
-        <v>45.343483333333332</v>
+        <v>45.407116666666667</v>
       </c>
       <c r="I16" s="6">
-        <v>-64.872977777777834</v>
-      </c>
-      <c r="L16" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M16" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N16" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O16" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P16" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q16" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R16" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S16" s="6" t="str">
-        <v/>
+        <v>-64.968933333333339</v>
+      </c>
+      <c r="L16" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M16" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N16" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O16" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P16" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q16" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R16" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S16" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1124,56 +1110,56 @@
         <v>7</v>
       </c>
       <c r="B17" s="6">
-        <v>4513.1272000000008</v>
+        <v>4519.3816000000024</v>
       </c>
       <c r="C17" s="6">
         <v>6514</v>
       </c>
       <c r="D17" s="6">
-        <v>4520.9908000000005</v>
+        <v>4525.5724000000018</v>
       </c>
       <c r="E17" s="6">
-        <v>6452.9543999999987</v>
+        <v>6459.8632000000016</v>
       </c>
       <c r="F17" s="6">
-        <v>45.218786666666666</v>
+        <v>45.323026666666664</v>
       </c>
       <c r="G17" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H17" s="6">
-        <v>45.349846666666664</v>
+        <v>45.426206666666666</v>
       </c>
       <c r="I17" s="6">
-        <v>-64.88257333333334</v>
+        <v>-64.997720000000001</v>
       </c>
       <c r="K17" s="1" t="str">
         <f>IF(B3="Both", "North Box", "")</f>
         <v/>
       </c>
-      <c r="L17" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M17" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N17" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O17" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P17" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q17" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R17" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S17" s="6" t="str">
-        <v/>
+      <c r="L17" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M17" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N17" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O17" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P17" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q17" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R17" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S17" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1181,56 +1167,56 @@
         <v>8</v>
       </c>
       <c r="B18" s="6">
-        <v>4513.6484000000009</v>
+        <v>4520.9452000000028</v>
       </c>
       <c r="C18" s="6">
         <v>6514</v>
       </c>
       <c r="D18" s="6">
-        <v>4521.3726000000006</v>
+        <v>4526.7178000000022</v>
       </c>
       <c r="E18" s="6">
-        <v>6453.5301333333318</v>
+        <v>6461.5904000000019</v>
       </c>
       <c r="F18" s="6">
-        <v>45.227473333333336</v>
+        <v>45.349086666666665</v>
       </c>
       <c r="G18" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H18" s="6">
-        <v>45.356209999999997</v>
+        <v>45.445296666666664</v>
       </c>
       <c r="I18" s="6">
-        <v>-64.892168888888833</v>
+        <v>-65.026506666666663</v>
       </c>
       <c r="K18" s="6" t="str">
         <f t="array" ref="K18">IF(B3="Both", 'Back End'!AF18:AM22, "")</f>
         <v/>
       </c>
-      <c r="L18" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M18" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N18" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O18" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P18" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q18" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R18" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S18" s="6" t="str">
-        <v/>
+      <c r="L18" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M18" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N18" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O18" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P18" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R18" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S18" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -1238,52 +1224,52 @@
         <v>9</v>
       </c>
       <c r="B19" s="6">
-        <v>4514.1696000000011</v>
+        <v>4522.5088000000032</v>
       </c>
       <c r="C19" s="6">
         <v>6514</v>
       </c>
       <c r="D19" s="6">
-        <v>4521.7544000000007</v>
+        <v>4527.8632000000025</v>
       </c>
       <c r="E19" s="6">
-        <v>6454.105866666665</v>
+        <v>6463.3176000000021</v>
       </c>
       <c r="F19" s="6">
-        <v>45.236159999999998</v>
+        <v>45.375146666666666</v>
       </c>
       <c r="G19" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H19" s="6">
-        <v>45.36257333333333</v>
+        <v>45.46438666666667</v>
       </c>
       <c r="I19" s="6">
-        <v>-64.901764444444339</v>
-      </c>
-      <c r="L19" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M19" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N19" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O19" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P19" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q19" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R19" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S19" s="6" t="str">
-        <v/>
+        <v>-65.055293333333339</v>
+      </c>
+      <c r="L19" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M19" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N19" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O19" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P19" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R19" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S19" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -1291,52 +1277,52 @@
         <v>10</v>
       </c>
       <c r="B20" s="6">
-        <v>4514.6908000000012</v>
+        <v>4524.0724000000037</v>
       </c>
       <c r="C20" s="6">
         <v>6514</v>
       </c>
       <c r="D20" s="6">
-        <v>4522.1362000000008</v>
+        <v>4529.0086000000028</v>
       </c>
       <c r="E20" s="6">
-        <v>6454.6815999999981</v>
+        <v>6465.0448000000024</v>
       </c>
       <c r="F20" s="6">
-        <v>45.244846666666668</v>
+        <v>45.401206666666667</v>
       </c>
       <c r="G20" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H20" s="6">
-        <v>45.36893666666667</v>
+        <v>45.483476666666668</v>
       </c>
       <c r="I20" s="6">
-        <v>-64.911360000000002</v>
-      </c>
-      <c r="L20" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M20" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N20" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O20" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P20" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q20" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R20" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S20" s="6" t="str">
-        <v/>
+        <v>-65.08408</v>
+      </c>
+      <c r="L20" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M20" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N20" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O20" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P20" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q20" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R20" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S20" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1344,52 +1330,52 @@
         <v>11</v>
       </c>
       <c r="B21" s="6">
-        <v>4515.2120000000014</v>
+        <v>4525.6360000000041</v>
       </c>
       <c r="C21" s="6">
         <v>6514</v>
       </c>
       <c r="D21" s="6">
-        <v>4522.5180000000009</v>
+        <v>4530.1540000000032</v>
       </c>
       <c r="E21" s="6">
-        <v>6455.2573333333312</v>
+        <v>6466.7720000000027</v>
       </c>
       <c r="F21" s="6">
-        <v>45.25353333333333</v>
+        <v>45.427266666666668</v>
       </c>
       <c r="G21" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H21" s="6">
-        <v>45.375300000000003</v>
+        <v>45.502566666666667</v>
       </c>
       <c r="I21" s="6">
-        <v>-64.920955555555494</v>
-      </c>
-      <c r="L21" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M21" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N21" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O21" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P21" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q21" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R21" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S21" s="6" t="str">
-        <v/>
+        <v>-65.112866666666662</v>
+      </c>
+      <c r="L21" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M21" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N21" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O21" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P21" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q21" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R21" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S21" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1397,52 +1383,52 @@
         <v>12</v>
       </c>
       <c r="B22" s="6">
-        <v>4515.7332000000015</v>
+        <v>4527.1996000000045</v>
       </c>
       <c r="C22" s="6">
         <v>6514</v>
       </c>
       <c r="D22" s="6">
-        <v>4522.8998000000011</v>
+        <v>4531.2994000000035</v>
       </c>
       <c r="E22" s="6">
-        <v>6455.8330666666643</v>
+        <v>6468.4992000000029</v>
       </c>
       <c r="F22" s="6">
-        <v>45.262219999999999</v>
+        <v>45.453326666666669</v>
       </c>
       <c r="G22" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H22" s="6">
-        <v>45.381663333333336</v>
+        <v>45.521656666666665</v>
       </c>
       <c r="I22" s="6">
-        <v>-64.930551111111001</v>
-      </c>
-      <c r="L22" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M22" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N22" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O22" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P22" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q22" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R22" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S22" s="6" t="str">
-        <v/>
+        <v>-65.141653333333338</v>
+      </c>
+      <c r="L22" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N22" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O22" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P22" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q22" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R22" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S22" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1450,52 +1436,52 @@
         <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>4516.2544000000016</v>
+        <v>4528.7632000000049</v>
       </c>
       <c r="C23" s="6">
         <v>6514</v>
       </c>
       <c r="D23" s="6">
-        <v>4523.2816000000012</v>
+        <v>4532.4448000000039</v>
       </c>
       <c r="E23" s="6">
-        <v>6456.4087999999974</v>
+        <v>6470.2264000000032</v>
       </c>
       <c r="F23" s="6">
-        <v>45.270906666666669</v>
+        <v>45.47938666666667</v>
       </c>
       <c r="G23" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H23" s="6">
-        <v>45.388026666666669</v>
+        <v>45.540746666666664</v>
       </c>
       <c r="I23" s="6">
-        <v>-64.940146666666664</v>
-      </c>
-      <c r="L23" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M23" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N23" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O23" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P23" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q23" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R23" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S23" s="6" t="str">
-        <v/>
+        <v>-65.170439999999999</v>
+      </c>
+      <c r="L23" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M23" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N23" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O23" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P23" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q23" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R23" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S23" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1503,52 +1489,52 @@
         <v>14</v>
       </c>
       <c r="B24" s="6">
-        <v>4516.7756000000018</v>
+        <v>4530.3268000000053</v>
       </c>
       <c r="C24" s="6">
         <v>6514</v>
       </c>
       <c r="D24" s="6">
-        <v>4523.6634000000013</v>
+        <v>4533.5902000000042</v>
       </c>
       <c r="E24" s="6">
-        <v>6456.9845333333305</v>
+        <v>6471.9536000000035</v>
       </c>
       <c r="F24" s="6">
-        <v>45.279593333333331</v>
+        <v>45.505446666666835</v>
       </c>
       <c r="G24" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H24" s="6">
-        <v>45.394390000000001</v>
+        <v>45.559836666666669</v>
       </c>
       <c r="I24" s="6">
-        <v>-64.94974222222217</v>
-      </c>
-      <c r="L24" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M24" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N24" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O24" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P24" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q24" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R24" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S24" s="6" t="str">
-        <v/>
+        <v>-65.199226666666661</v>
+      </c>
+      <c r="L24" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M24" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N24" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O24" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P24" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q24" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R24" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S24" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,52 +1542,52 @@
         <v>15</v>
       </c>
       <c r="B25" s="6">
-        <v>4517.2968000000019</v>
+        <v>4531.8904000000057</v>
       </c>
       <c r="C25" s="6">
         <v>6514</v>
       </c>
       <c r="D25" s="6">
-        <v>4524.0452000000014</v>
+        <v>4534.7356000000045</v>
       </c>
       <c r="E25" s="6">
-        <v>6457.5602666666637</v>
+        <v>6473.6808000000037</v>
       </c>
       <c r="F25" s="6">
-        <v>45.28828</v>
+        <v>45.531506666666836</v>
       </c>
       <c r="G25" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H25" s="6">
-        <v>45.400753333333334</v>
+        <v>45.578926666666668</v>
       </c>
       <c r="I25" s="6">
-        <v>-64.959337777777662</v>
-      </c>
-      <c r="L25" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M25" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N25" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O25" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P25" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q25" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R25" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S25" s="6" t="str">
-        <v/>
+        <v>-65.228013333333337</v>
+      </c>
+      <c r="L25" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M25" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N25" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O25" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P25" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q25" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R25" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S25" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1609,52 +1595,52 @@
         <v>16</v>
       </c>
       <c r="B26" s="6">
-        <v>4517.818000000002</v>
+        <v>4533.4540000000061</v>
       </c>
       <c r="C26" s="6">
         <v>6514</v>
       </c>
       <c r="D26" s="6">
-        <v>4524.4270000000015</v>
+        <v>4535.8810000000049</v>
       </c>
       <c r="E26" s="6">
-        <v>6458.1359999999968</v>
+        <v>6475.408000000004</v>
       </c>
       <c r="F26" s="6">
-        <v>45.29696666666667</v>
+        <v>45.55756666666683</v>
       </c>
       <c r="G26" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H26" s="6">
-        <v>45.407116666666667</v>
+        <v>45.598016666666666</v>
       </c>
       <c r="I26" s="6">
-        <v>-64.968933333333339</v>
-      </c>
-      <c r="L26" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M26" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N26" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O26" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P26" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q26" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R26" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S26" s="6" t="str">
-        <v/>
+        <v>-65.256799999999998</v>
+      </c>
+      <c r="L26" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M26" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N26" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O26" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P26" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q26" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R26" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S26" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1662,52 +1648,52 @@
         <v>17</v>
       </c>
       <c r="B27" s="6">
-        <v>4518.3392000000022</v>
+        <v>4535.0176000000065</v>
       </c>
       <c r="C27" s="6">
         <v>6514</v>
       </c>
       <c r="D27" s="6">
-        <v>4524.8088000000016</v>
+        <v>4537.0264000000052</v>
       </c>
       <c r="E27" s="6">
-        <v>6458.7117333333299</v>
+        <v>6477.1352000000043</v>
       </c>
       <c r="F27" s="6">
-        <v>45.305653333333332</v>
+        <v>45.583626666666831</v>
       </c>
       <c r="G27" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H27" s="6">
-        <v>45.41348</v>
+        <v>45.617106666666835</v>
       </c>
       <c r="I27" s="6">
-        <v>-64.978528888888832</v>
-      </c>
-      <c r="L27" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M27" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N27" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O27" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P27" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q27" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R27" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S27" s="6" t="str">
-        <v/>
+        <v>-65.28558666666666</v>
+      </c>
+      <c r="L27" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M27" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N27" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O27" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P27" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q27" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R27" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S27" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1715,52 +1701,52 @@
         <v>18</v>
       </c>
       <c r="B28" s="6">
-        <v>4518.8604000000023</v>
+        <v>4536.5812000000069</v>
       </c>
       <c r="C28" s="6">
         <v>6514</v>
       </c>
       <c r="D28" s="6">
-        <v>4525.1906000000017</v>
+        <v>4538.1718000000055</v>
       </c>
       <c r="E28" s="6">
-        <v>6459.287466666663</v>
+        <v>6478.8624000000045</v>
       </c>
       <c r="F28" s="6">
-        <v>45.314340000000001</v>
+        <v>45.609686666666832</v>
       </c>
       <c r="G28" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H28" s="6">
-        <v>45.419843333333333</v>
+        <v>45.636196666666834</v>
       </c>
       <c r="I28" s="6">
-        <v>-64.988124444444338</v>
-      </c>
-      <c r="L28" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M28" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N28" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O28" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P28" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q28" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R28" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S28" s="6" t="str">
-        <v/>
+        <v>-65.314373333333336</v>
+      </c>
+      <c r="L28" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M28" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N28" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O28" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P28" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q28" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R28" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S28" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1791,29 +1777,29 @@
       <c r="I29" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L29" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M29" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N29" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O29" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P29" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q29" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R29" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S29" s="6" t="str">
-        <v/>
+      <c r="L29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S29" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1844,29 +1830,29 @@
       <c r="I30" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L30" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M30" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N30" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O30" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P30" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q30" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R30" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S30" s="6" t="str">
-        <v/>
+      <c r="L30" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M30" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N30" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O30" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P30" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q30" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R30" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S30" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1897,29 +1883,29 @@
       <c r="I31" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L31" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M31" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N31" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O31" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P31" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q31" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R31" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S31" s="6" t="str">
-        <v/>
+      <c r="L31" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M31" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N31" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O31" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P31" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q31" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R31" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S31" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1950,29 +1936,29 @@
       <c r="I32" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L32" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M32" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N32" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O32" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P32" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q32" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R32" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S32" s="6" t="str">
-        <v/>
+      <c r="L32" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M32" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N32" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O32" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P32" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q32" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R32" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S32" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2003,29 +1989,29 @@
       <c r="I33" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L33" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M33" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N33" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O33" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P33" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q33" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R33" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S33" s="6" t="str">
-        <v/>
+      <c r="L33" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M33" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N33" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O33" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P33" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q33" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R33" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S33" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2056,29 +2042,29 @@
       <c r="I34" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L34" s="6" t="str">
-        <v/>
-      </c>
-      <c r="M34" s="6" t="str">
-        <v/>
-      </c>
-      <c r="N34" s="6" t="str">
-        <v/>
-      </c>
-      <c r="O34" s="6" t="str">
-        <v/>
-      </c>
-      <c r="P34" s="6" t="str">
-        <v/>
-      </c>
-      <c r="Q34" s="6" t="str">
-        <v/>
-      </c>
-      <c r="R34" s="6" t="str">
-        <v/>
-      </c>
-      <c r="S34" s="6" t="str">
-        <v/>
+      <c r="L34" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M34" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N34" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O34" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P34" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q34" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R34" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S34" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3068,7 +3054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3077,360 +3065,260 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="6">
-        <v>45.071899999999999</v>
-      </c>
-      <c r="C2" s="6">
-        <v>-65.233333329999994</v>
-      </c>
-      <c r="D2" s="6">
-        <v>45.242249999999999</v>
-      </c>
-      <c r="E2" s="6">
-        <v>-64.720316670000003</v>
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>45.166666666666664</v>
+      </c>
+      <c r="C2">
+        <v>-65.233333333333334</v>
+      </c>
+      <c r="D2">
+        <v>45.311666666666667</v>
+      </c>
+      <c r="E2">
+        <v>-64.825000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6">
-        <v>45.14298333</v>
-      </c>
-      <c r="C3" s="6">
-        <v>-65.233333329999994</v>
-      </c>
-      <c r="D3" s="6">
-        <v>45.294316670000001</v>
-      </c>
-      <c r="E3" s="6">
-        <v>-64.798833329999994</v>
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>45.218786666666666</v>
+      </c>
+      <c r="C3">
+        <v>-65.233333333333334</v>
+      </c>
+      <c r="D3">
+        <v>45.349846666666664</v>
+      </c>
+      <c r="E3">
+        <v>-64.88257333333334</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="6">
-        <v>45.048216670000002</v>
-      </c>
-      <c r="C4" s="6">
-        <v>-65.233333329999994</v>
-      </c>
-      <c r="D4" s="6">
-        <v>45.224899999999998</v>
-      </c>
-      <c r="E4" s="6">
-        <v>-64.694149999999993</v>
+      <c r="A4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>45.270906666666669</v>
+      </c>
+      <c r="C4">
+        <v>-65.233333333333334</v>
+      </c>
+      <c r="D4">
+        <v>45.388026666666669</v>
+      </c>
+      <c r="E4">
+        <v>-64.940146666666664</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6">
-        <v>45.119283330000002</v>
-      </c>
-      <c r="C5" s="6">
-        <v>-65.233333329999994</v>
-      </c>
-      <c r="D5" s="6">
-        <v>45.276949999999999</v>
-      </c>
-      <c r="E5" s="6">
-        <v>-64.772666670000007</v>
+      <c r="A5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>45.192726666666665</v>
+      </c>
+      <c r="C5">
+        <v>-65.233333333333334</v>
+      </c>
+      <c r="D5">
+        <v>45.330756666666666</v>
+      </c>
+      <c r="E5">
+        <v>-64.853786666666664</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="6">
-        <v>45.060049999999997</v>
-      </c>
-      <c r="C6" s="6">
-        <v>-65.233333329999994</v>
-      </c>
-      <c r="D6" s="6">
-        <v>45.233566670000002</v>
-      </c>
-      <c r="E6" s="6">
-        <v>-64.707233329999994</v>
+      <c r="A6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>45.244846666666668</v>
+      </c>
+      <c r="C6">
+        <v>-65.233333333333334</v>
+      </c>
+      <c r="D6">
+        <v>45.36893666666667</v>
+      </c>
+      <c r="E6">
+        <v>-64.911360000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6">
-        <v>45.131133329999997</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-65.233333329999994</v>
-      </c>
-      <c r="D7" s="6">
-        <v>45.285633330000003</v>
-      </c>
-      <c r="E7" s="6">
-        <v>-64.785749999999993</v>
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>45.29696666666667</v>
+      </c>
+      <c r="C7">
+        <v>-65.233333333333334</v>
+      </c>
+      <c r="D7">
+        <v>45.407116666666667</v>
+      </c>
+      <c r="E7">
+        <v>-64.968933333333339</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
+      <c r="A8" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="6">
-        <v>45.095599999999997</v>
+        <v>45.268666666666668</v>
       </c>
       <c r="C8" s="6">
-        <v>-65.233333329999994</v>
+        <v>-64.757166666666663</v>
       </c>
       <c r="D8" s="6">
-        <v>45.259599999999999</v>
+        <v>45.328333333333333</v>
       </c>
       <c r="E8" s="6">
-        <v>-64.746483330000004</v>
+        <v>-64.55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
+      <c r="A9" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="6">
-        <v>45.166666669999998</v>
+        <v>45.283361111111169</v>
       </c>
       <c r="C9" s="6">
-        <v>-65.233333329999994</v>
+        <v>-64.779111111111163</v>
       </c>
       <c r="D9" s="6">
-        <v>45.311666670000001</v>
+        <v>45.349861111111167</v>
       </c>
       <c r="E9" s="6">
-        <v>-64.825000000000003</v>
+        <v>-64.55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>24</v>
+      <c r="A10" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="6">
-        <v>45.224583330000002</v>
+        <v>45.2980555555555</v>
       </c>
       <c r="C10" s="6">
-        <v>-64.691333330000006</v>
+        <v>-64.801055555555493</v>
       </c>
       <c r="D10" s="6">
-        <v>45.263750000000002</v>
+        <v>45.371388888888831</v>
       </c>
       <c r="E10" s="6">
         <v>-64.55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>24</v>
+      <c r="A11" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B11" s="6">
-        <v>45.239283329999999</v>
+        <v>45.312750000000001</v>
       </c>
       <c r="C11" s="6">
-        <v>-64.713283329999996</v>
+        <v>-64.822999999999993</v>
       </c>
       <c r="D11" s="6">
-        <v>45.285283329999999</v>
+        <v>45.392916666666665</v>
       </c>
       <c r="E11" s="6">
         <v>-64.55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="6">
-        <v>45.253966669999997</v>
-      </c>
-      <c r="C12" s="6">
-        <v>-64.73521667</v>
-      </c>
-      <c r="D12" s="6">
-        <v>45.306800000000003</v>
-      </c>
-      <c r="E12" s="6">
-        <v>-64.55</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6">
-        <v>45.268666670000002</v>
-      </c>
-      <c r="C13" s="6">
-        <v>-64.757166670000004</v>
-      </c>
-      <c r="D13" s="6">
-        <v>45.32833333</v>
-      </c>
-      <c r="E13" s="6">
-        <v>-64.55</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="6">
-        <v>45.083750000000002</v>
-      </c>
-      <c r="C14" s="6">
-        <v>-65.233333329999994</v>
-      </c>
-      <c r="D14" s="6">
-        <v>45.250933330000002</v>
-      </c>
-      <c r="E14" s="6">
-        <v>-64.733400000000003</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="6">
-        <v>45.154816670000002</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-65.233333329999994</v>
-      </c>
-      <c r="D15" s="6">
-        <v>45.302983330000004</v>
-      </c>
-      <c r="E15" s="6">
-        <v>-64.811916670000002</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="6">
-        <v>45.25</v>
-      </c>
-      <c r="C16" s="6">
-        <v>-65.05</v>
-      </c>
-      <c r="D16" s="6">
-        <v>45.316666669999996</v>
-      </c>
-      <c r="E16" s="6">
-        <v>-64.833333330000002</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="6">
-        <v>45.26305</v>
-      </c>
-      <c r="C17" s="6">
-        <v>-65.05</v>
-      </c>
-      <c r="D17" s="6">
-        <v>45.324449999999999</v>
-      </c>
-      <c r="E17" s="6">
-        <v>-64.849999999999994</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="6">
-        <v>45.27611667</v>
-      </c>
-      <c r="C18" s="6">
-        <v>-65.05</v>
-      </c>
-      <c r="D18" s="6">
-        <v>45.332216670000001</v>
-      </c>
-      <c r="E18" s="6">
-        <v>-64.866666670000001</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="6">
-        <v>45.28916667</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-65.05</v>
-      </c>
-      <c r="D19" s="6">
-        <v>45.34</v>
-      </c>
-      <c r="E19" s="6">
-        <v>-64.883333329999999</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="6">
-        <v>45.03636667</v>
-      </c>
-      <c r="C20" s="6">
-        <v>-65.233333329999994</v>
-      </c>
-      <c r="D20" s="6">
-        <v>45.216216670000001</v>
-      </c>
-      <c r="E20" s="6">
-        <v>-64.681066670000007</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="6">
-        <v>45.107433329999999</v>
-      </c>
-      <c r="C21" s="6">
-        <v>-65.233333329999994</v>
-      </c>
-      <c r="D21" s="6">
-        <v>45.268283330000003</v>
-      </c>
-      <c r="E21" s="6">
-        <v>-64.759583329999998</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4421,7 +4309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4430,24 +4320,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B2" s="6">
         <v>4510</v>
@@ -4464,41 +4354,41 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6">
-        <v>4510.5212000000001</v>
+        <v>4513.1272000000008</v>
       </c>
       <c r="C3" s="6">
         <v>6514</v>
       </c>
       <c r="D3" s="6">
-        <v>4519.0817999999999</v>
+        <v>4520.9908000000005</v>
       </c>
       <c r="E3" s="6">
-        <v>6450.0757333333331</v>
+        <v>6452.9544000000005</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>21</v>
+      <c r="A4" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B4" s="6">
-        <v>4511.0424000000003</v>
+        <v>4516.2544000000016</v>
       </c>
       <c r="C4" s="6">
         <v>6514</v>
       </c>
       <c r="D4" s="6">
-        <v>4519.4636</v>
+        <v>4523.2816000000012</v>
       </c>
       <c r="E4" s="6">
-        <v>6450.6514666666662</v>
+        <v>6456.4088000000011</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
+      <c r="A5" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="6">
         <v>4511.5636000000004</v>
@@ -4510,280 +4400,180 @@
         <v>4519.8454000000002</v>
       </c>
       <c r="E5" s="6">
-        <v>6451.2271999999994</v>
+        <v>6451.2272000000003</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
+      <c r="A6" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B6" s="6">
-        <v>4512.0848000000005</v>
+        <v>4514.6908000000012</v>
       </c>
       <c r="C6" s="6">
         <v>6514</v>
       </c>
       <c r="D6" s="6">
-        <v>4520.2272000000003</v>
+        <v>4522.1362000000008</v>
       </c>
       <c r="E6" s="6">
-        <v>6451.8029333333325</v>
+        <v>6454.6816000000008</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>22</v>
+      <c r="A7" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="6">
-        <v>4512.6060000000007</v>
+        <v>4517.818000000002</v>
       </c>
       <c r="C7" s="6">
         <v>6514</v>
       </c>
       <c r="D7" s="6">
-        <v>4520.6090000000004</v>
+        <v>4524.4270000000015</v>
       </c>
       <c r="E7" s="6">
-        <v>6452.3786666666656</v>
+        <v>6458.1360000000013</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
+      <c r="A8" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="6">
-        <v>4513.1272000000008</v>
+        <v>4516.12</v>
       </c>
       <c r="C8" s="6">
-        <v>6514</v>
+        <v>6445.43</v>
       </c>
       <c r="D8" s="6">
-        <v>4520.9908000000005</v>
+        <v>4519.7</v>
       </c>
       <c r="E8" s="6">
-        <v>6452.9543999999987</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
+      <c r="A9" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="6">
-        <v>4513.6484000000009</v>
+        <v>4517.0016666666661</v>
       </c>
       <c r="C9" s="6">
-        <v>6514</v>
+        <v>6446.7466666666669</v>
       </c>
       <c r="D9" s="6">
-        <v>4521.3726000000006</v>
+        <v>4520.9916666666668</v>
       </c>
       <c r="E9" s="6">
-        <v>6453.5301333333318</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>24</v>
+      <c r="A10" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="6">
-        <v>4516.12</v>
+        <v>4517.8833333333323</v>
       </c>
       <c r="C10" s="6">
-        <v>6445.43</v>
+        <v>6448.0633333333335</v>
       </c>
       <c r="D10" s="6">
-        <v>4519.7</v>
+        <v>4522.2833333333338</v>
       </c>
       <c r="E10" s="6">
         <v>6433</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>24</v>
+      <c r="A11" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B11" s="6">
-        <v>4517.0016666666661</v>
+        <v>4518.7649999999985</v>
       </c>
       <c r="C11" s="6">
-        <v>6446.7466666666669</v>
+        <v>6449.38</v>
       </c>
       <c r="D11" s="6">
-        <v>4520.9916666666668</v>
+        <v>4523.5750000000007</v>
       </c>
       <c r="E11" s="6">
         <v>6433</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="6">
-        <v>4517.8833333333323</v>
-      </c>
-      <c r="C12" s="6">
-        <v>6448.0633333333335</v>
-      </c>
-      <c r="D12" s="6">
-        <v>4522.2833333333338</v>
-      </c>
-      <c r="E12" s="6">
-        <v>6433</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6">
-        <v>4518.7649999999985</v>
-      </c>
-      <c r="C13" s="6">
-        <v>6449.38</v>
-      </c>
-      <c r="D13" s="6">
-        <v>4523.5750000000007</v>
-      </c>
-      <c r="E13" s="6">
-        <v>6433</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="6">
-        <v>4514.1696000000011</v>
-      </c>
-      <c r="C14" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D14" s="6">
-        <v>4521.7544000000007</v>
-      </c>
-      <c r="E14" s="6">
-        <v>6454.105866666665</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="6">
-        <v>4514.6908000000012</v>
-      </c>
-      <c r="C15" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D15" s="6">
-        <v>4522.1362000000008</v>
-      </c>
-      <c r="E15" s="6">
-        <v>6454.6815999999981</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="6">
-        <v>4517.3500000000004</v>
-      </c>
-      <c r="C16" s="6">
-        <v>6503</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4520.3999999999996</v>
-      </c>
-      <c r="E16" s="6">
-        <v>6453</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="6">
-        <v>4518.1333333333341</v>
-      </c>
-      <c r="C17" s="6">
-        <v>6503</v>
-      </c>
-      <c r="D17" s="6">
-        <v>4520.8666666666659</v>
-      </c>
-      <c r="E17" s="6">
-        <v>6452</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="6">
-        <v>4518.9166666666679</v>
-      </c>
-      <c r="C18" s="6">
-        <v>6503</v>
-      </c>
-      <c r="D18" s="6">
-        <v>4521.3333333333321</v>
-      </c>
-      <c r="E18" s="6">
-        <v>6453</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="6">
-        <v>4519.7000000000016</v>
-      </c>
-      <c r="C19" s="6">
-        <v>6503</v>
-      </c>
-      <c r="D19" s="6">
-        <v>4521.7999999999984</v>
-      </c>
-      <c r="E19" s="6">
-        <v>6454</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="6">
-        <v>4515.2120000000014</v>
-      </c>
-      <c r="C20" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D20" s="6">
-        <v>4522.5180000000009</v>
-      </c>
-      <c r="E20" s="6">
-        <v>6455.2573333333312</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="6">
-        <v>4515.7332000000015</v>
-      </c>
-      <c r="C21" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D21" s="6">
-        <v>4522.8998000000011</v>
-      </c>
-      <c r="E21" s="6">
-        <v>6455.8330666666643</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5789,33 +5579,33 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6">
         <v>4334</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="L2" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="V2" s="6">
         <v>4510</v>
@@ -5827,7 +5617,7 @@
         <v>6449.5</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AF2" s="6">
         <v>4516.12</v>
@@ -5841,30 +5631,30 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <v>6614.4</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L3" s="6">
         <v>6607.5</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="V3" s="8">
         <f>B4</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X3" s="6">
         <f t="shared" ref="X3:X4" si="0">V3</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AF3" s="6">
         <v>1</v>
@@ -5884,11 +5674,11 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B4" s="8">
         <f>'Data Entry'!B1</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -5899,11 +5689,11 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L4" s="8">
         <f>B4</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -5911,22 +5701,22 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="U4" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="V4" s="6">
         <f>V3*2</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="X4" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="Y4" s="6">
         <f>X4</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AF4" s="6">
         <f t="shared" ref="AF4:AI4" si="1">AF3*4</f>
@@ -5947,11 +5737,11 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6">
         <f>B4*2</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -5959,35 +5749,35 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L5" s="6">
         <f>(L31-L3)/(L4-1)</f>
-        <v>0.900000000000026</v>
+        <v>3.1500000000000909</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="V5" s="6">
         <f>(V2-V25)/(V4-1)</f>
-        <v>0.5212000000000141</v>
+        <v>1.5636000000000423</v>
       </c>
       <c r="X5" s="6">
         <f t="shared" ref="X5:Y5" si="2">(X2-X25)/(X4-1)</f>
-        <v>0.38179999999999076</v>
+        <v>1.1453999999999724</v>
       </c>
       <c r="Y5" s="6">
         <f t="shared" si="2"/>
-        <v>0.57573333333336152</v>
+        <v>1.7272000000000844</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AF5" s="6">
         <f t="shared" ref="AF5:AH5" si="3">(AF2-AF11)/(AF4-1)</f>
@@ -6002,75 +5792,75 @@
         <v>1.2916666666666667</v>
       </c>
       <c r="AJ5" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6">
         <f>(B32-B3)/(B5-1)</f>
-        <v>1.0133333333333818</v>
+        <v>3.0400000000001457</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ6" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K7" s="6">
         <v>1</v>
@@ -6217,14 +6007,14 @@
       </c>
       <c r="M8" s="6">
         <f>M7+L5</f>
-        <v>6608.4</v>
+        <v>6610.65</v>
       </c>
       <c r="N8" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="4"/>
-        <v>6608.4</v>
+        <v>6610.65</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="5"/>
@@ -6232,7 +6022,7 @@
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="6"/>
-        <v>-66.14</v>
+        <v>-66.177499999999995</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" ref="R8:S8" si="23">P8</f>
@@ -6240,7 +6030,7 @@
       </c>
       <c r="S8" s="6">
         <f t="shared" si="23"/>
-        <v>-66.14</v>
+        <v>-66.177499999999995</v>
       </c>
       <c r="U8" s="6">
         <f t="shared" ref="U8:U24" si="24">U7+1</f>
@@ -6248,22 +6038,22 @@
       </c>
       <c r="V8" s="6">
         <f>V7+$V5</f>
-        <v>4510.5212000000001</v>
+        <v>4511.5636000000004</v>
       </c>
       <c r="W8" s="6">
         <v>6514</v>
       </c>
       <c r="X8" s="6">
         <f t="shared" ref="X8:Y8" si="25">X7+X5</f>
-        <v>4519.0817999999999</v>
+        <v>4519.8454000000002</v>
       </c>
       <c r="Y8" s="6">
         <f t="shared" si="25"/>
-        <v>6450.0757333333331</v>
+        <v>6451.2272000000003</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="9"/>
-        <v>45.175353333333334</v>
+        <v>45.192726666666665</v>
       </c>
       <c r="AA8" s="6">
         <f t="shared" si="10"/>
@@ -6271,11 +6061,11 @@
       </c>
       <c r="AB8" s="6">
         <f t="shared" si="11"/>
-        <v>45.31803</v>
+        <v>45.330756666666666</v>
       </c>
       <c r="AC8" s="6">
         <f t="shared" si="12"/>
-        <v>-64.834595555555495</v>
+        <v>-64.853786666666664</v>
       </c>
       <c r="AE8" s="6">
         <v>2</v>
@@ -6322,14 +6112,14 @@
       </c>
       <c r="C9" s="6">
         <f>C8+B6</f>
-        <v>6615.413333333333</v>
+        <v>6617.44</v>
       </c>
       <c r="D9" s="6">
         <v>4314</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="18"/>
-        <v>6615.413333333333</v>
+        <v>6617.44</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="19"/>
@@ -6337,7 +6127,7 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="20"/>
-        <v>-66.256888888888838</v>
+        <v>-66.290666666666667</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ref="H9:I9" si="28">F9</f>
@@ -6345,7 +6135,7 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" si="28"/>
-        <v>-66.256888888888838</v>
+        <v>-66.290666666666667</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="22"/>
@@ -6356,14 +6146,14 @@
       </c>
       <c r="M9" s="6">
         <f>M8+L5</f>
-        <v>6609.2999999999993</v>
+        <v>6613.7999999999993</v>
       </c>
       <c r="N9" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="4"/>
-        <v>6609.2999999999993</v>
+        <v>6613.7999999999993</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="5"/>
@@ -6371,7 +6161,7 @@
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="6"/>
-        <v>-66.155000000000001</v>
+        <v>-66.23</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" ref="R9:S9" si="29">P9</f>
@@ -6379,7 +6169,7 @@
       </c>
       <c r="S9" s="6">
         <f t="shared" si="29"/>
-        <v>-66.155000000000001</v>
+        <v>-66.23</v>
       </c>
       <c r="U9" s="6">
         <f t="shared" si="24"/>
@@ -6387,22 +6177,22 @@
       </c>
       <c r="V9" s="6">
         <f>V8+$V5</f>
-        <v>4511.0424000000003</v>
+        <v>4513.1272000000008</v>
       </c>
       <c r="W9" s="6">
         <v>6514</v>
       </c>
       <c r="X9" s="6">
         <f t="shared" ref="X9:Y9" si="30">X8+X5</f>
-        <v>4519.4636</v>
+        <v>4520.9908000000005</v>
       </c>
       <c r="Y9" s="6">
         <f t="shared" si="30"/>
-        <v>6450.6514666666662</v>
+        <v>6452.9544000000005</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="9"/>
-        <v>45.184040000000003</v>
+        <v>45.218786666666666</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" si="10"/>
@@ -6410,11 +6200,11 @@
       </c>
       <c r="AB9" s="6">
         <f t="shared" si="11"/>
-        <v>45.324393333333333</v>
+        <v>45.349846666666664</v>
       </c>
       <c r="AC9" s="6">
         <f t="shared" si="12"/>
-        <v>-64.844191111111172</v>
+        <v>-64.88257333333334</v>
       </c>
       <c r="AE9" s="6">
         <v>3</v>
@@ -6461,14 +6251,14 @@
       </c>
       <c r="C10" s="6">
         <f>C9+B6</f>
-        <v>6616.4266666666663</v>
+        <v>6620.48</v>
       </c>
       <c r="D10" s="6">
         <v>4314</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="18"/>
-        <v>6616.4266666666663</v>
+        <v>6620.48</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="19"/>
@@ -6476,7 +6266,7 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="20"/>
-        <v>-66.273777777777838</v>
+        <v>-66.341333333333338</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ref="H10:I10" si="32">F10</f>
@@ -6484,7 +6274,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" si="32"/>
-        <v>-66.273777777777838</v>
+        <v>-66.341333333333338</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="22"/>
@@ -6495,14 +6285,14 @@
       </c>
       <c r="M10" s="6">
         <f>M9+L5</f>
-        <v>6610.1999999999989</v>
+        <v>6616.9499999999989</v>
       </c>
       <c r="N10" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="4"/>
-        <v>6610.1999999999989</v>
+        <v>6616.9499999999989</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="5"/>
@@ -6510,7 +6300,7 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="6"/>
-        <v>-66.17</v>
+        <v>-66.282499999999999</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" ref="R10:S10" si="33">P10</f>
@@ -6518,7 +6308,7 @@
       </c>
       <c r="S10" s="6">
         <f t="shared" si="33"/>
-        <v>-66.17</v>
+        <v>-66.282499999999999</v>
       </c>
       <c r="U10" s="6">
         <f t="shared" si="24"/>
@@ -6526,22 +6316,22 @@
       </c>
       <c r="V10" s="6">
         <f>V9+$V5</f>
-        <v>4511.5636000000004</v>
+        <v>4514.6908000000012</v>
       </c>
       <c r="W10" s="6">
         <v>6514</v>
       </c>
       <c r="X10" s="6">
         <f t="shared" ref="X10:Y10" si="34">X9+X5</f>
-        <v>4519.8454000000002</v>
+        <v>4522.1362000000008</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" si="34"/>
-        <v>6451.2271999999994</v>
+        <v>6454.6816000000008</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="9"/>
-        <v>45.192726666666665</v>
+        <v>45.244846666666668</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="10"/>
@@ -6549,11 +6339,11 @@
       </c>
       <c r="AB10" s="6">
         <f t="shared" si="11"/>
-        <v>45.330756666666666</v>
+        <v>45.36893666666667</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" si="12"/>
-        <v>-64.853786666666664</v>
+        <v>-64.911360000000002</v>
       </c>
       <c r="AE10" s="6">
         <v>4</v>
@@ -6600,14 +6390,14 @@
       </c>
       <c r="C11" s="6">
         <f>C10+B6</f>
-        <v>6617.44</v>
+        <v>6623.5199999999995</v>
       </c>
       <c r="D11" s="6">
         <v>4314</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="18"/>
-        <v>6617.44</v>
+        <v>6623.5199999999995</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="19"/>
@@ -6615,7 +6405,7 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="20"/>
-        <v>-66.290666666666667</v>
+        <v>-66.391999999999996</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ref="H11:I11" si="36">F11</f>
@@ -6623,7 +6413,7 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" si="36"/>
-        <v>-66.290666666666667</v>
+        <v>-66.391999999999996</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="22"/>
@@ -6634,14 +6424,14 @@
       </c>
       <c r="M11" s="6">
         <f>M10+L5</f>
-        <v>6611.0999999999985</v>
+        <v>6620.0999999999985</v>
       </c>
       <c r="N11" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="4"/>
-        <v>6611.0999999999985</v>
+        <v>6620.0999999999985</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="5"/>
@@ -6649,7 +6439,7 @@
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="6"/>
-        <v>-66.185000000000002</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" ref="R11:S11" si="37">P11</f>
@@ -6657,7 +6447,7 @@
       </c>
       <c r="S11" s="6">
         <f t="shared" si="37"/>
-        <v>-66.185000000000002</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="U11" s="6">
         <f t="shared" si="24"/>
@@ -6665,22 +6455,22 @@
       </c>
       <c r="V11" s="6">
         <f>V10+$V5</f>
-        <v>4512.0848000000005</v>
+        <v>4516.2544000000016</v>
       </c>
       <c r="W11" s="6">
         <v>6514</v>
       </c>
       <c r="X11" s="6">
         <f t="shared" ref="X11:Y11" si="38">X10+X5</f>
-        <v>4520.2272000000003</v>
+        <v>4523.2816000000012</v>
       </c>
       <c r="Y11" s="6">
         <f t="shared" si="38"/>
-        <v>6451.8029333333325</v>
+        <v>6456.4088000000011</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" si="9"/>
-        <v>45.201413333333335</v>
+        <v>45.270906666666669</v>
       </c>
       <c r="AA11" s="6">
         <f t="shared" si="10"/>
@@ -6688,14 +6478,14 @@
       </c>
       <c r="AB11" s="6">
         <f t="shared" si="11"/>
-        <v>45.337119999999999</v>
+        <v>45.388026666666669</v>
       </c>
       <c r="AC11" s="6">
         <f t="shared" si="12"/>
-        <v>-64.863382222222171</v>
+        <v>-64.940146666666664</v>
       </c>
       <c r="AE11" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AF11" s="6">
         <v>4513.4750000000004</v>
@@ -6720,14 +6510,14 @@
       </c>
       <c r="C12" s="6">
         <f>C11+B6</f>
-        <v>6618.4533333333329</v>
+        <v>6626.5599999999995</v>
       </c>
       <c r="D12" s="6">
         <v>4314</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="18"/>
-        <v>6618.4533333333329</v>
+        <v>6626.5599999999995</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="19"/>
@@ -6735,7 +6525,7 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="20"/>
-        <v>-66.307555555555496</v>
+        <v>-66.442666666666668</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ref="H12:I12" si="39">F12</f>
@@ -6743,7 +6533,7 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" si="39"/>
-        <v>-66.307555555555496</v>
+        <v>-66.442666666666668</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="22"/>
@@ -6754,14 +6544,14 @@
       </c>
       <c r="M12" s="6">
         <f>M11+L5</f>
-        <v>6611.9999999999982</v>
+        <v>6623.2499999999982</v>
       </c>
       <c r="N12" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="4"/>
-        <v>6611.9999999999982</v>
+        <v>6623.2499999999982</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="5"/>
@@ -6769,7 +6559,7 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="6"/>
-        <v>-66.2</v>
+        <v>-66.387500000000003</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" ref="R12:S12" si="40">P12</f>
@@ -6777,7 +6567,7 @@
       </c>
       <c r="S12" s="6">
         <f t="shared" si="40"/>
-        <v>-66.2</v>
+        <v>-66.387500000000003</v>
       </c>
       <c r="U12" s="6">
         <f t="shared" si="24"/>
@@ -6785,22 +6575,22 @@
       </c>
       <c r="V12" s="6">
         <f>V11+$V5</f>
-        <v>4512.6060000000007</v>
+        <v>4517.818000000002</v>
       </c>
       <c r="W12" s="6">
         <v>6514</v>
       </c>
       <c r="X12" s="6">
         <f t="shared" ref="X12:Y12" si="41">X11+X5</f>
-        <v>4520.6090000000004</v>
+        <v>4524.4270000000015</v>
       </c>
       <c r="Y12" s="6">
         <f t="shared" si="41"/>
-        <v>6452.3786666666656</v>
+        <v>6458.1360000000013</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" si="9"/>
-        <v>45.210099999999997</v>
+        <v>45.29696666666667</v>
       </c>
       <c r="AA12" s="6">
         <f t="shared" si="10"/>
@@ -6808,11 +6598,11 @@
       </c>
       <c r="AB12" s="6">
         <f t="shared" si="11"/>
-        <v>45.343483333333332</v>
+        <v>45.407116666666667</v>
       </c>
       <c r="AC12" s="6">
         <f t="shared" si="12"/>
-        <v>-64.872977777777834</v>
+        <v>-64.968933333333339</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -6825,14 +6615,14 @@
       </c>
       <c r="C13" s="6">
         <f>C12+B6</f>
-        <v>6619.4666666666662</v>
+        <v>6629.5999999999995</v>
       </c>
       <c r="D13" s="6">
         <v>4314</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="18"/>
-        <v>6619.4666666666662</v>
+        <v>6629.5999999999995</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="19"/>
@@ -6840,7 +6630,7 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="20"/>
-        <v>-66.324444444444495</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ref="H13:I13" si="42">F13</f>
@@ -6848,7 +6638,7 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" si="42"/>
-        <v>-66.324444444444495</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="22"/>
@@ -6859,14 +6649,14 @@
       </c>
       <c r="M13" s="6">
         <f>M12+L5</f>
-        <v>6612.8999999999978</v>
+        <v>6626.3999999999978</v>
       </c>
       <c r="N13" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="4"/>
-        <v>6612.8999999999978</v>
+        <v>6626.3999999999978</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="5"/>
@@ -6874,7 +6664,7 @@
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="6"/>
-        <v>-66.215000000000003</v>
+        <v>-66.44</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" ref="R13:S13" si="43">P13</f>
@@ -6882,7 +6672,7 @@
       </c>
       <c r="S13" s="6">
         <f t="shared" si="43"/>
-        <v>-66.215000000000003</v>
+        <v>-66.44</v>
       </c>
       <c r="U13" s="6">
         <f t="shared" si="24"/>
@@ -6890,22 +6680,22 @@
       </c>
       <c r="V13" s="6">
         <f>V12+$V5</f>
-        <v>4513.1272000000008</v>
+        <v>4519.3816000000024</v>
       </c>
       <c r="W13" s="6">
         <v>6514</v>
       </c>
       <c r="X13" s="6">
         <f t="shared" ref="X13:Y13" si="44">X12+X5</f>
-        <v>4520.9908000000005</v>
+        <v>4525.5724000000018</v>
       </c>
       <c r="Y13" s="6">
         <f t="shared" si="44"/>
-        <v>6452.9543999999987</v>
+        <v>6459.8632000000016</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="9"/>
-        <v>45.218786666666666</v>
+        <v>45.323026666666664</v>
       </c>
       <c r="AA13" s="6">
         <f t="shared" si="10"/>
@@ -6913,14 +6703,14 @@
       </c>
       <c r="AB13" s="6">
         <f t="shared" si="11"/>
-        <v>45.349846666666664</v>
+        <v>45.426206666666666</v>
       </c>
       <c r="AC13" s="6">
         <f t="shared" si="12"/>
-        <v>-64.88257333333334</v>
+        <v>-64.997720000000001</v>
       </c>
       <c r="AE13" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
@@ -6933,14 +6723,14 @@
       </c>
       <c r="C14" s="6">
         <f>C13+B6</f>
-        <v>6620.48</v>
+        <v>6632.6399999999994</v>
       </c>
       <c r="D14" s="6">
         <v>4314</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="18"/>
-        <v>6620.48</v>
+        <v>6632.6399999999994</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="19"/>
@@ -6948,7 +6738,7 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="20"/>
-        <v>-66.341333333333338</v>
+        <v>-66.543999999999997</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ref="H14:I14" si="45">F14</f>
@@ -6956,7 +6746,7 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" si="45"/>
-        <v>-66.341333333333338</v>
+        <v>-66.543999999999997</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="22"/>
@@ -6967,14 +6757,14 @@
       </c>
       <c r="M14" s="6">
         <f>M13+L5</f>
-        <v>6613.7999999999975</v>
+        <v>6629.5499999999975</v>
       </c>
       <c r="N14" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="4"/>
-        <v>6613.7999999999975</v>
+        <v>6629.5499999999975</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="5"/>
@@ -6982,7 +6772,7 @@
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="6"/>
-        <v>-66.23</v>
+        <v>-66.492500000000007</v>
       </c>
       <c r="R14" s="6">
         <f t="shared" ref="R14:S14" si="46">P14</f>
@@ -6990,7 +6780,7 @@
       </c>
       <c r="S14" s="6">
         <f t="shared" si="46"/>
-        <v>-66.23</v>
+        <v>-66.492500000000007</v>
       </c>
       <c r="U14" s="6">
         <f t="shared" si="24"/>
@@ -6998,22 +6788,22 @@
       </c>
       <c r="V14" s="6">
         <f>V13+$V5</f>
-        <v>4513.6484000000009</v>
+        <v>4520.9452000000028</v>
       </c>
       <c r="W14" s="6">
         <v>6514</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" ref="X14:Y14" si="47">X13+X5</f>
-        <v>4521.3726000000006</v>
+        <v>4526.7178000000022</v>
       </c>
       <c r="Y14" s="6">
         <f t="shared" si="47"/>
-        <v>6453.5301333333318</v>
+        <v>6461.5904000000019</v>
       </c>
       <c r="Z14" s="6">
         <f t="shared" si="9"/>
-        <v>45.227473333333336</v>
+        <v>45.349086666666665</v>
       </c>
       <c r="AA14" s="6">
         <f t="shared" si="10"/>
@@ -7021,14 +6811,14 @@
       </c>
       <c r="AB14" s="6">
         <f t="shared" si="11"/>
-        <v>45.356209999999997</v>
+        <v>45.445296666666664</v>
       </c>
       <c r="AC14" s="6">
         <f t="shared" si="12"/>
-        <v>-64.892168888888833</v>
+        <v>-65.026506666666663</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AF14" s="6">
         <v>4517.3500000000004</v>
@@ -7050,14 +6840,14 @@
       </c>
       <c r="C15" s="6">
         <f>C14+B6</f>
-        <v>6621.4933333333329</v>
+        <v>6635.6799999999994</v>
       </c>
       <c r="D15" s="6">
         <v>4314</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="18"/>
-        <v>6621.4933333333329</v>
+        <v>6635.6799999999994</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="19"/>
@@ -7065,7 +6855,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="20"/>
-        <v>-66.358222222222167</v>
+        <v>-66.594666666666669</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ref="H15:I15" si="48">F15</f>
@@ -7073,7 +6863,7 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" si="48"/>
-        <v>-66.358222222222167</v>
+        <v>-66.594666666666669</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="22"/>
@@ -7084,14 +6874,14 @@
       </c>
       <c r="M15" s="6">
         <f>M14+L5</f>
-        <v>6614.6999999999971</v>
+        <v>6632.6999999999971</v>
       </c>
       <c r="N15" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="4"/>
-        <v>6614.6999999999971</v>
+        <v>6632.6999999999971</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="5"/>
@@ -7099,7 +6889,7 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="6"/>
-        <v>-66.245000000000005</v>
+        <v>-66.545000000000002</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" ref="R15:S15" si="49">P15</f>
@@ -7107,7 +6897,7 @@
       </c>
       <c r="S15" s="6">
         <f t="shared" si="49"/>
-        <v>-66.245000000000005</v>
+        <v>-66.545000000000002</v>
       </c>
       <c r="U15" s="6">
         <f t="shared" si="24"/>
@@ -7115,22 +6905,22 @@
       </c>
       <c r="V15" s="6">
         <f>V14+$V5</f>
-        <v>4514.1696000000011</v>
+        <v>4522.5088000000032</v>
       </c>
       <c r="W15" s="6">
         <v>6514</v>
       </c>
       <c r="X15" s="6">
         <f t="shared" ref="X15:Y15" si="50">X14+X5</f>
-        <v>4521.7544000000007</v>
+        <v>4527.8632000000025</v>
       </c>
       <c r="Y15" s="6">
         <f t="shared" si="50"/>
-        <v>6454.105866666665</v>
+        <v>6463.3176000000021</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" si="9"/>
-        <v>45.236159999999998</v>
+        <v>45.375146666666666</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="10"/>
@@ -7138,14 +6928,14 @@
       </c>
       <c r="AB15" s="6">
         <f t="shared" si="11"/>
-        <v>45.36257333333333</v>
+        <v>45.46438666666667</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" si="12"/>
-        <v>-64.901764444444339</v>
+        <v>-65.055293333333339</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AF15" s="6">
         <v>1</v>
@@ -7169,14 +6959,14 @@
       </c>
       <c r="C16" s="6">
         <f>C15+B6</f>
-        <v>6622.5066666666662</v>
+        <v>6638.7199999999993</v>
       </c>
       <c r="D16" s="6">
         <v>4314</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="18"/>
-        <v>6622.5066666666662</v>
+        <v>6638.7199999999993</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="19"/>
@@ -7184,7 +6974,7 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="20"/>
-        <v>-66.375111111111167</v>
+        <v>-66.645333333333326</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ref="H16:I16" si="51">F16</f>
@@ -7192,7 +6982,7 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" si="51"/>
-        <v>-66.375111111111167</v>
+        <v>-66.645333333333326</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="22"/>
@@ -7203,14 +6993,14 @@
       </c>
       <c r="M16" s="6">
         <f>M15+L5</f>
-        <v>6615.5999999999967</v>
+        <v>6635.8499999999967</v>
       </c>
       <c r="N16" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="4"/>
-        <v>6615.5999999999967</v>
+        <v>6635.8499999999967</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="5"/>
@@ -7218,7 +7008,7 @@
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="6"/>
-        <v>-66.260000000000005</v>
+        <v>-66.597499999999997</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" ref="R16:S16" si="52">P16</f>
@@ -7226,7 +7016,7 @@
       </c>
       <c r="S16" s="6">
         <f t="shared" si="52"/>
-        <v>-66.260000000000005</v>
+        <v>-66.597499999999997</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="24"/>
@@ -7234,22 +7024,22 @@
       </c>
       <c r="V16" s="6">
         <f>V15+$V5</f>
-        <v>4514.6908000000012</v>
+        <v>4524.0724000000037</v>
       </c>
       <c r="W16" s="6">
         <v>6514</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" ref="X16:Y16" si="53">X15+X5</f>
-        <v>4522.1362000000008</v>
+        <v>4529.0086000000028</v>
       </c>
       <c r="Y16" s="6">
         <f t="shared" si="53"/>
-        <v>6454.6815999999981</v>
+        <v>6465.0448000000024</v>
       </c>
       <c r="Z16" s="6">
         <f t="shared" si="9"/>
-        <v>45.244846666666668</v>
+        <v>45.401206666666667</v>
       </c>
       <c r="AA16" s="6">
         <f t="shared" si="10"/>
@@ -7257,14 +7047,14 @@
       </c>
       <c r="AB16" s="6">
         <f t="shared" si="11"/>
-        <v>45.36893666666667</v>
+        <v>45.483476666666668</v>
       </c>
       <c r="AC16" s="6">
         <f t="shared" si="12"/>
-        <v>-64.911360000000002</v>
+        <v>-65.08408</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AF16" s="6">
         <f>AF15*4</f>
@@ -7289,14 +7079,14 @@
       </c>
       <c r="C17" s="6">
         <f>C16+B6</f>
-        <v>6623.5199999999995</v>
+        <v>6641.7599999999993</v>
       </c>
       <c r="D17" s="6">
         <v>4314</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="18"/>
-        <v>6623.5199999999995</v>
+        <v>6641.7599999999993</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="19"/>
@@ -7304,7 +7094,7 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="20"/>
-        <v>-66.391999999999996</v>
+        <v>-66.695999999999998</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17:I17" si="55">F17</f>
@@ -7312,7 +7102,7 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" si="55"/>
-        <v>-66.391999999999996</v>
+        <v>-66.695999999999998</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="22"/>
@@ -7323,14 +7113,14 @@
       </c>
       <c r="M17" s="6">
         <f>M16+L5</f>
-        <v>6616.4999999999964</v>
+        <v>6638.9999999999964</v>
       </c>
       <c r="N17" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="4"/>
-        <v>6616.4999999999964</v>
+        <v>6638.9999999999964</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="5"/>
@@ -7338,7 +7128,7 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="6"/>
-        <v>-66.275000000000006</v>
+        <v>-66.650000000000006</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ref="R17:S17" si="56">P17</f>
@@ -7346,7 +7136,7 @@
       </c>
       <c r="S17" s="6">
         <f t="shared" si="56"/>
-        <v>-66.275000000000006</v>
+        <v>-66.650000000000006</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="24"/>
@@ -7354,22 +7144,22 @@
       </c>
       <c r="V17" s="6">
         <f>V16+$V5</f>
-        <v>4515.2120000000014</v>
+        <v>4525.6360000000041</v>
       </c>
       <c r="W17" s="6">
         <v>6514</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17:Y17" si="57">X16+X5</f>
-        <v>4522.5180000000009</v>
+        <v>4530.1540000000032</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" si="57"/>
-        <v>6455.2573333333312</v>
+        <v>6466.7720000000027</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="9"/>
-        <v>45.25353333333333</v>
+        <v>45.427266666666668</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" si="10"/>
@@ -7377,14 +7167,14 @@
       </c>
       <c r="AB17" s="6">
         <f t="shared" si="11"/>
-        <v>45.375300000000003</v>
+        <v>45.502566666666667</v>
       </c>
       <c r="AC17" s="6">
         <f t="shared" si="12"/>
-        <v>-64.920955555555494</v>
+        <v>-65.112866666666662</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AF17" s="6">
         <f>(AF14-AF23)/(AF16-1)</f>
@@ -7399,7 +7189,7 @@
         <v>-1</v>
       </c>
       <c r="AJ17" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
@@ -7412,14 +7202,14 @@
       </c>
       <c r="C18" s="6">
         <f>C17+B6</f>
-        <v>6624.5333333333328</v>
+        <v>6644.7999999999993</v>
       </c>
       <c r="D18" s="6">
         <v>4314</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="18"/>
-        <v>6624.5333333333328</v>
+        <v>6644.7999999999993</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="19"/>
@@ -7427,7 +7217,7 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="20"/>
-        <v>-66.408888888888839</v>
+        <v>-66.74666666666667</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ref="H18:I18" si="58">F18</f>
@@ -7435,7 +7225,7 @@
       </c>
       <c r="I18" s="6">
         <f t="shared" si="58"/>
-        <v>-66.408888888888839</v>
+        <v>-66.74666666666667</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="22"/>
@@ -7446,14 +7236,14 @@
       </c>
       <c r="M18" s="6">
         <f>M17+L5</f>
-        <v>6617.399999999996</v>
+        <v>6642.149999999996</v>
       </c>
       <c r="N18" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="4"/>
-        <v>6617.399999999996</v>
+        <v>6642.149999999996</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="5"/>
@@ -7461,7 +7251,7 @@
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="6"/>
-        <v>-66.290000000000006</v>
+        <v>-66.702500000000001</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" ref="R18:S18" si="59">P18</f>
@@ -7469,7 +7259,7 @@
       </c>
       <c r="S18" s="6">
         <f t="shared" si="59"/>
-        <v>-66.290000000000006</v>
+        <v>-66.702500000000001</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="24"/>
@@ -7477,22 +7267,22 @@
       </c>
       <c r="V18" s="6">
         <f>V17+$V5</f>
-        <v>4515.7332000000015</v>
+        <v>4527.1996000000045</v>
       </c>
       <c r="W18" s="6">
         <v>6514</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" ref="X18:Y18" si="60">X17+X5</f>
-        <v>4522.8998000000011</v>
+        <v>4531.2994000000035</v>
       </c>
       <c r="Y18" s="6">
         <f t="shared" si="60"/>
-        <v>6455.8330666666643</v>
+        <v>6468.4992000000029</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" si="9"/>
-        <v>45.262219999999999</v>
+        <v>45.453326666666669</v>
       </c>
       <c r="AA18" s="6">
         <f t="shared" si="10"/>
@@ -7500,26 +7290,26 @@
       </c>
       <c r="AB18" s="6">
         <f t="shared" si="11"/>
-        <v>45.381663333333336</v>
+        <v>45.521656666666665</v>
       </c>
       <c r="AC18" s="6">
         <f t="shared" si="12"/>
-        <v>-64.930551111111001</v>
+        <v>-65.141653333333338</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
@@ -7532,14 +7322,14 @@
       </c>
       <c r="C19" s="6">
         <f>C18+B6</f>
-        <v>6625.5466666666662</v>
+        <v>6647.8399999999992</v>
       </c>
       <c r="D19" s="6">
         <v>4314</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="18"/>
-        <v>6625.5466666666662</v>
+        <v>6647.8399999999992</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="19"/>
@@ -7547,7 +7337,7 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="20"/>
-        <v>-66.425777777777839</v>
+        <v>-66.797333333333327</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ref="H19:I19" si="61">F19</f>
@@ -7555,7 +7345,7 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" si="61"/>
-        <v>-66.425777777777839</v>
+        <v>-66.797333333333327</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="22"/>
@@ -7566,14 +7356,14 @@
       </c>
       <c r="M19" s="6">
         <f>M18+L5</f>
-        <v>6618.2999999999956</v>
+        <v>6645.2999999999956</v>
       </c>
       <c r="N19" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="4"/>
-        <v>6618.2999999999956</v>
+        <v>6645.2999999999956</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="5"/>
@@ -7581,7 +7371,7 @@
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="6"/>
-        <v>-66.305000000000007</v>
+        <v>-66.754999999999995</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" ref="R19:S19" si="62">P19</f>
@@ -7589,7 +7379,7 @@
       </c>
       <c r="S19" s="6">
         <f t="shared" si="62"/>
-        <v>-66.305000000000007</v>
+        <v>-66.754999999999995</v>
       </c>
       <c r="U19" s="6">
         <f t="shared" si="24"/>
@@ -7597,22 +7387,22 @@
       </c>
       <c r="V19" s="6">
         <f>V18+$V5</f>
-        <v>4516.2544000000016</v>
+        <v>4528.7632000000049</v>
       </c>
       <c r="W19" s="6">
         <v>6514</v>
       </c>
       <c r="X19" s="6">
         <f t="shared" ref="X19:Y19" si="63">X18+X5</f>
-        <v>4523.2816000000012</v>
+        <v>4532.4448000000039</v>
       </c>
       <c r="Y19" s="6">
         <f t="shared" si="63"/>
-        <v>6456.4087999999974</v>
+        <v>6470.2264000000032</v>
       </c>
       <c r="Z19" s="6">
         <f t="shared" si="9"/>
-        <v>45.270906666666669</v>
+        <v>45.47938666666667</v>
       </c>
       <c r="AA19" s="6">
         <f t="shared" si="10"/>
@@ -7620,11 +7410,11 @@
       </c>
       <c r="AB19" s="6">
         <f t="shared" si="11"/>
-        <v>45.388026666666669</v>
+        <v>45.540746666666664</v>
       </c>
       <c r="AC19" s="6">
         <f t="shared" si="12"/>
-        <v>-64.940146666666664</v>
+        <v>-65.170439999999999</v>
       </c>
       <c r="AE19" s="6">
         <v>1</v>
@@ -7671,14 +7461,14 @@
       </c>
       <c r="C20" s="6">
         <f>C19+B6</f>
-        <v>6626.5599999999995</v>
+        <v>6650.8799999999992</v>
       </c>
       <c r="D20" s="6">
         <v>4314</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="18"/>
-        <v>6626.5599999999995</v>
+        <v>6650.8799999999992</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="19"/>
@@ -7686,7 +7476,7 @@
       </c>
       <c r="G20" s="6">
         <f t="shared" si="20"/>
-        <v>-66.442666666666668</v>
+        <v>-66.847999999999999</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ref="H20:I20" si="69">F20</f>
@@ -7694,7 +7484,7 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" si="69"/>
-        <v>-66.442666666666668</v>
+        <v>-66.847999999999999</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="22"/>
@@ -7705,14 +7495,14 @@
       </c>
       <c r="M20" s="6">
         <f>M19+L5</f>
-        <v>6619.1999999999953</v>
+        <v>6648.4499999999953</v>
       </c>
       <c r="N20" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="4"/>
-        <v>6619.1999999999953</v>
+        <v>6648.4499999999953</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="5"/>
@@ -7720,7 +7510,7 @@
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="6"/>
-        <v>-66.319999999999993</v>
+        <v>-66.807500000000005</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" ref="R20:S20" si="70">P20</f>
@@ -7728,7 +7518,7 @@
       </c>
       <c r="S20" s="6">
         <f t="shared" si="70"/>
-        <v>-66.319999999999993</v>
+        <v>-66.807500000000005</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="24"/>
@@ -7736,22 +7526,22 @@
       </c>
       <c r="V20" s="6">
         <f>V19+$V5</f>
-        <v>4516.7756000000018</v>
+        <v>4530.3268000000053</v>
       </c>
       <c r="W20" s="6">
         <v>6514</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" ref="X20:Y20" si="71">X19+X5</f>
-        <v>4523.6634000000013</v>
+        <v>4533.5902000000042</v>
       </c>
       <c r="Y20" s="6">
         <f t="shared" si="71"/>
-        <v>6456.9845333333305</v>
+        <v>6471.9536000000035</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" si="9"/>
-        <v>45.279593333333331</v>
+        <v>45.505446666666835</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="10"/>
@@ -7759,11 +7549,11 @@
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="11"/>
-        <v>45.394390000000001</v>
+        <v>45.559836666666669</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="12"/>
-        <v>-64.94974222222217</v>
+        <v>-65.199226666666661</v>
       </c>
       <c r="AE20" s="6">
         <v>2</v>
@@ -7810,14 +7600,14 @@
       </c>
       <c r="C21" s="6">
         <f>C20+B6</f>
-        <v>6627.5733333333328</v>
+        <v>6653.9199999999992</v>
       </c>
       <c r="D21" s="6">
         <v>4314</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="18"/>
-        <v>6627.5733333333328</v>
+        <v>6653.9199999999992</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="19"/>
@@ -7825,7 +7615,7 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="20"/>
-        <v>-66.459555555555497</v>
+        <v>-66.898666666666671</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ref="H21:I21" si="73">F21</f>
@@ -7833,7 +7623,7 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" si="73"/>
-        <v>-66.459555555555497</v>
+        <v>-66.898666666666671</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="22"/>
@@ -7844,14 +7634,14 @@
       </c>
       <c r="M21" s="6">
         <f>M20+L5</f>
-        <v>6620.0999999999949</v>
+        <v>6651.5999999999949</v>
       </c>
       <c r="N21" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O21" s="6">
         <f t="shared" si="4"/>
-        <v>6620.0999999999949</v>
+        <v>6651.5999999999949</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="5"/>
@@ -7859,7 +7649,7 @@
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="6"/>
-        <v>-66.334999999999837</v>
+        <v>-66.859999999999829</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" ref="R21:S21" si="74">P21</f>
@@ -7867,7 +7657,7 @@
       </c>
       <c r="S21" s="6">
         <f t="shared" si="74"/>
-        <v>-66.334999999999837</v>
+        <v>-66.859999999999829</v>
       </c>
       <c r="U21" s="6">
         <f t="shared" si="24"/>
@@ -7875,22 +7665,22 @@
       </c>
       <c r="V21" s="6">
         <f>V20+$V5</f>
-        <v>4517.2968000000019</v>
+        <v>4531.8904000000057</v>
       </c>
       <c r="W21" s="6">
         <v>6514</v>
       </c>
       <c r="X21" s="6">
         <f t="shared" ref="X21:Y21" si="75">X20+X5</f>
-        <v>4524.0452000000014</v>
+        <v>4534.7356000000045</v>
       </c>
       <c r="Y21" s="6">
         <f t="shared" si="75"/>
-        <v>6457.5602666666637</v>
+        <v>6473.6808000000037</v>
       </c>
       <c r="Z21" s="6">
         <f t="shared" si="9"/>
-        <v>45.28828</v>
+        <v>45.531506666666836</v>
       </c>
       <c r="AA21" s="6">
         <f t="shared" si="10"/>
@@ -7898,11 +7688,11 @@
       </c>
       <c r="AB21" s="6">
         <f t="shared" si="11"/>
-        <v>45.400753333333334</v>
+        <v>45.578926666666668</v>
       </c>
       <c r="AC21" s="6">
         <f t="shared" si="12"/>
-        <v>-64.959337777777662</v>
+        <v>-65.228013333333337</v>
       </c>
       <c r="AE21" s="6">
         <v>3</v>
@@ -7949,14 +7739,14 @@
       </c>
       <c r="C22" s="6">
         <f>C21+B6</f>
-        <v>6628.5866666666661</v>
+        <v>6656.9599999999991</v>
       </c>
       <c r="D22" s="6">
         <v>4314</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="18"/>
-        <v>6628.5866666666661</v>
+        <v>6656.9599999999991</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="19"/>
@@ -7964,7 +7754,7 @@
       </c>
       <c r="G22" s="6">
         <f t="shared" si="20"/>
-        <v>-66.476444444444496</v>
+        <v>-66.949333333333328</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ref="H22:I22" si="77">F22</f>
@@ -7972,7 +7762,7 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" si="77"/>
-        <v>-66.476444444444496</v>
+        <v>-66.949333333333328</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="22"/>
@@ -7983,14 +7773,14 @@
       </c>
       <c r="M22" s="6">
         <f>M21+EW5</f>
-        <v>6620.0999999999949</v>
+        <v>6651.5999999999949</v>
       </c>
       <c r="N22" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="4"/>
-        <v>6620.0999999999949</v>
+        <v>6651.5999999999949</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="5"/>
@@ -7998,7 +7788,7 @@
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="6"/>
-        <v>-66.334999999999837</v>
+        <v>-66.859999999999829</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" ref="R22:S22" si="78">P22</f>
@@ -8006,7 +7796,7 @@
       </c>
       <c r="S22" s="6">
         <f t="shared" si="78"/>
-        <v>-66.334999999999837</v>
+        <v>-66.859999999999829</v>
       </c>
       <c r="U22" s="6">
         <f t="shared" si="24"/>
@@ -8014,22 +7804,22 @@
       </c>
       <c r="V22" s="6">
         <f>V21+$V5</f>
-        <v>4517.818000000002</v>
+        <v>4533.4540000000061</v>
       </c>
       <c r="W22" s="6">
         <v>6514</v>
       </c>
       <c r="X22" s="6">
         <f t="shared" ref="X22:Y22" si="79">X21+X5</f>
-        <v>4524.4270000000015</v>
+        <v>4535.8810000000049</v>
       </c>
       <c r="Y22" s="6">
         <f t="shared" si="79"/>
-        <v>6458.1359999999968</v>
+        <v>6475.408000000004</v>
       </c>
       <c r="Z22" s="6">
         <f t="shared" si="9"/>
-        <v>45.29696666666667</v>
+        <v>45.55756666666683</v>
       </c>
       <c r="AA22" s="6">
         <f t="shared" si="10"/>
@@ -8037,11 +7827,11 @@
       </c>
       <c r="AB22" s="6">
         <f t="shared" si="11"/>
-        <v>45.407116666666667</v>
+        <v>45.598016666666666</v>
       </c>
       <c r="AC22" s="6">
         <f t="shared" si="12"/>
-        <v>-64.968933333333339</v>
+        <v>-65.256799999999998</v>
       </c>
       <c r="AE22" s="6">
         <v>4</v>
@@ -8088,14 +7878,14 @@
       </c>
       <c r="C23" s="6">
         <f>C22+B6</f>
-        <v>6629.5999999999995</v>
+        <v>6659.9999999999991</v>
       </c>
       <c r="D23" s="6">
         <v>4314</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="18"/>
-        <v>6629.5999999999995</v>
+        <v>6659.9999999999991</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="19"/>
@@ -8103,7 +7893,7 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="20"/>
-        <v>-66.493333333333339</v>
+        <v>-67</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ref="H23:I23" si="80">F23</f>
@@ -8111,7 +7901,7 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" si="80"/>
-        <v>-66.493333333333339</v>
+        <v>-67</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="22"/>
@@ -8122,14 +7912,14 @@
       </c>
       <c r="M23" s="6">
         <f>M22+L5</f>
-        <v>6620.9999999999945</v>
+        <v>6654.7499999999945</v>
       </c>
       <c r="N23" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="4"/>
-        <v>6620.9999999999945</v>
+        <v>6654.7499999999945</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="5"/>
@@ -8137,7 +7927,7 @@
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="6"/>
-        <v>-66.349999999999838</v>
+        <v>-66.912499999999838</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" ref="R23:S23" si="81">P23</f>
@@ -8145,7 +7935,7 @@
       </c>
       <c r="S23" s="6">
         <f t="shared" si="81"/>
-        <v>-66.349999999999838</v>
+        <v>-66.912499999999838</v>
       </c>
       <c r="U23" s="6">
         <f t="shared" si="24"/>
@@ -8153,22 +7943,22 @@
       </c>
       <c r="V23" s="6">
         <f>V22+$V5</f>
-        <v>4518.3392000000022</v>
+        <v>4535.0176000000065</v>
       </c>
       <c r="W23" s="6">
         <v>6514</v>
       </c>
       <c r="X23" s="6">
         <f t="shared" ref="X23:Y23" si="82">X22+X5</f>
-        <v>4524.8088000000016</v>
+        <v>4537.0264000000052</v>
       </c>
       <c r="Y23" s="6">
         <f t="shared" si="82"/>
-        <v>6458.7117333333299</v>
+        <v>6477.1352000000043</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" si="9"/>
-        <v>45.305653333333332</v>
+        <v>45.583626666666831</v>
       </c>
       <c r="AA23" s="6">
         <f t="shared" si="10"/>
@@ -8176,14 +7966,14 @@
       </c>
       <c r="AB23" s="6">
         <f t="shared" si="11"/>
-        <v>45.41348</v>
+        <v>45.617106666666835</v>
       </c>
       <c r="AC23" s="6">
         <f t="shared" si="12"/>
-        <v>-64.978528888888832</v>
+        <v>-65.28558666666666</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AF23" s="6">
         <v>4515</v>
@@ -8205,14 +7995,14 @@
       </c>
       <c r="C24" s="6">
         <f>C23+B6</f>
-        <v>6630.6133333333328</v>
+        <v>6663.0399999999991</v>
       </c>
       <c r="D24" s="6">
         <v>4314</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="18"/>
-        <v>6630.6133333333328</v>
+        <v>6663.0399999999991</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="19"/>
@@ -8220,7 +8010,7 @@
       </c>
       <c r="G24" s="6">
         <f t="shared" si="20"/>
-        <v>-66.510222222222168</v>
+        <v>-67.050666666666672</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ref="H24:I24" si="83">F24</f>
@@ -8228,7 +8018,7 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" si="83"/>
-        <v>-66.510222222222168</v>
+        <v>-67.050666666666672</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="22"/>
@@ -8239,14 +8029,14 @@
       </c>
       <c r="M24" s="6">
         <f>M23+L5</f>
-        <v>6621.8999999999942</v>
+        <v>6657.8999999999942</v>
       </c>
       <c r="N24" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="4"/>
-        <v>6621.8999999999942</v>
+        <v>6657.8999999999942</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" si="5"/>
@@ -8254,7 +8044,7 @@
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="6"/>
-        <v>-66.364999999999839</v>
+        <v>-66.964999999999833</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" ref="R24:S24" si="84">P24</f>
@@ -8262,7 +8052,7 @@
       </c>
       <c r="S24" s="6">
         <f t="shared" si="84"/>
-        <v>-66.364999999999839</v>
+        <v>-66.964999999999833</v>
       </c>
       <c r="U24" s="6">
         <f t="shared" si="24"/>
@@ -8270,22 +8060,22 @@
       </c>
       <c r="V24" s="6">
         <f>V23+$V5</f>
-        <v>4518.8604000000023</v>
+        <v>4536.5812000000069</v>
       </c>
       <c r="W24" s="6">
         <v>6514</v>
       </c>
       <c r="X24" s="6">
         <f t="shared" ref="X24:Y24" si="85">X23+X5</f>
-        <v>4525.1906000000017</v>
+        <v>4538.1718000000055</v>
       </c>
       <c r="Y24" s="6">
         <f t="shared" si="85"/>
-        <v>6459.287466666663</v>
+        <v>6478.8624000000045</v>
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="9"/>
-        <v>45.314340000000001</v>
+        <v>45.609686666666832</v>
       </c>
       <c r="AA24" s="6">
         <f t="shared" si="10"/>
@@ -8293,11 +8083,11 @@
       </c>
       <c r="AB24" s="6">
         <f t="shared" si="11"/>
-        <v>45.419843333333333</v>
+        <v>45.636196666666834</v>
       </c>
       <c r="AC24" s="6">
         <f t="shared" si="12"/>
-        <v>-64.988124444444338</v>
+        <v>-65.314373333333336</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8310,14 +8100,14 @@
       </c>
       <c r="C25" s="6">
         <f>C24+B6</f>
-        <v>6631.6266666666661</v>
+        <v>6666.079999999999</v>
       </c>
       <c r="D25" s="6">
         <v>4314</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="18"/>
-        <v>6631.6266666666661</v>
+        <v>6666.079999999999</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="19"/>
@@ -8325,7 +8115,7 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="20"/>
-        <v>-66.527111111111168</v>
+        <v>-67.101333333333329</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ref="H25:I25" si="86">F25</f>
@@ -8333,7 +8123,7 @@
       </c>
       <c r="I25" s="6">
         <f t="shared" si="86"/>
-        <v>-66.527111111111168</v>
+        <v>-67.101333333333329</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="22"/>
@@ -8344,14 +8134,14 @@
       </c>
       <c r="M25" s="6">
         <f>M24+L5</f>
-        <v>6622.7999999999938</v>
+        <v>6661.0499999999938</v>
       </c>
       <c r="N25" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="4"/>
-        <v>6622.7999999999938</v>
+        <v>6661.0499999999938</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="5"/>
@@ -8359,7 +8149,7 @@
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="6"/>
-        <v>-66.379999999999839</v>
+        <v>-67.017499999999828</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" ref="R25:S25" si="87">P25</f>
@@ -8367,10 +8157,10 @@
       </c>
       <c r="S25" s="6">
         <f t="shared" si="87"/>
-        <v>-66.379999999999839</v>
+        <v>-67.017499999999828</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="V25" s="6">
         <v>4502.1819999999998</v>
@@ -8392,14 +8182,14 @@
       </c>
       <c r="C26" s="6">
         <f>C25+B6</f>
-        <v>6632.6399999999994</v>
+        <v>6669.119999999999</v>
       </c>
       <c r="D26" s="6">
         <v>4314</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="18"/>
-        <v>6632.6399999999994</v>
+        <v>6669.119999999999</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="19"/>
@@ -8407,7 +8197,7 @@
       </c>
       <c r="G26" s="6">
         <f t="shared" si="20"/>
-        <v>-66.543999999999997</v>
+        <v>-67.152000000000001</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ref="H26:I26" si="88">F26</f>
@@ -8415,7 +8205,7 @@
       </c>
       <c r="I26" s="6">
         <f t="shared" si="88"/>
-        <v>-66.543999999999997</v>
+        <v>-67.152000000000001</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="22"/>
@@ -8426,14 +8216,14 @@
       </c>
       <c r="M26" s="6">
         <f>M25+L5</f>
-        <v>6623.6999999999935</v>
+        <v>6664.1999999999935</v>
       </c>
       <c r="N26" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O26" s="6">
         <f t="shared" si="4"/>
-        <v>6623.6999999999935</v>
+        <v>6664.1999999999935</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="5"/>
@@ -8441,7 +8231,7 @@
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="6"/>
-        <v>-66.39499999999984</v>
+        <v>-67.069999999999837</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" ref="R26:S26" si="89">P26</f>
@@ -8449,7 +8239,7 @@
       </c>
       <c r="S26" s="6">
         <f t="shared" si="89"/>
-        <v>-66.39499999999984</v>
+        <v>-67.069999999999837</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8462,14 +8252,14 @@
       </c>
       <c r="C27" s="6">
         <f>C26+B6</f>
-        <v>6633.6533333333327</v>
+        <v>6672.1599999999989</v>
       </c>
       <c r="D27" s="6">
         <v>4314</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="18"/>
-        <v>6633.6533333333327</v>
+        <v>6672.1599999999989</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="19"/>
@@ -8477,7 +8267,7 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="20"/>
-        <v>-66.56088888888884</v>
+        <v>-67.202666666666673</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ref="H27:I27" si="90">F27</f>
@@ -8485,7 +8275,7 @@
       </c>
       <c r="I27" s="6">
         <f t="shared" si="90"/>
-        <v>-66.56088888888884</v>
+        <v>-67.202666666666673</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="22"/>
@@ -8496,14 +8286,14 @@
       </c>
       <c r="M27" s="6">
         <f>M26+L5</f>
-        <v>6624.5999999999931</v>
+        <v>6667.3499999999931</v>
       </c>
       <c r="N27" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O27" s="6">
         <f t="shared" si="4"/>
-        <v>6624.5999999999931</v>
+        <v>6667.3499999999931</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" si="5"/>
@@ -8511,7 +8301,7 @@
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="6"/>
-        <v>-66.40999999999984</v>
+        <v>-67.122499999999832</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" ref="R27:S27" si="91">P27</f>
@@ -8519,7 +8309,7 @@
       </c>
       <c r="S27" s="6">
         <f t="shared" si="91"/>
-        <v>-66.40999999999984</v>
+        <v>-67.122499999999832</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8532,14 +8322,14 @@
       </c>
       <c r="C28" s="6">
         <f>C27+B6</f>
-        <v>6634.6666666666661</v>
+        <v>6675.1999999999989</v>
       </c>
       <c r="D28" s="6">
         <v>4314</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="18"/>
-        <v>6634.6666666666661</v>
+        <v>6675.1999999999989</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="19"/>
@@ -8547,7 +8337,7 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" si="20"/>
-        <v>-66.57777777777784</v>
+        <v>-67.25333333333333</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ref="H28:I28" si="92">F28</f>
@@ -8555,7 +8345,7 @@
       </c>
       <c r="I28" s="6">
         <f t="shared" si="92"/>
-        <v>-66.57777777777784</v>
+        <v>-67.25333333333333</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="22"/>
@@ -8566,14 +8356,14 @@
       </c>
       <c r="M28" s="6">
         <f>M27+L5</f>
-        <v>6625.4999999999927</v>
+        <v>6670.4999999999927</v>
       </c>
       <c r="N28" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" si="4"/>
-        <v>6625.4999999999927</v>
+        <v>6670.4999999999927</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" si="5"/>
@@ -8581,7 +8371,7 @@
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="6"/>
-        <v>-66.424999999999827</v>
+        <v>-67.174999999999827</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" ref="R28:S28" si="93">P28</f>
@@ -8589,7 +8379,7 @@
       </c>
       <c r="S28" s="6">
         <f t="shared" si="93"/>
-        <v>-66.424999999999827</v>
+        <v>-67.174999999999827</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8602,14 +8392,14 @@
       </c>
       <c r="C29" s="6">
         <f>C28+B6</f>
-        <v>6635.6799999999994</v>
+        <v>6678.2399999999989</v>
       </c>
       <c r="D29" s="6">
         <v>4314</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="18"/>
-        <v>6635.6799999999994</v>
+        <v>6678.2399999999989</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="19"/>
@@ -8617,7 +8407,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="20"/>
-        <v>-66.594666666666669</v>
+        <v>-67.304000000000002</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ref="H29:I29" si="94">F29</f>
@@ -8625,7 +8415,7 @@
       </c>
       <c r="I29" s="6">
         <f t="shared" si="94"/>
-        <v>-66.594666666666669</v>
+        <v>-67.304000000000002</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="22"/>
@@ -8636,14 +8426,14 @@
       </c>
       <c r="M29" s="6">
         <f>M28+L5</f>
-        <v>6626.3999999999924</v>
+        <v>6673.6499999999924</v>
       </c>
       <c r="N29" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" si="4"/>
-        <v>6626.3999999999924</v>
+        <v>6673.6499999999924</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="5"/>
@@ -8651,7 +8441,7 @@
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="6"/>
-        <v>-66.439999999999827</v>
+        <v>-67.227499999999836</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" ref="R29:S29" si="95">P29</f>
@@ -8659,7 +8449,7 @@
       </c>
       <c r="S29" s="6">
         <f t="shared" si="95"/>
-        <v>-66.439999999999827</v>
+        <v>-67.227499999999836</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8672,14 +8462,14 @@
       </c>
       <c r="C30" s="6">
         <f>C29+B6</f>
-        <v>6636.6933333333327</v>
+        <v>6681.2799999999988</v>
       </c>
       <c r="D30" s="6">
         <v>4314</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="18"/>
-        <v>6636.6933333333327</v>
+        <v>6681.2799999999988</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="19"/>
@@ -8687,7 +8477,7 @@
       </c>
       <c r="G30" s="6">
         <f t="shared" si="20"/>
-        <v>-66.611555555555498</v>
+        <v>-67.354666666666674</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ref="H30:I30" si="96">F30</f>
@@ -8695,7 +8485,7 @@
       </c>
       <c r="I30" s="6">
         <f t="shared" si="96"/>
-        <v>-66.611555555555498</v>
+        <v>-67.354666666666674</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="22"/>
@@ -8706,14 +8496,14 @@
       </c>
       <c r="M30" s="6">
         <f>M29+L5</f>
-        <v>6627.299999999992</v>
+        <v>6676.799999999992</v>
       </c>
       <c r="N30" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="4"/>
-        <v>6627.299999999992</v>
+        <v>6676.799999999992</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" si="5"/>
@@ -8721,7 +8511,7 @@
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="6"/>
-        <v>-66.454999999999828</v>
+        <v>-67.279999999999831</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" ref="R30:S30" si="97">P30</f>
@@ -8729,7 +8519,7 @@
       </c>
       <c r="S30" s="6">
         <f t="shared" si="97"/>
-        <v>-66.454999999999828</v>
+        <v>-67.279999999999831</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8742,14 +8532,14 @@
       </c>
       <c r="C31" s="6">
         <f>C30+B6</f>
-        <v>6637.706666666666</v>
+        <v>6684.3199999999988</v>
       </c>
       <c r="D31" s="6">
         <v>4314</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="18"/>
-        <v>6637.706666666666</v>
+        <v>6684.3199999999988</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="19"/>
@@ -8757,7 +8547,7 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="20"/>
-        <v>-66.628444444444497</v>
+        <v>-67.405333333333331</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ref="H31:I31" si="98">F31</f>
@@ -8765,10 +8555,10 @@
       </c>
       <c r="I31" s="6">
         <f t="shared" si="98"/>
-        <v>-66.628444444444497</v>
+        <v>-67.405333333333331</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="L31" s="6">
         <v>6613.8</v>
@@ -8780,7 +8570,7 @@
     </row>
     <row r="32" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B32" s="6">
         <v>6629.6</v>
@@ -8790,7 +8580,7 @@
         <v>-66.493333333333339</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L32" s="6">
         <v>4330.12</v>
@@ -8798,7 +8588,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B33" s="6">
         <v>4314</v>

--- a/Survey Lines.xlsx
+++ b/Survey Lines.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7389C9-991C-4F5B-9261-FC0C2B7B7D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64ED5232-6E2D-4A4A-A03F-04B6B282A730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7110" yWindow="90" windowWidth="31290" windowHeight="20775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
-    <sheet name="R Plan" sheetId="2" r:id="rId2"/>
+    <sheet name="survey plan" sheetId="2" r:id="rId2"/>
     <sheet name="Table" sheetId="3" r:id="rId3"/>
     <sheet name="Back End" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="44">
   <si>
     <t>INSTRUCTIONS:</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Extra Boxes</t>
-  </si>
-  <si>
-    <t>2) Copy standard/leftside format for "Table" sheet, use Converted/rightside format for "R Plan" sheet</t>
   </si>
   <si>
     <t>3) Re-order lines as below for GB/SB</t>
@@ -98,9 +95,6 @@
   </si>
   <si>
     <t>Line #</t>
-  </si>
-  <si>
-    <t>Converted Format for "R Plan" Sheet</t>
   </si>
   <si>
     <t>TURN POINT</t>
@@ -181,22 +175,34 @@
     <t>Scots Bay</t>
   </si>
   <si>
-    <t>East</t>
-  </si>
-  <si>
     <t>Main Box</t>
   </si>
   <si>
     <t>1) Use the "Main Box", "Ground", and "Extra Boxes" drop downs to select the proper configuration for the survey.</t>
   </si>
   <si>
-    <t>Scotia</t>
+    <t>Both</t>
   </si>
   <si>
-    <t>Comeau</t>
+    <t>Sealife II</t>
   </si>
   <si>
-    <t>Connor</t>
+    <t>Lady Melissa</t>
+  </si>
+  <si>
+    <t>Fundy Monarch</t>
+  </si>
+  <si>
+    <t>Morning Star</t>
+  </si>
+  <si>
+    <t>Brunswick Provider</t>
+  </si>
+  <si>
+    <t>2) Copy standard/leftside format for "Table" sheet, use Converted/rightside format for "survey plan" sheet</t>
+  </si>
+  <si>
+    <t>Converted Format for "survey plan" Sheet</t>
   </si>
 </sst>
 </file>
@@ -278,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -290,7 +296,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -518,7 +523,7 @@
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" customWidth="1"/>
@@ -532,10 +537,10 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -563,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -594,7 +599,7 @@
         <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -617,7 +622,7 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="D4" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -640,7 +645,7 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="D5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -663,7 +668,7 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="D6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -686,7 +691,7 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -717,22 +722,22 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>IF(B2="German Bank", "German Bank Box", IF(B2="Scots Bay", "Main Survey Box",""))</f>
         <v>Main Survey Box</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="L9" s="1" t="str">
         <f>IF(B2="German Bank", "Seal Island Box", IF(B3="North", "North Box", IF(B3="East", "East Box", IF(B3="Both", "East Box",""))))</f>
         <v>East Box</v>
       </c>
       <c r="P9" s="1" t="str">
-        <f>IF(B2="German Bank", "Converted Format for 'R Plan' Sheet", IF(B3&lt;&gt;"None", "Converted Format for 'R Plan' Sheet", ""))</f>
-        <v>Converted Format for 'R Plan' Sheet</v>
+        <f>IF(B2="German Bank", "Converted Format for 'survey plan' Sheet", IF(B3&lt;&gt;"None", "Converted Format for 'survey plan' Sheet", ""))</f>
+        <v>Converted Format for 'survey plan' Sheet</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -762,28 +767,31 @@
         <v>0</v>
       </c>
       <c r="L10" s="6" t="str">
-        <f t="array" ref="L10:S34">IF(B2="German Bank",'Back End'!L6:S30, IF(B3="North", 'Back End'!AF18:AM22, IF(B3="East", 'Back End'!AF6:AM10,IF(B3="Both", 'Back End'!AF6:AM10,""))))</f>
+        <f t="array" ref="L10:T34">IF(B2="German Bank",'Back End'!L6:S30, IF(B3="North", 'Back End'!AF18:AM22, IF(B3="East", 'Back End'!AF6:AM10,IF(B3="Both", 'Back End'!AE6:AM22,""))))</f>
+        <v>LINE #</v>
+      </c>
+      <c r="M10" s="6" t="str">
         <v>START POINT</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6" t="str">
+      <c r="O10" s="6" t="str">
         <v>TURN POINT</v>
       </c>
-      <c r="O10" s="6">
+      <c r="P10" s="6">
         <v>0</v>
       </c>
-      <c r="P10" s="6" t="str">
+      <c r="Q10" s="6" t="str">
         <v>START POINT</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R10" s="6">
         <v>0</v>
       </c>
-      <c r="R10" s="6" t="str">
+      <c r="S10" s="6" t="str">
         <v>TURN POINT</v>
       </c>
-      <c r="S10" s="6">
+      <c r="T10">
         <v>0</v>
       </c>
     </row>
@@ -792,51 +800,54 @@
         <v>1</v>
       </c>
       <c r="B11" s="6">
-        <v>4510</v>
+        <v>4502.1819999999998</v>
       </c>
       <c r="C11" s="6">
         <v>6514</v>
       </c>
       <c r="D11" s="6">
-        <v>4518.7</v>
+        <v>4512.973</v>
       </c>
       <c r="E11" s="6">
-        <v>6449.5</v>
+        <v>6440.8639999999996</v>
       </c>
       <c r="F11" s="6">
-        <v>45.166666666666664</v>
+        <v>45.036366666666666</v>
       </c>
       <c r="G11" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H11" s="6">
-        <v>45.311666666666667</v>
+        <v>45.216216666666668</v>
       </c>
       <c r="I11" s="6">
-        <v>-64.825000000000003</v>
+        <v>-64.681066666666666</v>
       </c>
       <c r="L11" s="6">
-        <v>4516.12</v>
+        <v>1</v>
       </c>
       <c r="M11" s="6">
-        <v>6445.43</v>
+        <v>4513.4750000000004</v>
       </c>
       <c r="N11" s="6">
-        <v>4519.7</v>
+        <v>6441.48</v>
       </c>
       <c r="O11" s="6">
+        <v>4515.8249999999998</v>
+      </c>
+      <c r="P11" s="6">
         <v>6433</v>
       </c>
-      <c r="P11" s="6">
-        <v>45.268666666666668</v>
-      </c>
       <c r="Q11" s="6">
-        <v>-64.757166666666663</v>
+        <v>45.224583333333335</v>
       </c>
       <c r="R11" s="6">
-        <v>45.328333333333333</v>
+        <v>-64.691333333333333</v>
       </c>
       <c r="S11" s="6">
+        <v>45.263750000000002</v>
+      </c>
+      <c r="T11">
         <v>-64.55</v>
       </c>
     </row>
@@ -845,51 +856,54 @@
         <v>2</v>
       </c>
       <c r="B12" s="6">
-        <v>4511.5636000000004</v>
+        <v>4503.2988571428568</v>
       </c>
       <c r="C12" s="6">
         <v>6514</v>
       </c>
       <c r="D12" s="6">
-        <v>4519.8454000000002</v>
+        <v>4513.7911428571424</v>
       </c>
       <c r="E12" s="6">
-        <v>6451.2272000000003</v>
+        <v>6442.0977142857137</v>
       </c>
       <c r="F12" s="6">
-        <v>45.192726666666665</v>
+        <v>45.054980952381001</v>
       </c>
       <c r="G12" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H12" s="6">
-        <v>45.330756666666666</v>
+        <v>45.22985238095233</v>
       </c>
       <c r="I12" s="6">
-        <v>-64.853786666666664</v>
+        <v>-64.7016285714285</v>
       </c>
       <c r="L12" s="6">
-        <v>4517.0016666666661</v>
+        <v>2</v>
       </c>
       <c r="M12" s="6">
-        <v>6446.7466666666669</v>
+        <v>4514.3566666666666</v>
       </c>
       <c r="N12" s="6">
-        <v>4520.9916666666668</v>
+        <v>6442.7966666666662</v>
       </c>
       <c r="O12" s="6">
+        <v>4517.1166666666668</v>
+      </c>
+      <c r="P12" s="6">
         <v>6433</v>
       </c>
-      <c r="P12" s="6">
-        <v>45.283361111111169</v>
-      </c>
       <c r="Q12" s="6">
-        <v>-64.779111111111163</v>
+        <v>45.239277777777836</v>
       </c>
       <c r="R12" s="6">
-        <v>45.349861111111167</v>
+        <v>-64.713277777777833</v>
       </c>
       <c r="S12" s="6">
+        <v>45.285277777777836</v>
+      </c>
+      <c r="T12">
         <v>-64.55</v>
       </c>
     </row>
@@ -898,51 +912,54 @@
         <v>3</v>
       </c>
       <c r="B13" s="6">
-        <v>4513.1272000000008</v>
+        <v>4504.4157142857139</v>
       </c>
       <c r="C13" s="6">
         <v>6514</v>
       </c>
       <c r="D13" s="6">
-        <v>4520.9908000000005</v>
+        <v>4514.6092857142849</v>
       </c>
       <c r="E13" s="6">
-        <v>6452.9544000000005</v>
+        <v>6443.3314285714278</v>
       </c>
       <c r="F13" s="6">
-        <v>45.218786666666666</v>
+        <v>45.073595238095166</v>
       </c>
       <c r="G13" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H13" s="6">
-        <v>45.349846666666664</v>
+        <v>45.243488095238</v>
       </c>
       <c r="I13" s="6">
-        <v>-64.88257333333334</v>
+        <v>-64.722190476190505</v>
       </c>
       <c r="L13" s="6">
-        <v>4517.8833333333323</v>
+        <v>3</v>
       </c>
       <c r="M13" s="6">
-        <v>6448.0633333333335</v>
+        <v>4515.2383333333328</v>
       </c>
       <c r="N13" s="6">
-        <v>4522.2833333333338</v>
+        <v>6444.1133333333328</v>
       </c>
       <c r="O13" s="6">
+        <v>4518.4083333333338</v>
+      </c>
+      <c r="P13" s="6">
         <v>6433</v>
       </c>
-      <c r="P13" s="6">
-        <v>45.2980555555555</v>
-      </c>
       <c r="Q13" s="6">
-        <v>-64.801055555555493</v>
+        <v>45.253972222222167</v>
       </c>
       <c r="R13" s="6">
-        <v>45.371388888888831</v>
+        <v>-64.735222222222163</v>
       </c>
       <c r="S13" s="6">
+        <v>45.306805555555499</v>
+      </c>
+      <c r="T13">
         <v>-64.55</v>
       </c>
     </row>
@@ -951,51 +968,54 @@
         <v>4</v>
       </c>
       <c r="B14" s="6">
-        <v>4514.6908000000012</v>
+        <v>4505.5325714285709</v>
       </c>
       <c r="C14" s="6">
         <v>6514</v>
       </c>
       <c r="D14" s="6">
-        <v>4522.1362000000008</v>
+        <v>4515.4274285714273</v>
       </c>
       <c r="E14" s="6">
-        <v>6454.6816000000008</v>
+        <v>6444.5651428571418</v>
       </c>
       <c r="F14" s="6">
-        <v>45.244846666666668</v>
+        <v>45.092209523809501</v>
       </c>
       <c r="G14" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H14" s="6">
-        <v>45.36893666666667</v>
+        <v>45.257123809523833</v>
       </c>
       <c r="I14" s="6">
-        <v>-64.911360000000002</v>
+        <v>-64.742752380952339</v>
       </c>
       <c r="L14" s="6">
-        <v>4518.7649999999985</v>
+        <v>4</v>
       </c>
       <c r="M14" s="6">
-        <v>6449.38</v>
+        <v>4516.119999999999</v>
       </c>
       <c r="N14" s="6">
-        <v>4523.5750000000007</v>
+        <v>6445.4299999999994</v>
       </c>
       <c r="O14" s="6">
+        <v>4519.7000000000007</v>
+      </c>
+      <c r="P14" s="6">
         <v>6433</v>
       </c>
-      <c r="P14" s="6">
-        <v>45.312750000000001</v>
-      </c>
       <c r="Q14" s="6">
-        <v>-64.822999999999993</v>
+        <v>45.268666666666668</v>
       </c>
       <c r="R14" s="6">
-        <v>45.392916666666665</v>
+        <v>-64.757166666666663</v>
       </c>
       <c r="S14" s="6">
+        <v>45.328333333333333</v>
+      </c>
+      <c r="T14">
         <v>-64.55</v>
       </c>
     </row>
@@ -1004,52 +1024,55 @@
         <v>5</v>
       </c>
       <c r="B15" s="6">
-        <v>4516.2544000000016</v>
+        <v>4506.649428571428</v>
       </c>
       <c r="C15" s="6">
         <v>6514</v>
       </c>
       <c r="D15" s="6">
-        <v>4523.2816000000012</v>
+        <v>4516.2455714285697</v>
       </c>
       <c r="E15" s="6">
-        <v>6456.4088000000011</v>
+        <v>6445.7988571428559</v>
       </c>
       <c r="F15" s="6">
-        <v>45.270906666666669</v>
+        <v>45.110823809523836</v>
       </c>
       <c r="G15" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H15" s="6">
-        <v>45.388026666666669</v>
+        <v>45.270759523809502</v>
       </c>
       <c r="I15" s="6">
-        <v>-64.940146666666664</v>
-      </c>
-      <c r="L15" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M15" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N15" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O15" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P15" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q15" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R15" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S15" s="6" t="e">
-        <v>#N/A</v>
+        <v>-64.76331428571433</v>
+      </c>
+      <c r="L15" s="6" t="str">
+        <v>BOTTOM</v>
+      </c>
+      <c r="M15" s="6">
+        <v>4513.4750000000004</v>
+      </c>
+      <c r="N15" s="6">
+        <v>6441.48</v>
+      </c>
+      <c r="O15" s="6">
+        <v>4515.8249999999998</v>
+      </c>
+      <c r="P15" s="6">
+        <v>6433</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>45.224583333333335</v>
+      </c>
+      <c r="R15" s="6">
+        <v>-64.691333333333333</v>
+      </c>
+      <c r="S15" s="6">
+        <v>45.263750000000002</v>
+      </c>
+      <c r="T15">
+        <v>-64.55</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1057,619 +1080,646 @@
         <v>6</v>
       </c>
       <c r="B16" s="6">
-        <v>4517.818000000002</v>
+        <v>4507.766285714285</v>
       </c>
       <c r="C16" s="6">
         <v>6514</v>
       </c>
       <c r="D16" s="6">
-        <v>4524.4270000000015</v>
+        <v>4517.0637142857122</v>
       </c>
       <c r="E16" s="6">
-        <v>6458.1360000000013</v>
+        <v>6447.03257142857</v>
       </c>
       <c r="F16" s="6">
-        <v>45.29696666666667</v>
+        <v>45.129438095238164</v>
       </c>
       <c r="G16" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H16" s="6">
-        <v>45.407116666666667</v>
+        <v>45.284395238095165</v>
       </c>
       <c r="I16" s="6">
-        <v>-64.968933333333339</v>
-      </c>
-      <c r="L16" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M16" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N16" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O16" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P16" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q16" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R16" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S16" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-64.783876190476164</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>7</v>
       </c>
       <c r="B17" s="6">
-        <v>4519.3816000000024</v>
+        <v>4508.883142857142</v>
       </c>
       <c r="C17" s="6">
         <v>6514</v>
       </c>
       <c r="D17" s="6">
-        <v>4525.5724000000018</v>
+        <v>4517.8818571428546</v>
       </c>
       <c r="E17" s="6">
-        <v>6459.8632000000016</v>
+        <v>6448.2662857142841</v>
       </c>
       <c r="F17" s="6">
-        <v>45.323026666666664</v>
+        <v>45.148052380952336</v>
       </c>
       <c r="G17" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H17" s="6">
-        <v>45.426206666666666</v>
+        <v>45.298030952380834</v>
       </c>
       <c r="I17" s="6">
-        <v>-64.997720000000001</v>
-      </c>
-      <c r="K17" s="1" t="str">
-        <f>IF(B3="Both", "North Box", "")</f>
-        <v/>
-      </c>
-      <c r="L17" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M17" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N17" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O17" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P17" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q17" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R17" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S17" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-64.804438095237998</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="6" t="str">
+        <v>NORTH BOX</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>8</v>
       </c>
       <c r="B18" s="6">
-        <v>4520.9452000000028</v>
+        <v>4509.9999999999991</v>
       </c>
       <c r="C18" s="6">
         <v>6514</v>
       </c>
       <c r="D18" s="6">
-        <v>4526.7178000000022</v>
+        <v>4518.6999999999971</v>
       </c>
       <c r="E18" s="6">
-        <v>6461.5904000000019</v>
+        <v>6449.4999999999982</v>
       </c>
       <c r="F18" s="6">
-        <v>45.349086666666665</v>
+        <v>45.166666666666664</v>
       </c>
       <c r="G18" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H18" s="6">
-        <v>45.445296666666664</v>
+        <v>45.311666666666667</v>
       </c>
       <c r="I18" s="6">
-        <v>-65.026506666666663</v>
-      </c>
-      <c r="K18" s="6" t="str">
-        <f t="array" ref="K18">IF(B3="Both", 'Back End'!AF18:AM22, "")</f>
-        <v/>
-      </c>
-      <c r="L18" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M18" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N18" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O18" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P18" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q18" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R18" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S18" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-64.825000000000003</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6" t="str">
+        <v>TOP</v>
+      </c>
+      <c r="M18" s="6">
+        <v>4517.2759939999996</v>
+      </c>
+      <c r="N18" s="6">
+        <v>6503.107994</v>
+      </c>
+      <c r="O18" s="6">
+        <v>4520.348</v>
+      </c>
+      <c r="P18" s="6">
+        <v>6452.4799940000003</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>45.290999999999997</v>
+      </c>
+      <c r="R18" s="6">
+        <v>-65.052999999999997</v>
+      </c>
+      <c r="S18" s="6">
+        <v>45.343000000000004</v>
+      </c>
+      <c r="T18">
+        <v>-64.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>9</v>
       </c>
       <c r="B19" s="6">
-        <v>4522.5088000000032</v>
+        <v>4511.1168571428561</v>
       </c>
       <c r="C19" s="6">
         <v>6514</v>
       </c>
       <c r="D19" s="6">
-        <v>4527.8632000000025</v>
+        <v>4519.5181428571395</v>
       </c>
       <c r="E19" s="6">
-        <v>6463.3176000000021</v>
+        <v>6450.7337142857123</v>
       </c>
       <c r="F19" s="6">
-        <v>45.375146666666666</v>
+        <v>45.185280952381</v>
       </c>
       <c r="G19" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H19" s="6">
-        <v>45.46438666666667</v>
+        <v>45.32530238095233</v>
       </c>
       <c r="I19" s="6">
-        <v>-65.055293333333339</v>
-      </c>
-      <c r="L19" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M19" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N19" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O19" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P19" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q19" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R19" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S19" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-64.845561904761837</v>
+      </c>
+      <c r="L19" s="6" t="str">
+        <v>BOATS</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="6" t="str">
+        <v>Converted</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>10</v>
       </c>
       <c r="B20" s="6">
-        <v>4524.0724000000037</v>
+        <v>4512.2337142857132</v>
       </c>
       <c r="C20" s="6">
         <v>6514</v>
       </c>
       <c r="D20" s="6">
-        <v>4529.0086000000028</v>
+        <v>4520.336285714282</v>
       </c>
       <c r="E20" s="6">
-        <v>6465.0448000000024</v>
+        <v>6451.9674285714264</v>
       </c>
       <c r="F20" s="6">
-        <v>45.401206666666667</v>
+        <v>45.203895238095164</v>
       </c>
       <c r="G20" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H20" s="6">
-        <v>45.483476666666668</v>
+        <v>45.338938095237999</v>
       </c>
       <c r="I20" s="6">
-        <v>-65.08408</v>
-      </c>
-      <c r="L20" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M20" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N20" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O20" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P20" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q20" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R20" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S20" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-64.866123809523828</v>
+      </c>
+      <c r="L20" s="6" t="str">
+        <v>LINES</v>
+      </c>
+      <c r="M20" s="6">
+        <v>4</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>4</v>
+      </c>
+      <c r="P20" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>4</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0</v>
+      </c>
+      <c r="S20" s="6">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>11</v>
       </c>
       <c r="B21" s="6">
-        <v>4525.6360000000041</v>
+        <v>4513.3505714285702</v>
       </c>
       <c r="C21" s="6">
         <v>6514</v>
       </c>
       <c r="D21" s="6">
-        <v>4530.1540000000032</v>
+        <v>4521.1544285714244</v>
       </c>
       <c r="E21" s="6">
-        <v>6466.7720000000027</v>
+        <v>6453.2011428571404</v>
       </c>
       <c r="F21" s="6">
-        <v>45.427266666666668</v>
+        <v>45.222509523809499</v>
       </c>
       <c r="G21" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H21" s="6">
-        <v>45.502566666666667</v>
+        <v>45.352573809523669</v>
       </c>
       <c r="I21" s="6">
-        <v>-65.112866666666662</v>
-      </c>
-      <c r="L21" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M21" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N21" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O21" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P21" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q21" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R21" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S21" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-64.886685714285662</v>
+      </c>
+      <c r="L21" s="6" t="str">
+        <v>SPACING</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0.95199999999992235</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0.60266866666673502</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1.023997999999968</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>1.5333333333333124E-2</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <v>9.3333333333352666E-3</v>
+      </c>
+      <c r="T21">
+        <v>-1.7333333333330831E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>12</v>
       </c>
       <c r="B22" s="6">
-        <v>4527.1996000000045</v>
+        <v>4514.4674285714273</v>
       </c>
       <c r="C22" s="6">
         <v>6514</v>
       </c>
       <c r="D22" s="6">
-        <v>4531.2994000000035</v>
+        <v>4521.9725714285669</v>
       </c>
       <c r="E22" s="6">
-        <v>6468.4992000000029</v>
+        <v>6454.4348571428545</v>
       </c>
       <c r="F22" s="6">
-        <v>45.453326666666669</v>
+        <v>45.241123809523835</v>
       </c>
       <c r="G22" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H22" s="6">
-        <v>45.521656666666665</v>
+        <v>45.366209523809502</v>
       </c>
       <c r="I22" s="6">
-        <v>-65.141653333333338</v>
-      </c>
-      <c r="L22" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M22" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N22" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O22" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P22" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q22" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R22" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S22" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-64.907247619047496</v>
+      </c>
+      <c r="L22" s="6" t="str">
+        <v>LINE #</v>
+      </c>
+      <c r="M22" s="6" t="str">
+        <v>START POINT</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6" t="str">
+        <v>TURN POINT</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6" t="str">
+        <v>START POINT</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0</v>
+      </c>
+      <c r="S22" s="6" t="str">
+        <v>TURN POINT</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>4528.7632000000049</v>
+        <v>4515.5842857142843</v>
       </c>
       <c r="C23" s="6">
         <v>6514</v>
       </c>
       <c r="D23" s="6">
-        <v>4532.4448000000039</v>
+        <v>4522.7907142857093</v>
       </c>
       <c r="E23" s="6">
-        <v>6470.2264000000032</v>
+        <v>6455.6685714285686</v>
       </c>
       <c r="F23" s="6">
-        <v>45.47938666666667</v>
+        <v>45.259738095237999</v>
       </c>
       <c r="G23" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H23" s="6">
-        <v>45.540746666666664</v>
+        <v>45.379845238095164</v>
       </c>
       <c r="I23" s="6">
-        <v>-65.170439999999999</v>
-      </c>
-      <c r="L23" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M23" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N23" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O23" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P23" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q23" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R23" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S23" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-64.927809523809501</v>
+      </c>
+      <c r="L23" s="6">
+        <v>1</v>
+      </c>
+      <c r="M23" s="6">
+        <v>4514.4199939999999</v>
+      </c>
+      <c r="N23" s="6">
+        <v>6503</v>
+      </c>
+      <c r="O23" s="6">
+        <v>4518.5399939999998</v>
+      </c>
+      <c r="P23" s="6">
+        <v>6449.4080000000004</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>45.244999999999997</v>
+      </c>
+      <c r="R23" s="6">
+        <v>-65.052999999999997</v>
+      </c>
+      <c r="S23" s="6">
+        <v>45.314999999999998</v>
+      </c>
+      <c r="T23">
+        <v>-64.828000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>14</v>
       </c>
       <c r="B24" s="6">
-        <v>4530.3268000000053</v>
+        <v>4516.7011428571413</v>
       </c>
       <c r="C24" s="6">
         <v>6514</v>
       </c>
       <c r="D24" s="6">
-        <v>4533.5902000000042</v>
+        <v>4523.6088571428518</v>
       </c>
       <c r="E24" s="6">
-        <v>6471.9536000000035</v>
+        <v>6456.9022857142827</v>
       </c>
       <c r="F24" s="6">
-        <v>45.505446666666835</v>
+        <v>45.278352380952334</v>
       </c>
       <c r="G24" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H24" s="6">
-        <v>45.559836666666669</v>
+        <v>45.393480952380834</v>
       </c>
       <c r="I24" s="6">
-        <v>-65.199226666666661</v>
-      </c>
-      <c r="L24" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M24" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N24" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O24" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P24" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q24" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R24" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S24" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-64.948371428571335</v>
+      </c>
+      <c r="L24" s="6">
+        <v>2</v>
+      </c>
+      <c r="M24" s="6">
+        <v>4515.3719940000001</v>
+      </c>
+      <c r="N24" s="6">
+        <v>6503</v>
+      </c>
+      <c r="O24" s="6">
+        <v>4519.1426626666662</v>
+      </c>
+      <c r="P24" s="6">
+        <v>6450.431998</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>45.260333333333328</v>
+      </c>
+      <c r="R24" s="6">
+        <v>-65.052999999999997</v>
+      </c>
+      <c r="S24" s="6">
+        <v>45.324333333333335</v>
+      </c>
+      <c r="T24">
+        <v>-64.845333333333329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>15</v>
       </c>
       <c r="B25" s="6">
-        <v>4531.8904000000057</v>
+        <v>4517.8179999999984</v>
       </c>
       <c r="C25" s="6">
         <v>6514</v>
       </c>
       <c r="D25" s="6">
-        <v>4534.7356000000045</v>
+        <v>4524.4269999999942</v>
       </c>
       <c r="E25" s="6">
-        <v>6473.6808000000037</v>
+        <v>6458.1359999999968</v>
       </c>
       <c r="F25" s="6">
-        <v>45.531506666666836</v>
+        <v>45.29696666666667</v>
       </c>
       <c r="G25" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H25" s="6">
-        <v>45.578926666666668</v>
+        <v>45.407116666666496</v>
       </c>
       <c r="I25" s="6">
-        <v>-65.228013333333337</v>
-      </c>
-      <c r="L25" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M25" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N25" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O25" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P25" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q25" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R25" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S25" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-64.968933333333339</v>
+      </c>
+      <c r="L25" s="6">
+        <v>3</v>
+      </c>
+      <c r="M25" s="6">
+        <v>4516.3239940000003</v>
+      </c>
+      <c r="N25" s="6">
+        <v>6503</v>
+      </c>
+      <c r="O25" s="6">
+        <v>4519.7453313333326</v>
+      </c>
+      <c r="P25" s="6">
+        <v>6451.4559959999997</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>45.275666666666659</v>
+      </c>
+      <c r="R25" s="6">
+        <v>-65.052999999999997</v>
+      </c>
+      <c r="S25" s="6">
+        <v>45.333666666666673</v>
+      </c>
+      <c r="T25">
+        <v>-64.862666666666655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>16</v>
       </c>
       <c r="B26" s="6">
-        <v>4533.4540000000061</v>
+        <v>4518.9348571428554</v>
       </c>
       <c r="C26" s="6">
         <v>6514</v>
       </c>
       <c r="D26" s="6">
-        <v>4535.8810000000049</v>
+        <v>4525.2451428571367</v>
       </c>
       <c r="E26" s="6">
-        <v>6475.408000000004</v>
+        <v>6459.3697142857109</v>
       </c>
       <c r="F26" s="6">
-        <v>45.55756666666683</v>
+        <v>45.315580952380998</v>
       </c>
       <c r="G26" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H26" s="6">
-        <v>45.598016666666666</v>
+        <v>45.420752380952337</v>
       </c>
       <c r="I26" s="6">
-        <v>-65.256799999999998</v>
-      </c>
-      <c r="L26" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M26" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N26" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O26" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P26" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q26" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R26" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S26" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-64.989495238095174</v>
+      </c>
+      <c r="L26" s="6">
+        <v>4</v>
+      </c>
+      <c r="M26" s="6">
+        <v>4517.2759940000005</v>
+      </c>
+      <c r="N26" s="6">
+        <v>6503</v>
+      </c>
+      <c r="O26" s="6">
+        <v>4520.347999999999</v>
+      </c>
+      <c r="P26" s="6">
+        <v>6452.4799939999994</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>45.29099999999999</v>
+      </c>
+      <c r="R26" s="6">
+        <v>-65.052999999999997</v>
+      </c>
+      <c r="S26" s="6">
+        <v>45.343000000000011</v>
+      </c>
+      <c r="T26">
+        <v>-64.879999999999981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>17</v>
       </c>
       <c r="B27" s="6">
-        <v>4535.0176000000065</v>
+        <v>4520.0517142857125</v>
       </c>
       <c r="C27" s="6">
         <v>6514</v>
       </c>
       <c r="D27" s="6">
-        <v>4537.0264000000052</v>
+        <v>4526.0632857142791</v>
       </c>
       <c r="E27" s="6">
-        <v>6477.1352000000043</v>
+        <v>6460.603428571425</v>
       </c>
       <c r="F27" s="6">
-        <v>45.583626666666831</v>
+        <v>45.33419523809517</v>
       </c>
       <c r="G27" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H27" s="6">
-        <v>45.617106666666835</v>
+        <v>45.434388095237999</v>
       </c>
       <c r="I27" s="6">
-        <v>-65.28558666666666</v>
+        <v>-65.010057142856994</v>
       </c>
       <c r="L27" s="6" t="e">
         <v>#N/A</v>
@@ -1695,34 +1745,37 @@
       <c r="S27" s="6" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>18</v>
       </c>
       <c r="B28" s="6">
-        <v>4536.5812000000069</v>
+        <v>4521.1685714285695</v>
       </c>
       <c r="C28" s="6">
         <v>6514</v>
       </c>
       <c r="D28" s="6">
-        <v>4538.1718000000055</v>
+        <v>4526.8814285714216</v>
       </c>
       <c r="E28" s="6">
-        <v>6478.8624000000045</v>
+        <v>6461.837142857139</v>
       </c>
       <c r="F28" s="6">
-        <v>45.609686666666832</v>
+        <v>45.352809523809498</v>
       </c>
       <c r="G28" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H28" s="6">
-        <v>45.636196666666834</v>
+        <v>45.448023809523669</v>
       </c>
       <c r="I28" s="6">
-        <v>-65.314373333333336</v>
+        <v>-65.030619047618998</v>
       </c>
       <c r="L28" s="6" t="e">
         <v>#N/A</v>
@@ -1748,8 +1801,11 @@
       <c r="S28" s="6" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>19</v>
       </c>
@@ -1801,8 +1857,11 @@
       <c r="S29" s="6" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T29" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>20</v>
       </c>
@@ -1854,8 +1913,11 @@
       <c r="S30" s="6" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T30" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>21</v>
       </c>
@@ -1907,8 +1969,11 @@
       <c r="S31" s="6" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T31" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>22</v>
       </c>
@@ -1960,8 +2025,11 @@
       <c r="S32" s="6" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T32" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>23</v>
       </c>
@@ -2013,8 +2081,11 @@
       <c r="S33" s="6" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T33" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>24</v>
       </c>
@@ -2066,21 +2137,24 @@
       <c r="S34" s="6" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="T34" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3052,37 +3126,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:E998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>45.166666666666664</v>
@@ -3099,198 +3174,258 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>45.218786666666666</v>
+        <v>45.244999999999997</v>
       </c>
       <c r="C3">
-        <v>-65.233333333333334</v>
+        <v>-65.052999999999997</v>
       </c>
       <c r="D3">
-        <v>45.349846666666664</v>
+        <v>45.314999999999998</v>
       </c>
       <c r="E3">
-        <v>-64.88257333333334</v>
+        <v>-64.828000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>41</v>
+      <c r="A4" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B4">
-        <v>45.270906666666669</v>
+        <v>45.260333333333328</v>
       </c>
       <c r="C4">
-        <v>-65.233333333333334</v>
+        <v>-65.052999999999997</v>
       </c>
       <c r="D4">
-        <v>45.388026666666669</v>
+        <v>45.324333333333335</v>
       </c>
       <c r="E4">
-        <v>-64.940146666666664</v>
+        <v>-64.845333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>40</v>
+      <c r="A5" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>45.192726666666665</v>
+        <v>45.275666666666659</v>
       </c>
       <c r="C5">
-        <v>-65.233333333333334</v>
+        <v>-65.052999999999997</v>
       </c>
       <c r="D5">
-        <v>45.330756666666666</v>
+        <v>45.333666666666673</v>
       </c>
       <c r="E5">
-        <v>-64.853786666666664</v>
+        <v>-64.862666666666655</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>40</v>
+      <c r="A6" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>45.244846666666668</v>
+        <v>45.29099999999999</v>
       </c>
       <c r="C6">
-        <v>-65.233333333333334</v>
+        <v>-65.052999999999997</v>
       </c>
       <c r="D6">
-        <v>45.36893666666667</v>
+        <v>45.343000000000011</v>
       </c>
       <c r="E6">
-        <v>-64.911360000000002</v>
+        <v>-64.879999999999981</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>40</v>
+      <c r="A7" t="s">
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>45.29696666666667</v>
+        <v>45.073595238095166</v>
       </c>
       <c r="C7">
         <v>-65.233333333333334</v>
       </c>
       <c r="D7">
-        <v>45.407116666666667</v>
+        <v>45.243488095238</v>
       </c>
       <c r="E7">
-        <v>-64.968933333333339</v>
+        <v>-64.722190476190505</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>45.129438095238164</v>
+      </c>
+      <c r="C8">
+        <v>-65.233333333333334</v>
+      </c>
+      <c r="D8">
+        <v>45.284395238095165</v>
+      </c>
+      <c r="E8">
+        <v>-64.783876190476164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>45.054980952381001</v>
+      </c>
+      <c r="C9">
+        <v>-65.233333333333334</v>
+      </c>
+      <c r="D9">
+        <v>45.22985238095233</v>
+      </c>
+      <c r="E9">
+        <v>-64.7016285714285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>45.110823809523836</v>
+      </c>
+      <c r="C10">
+        <v>-65.233333333333334</v>
+      </c>
+      <c r="D10">
+        <v>45.270759523809502</v>
+      </c>
+      <c r="E10">
+        <v>-64.76331428571433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>45.036366666666666</v>
+      </c>
+      <c r="C11">
+        <v>-65.233333333333334</v>
+      </c>
+      <c r="D11">
+        <v>45.216216666666668</v>
+      </c>
+      <c r="E11">
+        <v>-64.681066666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45.224583333333335</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-64.691333333333333</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45.263750000000002</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-64.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45.239277777777836</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-64.713277777777833</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45.285277777777836</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-64.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45.253972222222167</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-64.735222222222163</v>
+      </c>
+      <c r="D14" s="6">
+        <v>45.306805555555499</v>
+      </c>
+      <c r="E14" s="6">
+        <v>-64.55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6">
         <v>45.268666666666668</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C15" s="6">
         <v>-64.757166666666663</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D15" s="6">
         <v>45.328333333333333</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E15" s="6">
         <v>-64.55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="6">
-        <v>45.283361111111169</v>
-      </c>
-      <c r="C9" s="6">
-        <v>-64.779111111111163</v>
-      </c>
-      <c r="D9" s="6">
-        <v>45.349861111111167</v>
-      </c>
-      <c r="E9" s="6">
-        <v>-64.55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="6">
-        <v>45.2980555555555</v>
-      </c>
-      <c r="C10" s="6">
-        <v>-64.801055555555493</v>
-      </c>
-      <c r="D10" s="6">
-        <v>45.371388888888831</v>
-      </c>
-      <c r="E10" s="6">
-        <v>-64.55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="6">
-        <v>45.312750000000001</v>
-      </c>
-      <c r="C11" s="6">
-        <v>-64.822999999999993</v>
-      </c>
-      <c r="D11" s="6">
-        <v>45.392916666666665</v>
-      </c>
-      <c r="E11" s="6">
-        <v>-64.55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>45.092209523809501</v>
+      </c>
+      <c r="C16">
+        <v>-65.233333333333334</v>
+      </c>
+      <c r="D16">
+        <v>45.257123809523833</v>
+      </c>
+      <c r="E16">
+        <v>-64.742752380952339</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>45.148052380952336</v>
+      </c>
+      <c r="C17">
+        <v>-65.233333333333334</v>
+      </c>
+      <c r="D17">
+        <v>45.298030952380834</v>
+      </c>
+      <c r="E17">
+        <v>-64.804438095237998</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -3299,27 +3434,15 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4297,8 +4420,6 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4307,274 +4428,317 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:E997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="6">
-        <v>4510</v>
-      </c>
-      <c r="C2" s="6">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>4509.9999999999991</v>
+      </c>
+      <c r="C2">
         <v>6514</v>
       </c>
-      <c r="D2" s="6">
-        <v>4518.7</v>
-      </c>
-      <c r="E2" s="6">
-        <v>6449.5</v>
+      <c r="D2">
+        <v>4518.6999999999971</v>
+      </c>
+      <c r="E2">
+        <v>6449.4999999999982</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4514.4199939999999</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6503</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4518.5399939999998</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6449.4080000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4515.3719940000001</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6503</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4519.1426626666662</v>
+      </c>
+      <c r="E4" s="6">
+        <v>6450.431998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4516.3239940000003</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6503</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4519.7453313333326</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6451.4559959999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4517.2759940000005</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6503</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4520.347999999999</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6452.4799939999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>4504.4157142857139</v>
+      </c>
+      <c r="C7">
+        <v>6514</v>
+      </c>
+      <c r="D7">
+        <v>4514.6092857142849</v>
+      </c>
+      <c r="E7">
+        <v>6443.3314285714278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>4507.766285714285</v>
+      </c>
+      <c r="C8">
+        <v>6514</v>
+      </c>
+      <c r="D8">
+        <v>4517.0637142857122</v>
+      </c>
+      <c r="E8">
+        <v>6447.03257142857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>4503.2988571428568</v>
+      </c>
+      <c r="C9">
+        <v>6514</v>
+      </c>
+      <c r="D9">
+        <v>4513.7911428571424</v>
+      </c>
+      <c r="E9">
+        <v>6442.0977142857137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>4506.649428571428</v>
+      </c>
+      <c r="C10">
+        <v>6514</v>
+      </c>
+      <c r="D10">
+        <v>4516.2455714285697</v>
+      </c>
+      <c r="E10">
+        <v>6445.7988571428559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>4502.1819999999998</v>
+      </c>
+      <c r="C11">
+        <v>6514</v>
+      </c>
+      <c r="D11">
+        <v>4512.973</v>
+      </c>
+      <c r="E11">
+        <v>6440.8639999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>4513.4750000000004</v>
+      </c>
+      <c r="C12">
+        <v>6441.48</v>
+      </c>
+      <c r="D12">
+        <v>4515.8249999999998</v>
+      </c>
+      <c r="E12">
+        <v>6433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4514.3566666666666</v>
+      </c>
+      <c r="C13" s="6">
+        <v>6442.7966666666662</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4517.1166666666668</v>
+      </c>
+      <c r="E13" s="6">
+        <v>6433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="6">
+        <v>4515.2383333333328</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6444.1133333333328</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4518.4083333333338</v>
+      </c>
+      <c r="E14" s="6">
+        <v>6433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4516.119999999999</v>
+      </c>
+      <c r="C15" s="6">
+        <v>6445.4299999999994</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4519.7000000000007</v>
+      </c>
+      <c r="E15" s="6">
+        <v>6433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="6">
-        <v>4513.1272000000008</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B16">
+        <v>4505.5325714285709</v>
+      </c>
+      <c r="C16">
         <v>6514</v>
       </c>
-      <c r="D3" s="6">
-        <v>4520.9908000000005</v>
-      </c>
-      <c r="E3" s="6">
-        <v>6452.9544000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="D16">
+        <v>4515.4274285714273</v>
+      </c>
+      <c r="E16">
+        <v>6444.5651428571418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="6">
-        <v>4516.2544000000016</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B17">
+        <v>4508.883142857142</v>
+      </c>
+      <c r="C17">
         <v>6514</v>
       </c>
-      <c r="D4" s="6">
-        <v>4523.2816000000012</v>
-      </c>
-      <c r="E4" s="6">
-        <v>6456.4088000000011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4511.5636000000004</v>
-      </c>
-      <c r="C5" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D5" s="6">
-        <v>4519.8454000000002</v>
-      </c>
-      <c r="E5" s="6">
-        <v>6451.2272000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="6">
-        <v>4514.6908000000012</v>
-      </c>
-      <c r="C6" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D6" s="6">
-        <v>4522.1362000000008</v>
-      </c>
-      <c r="E6" s="6">
-        <v>6454.6816000000008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="6">
-        <v>4517.818000000002</v>
-      </c>
-      <c r="C7" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D7" s="6">
-        <v>4524.4270000000015</v>
-      </c>
-      <c r="E7" s="6">
-        <v>6458.1360000000013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="6">
-        <v>4516.12</v>
-      </c>
-      <c r="C8" s="6">
-        <v>6445.43</v>
-      </c>
-      <c r="D8" s="6">
-        <v>4519.7</v>
-      </c>
-      <c r="E8" s="6">
-        <v>6433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="6">
-        <v>4517.0016666666661</v>
-      </c>
-      <c r="C9" s="6">
-        <v>6446.7466666666669</v>
-      </c>
-      <c r="D9" s="6">
-        <v>4520.9916666666668</v>
-      </c>
-      <c r="E9" s="6">
-        <v>6433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="6">
-        <v>4517.8833333333323</v>
-      </c>
-      <c r="C10" s="6">
-        <v>6448.0633333333335</v>
-      </c>
-      <c r="D10" s="6">
-        <v>4522.2833333333338</v>
-      </c>
-      <c r="E10" s="6">
-        <v>6433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="6">
-        <v>4518.7649999999985</v>
-      </c>
-      <c r="C11" s="6">
-        <v>6449.38</v>
-      </c>
-      <c r="D11" s="6">
-        <v>4523.5750000000007</v>
-      </c>
-      <c r="E11" s="6">
-        <v>6433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>4517.8818571428546</v>
+      </c>
+      <c r="E17">
+        <v>6448.2662857142841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5551,9 +5715,6 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5564,7 +5725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AJ23" sqref="AJ23:AK23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5579,45 +5742,64 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6">
         <v>4334</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L2" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V2" s="6">
         <v>4510</v>
       </c>
+      <c r="W2" s="6">
+        <v>6514</v>
+      </c>
       <c r="X2" s="6">
         <v>4518.7</v>
       </c>
       <c r="Y2" s="6">
         <v>6449.5</v>
       </c>
+      <c r="Z2" s="6">
+        <f t="shared" ref="Z2" si="0">(LEFT(V2,2)+((RIGHT(V2,LEN(V2)-2))/60))</f>
+        <v>45.166666666666664</v>
+      </c>
+      <c r="AA2" s="6">
+        <f t="shared" ref="AA2" si="1">-(LEFT(W2,2)+((RIGHT(W2,LEN(W2)-2))/60))</f>
+        <v>-65.233333333333334</v>
+      </c>
+      <c r="AB2" s="6">
+        <f t="shared" ref="AB2" si="2">(LEFT(X2,2)+((RIGHT(X2,LEN(X2)-2))/60))</f>
+        <v>45.311666666666667</v>
+      </c>
+      <c r="AC2" s="6">
+        <f t="shared" ref="AC2" si="3">-(LEFT(Y2,2)+((RIGHT(Y2,LEN(Y2)-2))/60))</f>
+        <v>-64.825000000000003</v>
+      </c>
       <c r="AE2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" s="6">
         <v>4516.12</v>
@@ -5628,33 +5810,52 @@
       <c r="AH2" s="6">
         <v>4519.7</v>
       </c>
+      <c r="AI2" s="6">
+        <v>6433</v>
+      </c>
+      <c r="AJ2" s="6">
+        <f t="shared" ref="AJ2" si="4">(LEFT(AF2,2)+((RIGHT(AF2,LEN(AF2)-2))/60))</f>
+        <v>45.268666666666668</v>
+      </c>
+      <c r="AK2" s="6">
+        <f t="shared" ref="AK2" si="5">-(LEFT(AG2,2)+((RIGHT(AG2,LEN(AG2)-2))/60))</f>
+        <v>-64.757166666666663</v>
+      </c>
+      <c r="AL2" s="6">
+        <f t="shared" ref="AL2" si="6">(LEFT(AH2,2)+((RIGHT(AH2,LEN(AH2)-2))/60))</f>
+        <v>45.328333333333333</v>
+      </c>
+      <c r="AM2" s="6">
+        <f t="shared" ref="AM2" si="7">-(LEFT(AI2,2)+((RIGHT(AI2,LEN(AI2)-2))/60))</f>
+        <v>-64.55</v>
+      </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6">
         <v>6614.4</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3" s="6">
         <v>6607.5</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V3" s="8">
         <f>B4</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X3" s="6">
-        <f t="shared" ref="X3:X4" si="0">V3</f>
-        <v>3</v>
+        <f t="shared" ref="X3:X4" si="8">V3</f>
+        <v>4</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF3" s="6">
         <v>1</v>
@@ -5674,11 +5875,11 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="8">
         <f>'Data Entry'!B1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -5689,11 +5890,11 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L4" s="8">
         <f>B4</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -5701,47 +5902,47 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="U4" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V4" s="6">
         <f>V3*2</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X4" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="Y4" s="6">
         <f>X4</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF4" s="6">
-        <f t="shared" ref="AF4:AI4" si="1">AF3*4</f>
+        <f t="shared" ref="AF4:AI4" si="9">AF3*4</f>
         <v>4</v>
       </c>
       <c r="AG4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AH4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AI4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="6">
         <f>B4*2</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -5749,118 +5950,118 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L5" s="6">
         <f>(L31-L3)/(L4-1)</f>
-        <v>3.1500000000000909</v>
+        <v>2.1000000000000605</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="V5" s="6">
         <f>(V2-V25)/(V4-1)</f>
-        <v>1.5636000000000423</v>
+        <v>1.116857142857173</v>
       </c>
       <c r="X5" s="6">
-        <f t="shared" ref="X5:Y5" si="2">(X2-X25)/(X4-1)</f>
-        <v>1.1453999999999724</v>
+        <f t="shared" ref="X5:Y5" si="10">(X2-X25)/(X4-1)</f>
+        <v>0.81814285714283741</v>
       </c>
       <c r="Y5" s="6">
-        <f t="shared" si="2"/>
-        <v>1.7272000000000844</v>
+        <f t="shared" si="10"/>
+        <v>1.2337142857143459</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF5" s="6">
-        <f t="shared" ref="AF5:AH5" si="3">(AF2-AF11)/(AF4-1)</f>
+        <f t="shared" ref="AF5:AH5" si="11">(AF2-AF11)/(AF4-1)</f>
         <v>0.88166666666650906</v>
       </c>
       <c r="AG5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.3166666666669091</v>
       </c>
       <c r="AH5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.2916666666666667</v>
       </c>
       <c r="AJ5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="6">
         <f>(B32-B3)/(B5-1)</f>
-        <v>3.0400000000001457</v>
+        <v>2.1714285714286752</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ6" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K7" s="6">
         <v>1</v>
@@ -5876,91 +6077,91 @@
         <v>4314.8500000000004</v>
       </c>
       <c r="O7" s="6">
-        <f t="shared" ref="O7:O30" si="4">M7</f>
+        <f t="shared" ref="O7:O30" si="12">M7</f>
         <v>6607.5</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" ref="P7:P30" si="5">(LEFT(L7,2)+((RIGHT(L7,LEN(L7)-2))/60))</f>
+        <f t="shared" ref="P7:P30" si="13">(LEFT(L7,2)+((RIGHT(L7,LEN(L7)-2))/60))</f>
         <v>43.502000000000002</v>
       </c>
       <c r="Q7" s="6">
-        <f t="shared" ref="Q7:Q30" si="6">-(LEFT(M7,2)+((RIGHT(M7,LEN(M7)-2))/60))</f>
+        <f t="shared" ref="Q7:Q30" si="14">-(LEFT(M7,2)+((RIGHT(M7,LEN(M7)-2))/60))</f>
         <v>-66.125</v>
       </c>
       <c r="R7" s="6">
-        <f t="shared" ref="R7:S7" si="7">P7</f>
+        <f t="shared" ref="R7:S7" si="15">P7</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S7" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-66.125</v>
       </c>
       <c r="U7" s="6">
         <v>1</v>
       </c>
       <c r="V7" s="6">
-        <f>V2</f>
-        <v>4510</v>
+        <f>V25</f>
+        <v>4502.1819999999998</v>
       </c>
       <c r="W7" s="6">
         <v>6514</v>
       </c>
       <c r="X7" s="6">
-        <f t="shared" ref="X7:Y7" si="8">X2</f>
-        <v>4518.7</v>
+        <f>X25</f>
+        <v>4512.973</v>
       </c>
       <c r="Y7" s="6">
-        <f t="shared" si="8"/>
-        <v>6449.5</v>
+        <f>Y25</f>
+        <v>6440.8639999999996</v>
       </c>
       <c r="Z7" s="6">
-        <f t="shared" ref="Z7:Z24" si="9">(LEFT(V7,2)+((RIGHT(V7,LEN(V7)-2))/60))</f>
-        <v>45.166666666666664</v>
+        <f t="shared" ref="Z7:Z25" si="16">(LEFT(V7,2)+((RIGHT(V7,LEN(V7)-2))/60))</f>
+        <v>45.036366666666666</v>
       </c>
       <c r="AA7" s="6">
-        <f t="shared" ref="AA7:AA24" si="10">-(LEFT(W7,2)+((RIGHT(W7,LEN(W7)-2))/60))</f>
+        <f t="shared" ref="AA7:AA25" si="17">-(LEFT(W7,2)+((RIGHT(W7,LEN(W7)-2))/60))</f>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB7" s="6">
-        <f t="shared" ref="AB7:AB24" si="11">(LEFT(X7,2)+((RIGHT(X7,LEN(X7)-2))/60))</f>
-        <v>45.311666666666667</v>
+        <f t="shared" ref="AB7:AB25" si="18">(LEFT(X7,2)+((RIGHT(X7,LEN(X7)-2))/60))</f>
+        <v>45.216216666666668</v>
       </c>
       <c r="AC7" s="6">
-        <f t="shared" ref="AC7:AC24" si="12">-(LEFT(Y7,2)+((RIGHT(Y7,LEN(Y7)-2))/60))</f>
-        <v>-64.825000000000003</v>
+        <f t="shared" ref="AC7:AC25" si="19">-(LEFT(Y7,2)+((RIGHT(Y7,LEN(Y7)-2))/60))</f>
+        <v>-64.681066666666666</v>
       </c>
       <c r="AE7" s="6">
         <v>1</v>
       </c>
       <c r="AF7" s="6">
-        <f t="shared" ref="AF7:AH7" si="13">AF2</f>
-        <v>4516.12</v>
+        <f>AF11</f>
+        <v>4513.4750000000004</v>
       </c>
       <c r="AG7" s="6">
-        <f t="shared" si="13"/>
-        <v>6445.43</v>
+        <f>AG11</f>
+        <v>6441.48</v>
       </c>
       <c r="AH7" s="6">
-        <f t="shared" si="13"/>
-        <v>4519.7</v>
+        <f>AH11</f>
+        <v>4515.8249999999998</v>
       </c>
       <c r="AI7" s="6">
         <v>6433</v>
       </c>
       <c r="AJ7" s="6">
-        <f t="shared" ref="AJ7:AJ10" si="14">(LEFT(AF7,2)+((RIGHT(AF7,LEN(AF7)-2))/60))</f>
-        <v>45.268666666666668</v>
+        <f t="shared" ref="AJ7:AJ10" si="20">(LEFT(AF7,2)+((RIGHT(AF7,LEN(AF7)-2))/60))</f>
+        <v>45.224583333333335</v>
       </c>
       <c r="AK7" s="6">
-        <f t="shared" ref="AK7:AK10" si="15">-(LEFT(AG7,2)+((RIGHT(AG7,LEN(AG7)-2))/60))</f>
-        <v>-64.757166666666663</v>
+        <f t="shared" ref="AK7:AK10" si="21">-(LEFT(AG7,2)+((RIGHT(AG7,LEN(AG7)-2))/60))</f>
+        <v>-64.691333333333333</v>
       </c>
       <c r="AL7" s="6">
-        <f t="shared" ref="AL7:AL10" si="16">(LEFT(AH7,2)+((RIGHT(AH7,LEN(AH7)-2))/60))</f>
-        <v>45.328333333333333</v>
+        <f t="shared" ref="AL7:AL10" si="22">(LEFT(AH7,2)+((RIGHT(AH7,LEN(AH7)-2))/60))</f>
+        <v>45.263750000000002</v>
       </c>
       <c r="AM7" s="6">
-        <f t="shared" ref="AM7:AM10" si="17">-(LEFT(AI7,2)+((RIGHT(AI7,LEN(AI7)-2))/60))</f>
+        <f t="shared" ref="AM7:AM10" si="23">-(LEFT(AI7,2)+((RIGHT(AI7,LEN(AI7)-2))/60))</f>
         <v>-64.55</v>
       </c>
     </row>
@@ -5979,27 +6180,27 @@
         <v>4314</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" ref="E8:E31" si="18">C8</f>
+        <f t="shared" ref="E8:E31" si="24">C8</f>
         <v>6614.4</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" ref="F8:F31" si="19">(LEFT(B8,2)+((RIGHT(B8,LEN(B8)-2))/60))</f>
+        <f t="shared" ref="F8:F31" si="25">(LEFT(B8,2)+((RIGHT(B8,LEN(B8)-2))/60))</f>
         <v>43.56666666666667</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" ref="G8:G31" si="20">-(LEFT(C8,2)+((RIGHT(C8,LEN(C8)-2))/60))</f>
+        <f t="shared" ref="G8:G31" si="26">-(LEFT(C8,2)+((RIGHT(C8,LEN(C8)-2))/60))</f>
         <v>-66.239999999999995</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" ref="H8:I8" si="21">F8</f>
+        <f t="shared" ref="H8:I8" si="27">F8</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>-66.239999999999995</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" ref="K8:K30" si="22">K7+1</f>
+        <f t="shared" ref="K8:K30" si="28">K7+1</f>
         <v>2</v>
       </c>
       <c r="L8" s="6">
@@ -6007,104 +6208,104 @@
       </c>
       <c r="M8" s="6">
         <f>M7+L5</f>
-        <v>6610.65</v>
+        <v>6609.6</v>
       </c>
       <c r="N8" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="4"/>
-        <v>6610.65</v>
+        <f t="shared" si="12"/>
+        <v>6609.6</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.177499999999995</v>
+        <f t="shared" si="14"/>
+        <v>-66.16</v>
       </c>
       <c r="R8" s="6">
-        <f t="shared" ref="R8:S8" si="23">P8</f>
+        <f t="shared" ref="R8:S8" si="29">P8</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S8" s="6">
-        <f t="shared" si="23"/>
-        <v>-66.177499999999995</v>
+        <f t="shared" si="29"/>
+        <v>-66.16</v>
       </c>
       <c r="U8" s="6">
-        <f t="shared" ref="U8:U24" si="24">U7+1</f>
+        <f t="shared" ref="U8:U24" si="30">U7+1</f>
         <v>2</v>
       </c>
       <c r="V8" s="6">
         <f>V7+$V5</f>
-        <v>4511.5636000000004</v>
+        <v>4503.2988571428568</v>
       </c>
       <c r="W8" s="6">
         <v>6514</v>
       </c>
       <c r="X8" s="6">
-        <f t="shared" ref="X8:Y8" si="25">X7+X5</f>
-        <v>4519.8454000000002</v>
+        <f t="shared" ref="X8:Y8" si="31">X7+X5</f>
+        <v>4513.7911428571424</v>
       </c>
       <c r="Y8" s="6">
-        <f t="shared" si="25"/>
-        <v>6451.2272000000003</v>
+        <f t="shared" si="31"/>
+        <v>6442.0977142857137</v>
       </c>
       <c r="Z8" s="6">
-        <f t="shared" si="9"/>
-        <v>45.192726666666665</v>
+        <f t="shared" si="16"/>
+        <v>45.054980952381001</v>
       </c>
       <c r="AA8" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB8" s="6">
-        <f t="shared" si="11"/>
-        <v>45.330756666666666</v>
+        <f t="shared" si="18"/>
+        <v>45.22985238095233</v>
       </c>
       <c r="AC8" s="6">
-        <f t="shared" si="12"/>
-        <v>-64.853786666666664</v>
+        <f t="shared" si="19"/>
+        <v>-64.7016285714285</v>
       </c>
       <c r="AE8" s="6">
         <v>2</v>
       </c>
       <c r="AF8" s="6">
-        <f t="shared" ref="AF8:AH8" si="26">AF7+AF5</f>
-        <v>4517.0016666666661</v>
+        <f t="shared" ref="AF8:AH8" si="32">AF7+AF5</f>
+        <v>4514.3566666666666</v>
       </c>
       <c r="AG8" s="6">
-        <f t="shared" si="26"/>
-        <v>6446.7466666666669</v>
+        <f t="shared" si="32"/>
+        <v>6442.7966666666662</v>
       </c>
       <c r="AH8" s="6">
-        <f t="shared" si="26"/>
-        <v>4520.9916666666668</v>
+        <f t="shared" si="32"/>
+        <v>4517.1166666666668</v>
       </c>
       <c r="AI8" s="6">
         <v>6433</v>
       </c>
       <c r="AJ8" s="6">
-        <f t="shared" si="14"/>
-        <v>45.283361111111169</v>
+        <f t="shared" si="20"/>
+        <v>45.239277777777836</v>
       </c>
       <c r="AK8" s="6">
-        <f t="shared" si="15"/>
-        <v>-64.779111111111163</v>
+        <f t="shared" si="21"/>
+        <v>-64.713277777777833</v>
       </c>
       <c r="AL8" s="6">
-        <f t="shared" si="16"/>
-        <v>45.349861111111167</v>
+        <f t="shared" si="22"/>
+        <v>45.285277777777836</v>
       </c>
       <c r="AM8" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-64.55</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <f t="shared" ref="A9:A31" si="27">A8+1</f>
+        <f t="shared" ref="A9:A31" si="33">A8+1</f>
         <v>2</v>
       </c>
       <c r="B9" s="6">
@@ -6112,33 +6313,33 @@
       </c>
       <c r="C9" s="6">
         <f>C8+B6</f>
-        <v>6617.44</v>
+        <v>6616.5714285714284</v>
       </c>
       <c r="D9" s="6">
         <v>4314</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="18"/>
-        <v>6617.44</v>
+        <f t="shared" si="24"/>
+        <v>6616.5714285714284</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="20"/>
-        <v>-66.290666666666667</v>
+        <f t="shared" si="26"/>
+        <v>-66.276190476190493</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" ref="H9:I9" si="28">F9</f>
+        <f t="shared" ref="H9:I9" si="34">F9</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I9" s="6">
+        <f t="shared" si="34"/>
+        <v>-66.276190476190493</v>
+      </c>
+      <c r="K9" s="6">
         <f t="shared" si="28"/>
-        <v>-66.290666666666667</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="L9" s="6">
@@ -6146,104 +6347,104 @@
       </c>
       <c r="M9" s="6">
         <f>M8+L5</f>
-        <v>6613.7999999999993</v>
+        <v>6611.7000000000007</v>
       </c>
       <c r="N9" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" si="4"/>
-        <v>6613.7999999999993</v>
+        <f t="shared" si="12"/>
+        <v>6611.7000000000007</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q9" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.23</v>
+        <f t="shared" si="14"/>
+        <v>-66.194999999999993</v>
       </c>
       <c r="R9" s="6">
-        <f t="shared" ref="R9:S9" si="29">P9</f>
+        <f t="shared" ref="R9:S9" si="35">P9</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S9" s="6">
-        <f t="shared" si="29"/>
-        <v>-66.23</v>
+        <f t="shared" si="35"/>
+        <v>-66.194999999999993</v>
       </c>
       <c r="U9" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="V9" s="6">
         <f>V8+$V5</f>
-        <v>4513.1272000000008</v>
+        <v>4504.4157142857139</v>
       </c>
       <c r="W9" s="6">
         <v>6514</v>
       </c>
       <c r="X9" s="6">
-        <f t="shared" ref="X9:Y9" si="30">X8+X5</f>
-        <v>4520.9908000000005</v>
+        <f t="shared" ref="X9:Y9" si="36">X8+X5</f>
+        <v>4514.6092857142849</v>
       </c>
       <c r="Y9" s="6">
-        <f t="shared" si="30"/>
-        <v>6452.9544000000005</v>
+        <f t="shared" si="36"/>
+        <v>6443.3314285714278</v>
       </c>
       <c r="Z9" s="6">
-        <f t="shared" si="9"/>
-        <v>45.218786666666666</v>
+        <f t="shared" si="16"/>
+        <v>45.073595238095166</v>
       </c>
       <c r="AA9" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB9" s="6">
-        <f t="shared" si="11"/>
-        <v>45.349846666666664</v>
+        <f t="shared" si="18"/>
+        <v>45.243488095238</v>
       </c>
       <c r="AC9" s="6">
-        <f t="shared" si="12"/>
-        <v>-64.88257333333334</v>
+        <f t="shared" si="19"/>
+        <v>-64.722190476190505</v>
       </c>
       <c r="AE9" s="6">
         <v>3</v>
       </c>
       <c r="AF9" s="6">
-        <f t="shared" ref="AF9:AH9" si="31">AF8+AF5</f>
-        <v>4517.8833333333323</v>
+        <f t="shared" ref="AF9:AH9" si="37">AF8+AF5</f>
+        <v>4515.2383333333328</v>
       </c>
       <c r="AG9" s="6">
-        <f t="shared" si="31"/>
-        <v>6448.0633333333335</v>
+        <f t="shared" si="37"/>
+        <v>6444.1133333333328</v>
       </c>
       <c r="AH9" s="6">
-        <f t="shared" si="31"/>
-        <v>4522.2833333333338</v>
+        <f t="shared" si="37"/>
+        <v>4518.4083333333338</v>
       </c>
       <c r="AI9" s="6">
         <v>6433</v>
       </c>
       <c r="AJ9" s="6">
-        <f t="shared" si="14"/>
-        <v>45.2980555555555</v>
+        <f t="shared" si="20"/>
+        <v>45.253972222222167</v>
       </c>
       <c r="AK9" s="6">
-        <f t="shared" si="15"/>
-        <v>-64.801055555555493</v>
+        <f t="shared" si="21"/>
+        <v>-64.735222222222163</v>
       </c>
       <c r="AL9" s="6">
-        <f t="shared" si="16"/>
-        <v>45.371388888888831</v>
+        <f t="shared" si="22"/>
+        <v>45.306805555555499</v>
       </c>
       <c r="AM9" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-64.55</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="B10" s="6">
@@ -6251,33 +6452,33 @@
       </c>
       <c r="C10" s="6">
         <f>C9+B6</f>
-        <v>6620.48</v>
+        <v>6618.7428571428572</v>
       </c>
       <c r="D10" s="6">
         <v>4314</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="18"/>
-        <v>6620.48</v>
+        <f t="shared" si="24"/>
+        <v>6618.7428571428572</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="20"/>
-        <v>-66.341333333333338</v>
+        <f t="shared" si="26"/>
+        <v>-66.312380952381005</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ref="H10:I10" si="32">F10</f>
+        <f t="shared" ref="H10:I10" si="38">F10</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="32"/>
-        <v>-66.341333333333338</v>
+        <f t="shared" si="38"/>
+        <v>-66.312380952381005</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="L10" s="6">
@@ -6285,104 +6486,104 @@
       </c>
       <c r="M10" s="6">
         <f>M9+L5</f>
-        <v>6616.9499999999989</v>
+        <v>6613.8000000000011</v>
       </c>
       <c r="N10" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="4"/>
-        <v>6616.9499999999989</v>
+        <f t="shared" si="12"/>
+        <v>6613.8000000000011</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q10" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.282499999999999</v>
+        <f t="shared" si="14"/>
+        <v>-66.23</v>
       </c>
       <c r="R10" s="6">
-        <f t="shared" ref="R10:S10" si="33">P10</f>
+        <f t="shared" ref="R10:S10" si="39">P10</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S10" s="6">
-        <f t="shared" si="33"/>
-        <v>-66.282499999999999</v>
+        <f t="shared" si="39"/>
+        <v>-66.23</v>
       </c>
       <c r="U10" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="V10" s="6">
         <f>V9+$V5</f>
-        <v>4514.6908000000012</v>
+        <v>4505.5325714285709</v>
       </c>
       <c r="W10" s="6">
         <v>6514</v>
       </c>
       <c r="X10" s="6">
-        <f t="shared" ref="X10:Y10" si="34">X9+X5</f>
-        <v>4522.1362000000008</v>
+        <f t="shared" ref="X10:Y10" si="40">X9+X5</f>
+        <v>4515.4274285714273</v>
       </c>
       <c r="Y10" s="6">
-        <f t="shared" si="34"/>
-        <v>6454.6816000000008</v>
+        <f t="shared" si="40"/>
+        <v>6444.5651428571418</v>
       </c>
       <c r="Z10" s="6">
-        <f t="shared" si="9"/>
-        <v>45.244846666666668</v>
+        <f t="shared" si="16"/>
+        <v>45.092209523809501</v>
       </c>
       <c r="AA10" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB10" s="6">
-        <f t="shared" si="11"/>
-        <v>45.36893666666667</v>
+        <f t="shared" si="18"/>
+        <v>45.257123809523833</v>
       </c>
       <c r="AC10" s="6">
-        <f t="shared" si="12"/>
-        <v>-64.911360000000002</v>
+        <f t="shared" si="19"/>
+        <v>-64.742752380952339</v>
       </c>
       <c r="AE10" s="6">
         <v>4</v>
       </c>
       <c r="AF10" s="6">
-        <f t="shared" ref="AF10:AH10" si="35">AF9+AF5</f>
-        <v>4518.7649999999985</v>
+        <f t="shared" ref="AF10:AH10" si="41">AF9+AF5</f>
+        <v>4516.119999999999</v>
       </c>
       <c r="AG10" s="6">
-        <f t="shared" si="35"/>
-        <v>6449.38</v>
+        <f t="shared" si="41"/>
+        <v>6445.4299999999994</v>
       </c>
       <c r="AH10" s="6">
-        <f t="shared" si="35"/>
-        <v>4523.5750000000007</v>
+        <f t="shared" si="41"/>
+        <v>4519.7000000000007</v>
       </c>
       <c r="AI10" s="6">
         <v>6433</v>
       </c>
       <c r="AJ10" s="6">
-        <f t="shared" si="14"/>
-        <v>45.312750000000001</v>
+        <f t="shared" si="20"/>
+        <v>45.268666666666668</v>
       </c>
       <c r="AK10" s="6">
-        <f t="shared" si="15"/>
-        <v>-64.822999999999993</v>
+        <f t="shared" si="21"/>
+        <v>-64.757166666666663</v>
       </c>
       <c r="AL10" s="6">
-        <f t="shared" si="16"/>
-        <v>45.392916666666665</v>
+        <f t="shared" si="22"/>
+        <v>45.328333333333333</v>
       </c>
       <c r="AM10" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-64.55</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="B11" s="6">
@@ -6390,33 +6591,33 @@
       </c>
       <c r="C11" s="6">
         <f>C10+B6</f>
-        <v>6623.5199999999995</v>
+        <v>6620.9142857142861</v>
       </c>
       <c r="D11" s="6">
         <v>4314</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="18"/>
-        <v>6623.5199999999995</v>
+        <f t="shared" si="24"/>
+        <v>6620.9142857142861</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="20"/>
-        <v>-66.391999999999996</v>
+        <f t="shared" si="26"/>
+        <v>-66.348571428571503</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" ref="H11:I11" si="36">F11</f>
+        <f t="shared" ref="H11:I11" si="42">F11</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="36"/>
-        <v>-66.391999999999996</v>
+        <f t="shared" si="42"/>
+        <v>-66.348571428571503</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="L11" s="6">
@@ -6424,68 +6625,68 @@
       </c>
       <c r="M11" s="6">
         <f>M10+L5</f>
-        <v>6620.0999999999985</v>
+        <v>6615.9000000000015</v>
       </c>
       <c r="N11" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="4"/>
-        <v>6620.0999999999985</v>
+        <f t="shared" si="12"/>
+        <v>6615.9000000000015</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q11" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.334999999999994</v>
+        <f t="shared" si="14"/>
+        <v>-66.265000000000001</v>
       </c>
       <c r="R11" s="6">
-        <f t="shared" ref="R11:S11" si="37">P11</f>
+        <f t="shared" ref="R11:S11" si="43">P11</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S11" s="6">
-        <f t="shared" si="37"/>
-        <v>-66.334999999999994</v>
+        <f t="shared" si="43"/>
+        <v>-66.265000000000001</v>
       </c>
       <c r="U11" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="V11" s="6">
         <f>V10+$V5</f>
-        <v>4516.2544000000016</v>
+        <v>4506.649428571428</v>
       </c>
       <c r="W11" s="6">
         <v>6514</v>
       </c>
       <c r="X11" s="6">
-        <f t="shared" ref="X11:Y11" si="38">X10+X5</f>
-        <v>4523.2816000000012</v>
+        <f t="shared" ref="X11:Y11" si="44">X10+X5</f>
+        <v>4516.2455714285697</v>
       </c>
       <c r="Y11" s="6">
-        <f t="shared" si="38"/>
-        <v>6456.4088000000011</v>
+        <f t="shared" si="44"/>
+        <v>6445.7988571428559</v>
       </c>
       <c r="Z11" s="6">
-        <f t="shared" si="9"/>
-        <v>45.270906666666669</v>
+        <f t="shared" si="16"/>
+        <v>45.110823809523836</v>
       </c>
       <c r="AA11" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB11" s="6">
-        <f t="shared" si="11"/>
-        <v>45.388026666666669</v>
+        <f t="shared" si="18"/>
+        <v>45.270759523809502</v>
       </c>
       <c r="AC11" s="6">
-        <f t="shared" si="12"/>
-        <v>-64.940146666666664</v>
+        <f t="shared" si="19"/>
+        <v>-64.76331428571433</v>
       </c>
       <c r="AE11" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF11" s="6">
         <v>4513.4750000000004</v>
@@ -6499,10 +6700,26 @@
       <c r="AI11" s="6">
         <v>6433</v>
       </c>
+      <c r="AJ11" s="6">
+        <f t="shared" ref="AJ11" si="45">(LEFT(AF11,2)+((RIGHT(AF11,LEN(AF11)-2))/60))</f>
+        <v>45.224583333333335</v>
+      </c>
+      <c r="AK11" s="6">
+        <f t="shared" ref="AK11" si="46">-(LEFT(AG11,2)+((RIGHT(AG11,LEN(AG11)-2))/60))</f>
+        <v>-64.691333333333333</v>
+      </c>
+      <c r="AL11" s="6">
+        <f t="shared" ref="AL11" si="47">(LEFT(AH11,2)+((RIGHT(AH11,LEN(AH11)-2))/60))</f>
+        <v>45.263750000000002</v>
+      </c>
+      <c r="AM11" s="6">
+        <f t="shared" ref="AM11" si="48">-(LEFT(AI11,2)+((RIGHT(AI11,LEN(AI11)-2))/60))</f>
+        <v>-64.55</v>
+      </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="B12" s="6">
@@ -6510,33 +6727,33 @@
       </c>
       <c r="C12" s="6">
         <f>C11+B6</f>
-        <v>6626.5599999999995</v>
+        <v>6623.0857142857149</v>
       </c>
       <c r="D12" s="6">
         <v>4314</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="18"/>
-        <v>6626.5599999999995</v>
+        <f t="shared" si="24"/>
+        <v>6623.0857142857149</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="20"/>
-        <v>-66.442666666666668</v>
+        <f t="shared" si="26"/>
+        <v>-66.384761904761831</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" ref="H12:I12" si="39">F12</f>
+        <f t="shared" ref="H12:I12" si="49">F12</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="39"/>
-        <v>-66.442666666666668</v>
+        <f t="shared" si="49"/>
+        <v>-66.384761904761831</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="L12" s="6">
@@ -6544,70 +6761,70 @@
       </c>
       <c r="M12" s="6">
         <f>M11+L5</f>
-        <v>6623.2499999999982</v>
+        <v>6618.0000000000018</v>
       </c>
       <c r="N12" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="4"/>
-        <v>6623.2499999999982</v>
+        <f t="shared" si="12"/>
+        <v>6618.0000000000018</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q12" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.387500000000003</v>
+        <f t="shared" si="14"/>
+        <v>-66.3</v>
       </c>
       <c r="R12" s="6">
-        <f t="shared" ref="R12:S12" si="40">P12</f>
+        <f t="shared" ref="R12:S12" si="50">P12</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S12" s="6">
-        <f t="shared" si="40"/>
-        <v>-66.387500000000003</v>
+        <f t="shared" si="50"/>
+        <v>-66.3</v>
       </c>
       <c r="U12" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="V12" s="6">
         <f>V11+$V5</f>
-        <v>4517.818000000002</v>
+        <v>4507.766285714285</v>
       </c>
       <c r="W12" s="6">
         <v>6514</v>
       </c>
       <c r="X12" s="6">
-        <f t="shared" ref="X12:Y12" si="41">X11+X5</f>
-        <v>4524.4270000000015</v>
+        <f t="shared" ref="X12:Y12" si="51">X11+X5</f>
+        <v>4517.0637142857122</v>
       </c>
       <c r="Y12" s="6">
-        <f t="shared" si="41"/>
-        <v>6458.1360000000013</v>
+        <f t="shared" si="51"/>
+        <v>6447.03257142857</v>
       </c>
       <c r="Z12" s="6">
-        <f t="shared" si="9"/>
-        <v>45.29696666666667</v>
+        <f t="shared" si="16"/>
+        <v>45.129438095238164</v>
       </c>
       <c r="AA12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB12" s="6">
-        <f t="shared" si="11"/>
-        <v>45.407116666666667</v>
+        <f t="shared" si="18"/>
+        <v>45.284395238095165</v>
       </c>
       <c r="AC12" s="6">
-        <f t="shared" si="12"/>
-        <v>-64.968933333333339</v>
+        <f t="shared" si="19"/>
+        <v>-64.783876190476164</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="B13" s="6">
@@ -6615,33 +6832,33 @@
       </c>
       <c r="C13" s="6">
         <f>C12+B6</f>
-        <v>6629.5999999999995</v>
+        <v>6625.2571428571437</v>
       </c>
       <c r="D13" s="6">
         <v>4314</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="18"/>
-        <v>6629.5999999999995</v>
+        <f t="shared" si="24"/>
+        <v>6625.2571428571437</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="20"/>
-        <v>-66.493333333333339</v>
+        <f t="shared" si="26"/>
+        <v>-66.420952380952329</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" ref="H13:I13" si="42">F13</f>
+        <f t="shared" ref="H13:I13" si="52">F13</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="42"/>
-        <v>-66.493333333333339</v>
+        <f t="shared" si="52"/>
+        <v>-66.420952380952329</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="L13" s="6">
@@ -6649,73 +6866,73 @@
       </c>
       <c r="M13" s="6">
         <f>M12+L5</f>
-        <v>6626.3999999999978</v>
+        <v>6620.1000000000022</v>
       </c>
       <c r="N13" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="4"/>
-        <v>6626.3999999999978</v>
+        <f t="shared" si="12"/>
+        <v>6620.1000000000022</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.44</v>
+        <f t="shared" si="14"/>
+        <v>-66.334999999999994</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" ref="R13:S13" si="43">P13</f>
+        <f t="shared" ref="R13:S13" si="53">P13</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" si="43"/>
-        <v>-66.44</v>
+        <f t="shared" si="53"/>
+        <v>-66.334999999999994</v>
       </c>
       <c r="U13" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="V13" s="6">
         <f>V12+$V5</f>
-        <v>4519.3816000000024</v>
+        <v>4508.883142857142</v>
       </c>
       <c r="W13" s="6">
         <v>6514</v>
       </c>
       <c r="X13" s="6">
-        <f t="shared" ref="X13:Y13" si="44">X12+X5</f>
-        <v>4525.5724000000018</v>
+        <f t="shared" ref="X13:Y13" si="54">X12+X5</f>
+        <v>4517.8818571428546</v>
       </c>
       <c r="Y13" s="6">
-        <f t="shared" si="44"/>
-        <v>6459.8632000000016</v>
+        <f t="shared" si="54"/>
+        <v>6448.2662857142841</v>
       </c>
       <c r="Z13" s="6">
-        <f t="shared" si="9"/>
-        <v>45.323026666666664</v>
+        <f t="shared" si="16"/>
+        <v>45.148052380952336</v>
       </c>
       <c r="AA13" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB13" s="6">
-        <f t="shared" si="11"/>
-        <v>45.426206666666666</v>
+        <f t="shared" si="18"/>
+        <v>45.298030952380834</v>
       </c>
       <c r="AC13" s="6">
-        <f t="shared" si="12"/>
-        <v>-64.997720000000001</v>
+        <f t="shared" si="19"/>
+        <v>-64.804438095237998</v>
       </c>
       <c r="AE13" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="B14" s="6">
@@ -6723,33 +6940,33 @@
       </c>
       <c r="C14" s="6">
         <f>C13+B6</f>
-        <v>6632.6399999999994</v>
+        <v>6627.4285714285725</v>
       </c>
       <c r="D14" s="6">
         <v>4314</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="18"/>
-        <v>6632.6399999999994</v>
+        <f t="shared" si="24"/>
+        <v>6627.4285714285725</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="20"/>
-        <v>-66.543999999999997</v>
+        <f t="shared" si="26"/>
+        <v>-66.457142857142827</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" ref="H14:I14" si="45">F14</f>
+        <f t="shared" ref="H14:I14" si="55">F14</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="45"/>
-        <v>-66.543999999999997</v>
+        <f t="shared" si="55"/>
+        <v>-66.457142857142827</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="L14" s="6">
@@ -6757,82 +6974,97 @@
       </c>
       <c r="M14" s="6">
         <f>M13+L5</f>
-        <v>6629.5499999999975</v>
+        <v>6622.2000000000025</v>
       </c>
       <c r="N14" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="4"/>
-        <v>6629.5499999999975</v>
+        <f t="shared" si="12"/>
+        <v>6622.2000000000025</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q14" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.492500000000007</v>
+        <f t="shared" si="14"/>
+        <v>-66.37</v>
       </c>
       <c r="R14" s="6">
-        <f t="shared" ref="R14:S14" si="46">P14</f>
+        <f t="shared" ref="R14:S14" si="56">P14</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S14" s="6">
-        <f t="shared" si="46"/>
-        <v>-66.492500000000007</v>
+        <f t="shared" si="56"/>
+        <v>-66.37</v>
       </c>
       <c r="U14" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="V14" s="6">
         <f>V13+$V5</f>
-        <v>4520.9452000000028</v>
+        <v>4509.9999999999991</v>
       </c>
       <c r="W14" s="6">
         <v>6514</v>
       </c>
       <c r="X14" s="6">
-        <f t="shared" ref="X14:Y14" si="47">X13+X5</f>
-        <v>4526.7178000000022</v>
+        <f t="shared" ref="X14:Y14" si="57">X13+X5</f>
+        <v>4518.6999999999971</v>
       </c>
       <c r="Y14" s="6">
-        <f t="shared" si="47"/>
-        <v>6461.5904000000019</v>
+        <f t="shared" si="57"/>
+        <v>6449.4999999999982</v>
       </c>
       <c r="Z14" s="6">
-        <f t="shared" si="9"/>
-        <v>45.349086666666665</v>
+        <f t="shared" si="16"/>
+        <v>45.166666666666664</v>
       </c>
       <c r="AA14" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB14" s="6">
-        <f t="shared" si="11"/>
-        <v>45.445296666666664</v>
+        <f t="shared" si="18"/>
+        <v>45.311666666666667</v>
       </c>
       <c r="AC14" s="6">
-        <f t="shared" si="12"/>
-        <v>-65.026506666666663</v>
+        <f t="shared" si="19"/>
+        <v>-64.825000000000003</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF14" s="6">
-        <v>4517.3500000000004</v>
+        <v>4517.2759939999996</v>
+      </c>
+      <c r="AG14" s="6">
+        <v>6503.107994</v>
       </c>
       <c r="AH14" s="6">
-        <v>4520.3999999999996</v>
+        <v>4520.348</v>
       </c>
       <c r="AI14" s="6">
-        <v>6453</v>
+        <v>6452.4799940000003</v>
+      </c>
+      <c r="AJ14" s="6">
+        <v>45.290999999999997</v>
+      </c>
+      <c r="AK14" s="6">
+        <v>-65.052999999999997</v>
+      </c>
+      <c r="AL14" s="6">
+        <v>45.343000000000004</v>
+      </c>
+      <c r="AM14" s="6">
+        <v>-64.88</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="B15" s="6">
@@ -6840,33 +7072,33 @@
       </c>
       <c r="C15" s="6">
         <f>C14+B6</f>
-        <v>6635.6799999999994</v>
+        <v>6629.6000000000013</v>
       </c>
       <c r="D15" s="6">
         <v>4314</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="18"/>
-        <v>6635.6799999999994</v>
+        <f t="shared" si="24"/>
+        <v>6629.6000000000013</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="20"/>
-        <v>-66.594666666666669</v>
+        <f t="shared" si="26"/>
+        <v>-66.493333333333339</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ref="H15:I15" si="48">F15</f>
+        <f t="shared" ref="H15:I15" si="58">F15</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="48"/>
-        <v>-66.594666666666669</v>
+        <f t="shared" si="58"/>
+        <v>-66.493333333333339</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="L15" s="6">
@@ -6874,68 +7106,68 @@
       </c>
       <c r="M15" s="6">
         <f>M14+L5</f>
-        <v>6632.6999999999971</v>
+        <v>6624.3000000000029</v>
       </c>
       <c r="N15" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="4"/>
-        <v>6632.6999999999971</v>
+        <f t="shared" si="12"/>
+        <v>6624.3000000000029</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q15" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.545000000000002</v>
+        <f t="shared" si="14"/>
+        <v>-66.405000000000001</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" ref="R15:S15" si="49">P15</f>
+        <f t="shared" ref="R15:S15" si="59">P15</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" si="49"/>
-        <v>-66.545000000000002</v>
+        <f t="shared" si="59"/>
+        <v>-66.405000000000001</v>
       </c>
       <c r="U15" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="V15" s="6">
         <f>V14+$V5</f>
-        <v>4522.5088000000032</v>
+        <v>4511.1168571428561</v>
       </c>
       <c r="W15" s="6">
         <v>6514</v>
       </c>
       <c r="X15" s="6">
-        <f t="shared" ref="X15:Y15" si="50">X14+X5</f>
-        <v>4527.8632000000025</v>
+        <f t="shared" ref="X15:Y15" si="60">X14+X5</f>
+        <v>4519.5181428571395</v>
       </c>
       <c r="Y15" s="6">
-        <f t="shared" si="50"/>
-        <v>6463.3176000000021</v>
+        <f t="shared" si="60"/>
+        <v>6450.7337142857123</v>
       </c>
       <c r="Z15" s="6">
-        <f t="shared" si="9"/>
-        <v>45.375146666666666</v>
+        <f t="shared" si="16"/>
+        <v>45.185280952381</v>
       </c>
       <c r="AA15" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB15" s="6">
-        <f t="shared" si="11"/>
-        <v>45.46438666666667</v>
+        <f t="shared" si="18"/>
+        <v>45.32530238095233</v>
       </c>
       <c r="AC15" s="6">
-        <f t="shared" si="12"/>
-        <v>-65.055293333333339</v>
+        <f t="shared" si="19"/>
+        <v>-64.845561904761837</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF15" s="6">
         <v>1</v>
@@ -6948,10 +7180,13 @@
         <f>AF15</f>
         <v>1</v>
       </c>
+      <c r="AJ15" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="B16" s="6">
@@ -6959,33 +7194,33 @@
       </c>
       <c r="C16" s="6">
         <f>C15+B6</f>
-        <v>6638.7199999999993</v>
+        <v>6631.7714285714301</v>
       </c>
       <c r="D16" s="6">
         <v>4314</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="18"/>
-        <v>6638.7199999999993</v>
+        <f t="shared" si="24"/>
+        <v>6631.7714285714301</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="20"/>
-        <v>-66.645333333333326</v>
+        <f t="shared" si="26"/>
+        <v>-66.529523809523837</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" ref="H16:I16" si="51">F16</f>
+        <f t="shared" ref="H16:I16" si="61">F16</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="51"/>
-        <v>-66.645333333333326</v>
+        <f t="shared" si="61"/>
+        <v>-66.529523809523837</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="L16" s="6">
@@ -6993,85 +7228,94 @@
       </c>
       <c r="M16" s="6">
         <f>M15+L5</f>
-        <v>6635.8499999999967</v>
+        <v>6626.4000000000033</v>
       </c>
       <c r="N16" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="4"/>
-        <v>6635.8499999999967</v>
+        <f t="shared" si="12"/>
+        <v>6626.4000000000033</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q16" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.597499999999997</v>
+        <f t="shared" si="14"/>
+        <v>-66.44</v>
       </c>
       <c r="R16" s="6">
-        <f t="shared" ref="R16:S16" si="52">P16</f>
+        <f t="shared" ref="R16:S16" si="62">P16</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S16" s="6">
-        <f t="shared" si="52"/>
-        <v>-66.597499999999997</v>
+        <f t="shared" si="62"/>
+        <v>-66.44</v>
       </c>
       <c r="U16" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="V16" s="6">
         <f>V15+$V5</f>
-        <v>4524.0724000000037</v>
+        <v>4512.2337142857132</v>
       </c>
       <c r="W16" s="6">
         <v>6514</v>
       </c>
       <c r="X16" s="6">
-        <f t="shared" ref="X16:Y16" si="53">X15+X5</f>
-        <v>4529.0086000000028</v>
+        <f t="shared" ref="X16:Y16" si="63">X15+X5</f>
+        <v>4520.336285714282</v>
       </c>
       <c r="Y16" s="6">
-        <f t="shared" si="53"/>
-        <v>6465.0448000000024</v>
+        <f t="shared" si="63"/>
+        <v>6451.9674285714264</v>
       </c>
       <c r="Z16" s="6">
-        <f t="shared" si="9"/>
-        <v>45.401206666666667</v>
+        <f t="shared" si="16"/>
+        <v>45.203895238095164</v>
       </c>
       <c r="AA16" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB16" s="6">
-        <f t="shared" si="11"/>
-        <v>45.483476666666668</v>
+        <f t="shared" si="18"/>
+        <v>45.338938095237999</v>
       </c>
       <c r="AC16" s="6">
-        <f t="shared" si="12"/>
-        <v>-65.08408</v>
+        <f t="shared" si="19"/>
+        <v>-64.866123809523828</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF16" s="6">
         <f>AF15*4</f>
         <v>4</v>
       </c>
       <c r="AH16" s="6">
-        <f t="shared" ref="AH16:AI16" si="54">AH15*4</f>
+        <f t="shared" ref="AH16:AI16" si="64">AH15*4</f>
         <v>4</v>
       </c>
       <c r="AI16" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
+        <v>4</v>
+      </c>
+      <c r="AJ16">
+        <v>4</v>
+      </c>
+      <c r="AL16">
+        <v>4</v>
+      </c>
+      <c r="AM16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="B17" s="6">
@@ -7079,33 +7323,33 @@
       </c>
       <c r="C17" s="6">
         <f>C16+B6</f>
-        <v>6641.7599999999993</v>
+        <v>6633.9428571428589</v>
       </c>
       <c r="D17" s="6">
         <v>4314</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="18"/>
-        <v>6641.7599999999993</v>
+        <f t="shared" si="24"/>
+        <v>6633.9428571428589</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="20"/>
-        <v>-66.695999999999998</v>
+        <f t="shared" si="26"/>
+        <v>-66.565714285714336</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" ref="H17:I17" si="55">F17</f>
+        <f t="shared" ref="H17:I17" si="65">F17</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="55"/>
-        <v>-66.695999999999998</v>
+        <f t="shared" si="65"/>
+        <v>-66.565714285714336</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="L17" s="6">
@@ -7113,88 +7357,97 @@
       </c>
       <c r="M17" s="6">
         <f>M16+L5</f>
-        <v>6638.9999999999964</v>
+        <v>6628.5000000000036</v>
       </c>
       <c r="N17" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="4"/>
-        <v>6638.9999999999964</v>
+        <f t="shared" si="12"/>
+        <v>6628.5000000000036</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.650000000000006</v>
+        <f t="shared" si="14"/>
+        <v>-66.474999999999994</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" ref="R17:S17" si="56">P17</f>
+        <f t="shared" ref="R17:S17" si="66">P17</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" si="56"/>
-        <v>-66.650000000000006</v>
+        <f t="shared" si="66"/>
+        <v>-66.474999999999994</v>
       </c>
       <c r="U17" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
       <c r="V17" s="6">
         <f>V16+$V5</f>
-        <v>4525.6360000000041</v>
+        <v>4513.3505714285702</v>
       </c>
       <c r="W17" s="6">
         <v>6514</v>
       </c>
       <c r="X17" s="6">
-        <f t="shared" ref="X17:Y17" si="57">X16+X5</f>
-        <v>4530.1540000000032</v>
+        <f t="shared" ref="X17:Y17" si="67">X16+X5</f>
+        <v>4521.1544285714244</v>
       </c>
       <c r="Y17" s="6">
-        <f t="shared" si="57"/>
-        <v>6466.7720000000027</v>
+        <f t="shared" si="67"/>
+        <v>6453.2011428571404</v>
       </c>
       <c r="Z17" s="6">
-        <f t="shared" si="9"/>
-        <v>45.427266666666668</v>
+        <f t="shared" si="16"/>
+        <v>45.222509523809499</v>
       </c>
       <c r="AA17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB17" s="6">
-        <f t="shared" si="11"/>
-        <v>45.502566666666667</v>
+        <f t="shared" si="18"/>
+        <v>45.352573809523669</v>
       </c>
       <c r="AC17" s="6">
-        <f t="shared" si="12"/>
-        <v>-65.112866666666662</v>
+        <f t="shared" si="19"/>
+        <v>-64.886685714285662</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF17" s="6">
         <f>(AF14-AF23)/(AF16-1)</f>
-        <v>0.78333333333345456</v>
+        <v>0.95199999999992235</v>
       </c>
       <c r="AH17" s="6">
         <f>(AH14-AH23)/(AH16-1)</f>
-        <v>0.46666666666654538</v>
+        <v>0.60266866666673502</v>
       </c>
       <c r="AI17" s="6">
-        <f>(AI23-AI14)/(AI16-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="AJ17" s="8" t="s">
-        <v>28</v>
+        <f>(AI14-AI23)/(AI16-1)</f>
+        <v>1.023997999999968</v>
+      </c>
+      <c r="AJ17" s="6">
+        <f>(AJ14-AJ23)/(AJ16-1)</f>
+        <v>1.5333333333333124E-2</v>
+      </c>
+      <c r="AL17" s="6">
+        <f>(AL14-AL23)/(AL16-1)</f>
+        <v>9.3333333333352666E-3</v>
+      </c>
+      <c r="AM17" s="6">
+        <f>-(AM23-AM14)/(AM16-1)</f>
+        <v>-1.7333333333330831E-2</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="B18" s="6">
@@ -7202,33 +7455,33 @@
       </c>
       <c r="C18" s="6">
         <f>C17+B6</f>
-        <v>6644.7999999999993</v>
+        <v>6636.1142857142877</v>
       </c>
       <c r="D18" s="6">
         <v>4314</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="18"/>
-        <v>6644.7999999999993</v>
+        <f t="shared" si="24"/>
+        <v>6636.1142857142877</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="20"/>
-        <v>-66.74666666666667</v>
+        <f t="shared" si="26"/>
+        <v>-66.601904761904834</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" ref="H18:I18" si="58">F18</f>
+        <f t="shared" ref="H18:I18" si="68">F18</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="58"/>
-        <v>-66.74666666666667</v>
+        <f t="shared" si="68"/>
+        <v>-66.601904761904834</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="L18" s="6">
@@ -7236,85 +7489,85 @@
       </c>
       <c r="M18" s="6">
         <f>M17+L5</f>
-        <v>6642.149999999996</v>
+        <v>6630.600000000004</v>
       </c>
       <c r="N18" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" si="4"/>
-        <v>6642.149999999996</v>
+        <f t="shared" si="12"/>
+        <v>6630.600000000004</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q18" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.702500000000001</v>
+        <f t="shared" si="14"/>
+        <v>-66.510000000000005</v>
       </c>
       <c r="R18" s="6">
-        <f t="shared" ref="R18:S18" si="59">P18</f>
+        <f t="shared" ref="R18:S18" si="69">P18</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S18" s="6">
-        <f t="shared" si="59"/>
-        <v>-66.702500000000001</v>
+        <f t="shared" si="69"/>
+        <v>-66.510000000000005</v>
       </c>
       <c r="U18" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="V18" s="6">
         <f>V17+$V5</f>
-        <v>4527.1996000000045</v>
+        <v>4514.4674285714273</v>
       </c>
       <c r="W18" s="6">
         <v>6514</v>
       </c>
       <c r="X18" s="6">
-        <f t="shared" ref="X18:Y18" si="60">X17+X5</f>
-        <v>4531.2994000000035</v>
+        <f t="shared" ref="X18:Y18" si="70">X17+X5</f>
+        <v>4521.9725714285669</v>
       </c>
       <c r="Y18" s="6">
-        <f t="shared" si="60"/>
-        <v>6468.4992000000029</v>
+        <f t="shared" si="70"/>
+        <v>6454.4348571428545</v>
       </c>
       <c r="Z18" s="6">
-        <f t="shared" si="9"/>
-        <v>45.453326666666669</v>
+        <f t="shared" si="16"/>
+        <v>45.241123809523835</v>
       </c>
       <c r="AA18" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB18" s="6">
-        <f t="shared" si="11"/>
-        <v>45.521656666666665</v>
+        <f t="shared" si="18"/>
+        <v>45.366209523809502</v>
       </c>
       <c r="AC18" s="6">
-        <f t="shared" si="12"/>
-        <v>-65.141653333333338</v>
+        <f t="shared" si="19"/>
+        <v>-64.907247619047496</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="B19" s="6">
@@ -7322,33 +7575,33 @@
       </c>
       <c r="C19" s="6">
         <f>C18+B6</f>
-        <v>6647.8399999999992</v>
+        <v>6638.2857142857165</v>
       </c>
       <c r="D19" s="6">
         <v>4314</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="18"/>
-        <v>6647.8399999999992</v>
+        <f t="shared" si="24"/>
+        <v>6638.2857142857165</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="20"/>
-        <v>-66.797333333333327</v>
+        <f t="shared" si="26"/>
+        <v>-66.638095238095332</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" ref="H19:I19" si="61">F19</f>
+        <f t="shared" ref="H19:I19" si="71">F19</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="61"/>
-        <v>-66.797333333333327</v>
+        <f t="shared" si="71"/>
+        <v>-66.638095238095332</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="L19" s="6">
@@ -7356,104 +7609,104 @@
       </c>
       <c r="M19" s="6">
         <f>M18+L5</f>
-        <v>6645.2999999999956</v>
+        <v>6632.7000000000044</v>
       </c>
       <c r="N19" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" si="4"/>
-        <v>6645.2999999999956</v>
+        <f t="shared" si="12"/>
+        <v>6632.7000000000044</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q19" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.754999999999995</v>
+        <f t="shared" si="14"/>
+        <v>-66.545000000000002</v>
       </c>
       <c r="R19" s="6">
-        <f t="shared" ref="R19:S19" si="62">P19</f>
+        <f t="shared" ref="R19:S19" si="72">P19</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S19" s="6">
-        <f t="shared" si="62"/>
-        <v>-66.754999999999995</v>
+        <f t="shared" si="72"/>
+        <v>-66.545000000000002</v>
       </c>
       <c r="U19" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>13</v>
       </c>
       <c r="V19" s="6">
         <f>V18+$V5</f>
-        <v>4528.7632000000049</v>
+        <v>4515.5842857142843</v>
       </c>
       <c r="W19" s="6">
         <v>6514</v>
       </c>
       <c r="X19" s="6">
-        <f t="shared" ref="X19:Y19" si="63">X18+X5</f>
-        <v>4532.4448000000039</v>
+        <f t="shared" ref="X19:Y19" si="73">X18+X5</f>
+        <v>4522.7907142857093</v>
       </c>
       <c r="Y19" s="6">
-        <f t="shared" si="63"/>
-        <v>6470.2264000000032</v>
+        <f t="shared" si="73"/>
+        <v>6455.6685714285686</v>
       </c>
       <c r="Z19" s="6">
-        <f t="shared" si="9"/>
-        <v>45.47938666666667</v>
+        <f t="shared" si="16"/>
+        <v>45.259738095237999</v>
       </c>
       <c r="AA19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB19" s="6">
-        <f t="shared" si="11"/>
-        <v>45.540746666666664</v>
+        <f t="shared" si="18"/>
+        <v>45.379845238095164</v>
       </c>
       <c r="AC19" s="6">
-        <f t="shared" si="12"/>
-        <v>-65.170439999999999</v>
+        <f t="shared" si="19"/>
+        <v>-64.927809523809501</v>
       </c>
       <c r="AE19" s="6">
         <v>1</v>
       </c>
       <c r="AF19" s="6">
-        <f>AF14</f>
-        <v>4517.3500000000004</v>
+        <f>AF23</f>
+        <v>4514.4199939999999</v>
       </c>
       <c r="AG19" s="6">
         <v>6503</v>
       </c>
       <c r="AH19" s="6">
-        <f t="shared" ref="AH19:AI19" si="64">AH14</f>
-        <v>4520.3999999999996</v>
+        <f t="shared" ref="AH19:AM19" si="74">AH23</f>
+        <v>4518.5399939999998</v>
       </c>
       <c r="AI19" s="6">
-        <f t="shared" si="64"/>
-        <v>6453</v>
+        <f t="shared" si="74"/>
+        <v>6449.4080000000004</v>
       </c>
       <c r="AJ19" s="6">
-        <f t="shared" ref="AJ19:AJ22" si="65">(LEFT(AF19,2)+((RIGHT(AF19,LEN(AF19)-2))/60))</f>
-        <v>45.289166666666667</v>
+        <f t="shared" si="74"/>
+        <v>45.244999999999997</v>
       </c>
       <c r="AK19" s="6">
-        <f t="shared" ref="AK19:AK22" si="66">-(LEFT(AG19,2)+((RIGHT(AG19,LEN(AG19)-2))/60))</f>
-        <v>-65.05</v>
+        <f t="shared" si="74"/>
+        <v>-65.052999999999997</v>
       </c>
       <c r="AL19" s="6">
-        <f t="shared" ref="AL19:AL22" si="67">(LEFT(AH19,2)+((RIGHT(AH19,LEN(AH19)-2))/60))</f>
-        <v>45.34</v>
+        <f t="shared" si="74"/>
+        <v>45.314999999999998</v>
       </c>
       <c r="AM19" s="6">
-        <f t="shared" ref="AM19:AM22" si="68">-(LEFT(AI19,2)+((RIGHT(AI19,LEN(AI19)-2))/60))</f>
-        <v>-64.88333333333334</v>
+        <f t="shared" si="74"/>
+        <v>-64.828000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="B20" s="6">
@@ -7461,33 +7714,33 @@
       </c>
       <c r="C20" s="6">
         <f>C19+B6</f>
-        <v>6650.8799999999992</v>
+        <v>6640.4571428571453</v>
       </c>
       <c r="D20" s="6">
         <v>4314</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="18"/>
-        <v>6650.8799999999992</v>
+        <f t="shared" si="24"/>
+        <v>6640.4571428571453</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="20"/>
-        <v>-66.847999999999999</v>
+        <f t="shared" si="26"/>
+        <v>-66.67428571428583</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" ref="H20:I20" si="69">F20</f>
+        <f t="shared" ref="H20:I20" si="75">F20</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="69"/>
-        <v>-66.847999999999999</v>
+        <f t="shared" si="75"/>
+        <v>-66.67428571428583</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="L20" s="6">
@@ -7495,104 +7748,104 @@
       </c>
       <c r="M20" s="6">
         <f>M19+L5</f>
-        <v>6648.4499999999953</v>
+        <v>6634.8000000000047</v>
       </c>
       <c r="N20" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="4"/>
-        <v>6648.4499999999953</v>
+        <f t="shared" si="12"/>
+        <v>6634.8000000000047</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.807500000000005</v>
+        <f t="shared" si="14"/>
+        <v>-66.58</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" ref="R20:S20" si="70">P20</f>
+        <f t="shared" ref="R20:S20" si="76">P20</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" si="70"/>
-        <v>-66.807500000000005</v>
+        <f t="shared" si="76"/>
+        <v>-66.58</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
       <c r="V20" s="6">
         <f>V19+$V5</f>
-        <v>4530.3268000000053</v>
+        <v>4516.7011428571413</v>
       </c>
       <c r="W20" s="6">
         <v>6514</v>
       </c>
       <c r="X20" s="6">
-        <f t="shared" ref="X20:Y20" si="71">X19+X5</f>
-        <v>4533.5902000000042</v>
+        <f t="shared" ref="X20:Y20" si="77">X19+X5</f>
+        <v>4523.6088571428518</v>
       </c>
       <c r="Y20" s="6">
-        <f t="shared" si="71"/>
-        <v>6471.9536000000035</v>
+        <f t="shared" si="77"/>
+        <v>6456.9022857142827</v>
       </c>
       <c r="Z20" s="6">
-        <f t="shared" si="9"/>
-        <v>45.505446666666835</v>
+        <f t="shared" si="16"/>
+        <v>45.278352380952334</v>
       </c>
       <c r="AA20" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB20" s="6">
-        <f t="shared" si="11"/>
-        <v>45.559836666666669</v>
+        <f t="shared" si="18"/>
+        <v>45.393480952380834</v>
       </c>
       <c r="AC20" s="6">
-        <f t="shared" si="12"/>
-        <v>-65.199226666666661</v>
+        <f t="shared" si="19"/>
+        <v>-64.948371428571335</v>
       </c>
       <c r="AE20" s="6">
         <v>2</v>
       </c>
       <c r="AF20" s="6">
-        <f>AF14+AF17</f>
-        <v>4518.1333333333341</v>
+        <f>AF19+AF17</f>
+        <v>4515.3719940000001</v>
       </c>
       <c r="AG20" s="6">
         <v>6503</v>
       </c>
       <c r="AH20" s="6">
-        <f t="shared" ref="AH20:AI20" si="72">AH19+AH17</f>
-        <v>4520.8666666666659</v>
+        <f t="shared" ref="AH20:AI20" si="78">AH19+AH17</f>
+        <v>4519.1426626666662</v>
       </c>
       <c r="AI20" s="6">
-        <f t="shared" si="72"/>
-        <v>6452</v>
+        <f t="shared" si="78"/>
+        <v>6450.431998</v>
       </c>
       <c r="AJ20" s="6">
-        <f t="shared" si="65"/>
-        <v>45.30222222222217</v>
+        <f>AJ19+AJ17</f>
+        <v>45.260333333333328</v>
       </c>
       <c r="AK20" s="6">
-        <f t="shared" si="66"/>
-        <v>-65.05</v>
+        <f>AK23</f>
+        <v>-65.052999999999997</v>
       </c>
       <c r="AL20" s="6">
-        <f t="shared" si="67"/>
-        <v>45.347777777777836</v>
+        <f>AL19+AL17</f>
+        <v>45.324333333333335</v>
       </c>
       <c r="AM20" s="6">
-        <f t="shared" si="68"/>
-        <v>-64.86666666666666</v>
+        <f>AM19+AM17</f>
+        <v>-64.845333333333329</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="B21" s="6">
@@ -7600,33 +7853,33 @@
       </c>
       <c r="C21" s="6">
         <f>C20+B6</f>
-        <v>6653.9199999999992</v>
+        <v>6642.6285714285741</v>
       </c>
       <c r="D21" s="6">
         <v>4314</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="18"/>
-        <v>6653.9199999999992</v>
+        <f t="shared" si="24"/>
+        <v>6642.6285714285741</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="20"/>
-        <v>-66.898666666666671</v>
+        <f t="shared" si="26"/>
+        <v>-66.710476190476172</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" ref="H21:I21" si="73">F21</f>
+        <f t="shared" ref="H21:I21" si="79">F21</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="73"/>
-        <v>-66.898666666666671</v>
+        <f t="shared" si="79"/>
+        <v>-66.710476190476172</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="L21" s="6">
@@ -7634,104 +7887,104 @@
       </c>
       <c r="M21" s="6">
         <f>M20+L5</f>
-        <v>6651.5999999999949</v>
+        <v>6636.9000000000051</v>
       </c>
       <c r="N21" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="4"/>
-        <v>6651.5999999999949</v>
+        <f t="shared" si="12"/>
+        <v>6636.9000000000051</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.859999999999829</v>
+        <f t="shared" si="14"/>
+        <v>-66.615000000000165</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" ref="R21:S21" si="74">P21</f>
+        <f t="shared" ref="R21:S21" si="80">P21</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="74"/>
-        <v>-66.859999999999829</v>
+        <f t="shared" si="80"/>
+        <v>-66.615000000000165</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>15</v>
       </c>
       <c r="V21" s="6">
         <f>V20+$V5</f>
-        <v>4531.8904000000057</v>
+        <v>4517.8179999999984</v>
       </c>
       <c r="W21" s="6">
         <v>6514</v>
       </c>
       <c r="X21" s="6">
-        <f t="shared" ref="X21:Y21" si="75">X20+X5</f>
-        <v>4534.7356000000045</v>
+        <f t="shared" ref="X21:Y21" si="81">X20+X5</f>
+        <v>4524.4269999999942</v>
       </c>
       <c r="Y21" s="6">
-        <f t="shared" si="75"/>
-        <v>6473.6808000000037</v>
+        <f t="shared" si="81"/>
+        <v>6458.1359999999968</v>
       </c>
       <c r="Z21" s="6">
-        <f t="shared" si="9"/>
-        <v>45.531506666666836</v>
+        <f t="shared" si="16"/>
+        <v>45.29696666666667</v>
       </c>
       <c r="AA21" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB21" s="6">
-        <f t="shared" si="11"/>
-        <v>45.578926666666668</v>
+        <f t="shared" si="18"/>
+        <v>45.407116666666496</v>
       </c>
       <c r="AC21" s="6">
-        <f t="shared" si="12"/>
-        <v>-65.228013333333337</v>
+        <f t="shared" si="19"/>
+        <v>-64.968933333333339</v>
       </c>
       <c r="AE21" s="6">
         <v>3</v>
       </c>
       <c r="AF21" s="6">
         <f>AF20+AF17</f>
-        <v>4518.9166666666679</v>
+        <v>4516.3239940000003</v>
       </c>
       <c r="AG21" s="6">
         <v>6503</v>
       </c>
       <c r="AH21" s="6">
         <f>AH20+AH17</f>
-        <v>4521.3333333333321</v>
+        <v>4519.7453313333326</v>
       </c>
       <c r="AI21" s="6">
-        <f t="shared" ref="AI21:AI22" si="76">AI20+1</f>
-        <v>6453</v>
+        <f>AI20+AI17</f>
+        <v>6451.4559959999997</v>
       </c>
       <c r="AJ21" s="6">
-        <f t="shared" si="65"/>
-        <v>45.315277777777837</v>
+        <f>AJ20+AJ17</f>
+        <v>45.275666666666659</v>
       </c>
       <c r="AK21" s="6">
-        <f t="shared" si="66"/>
-        <v>-65.05</v>
+        <f>AK23</f>
+        <v>-65.052999999999997</v>
       </c>
       <c r="AL21" s="6">
-        <f t="shared" si="67"/>
-        <v>45.355555555555497</v>
+        <f>AL20+AL17</f>
+        <v>45.333666666666673</v>
       </c>
       <c r="AM21" s="6">
-        <f t="shared" si="68"/>
-        <v>-64.88333333333334</v>
+        <f>AM20+AM17</f>
+        <v>-64.862666666666655</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>15</v>
       </c>
       <c r="B22" s="6">
@@ -7739,33 +7992,33 @@
       </c>
       <c r="C22" s="6">
         <f>C21+B6</f>
-        <v>6656.9599999999991</v>
+        <v>6644.8000000000029</v>
       </c>
       <c r="D22" s="6">
         <v>4314</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="18"/>
-        <v>6656.9599999999991</v>
+        <f t="shared" si="24"/>
+        <v>6644.8000000000029</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="20"/>
-        <v>-66.949333333333328</v>
+        <f t="shared" si="26"/>
+        <v>-66.74666666666667</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:I22" si="77">F22</f>
+        <f t="shared" ref="H22:I22" si="82">F22</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="77"/>
-        <v>-66.949333333333328</v>
+        <f t="shared" si="82"/>
+        <v>-66.74666666666667</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="L22" s="6">
@@ -7773,104 +8026,104 @@
       </c>
       <c r="M22" s="6">
         <f>M21+EW5</f>
-        <v>6651.5999999999949</v>
+        <v>6636.9000000000051</v>
       </c>
       <c r="N22" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="4"/>
-        <v>6651.5999999999949</v>
+        <f t="shared" si="12"/>
+        <v>6636.9000000000051</v>
       </c>
       <c r="P22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q22" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.859999999999829</v>
+        <f t="shared" si="14"/>
+        <v>-66.615000000000165</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" ref="R22:S22" si="78">P22</f>
+        <f t="shared" ref="R22:S22" si="83">P22</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" si="78"/>
-        <v>-66.859999999999829</v>
+        <f t="shared" si="83"/>
+        <v>-66.615000000000165</v>
       </c>
       <c r="U22" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>16</v>
       </c>
       <c r="V22" s="6">
         <f>V21+$V5</f>
-        <v>4533.4540000000061</v>
+        <v>4518.9348571428554</v>
       </c>
       <c r="W22" s="6">
         <v>6514</v>
       </c>
       <c r="X22" s="6">
-        <f t="shared" ref="X22:Y22" si="79">X21+X5</f>
-        <v>4535.8810000000049</v>
+        <f t="shared" ref="X22:Y22" si="84">X21+X5</f>
+        <v>4525.2451428571367</v>
       </c>
       <c r="Y22" s="6">
-        <f t="shared" si="79"/>
-        <v>6475.408000000004</v>
+        <f t="shared" si="84"/>
+        <v>6459.3697142857109</v>
       </c>
       <c r="Z22" s="6">
-        <f t="shared" si="9"/>
-        <v>45.55756666666683</v>
+        <f t="shared" si="16"/>
+        <v>45.315580952380998</v>
       </c>
       <c r="AA22" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB22" s="6">
-        <f t="shared" si="11"/>
-        <v>45.598016666666666</v>
+        <f t="shared" si="18"/>
+        <v>45.420752380952337</v>
       </c>
       <c r="AC22" s="6">
-        <f t="shared" si="12"/>
-        <v>-65.256799999999998</v>
+        <f t="shared" si="19"/>
+        <v>-64.989495238095174</v>
       </c>
       <c r="AE22" s="6">
         <v>4</v>
       </c>
       <c r="AF22" s="6">
         <f>AF21+AF17</f>
-        <v>4519.7000000000016</v>
+        <v>4517.2759940000005</v>
       </c>
       <c r="AG22" s="6">
         <v>6503</v>
       </c>
       <c r="AH22" s="6">
         <f>AH21+AH17</f>
-        <v>4521.7999999999984</v>
+        <v>4520.347999999999</v>
       </c>
       <c r="AI22" s="6">
-        <f t="shared" si="76"/>
-        <v>6454</v>
+        <f>AI21+AI17</f>
+        <v>6452.4799939999994</v>
       </c>
       <c r="AJ22" s="6">
-        <f t="shared" si="65"/>
-        <v>45.328333333333333</v>
+        <f>AJ21+AJ17</f>
+        <v>45.29099999999999</v>
       </c>
       <c r="AK22" s="6">
-        <f t="shared" si="66"/>
-        <v>-65.05</v>
+        <f>AK23</f>
+        <v>-65.052999999999997</v>
       </c>
       <c r="AL22" s="6">
-        <f t="shared" si="67"/>
-        <v>45.363333333333337</v>
+        <f>AL21+AL17</f>
+        <v>45.343000000000011</v>
       </c>
       <c r="AM22" s="6">
-        <f t="shared" si="68"/>
-        <v>-64.900000000000006</v>
+        <f>AM21+AM17</f>
+        <v>-64.879999999999981</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>16</v>
       </c>
       <c r="B23" s="6">
@@ -7878,33 +8131,33 @@
       </c>
       <c r="C23" s="6">
         <f>C22+B6</f>
-        <v>6659.9999999999991</v>
+        <v>6646.9714285714317</v>
       </c>
       <c r="D23" s="6">
         <v>4314</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="18"/>
-        <v>6659.9999999999991</v>
+        <f t="shared" si="24"/>
+        <v>6646.9714285714317</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="20"/>
-        <v>-67</v>
+        <f t="shared" si="26"/>
+        <v>-66.782857142857168</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ref="H23:I23" si="80">F23</f>
+        <f t="shared" ref="H23:I23" si="85">F23</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="80"/>
-        <v>-67</v>
+        <f t="shared" si="85"/>
+        <v>-66.782857142857168</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="L23" s="6">
@@ -7912,82 +8165,97 @@
       </c>
       <c r="M23" s="6">
         <f>M22+L5</f>
-        <v>6654.7499999999945</v>
+        <v>6639.0000000000055</v>
       </c>
       <c r="N23" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="4"/>
-        <v>6654.7499999999945</v>
+        <f t="shared" si="12"/>
+        <v>6639.0000000000055</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.912499999999838</v>
+        <f t="shared" si="14"/>
+        <v>-66.650000000000162</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" ref="R23:S23" si="81">P23</f>
+        <f t="shared" ref="R23:S23" si="86">P23</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" si="81"/>
-        <v>-66.912499999999838</v>
+        <f t="shared" si="86"/>
+        <v>-66.650000000000162</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>17</v>
       </c>
       <c r="V23" s="6">
         <f>V22+$V5</f>
-        <v>4535.0176000000065</v>
+        <v>4520.0517142857125</v>
       </c>
       <c r="W23" s="6">
         <v>6514</v>
       </c>
       <c r="X23" s="6">
-        <f t="shared" ref="X23:Y23" si="82">X22+X5</f>
-        <v>4537.0264000000052</v>
+        <f t="shared" ref="X23:Y23" si="87">X22+X5</f>
+        <v>4526.0632857142791</v>
       </c>
       <c r="Y23" s="6">
-        <f t="shared" si="82"/>
-        <v>6477.1352000000043</v>
+        <f t="shared" si="87"/>
+        <v>6460.603428571425</v>
       </c>
       <c r="Z23" s="6">
-        <f t="shared" si="9"/>
-        <v>45.583626666666831</v>
+        <f t="shared" si="16"/>
+        <v>45.33419523809517</v>
       </c>
       <c r="AA23" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB23" s="6">
-        <f t="shared" si="11"/>
-        <v>45.617106666666835</v>
+        <f t="shared" si="18"/>
+        <v>45.434388095237999</v>
       </c>
       <c r="AC23" s="6">
-        <f t="shared" si="12"/>
-        <v>-65.28558666666666</v>
+        <f t="shared" si="19"/>
+        <v>-65.010057142856994</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF23" s="6">
-        <v>4515</v>
+        <v>4514.4199939999999</v>
+      </c>
+      <c r="AG23" s="6">
+        <v>6503.107994</v>
       </c>
       <c r="AH23" s="6">
-        <v>4519</v>
+        <v>4518.5399939999998</v>
       </c>
       <c r="AI23" s="6">
-        <v>6450</v>
+        <v>6449.4080000000004</v>
+      </c>
+      <c r="AJ23" s="6">
+        <v>45.244999999999997</v>
+      </c>
+      <c r="AK23" s="6">
+        <v>-65.052999999999997</v>
+      </c>
+      <c r="AL23" s="6">
+        <v>45.314999999999998</v>
+      </c>
+      <c r="AM23" s="6">
+        <v>-64.828000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>17</v>
       </c>
       <c r="B24" s="6">
@@ -7995,33 +8263,33 @@
       </c>
       <c r="C24" s="6">
         <f>C23+B6</f>
-        <v>6663.0399999999991</v>
+        <v>6649.1428571428605</v>
       </c>
       <c r="D24" s="6">
         <v>4314</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="18"/>
-        <v>6663.0399999999991</v>
+        <f t="shared" si="24"/>
+        <v>6649.1428571428605</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="20"/>
-        <v>-67.050666666666672</v>
+        <f t="shared" si="26"/>
+        <v>-66.819047619047666</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" ref="H24:I24" si="83">F24</f>
+        <f t="shared" ref="H24:I24" si="88">F24</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="83"/>
-        <v>-67.050666666666672</v>
+        <f t="shared" si="88"/>
+        <v>-66.819047619047666</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>18</v>
       </c>
       <c r="L24" s="6">
@@ -8029,70 +8297,70 @@
       </c>
       <c r="M24" s="6">
         <f>M23+L5</f>
-        <v>6657.8999999999942</v>
+        <v>6641.1000000000058</v>
       </c>
       <c r="N24" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="4"/>
-        <v>6657.8999999999942</v>
+        <f t="shared" si="12"/>
+        <v>6641.1000000000058</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q24" s="6">
-        <f t="shared" si="6"/>
-        <v>-66.964999999999833</v>
+        <f t="shared" si="14"/>
+        <v>-66.685000000000173</v>
       </c>
       <c r="R24" s="6">
-        <f t="shared" ref="R24:S24" si="84">P24</f>
+        <f t="shared" ref="R24:S24" si="89">P24</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S24" s="6">
-        <f t="shared" si="84"/>
-        <v>-66.964999999999833</v>
+        <f t="shared" si="89"/>
+        <v>-66.685000000000173</v>
       </c>
       <c r="U24" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>18</v>
       </c>
       <c r="V24" s="6">
         <f>V23+$V5</f>
-        <v>4536.5812000000069</v>
+        <v>4521.1685714285695</v>
       </c>
       <c r="W24" s="6">
         <v>6514</v>
       </c>
       <c r="X24" s="6">
-        <f t="shared" ref="X24:Y24" si="85">X23+X5</f>
-        <v>4538.1718000000055</v>
+        <f t="shared" ref="X24:Y24" si="90">X23+X5</f>
+        <v>4526.8814285714216</v>
       </c>
       <c r="Y24" s="6">
-        <f t="shared" si="85"/>
-        <v>6478.8624000000045</v>
+        <f t="shared" si="90"/>
+        <v>6461.837142857139</v>
       </c>
       <c r="Z24" s="6">
-        <f t="shared" si="9"/>
-        <v>45.609686666666832</v>
+        <f t="shared" si="16"/>
+        <v>45.352809523809498</v>
       </c>
       <c r="AA24" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-65.233333333333334</v>
       </c>
       <c r="AB24" s="6">
-        <f t="shared" si="11"/>
-        <v>45.636196666666834</v>
+        <f t="shared" si="18"/>
+        <v>45.448023809523669</v>
       </c>
       <c r="AC24" s="6">
-        <f t="shared" si="12"/>
-        <v>-65.314373333333336</v>
+        <f t="shared" si="19"/>
+        <v>-65.030619047618998</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>18</v>
       </c>
       <c r="B25" s="6">
@@ -8100,33 +8368,33 @@
       </c>
       <c r="C25" s="6">
         <f>C24+B6</f>
-        <v>6666.079999999999</v>
+        <v>6651.3142857142893</v>
       </c>
       <c r="D25" s="6">
         <v>4314</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="18"/>
-        <v>6666.079999999999</v>
+        <f t="shared" si="24"/>
+        <v>6651.3142857142893</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="20"/>
-        <v>-67.101333333333329</v>
+        <f t="shared" si="26"/>
+        <v>-66.855238095238164</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" ref="H25:I25" si="86">F25</f>
+        <f t="shared" ref="H25:I25" si="91">F25</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="86"/>
-        <v>-67.101333333333329</v>
+        <f t="shared" si="91"/>
+        <v>-66.855238095238164</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>19</v>
       </c>
       <c r="L25" s="6">
@@ -8134,47 +8402,66 @@
       </c>
       <c r="M25" s="6">
         <f>M24+L5</f>
-        <v>6661.0499999999938</v>
+        <v>6643.2000000000062</v>
       </c>
       <c r="N25" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="4"/>
-        <v>6661.0499999999938</v>
+        <f t="shared" si="12"/>
+        <v>6643.2000000000062</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" si="6"/>
-        <v>-67.017499999999828</v>
+        <f t="shared" si="14"/>
+        <v>-66.720000000000169</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" ref="R25:S25" si="87">P25</f>
+        <f t="shared" ref="R25:S25" si="92">P25</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S25" s="6">
-        <f t="shared" si="87"/>
-        <v>-67.017499999999828</v>
+        <f t="shared" si="92"/>
+        <v>-66.720000000000169</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V25" s="6">
         <v>4502.1819999999998</v>
       </c>
+      <c r="W25" s="6">
+        <v>6514</v>
+      </c>
       <c r="X25" s="6">
         <v>4512.973</v>
       </c>
       <c r="Y25" s="6">
         <v>6440.8639999999996</v>
       </c>
+      <c r="Z25" s="6">
+        <f t="shared" si="16"/>
+        <v>45.036366666666666</v>
+      </c>
+      <c r="AA25" s="6">
+        <f t="shared" si="17"/>
+        <v>-65.233333333333334</v>
+      </c>
+      <c r="AB25" s="6">
+        <f t="shared" si="18"/>
+        <v>45.216216666666668</v>
+      </c>
+      <c r="AC25" s="6">
+        <f t="shared" si="19"/>
+        <v>-64.681066666666666</v>
+      </c>
     </row>
     <row r="26" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>19</v>
       </c>
       <c r="B26" s="6">
@@ -8182,33 +8469,33 @@
       </c>
       <c r="C26" s="6">
         <f>C25+B6</f>
-        <v>6669.119999999999</v>
+        <v>6653.4857142857181</v>
       </c>
       <c r="D26" s="6">
         <v>4314</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="18"/>
-        <v>6669.119999999999</v>
+        <f t="shared" si="24"/>
+        <v>6653.4857142857181</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="20"/>
-        <v>-67.152000000000001</v>
+        <f t="shared" si="26"/>
+        <v>-66.891428571428662</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" ref="H26:I26" si="88">F26</f>
+        <f t="shared" ref="H26:I26" si="93">F26</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="88"/>
-        <v>-67.152000000000001</v>
+        <f t="shared" si="93"/>
+        <v>-66.891428571428662</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="L26" s="6">
@@ -8216,35 +8503,35 @@
       </c>
       <c r="M26" s="6">
         <f>M25+L5</f>
-        <v>6664.1999999999935</v>
+        <v>6645.3000000000065</v>
       </c>
       <c r="N26" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="4"/>
-        <v>6664.1999999999935</v>
+        <f t="shared" si="12"/>
+        <v>6645.3000000000065</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q26" s="6">
-        <f t="shared" si="6"/>
-        <v>-67.069999999999837</v>
+        <f t="shared" si="14"/>
+        <v>-66.755000000000166</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" ref="R26:S26" si="89">P26</f>
+        <f t="shared" ref="R26:S26" si="94">P26</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S26" s="6">
-        <f t="shared" si="89"/>
-        <v>-67.069999999999837</v>
+        <f t="shared" si="94"/>
+        <v>-66.755000000000166</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
       <c r="B27" s="6">
@@ -8252,33 +8539,33 @@
       </c>
       <c r="C27" s="6">
         <f>C26+B6</f>
-        <v>6672.1599999999989</v>
+        <v>6655.6571428571469</v>
       </c>
       <c r="D27" s="6">
         <v>4314</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="18"/>
-        <v>6672.1599999999989</v>
+        <f t="shared" si="24"/>
+        <v>6655.6571428571469</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="20"/>
-        <v>-67.202666666666673</v>
+        <f t="shared" si="26"/>
+        <v>-66.92761904761916</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" ref="H27:I27" si="90">F27</f>
+        <f t="shared" ref="H27:I27" si="95">F27</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="90"/>
-        <v>-67.202666666666673</v>
+        <f t="shared" si="95"/>
+        <v>-66.92761904761916</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="L27" s="6">
@@ -8286,35 +8573,35 @@
       </c>
       <c r="M27" s="6">
         <f>M26+L5</f>
-        <v>6667.3499999999931</v>
+        <v>6647.4000000000069</v>
       </c>
       <c r="N27" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="4"/>
-        <v>6667.3499999999931</v>
+        <f t="shared" si="12"/>
+        <v>6647.4000000000069</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" si="6"/>
-        <v>-67.122499999999832</v>
+        <f t="shared" si="14"/>
+        <v>-66.790000000000163</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" ref="R27:S27" si="91">P27</f>
+        <f t="shared" ref="R27:S27" si="96">P27</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S27" s="6">
-        <f t="shared" si="91"/>
-        <v>-67.122499999999832</v>
+        <f t="shared" si="96"/>
+        <v>-66.790000000000163</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>21</v>
       </c>
       <c r="B28" s="6">
@@ -8322,33 +8609,33 @@
       </c>
       <c r="C28" s="6">
         <f>C27+B6</f>
-        <v>6675.1999999999989</v>
+        <v>6657.8285714285757</v>
       </c>
       <c r="D28" s="6">
         <v>4314</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="18"/>
-        <v>6675.1999999999989</v>
+        <f t="shared" si="24"/>
+        <v>6657.8285714285757</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="20"/>
-        <v>-67.25333333333333</v>
+        <f t="shared" si="26"/>
+        <v>-66.963809523809672</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" ref="H28:I28" si="92">F28</f>
+        <f t="shared" ref="H28:I28" si="97">F28</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="92"/>
-        <v>-67.25333333333333</v>
+        <f t="shared" si="97"/>
+        <v>-66.963809523809672</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>22</v>
       </c>
       <c r="L28" s="6">
@@ -8356,35 +8643,35 @@
       </c>
       <c r="M28" s="6">
         <f>M27+L5</f>
-        <v>6670.4999999999927</v>
+        <v>6649.5000000000073</v>
       </c>
       <c r="N28" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="4"/>
-        <v>6670.4999999999927</v>
+        <f t="shared" si="12"/>
+        <v>6649.5000000000073</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="6"/>
-        <v>-67.174999999999827</v>
+        <f t="shared" si="14"/>
+        <v>-66.825000000000173</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" ref="R28:S28" si="93">P28</f>
+        <f t="shared" ref="R28:S28" si="98">P28</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S28" s="6">
-        <f t="shared" si="93"/>
-        <v>-67.174999999999827</v>
+        <f t="shared" si="98"/>
+        <v>-66.825000000000173</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>22</v>
       </c>
       <c r="B29" s="6">
@@ -8392,33 +8679,33 @@
       </c>
       <c r="C29" s="6">
         <f>C28+B6</f>
-        <v>6678.2399999999989</v>
+        <v>6660.0000000000045</v>
       </c>
       <c r="D29" s="6">
         <v>4314</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="18"/>
-        <v>6678.2399999999989</v>
+        <f t="shared" si="24"/>
+        <v>6660.0000000000045</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="20"/>
-        <v>-67.304000000000002</v>
+        <f t="shared" si="26"/>
+        <v>-67</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" ref="H29:I29" si="94">F29</f>
+        <f t="shared" ref="H29:I29" si="99">F29</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="94"/>
-        <v>-67.304000000000002</v>
+        <f t="shared" si="99"/>
+        <v>-67</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>23</v>
       </c>
       <c r="L29" s="6">
@@ -8426,35 +8713,35 @@
       </c>
       <c r="M29" s="6">
         <f>M28+L5</f>
-        <v>6673.6499999999924</v>
+        <v>6651.6000000000076</v>
       </c>
       <c r="N29" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="4"/>
-        <v>6673.6499999999924</v>
+        <f t="shared" si="12"/>
+        <v>6651.6000000000076</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q29" s="6">
-        <f t="shared" si="6"/>
-        <v>-67.227499999999836</v>
+        <f t="shared" si="14"/>
+        <v>-66.86000000000017</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" ref="R29:S29" si="95">P29</f>
+        <f t="shared" ref="R29:S29" si="100">P29</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S29" s="6">
-        <f t="shared" si="95"/>
-        <v>-67.227499999999836</v>
+        <f t="shared" si="100"/>
+        <v>-66.86000000000017</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>23</v>
       </c>
       <c r="B30" s="6">
@@ -8462,33 +8749,33 @@
       </c>
       <c r="C30" s="6">
         <f>C29+B6</f>
-        <v>6681.2799999999988</v>
+        <v>6662.1714285714334</v>
       </c>
       <c r="D30" s="6">
         <v>4314</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="18"/>
-        <v>6681.2799999999988</v>
+        <f t="shared" si="24"/>
+        <v>6662.1714285714334</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="20"/>
-        <v>-67.354666666666674</v>
+        <f t="shared" si="26"/>
+        <v>-67.036190476190498</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" ref="H30:I30" si="96">F30</f>
+        <f t="shared" ref="H30:I30" si="101">F30</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="96"/>
-        <v>-67.354666666666674</v>
+        <f t="shared" si="101"/>
+        <v>-67.036190476190498</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>24</v>
       </c>
       <c r="L30" s="6">
@@ -8496,35 +8783,35 @@
       </c>
       <c r="M30" s="6">
         <f>M29+L5</f>
-        <v>6676.799999999992</v>
+        <v>6653.700000000008</v>
       </c>
       <c r="N30" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="4"/>
-        <v>6676.799999999992</v>
+        <f t="shared" si="12"/>
+        <v>6653.700000000008</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>43.502000000000002</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="6"/>
-        <v>-67.279999999999831</v>
+        <f t="shared" si="14"/>
+        <v>-66.895000000000167</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" ref="R30:S30" si="97">P30</f>
+        <f t="shared" ref="R30:S30" si="102">P30</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" si="97"/>
-        <v>-67.279999999999831</v>
+        <f t="shared" si="102"/>
+        <v>-66.895000000000167</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>24</v>
       </c>
       <c r="B31" s="6">
@@ -8532,33 +8819,33 @@
       </c>
       <c r="C31" s="6">
         <f>C30+B6</f>
-        <v>6684.3199999999988</v>
+        <v>6664.3428571428622</v>
       </c>
       <c r="D31" s="6">
         <v>4314</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="18"/>
-        <v>6684.3199999999988</v>
+        <f t="shared" si="24"/>
+        <v>6664.3428571428622</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>43.56666666666667</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="20"/>
-        <v>-67.405333333333331</v>
+        <f t="shared" si="26"/>
+        <v>-67.072380952380996</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" ref="H31:I31" si="98">F31</f>
+        <f t="shared" ref="H31:I31" si="103">F31</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="98"/>
-        <v>-67.405333333333331</v>
+        <f t="shared" si="103"/>
+        <v>-67.072380952380996</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L31" s="6">
         <v>6613.8</v>
@@ -8570,7 +8857,7 @@
     </row>
     <row r="32" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="6">
         <v>6629.6</v>
@@ -8580,7 +8867,7 @@
         <v>-66.493333333333339</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L32" s="6">
         <v>4330.12</v>
@@ -8588,7 +8875,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6">
         <v>4314</v>

--- a/Survey Lines.xlsx
+++ b/Survey Lines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64ED5232-6E2D-4A4A-A03F-04B6B282A730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDB914F-0DA2-4536-A0BF-504B7425951A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="90" windowWidth="31290" windowHeight="20775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
   <si>
     <t>INSTRUCTIONS:</t>
   </si>
@@ -204,16 +204,32 @@
   <si>
     <t>Converted Format for "survey plan" Sheet</t>
   </si>
+  <si>
+    <t>for 'Table' sheet</t>
+  </si>
+  <si>
+    <t>Canada 100</t>
+  </si>
+  <si>
+    <t>Tasha Marie</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,6 +259,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -284,18 +308,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23:T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -540,7 +566,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -728,12 +754,18 @@
         <f>IF(B2="German Bank", "German Bank Box", IF(B2="Scots Bay", "Main Survey Box",""))</f>
         <v>Main Survey Box</v>
       </c>
+      <c r="C9" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="1" t="str">
         <f>IF(B2="German Bank", "Seal Island Box", IF(B3="North", "North Box", IF(B3="East", "East Box", IF(B3="Both", "East Box",""))))</f>
         <v>East Box</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="P9" s="1" t="str">
         <f>IF(B2="German Bank", "Converted Format for 'survey plan' Sheet", IF(B3&lt;&gt;"None", "Converted Format for 'survey plan' Sheet", ""))</f>
@@ -856,28 +888,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="6">
-        <v>4503.2988571428568</v>
+        <v>4503.0506666666661</v>
       </c>
       <c r="C12" s="6">
         <v>6514</v>
       </c>
       <c r="D12" s="6">
-        <v>4513.7911428571424</v>
+        <v>4513.6093333333329</v>
       </c>
       <c r="E12" s="6">
-        <v>6442.0977142857137</v>
+        <v>6441.8235555555548</v>
       </c>
       <c r="F12" s="6">
-        <v>45.054980952381001</v>
+        <v>45.0508444444445</v>
       </c>
       <c r="G12" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H12" s="6">
-        <v>45.22985238095233</v>
+        <v>45.226822222222168</v>
       </c>
       <c r="I12" s="6">
-        <v>-64.7016285714285</v>
+        <v>-64.697059259259163</v>
       </c>
       <c r="L12" s="6">
         <v>2</v>
@@ -912,28 +944,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="6">
-        <v>4504.4157142857139</v>
+        <v>4503.9193333333324</v>
       </c>
       <c r="C13" s="6">
         <v>6514</v>
       </c>
       <c r="D13" s="6">
-        <v>4514.6092857142849</v>
+        <v>4514.2456666666658</v>
       </c>
       <c r="E13" s="6">
-        <v>6443.3314285714278</v>
+        <v>6442.78311111111</v>
       </c>
       <c r="F13" s="6">
-        <v>45.073595238095166</v>
+        <v>45.065322222222164</v>
       </c>
       <c r="G13" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H13" s="6">
-        <v>45.243488095238</v>
+        <v>45.237427777777832</v>
       </c>
       <c r="I13" s="6">
-        <v>-64.722190476190505</v>
+        <v>-64.71305185185183</v>
       </c>
       <c r="L13" s="6">
         <v>3</v>
@@ -968,28 +1000,28 @@
         <v>4</v>
       </c>
       <c r="B14" s="6">
-        <v>4505.5325714285709</v>
+        <v>4504.7879999999986</v>
       </c>
       <c r="C14" s="6">
         <v>6514</v>
       </c>
       <c r="D14" s="6">
-        <v>4515.4274285714273</v>
+        <v>4514.8819999999987</v>
       </c>
       <c r="E14" s="6">
-        <v>6444.5651428571418</v>
+        <v>6443.7426666666652</v>
       </c>
       <c r="F14" s="6">
-        <v>45.092209523809501</v>
+        <v>45.079799999999999</v>
       </c>
       <c r="G14" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H14" s="6">
-        <v>45.257123809523833</v>
+        <v>45.248033333333332</v>
       </c>
       <c r="I14" s="6">
-        <v>-64.742752380952339</v>
+        <v>-64.729044444444497</v>
       </c>
       <c r="L14" s="6">
         <v>4</v>
@@ -1024,28 +1056,28 @@
         <v>5</v>
       </c>
       <c r="B15" s="6">
-        <v>4506.649428571428</v>
+        <v>4505.6566666666649</v>
       </c>
       <c r="C15" s="6">
         <v>6514</v>
       </c>
       <c r="D15" s="6">
-        <v>4516.2455714285697</v>
+        <v>4515.5183333333316</v>
       </c>
       <c r="E15" s="6">
-        <v>6445.7988571428559</v>
+        <v>6444.7022222222204</v>
       </c>
       <c r="F15" s="6">
-        <v>45.110823809523836</v>
+        <v>45.09427777777767</v>
       </c>
       <c r="G15" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H15" s="6">
-        <v>45.270759523809502</v>
+        <v>45.258638888888832</v>
       </c>
       <c r="I15" s="6">
-        <v>-64.76331428571433</v>
+        <v>-64.745037037036994</v>
       </c>
       <c r="L15" s="6" t="str">
         <v>BOTTOM</v>
@@ -1080,28 +1112,28 @@
         <v>6</v>
       </c>
       <c r="B16" s="6">
-        <v>4507.766285714285</v>
+        <v>4506.5253333333312</v>
       </c>
       <c r="C16" s="6">
         <v>6514</v>
       </c>
       <c r="D16" s="6">
-        <v>4517.0637142857122</v>
+        <v>4516.1546666666645</v>
       </c>
       <c r="E16" s="6">
-        <v>6447.03257142857</v>
+        <v>6445.6617777777756</v>
       </c>
       <c r="F16" s="6">
-        <v>45.129438095238164</v>
+        <v>45.108755555555497</v>
       </c>
       <c r="G16" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H16" s="6">
-        <v>45.284395238095165</v>
+        <v>45.269244444444332</v>
       </c>
       <c r="I16" s="6">
-        <v>-64.783876190476164</v>
+        <v>-64.761029629629661</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -1136,28 +1168,28 @@
         <v>7</v>
       </c>
       <c r="B17" s="6">
-        <v>4508.883142857142</v>
+        <v>4507.3939999999975</v>
       </c>
       <c r="C17" s="6">
         <v>6514</v>
       </c>
       <c r="D17" s="6">
-        <v>4517.8818571428546</v>
+        <v>4516.7909999999974</v>
       </c>
       <c r="E17" s="6">
-        <v>6448.2662857142841</v>
+        <v>6446.6213333333308</v>
       </c>
       <c r="F17" s="6">
-        <v>45.148052380952336</v>
+        <v>45.123233333333332</v>
       </c>
       <c r="G17" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H17" s="6">
-        <v>45.298030952380834</v>
+        <v>45.279850000000003</v>
       </c>
       <c r="I17" s="6">
-        <v>-64.804438095237998</v>
+        <v>-64.777022222222172</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="6" t="str">
@@ -1193,28 +1225,28 @@
         <v>8</v>
       </c>
       <c r="B18" s="6">
-        <v>4509.9999999999991</v>
+        <v>4508.2626666666638</v>
       </c>
       <c r="C18" s="6">
         <v>6514</v>
       </c>
       <c r="D18" s="6">
-        <v>4518.6999999999971</v>
+        <v>4517.4273333333304</v>
       </c>
       <c r="E18" s="6">
-        <v>6449.4999999999982</v>
+        <v>6447.580888888886</v>
       </c>
       <c r="F18" s="6">
-        <v>45.166666666666664</v>
+        <v>45.137711111111003</v>
       </c>
       <c r="G18" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H18" s="6">
-        <v>45.311666666666667</v>
+        <v>45.290455555555504</v>
       </c>
       <c r="I18" s="6">
-        <v>-64.825000000000003</v>
+        <v>-64.793014814814839</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6" t="str">
@@ -1250,28 +1282,28 @@
         <v>9</v>
       </c>
       <c r="B19" s="6">
-        <v>4511.1168571428561</v>
+        <v>4509.1313333333301</v>
       </c>
       <c r="C19" s="6">
         <v>6514</v>
       </c>
       <c r="D19" s="6">
-        <v>4519.5181428571395</v>
+        <v>4518.0636666666633</v>
       </c>
       <c r="E19" s="6">
-        <v>6450.7337142857123</v>
+        <v>6448.5404444444412</v>
       </c>
       <c r="F19" s="6">
-        <v>45.185280952381</v>
+        <v>45.15218888888883</v>
       </c>
       <c r="G19" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H19" s="6">
-        <v>45.32530238095233</v>
+        <v>45.301061111110997</v>
       </c>
       <c r="I19" s="6">
-        <v>-64.845561904761837</v>
+        <v>-64.809007407407336</v>
       </c>
       <c r="L19" s="6" t="str">
         <v>BOATS</v>
@@ -1306,28 +1338,28 @@
         <v>10</v>
       </c>
       <c r="B20" s="6">
-        <v>4512.2337142857132</v>
+        <v>4509.9999999999964</v>
       </c>
       <c r="C20" s="6">
         <v>6514</v>
       </c>
       <c r="D20" s="6">
-        <v>4520.336285714282</v>
+        <v>4518.6999999999962</v>
       </c>
       <c r="E20" s="6">
-        <v>6451.9674285714264</v>
+        <v>6449.4999999999964</v>
       </c>
       <c r="F20" s="6">
-        <v>45.203895238095164</v>
+        <v>45.166666666666664</v>
       </c>
       <c r="G20" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H20" s="6">
-        <v>45.338938095237999</v>
+        <v>45.311666666666667</v>
       </c>
       <c r="I20" s="6">
-        <v>-64.866123809523828</v>
+        <v>-64.825000000000003</v>
       </c>
       <c r="L20" s="6" t="str">
         <v>LINES</v>
@@ -1362,28 +1394,28 @@
         <v>11</v>
       </c>
       <c r="B21" s="6">
-        <v>4513.3505714285702</v>
+        <v>4510.8686666666626</v>
       </c>
       <c r="C21" s="6">
         <v>6514</v>
       </c>
       <c r="D21" s="6">
-        <v>4521.1544285714244</v>
+        <v>4519.3363333333291</v>
       </c>
       <c r="E21" s="6">
-        <v>6453.2011428571404</v>
+        <v>6450.4595555555516</v>
       </c>
       <c r="F21" s="6">
-        <v>45.222509523809499</v>
+        <v>45.181144444444335</v>
       </c>
       <c r="G21" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H21" s="6">
-        <v>45.352573809523669</v>
+        <v>45.322272222222168</v>
       </c>
       <c r="I21" s="6">
-        <v>-64.886685714285662</v>
+        <v>-64.840992592592499</v>
       </c>
       <c r="L21" s="6" t="str">
         <v>SPACING</v>
@@ -1418,28 +1450,28 @@
         <v>12</v>
       </c>
       <c r="B22" s="6">
-        <v>4514.4674285714273</v>
+        <v>4511.7373333333289</v>
       </c>
       <c r="C22" s="6">
         <v>6514</v>
       </c>
       <c r="D22" s="6">
-        <v>4521.9725714285669</v>
+        <v>4519.972666666662</v>
       </c>
       <c r="E22" s="6">
-        <v>6454.4348571428545</v>
+        <v>6451.4191111111068</v>
       </c>
       <c r="F22" s="6">
-        <v>45.241123809523835</v>
+        <v>45.19562222222217</v>
       </c>
       <c r="G22" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H22" s="6">
-        <v>45.366209523809502</v>
+        <v>45.332877777777668</v>
       </c>
       <c r="I22" s="6">
-        <v>-64.907247619047496</v>
+        <v>-64.856985185185167</v>
       </c>
       <c r="L22" s="6" t="str">
         <v>LINE #</v>
@@ -1474,28 +1506,28 @@
         <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>4515.5842857142843</v>
+        <v>4512.6059999999952</v>
       </c>
       <c r="C23" s="6">
         <v>6514</v>
       </c>
       <c r="D23" s="6">
-        <v>4522.7907142857093</v>
+        <v>4520.6089999999949</v>
       </c>
       <c r="E23" s="6">
-        <v>6455.6685714285686</v>
+        <v>6452.378666666662</v>
       </c>
       <c r="F23" s="6">
-        <v>45.259738095237999</v>
+        <v>45.210099999999997</v>
       </c>
       <c r="G23" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H23" s="6">
-        <v>45.379845238095164</v>
+        <v>45.343483333333168</v>
       </c>
       <c r="I23" s="6">
-        <v>-64.927809523809501</v>
+        <v>-64.872977777777663</v>
       </c>
       <c r="L23" s="6">
         <v>1</v>
@@ -1530,28 +1562,28 @@
         <v>14</v>
       </c>
       <c r="B24" s="6">
-        <v>4516.7011428571413</v>
+        <v>4513.4746666666615</v>
       </c>
       <c r="C24" s="6">
         <v>6514</v>
       </c>
       <c r="D24" s="6">
-        <v>4523.6088571428518</v>
+        <v>4521.2453333333278</v>
       </c>
       <c r="E24" s="6">
-        <v>6456.9022857142827</v>
+        <v>6453.3382222222172</v>
       </c>
       <c r="F24" s="6">
-        <v>45.278352380952334</v>
+        <v>45.224577777777668</v>
       </c>
       <c r="G24" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H24" s="6">
-        <v>45.393480952380834</v>
+        <v>45.354088888888832</v>
       </c>
       <c r="I24" s="6">
-        <v>-64.948371428571335</v>
+        <v>-64.88897037037033</v>
       </c>
       <c r="L24" s="6">
         <v>2</v>
@@ -1586,28 +1618,28 @@
         <v>15</v>
       </c>
       <c r="B25" s="6">
-        <v>4517.8179999999984</v>
+        <v>4514.3433333333278</v>
       </c>
       <c r="C25" s="6">
         <v>6514</v>
       </c>
       <c r="D25" s="6">
-        <v>4524.4269999999942</v>
+        <v>4521.8816666666607</v>
       </c>
       <c r="E25" s="6">
-        <v>6458.1359999999968</v>
+        <v>6454.2977777777724</v>
       </c>
       <c r="F25" s="6">
-        <v>45.29696666666667</v>
+        <v>45.239055555555503</v>
       </c>
       <c r="G25" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H25" s="6">
-        <v>45.407116666666496</v>
+        <v>45.364694444444332</v>
       </c>
       <c r="I25" s="6">
-        <v>-64.968933333333339</v>
+        <v>-64.904962962962827</v>
       </c>
       <c r="L25" s="6">
         <v>3</v>
@@ -1642,28 +1674,28 @@
         <v>16</v>
       </c>
       <c r="B26" s="6">
-        <v>4518.9348571428554</v>
+        <v>4515.2119999999941</v>
       </c>
       <c r="C26" s="6">
         <v>6514</v>
       </c>
       <c r="D26" s="6">
-        <v>4525.2451428571367</v>
+        <v>4522.5179999999937</v>
       </c>
       <c r="E26" s="6">
-        <v>6459.3697142857109</v>
+        <v>6455.2573333333276</v>
       </c>
       <c r="F26" s="6">
-        <v>45.315580952380998</v>
+        <v>45.253533333333166</v>
       </c>
       <c r="G26" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H26" s="6">
-        <v>45.420752380952337</v>
+        <v>45.375299999999832</v>
       </c>
       <c r="I26" s="6">
-        <v>-64.989495238095174</v>
+        <v>-64.920955555555494</v>
       </c>
       <c r="L26" s="6">
         <v>4</v>
@@ -1698,28 +1730,28 @@
         <v>17</v>
       </c>
       <c r="B27" s="6">
-        <v>4520.0517142857125</v>
+        <v>4516.0806666666604</v>
       </c>
       <c r="C27" s="6">
         <v>6514</v>
       </c>
       <c r="D27" s="6">
-        <v>4526.0632857142791</v>
+        <v>4523.1543333333266</v>
       </c>
       <c r="E27" s="6">
-        <v>6460.603428571425</v>
+        <v>6456.2168888888827</v>
       </c>
       <c r="F27" s="6">
-        <v>45.33419523809517</v>
+        <v>45.268011111111001</v>
       </c>
       <c r="G27" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H27" s="6">
-        <v>45.434388095237999</v>
+        <v>45.385905555555503</v>
       </c>
       <c r="I27" s="6">
-        <v>-65.010057142856994</v>
+        <v>-64.936948148148005</v>
       </c>
       <c r="L27" s="6" t="e">
         <v>#N/A</v>
@@ -1754,28 +1786,28 @@
         <v>18</v>
       </c>
       <c r="B28" s="6">
-        <v>4521.1685714285695</v>
+        <v>4516.9493333333266</v>
       </c>
       <c r="C28" s="6">
         <v>6514</v>
       </c>
       <c r="D28" s="6">
-        <v>4526.8814285714216</v>
+        <v>4523.7906666666595</v>
       </c>
       <c r="E28" s="6">
-        <v>6461.837142857139</v>
+        <v>6457.1764444444379</v>
       </c>
       <c r="F28" s="6">
-        <v>45.352809523809498</v>
+        <v>45.282488888888835</v>
       </c>
       <c r="G28" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H28" s="6">
-        <v>45.448023809523669</v>
+        <v>45.396511111111003</v>
       </c>
       <c r="I28" s="6">
-        <v>-65.030619047618998</v>
+        <v>-64.952940740740672</v>
       </c>
       <c r="L28" s="6" t="e">
         <v>#N/A</v>
@@ -3120,7 +3152,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3128,8 +3160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3157,70 +3189,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2">
-        <v>45.166666666666664</v>
+        <v>45.036366666666666</v>
       </c>
       <c r="C2">
         <v>-65.233333333333334</v>
       </c>
       <c r="D2">
-        <v>45.311666666666667</v>
+        <v>45.216216666666668</v>
       </c>
       <c r="E2">
-        <v>-64.825000000000003</v>
+        <v>-64.681066666666666</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>45.244999999999997</v>
+        <v>45.0508444444445</v>
       </c>
       <c r="C3">
-        <v>-65.052999999999997</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="D3">
-        <v>45.314999999999998</v>
+        <v>45.226822222222168</v>
       </c>
       <c r="E3">
-        <v>-64.828000000000003</v>
+        <v>-64.697059259259163</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>45.260333333333328</v>
+        <v>45.065322222222164</v>
       </c>
       <c r="C4">
-        <v>-65.052999999999997</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="D4">
-        <v>45.324333333333335</v>
+        <v>45.237427777777832</v>
       </c>
       <c r="E4">
-        <v>-64.845333333333329</v>
+        <v>-64.71305185185183</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>45.275666666666659</v>
+        <v>45.079799999999999</v>
       </c>
       <c r="C5">
-        <v>-65.052999999999997</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="D5">
-        <v>45.333666666666673</v>
+        <v>45.248033333333332</v>
       </c>
       <c r="E5">
-        <v>-64.862666666666655</v>
+        <v>-64.729044444444497</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3228,33 +3260,33 @@
         <v>39</v>
       </c>
       <c r="B6">
-        <v>45.29099999999999</v>
+        <v>45.09427777777767</v>
       </c>
       <c r="C6">
-        <v>-65.052999999999997</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="D6">
-        <v>45.343000000000011</v>
+        <v>45.258638888888832</v>
       </c>
       <c r="E6">
-        <v>-64.879999999999981</v>
+        <v>-64.745037037036994</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7">
-        <v>45.073595238095166</v>
+        <v>45.108755555555497</v>
       </c>
       <c r="C7">
         <v>-65.233333333333334</v>
       </c>
       <c r="D7">
-        <v>45.243488095238</v>
+        <v>45.269244444444332</v>
       </c>
       <c r="E7">
-        <v>-64.722190476190505</v>
+        <v>-64.761029629629661</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3262,72 +3294,72 @@
         <v>37</v>
       </c>
       <c r="B8">
-        <v>45.129438095238164</v>
+        <v>45.123233333333332</v>
       </c>
       <c r="C8">
         <v>-65.233333333333334</v>
       </c>
       <c r="D8">
-        <v>45.284395238095165</v>
+        <v>45.279850000000003</v>
       </c>
       <c r="E8">
-        <v>-64.783876190476164</v>
+        <v>-64.777022222222172</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9">
-        <v>45.054980952381001</v>
+        <v>45.137711111111003</v>
       </c>
       <c r="C9">
         <v>-65.233333333333334</v>
       </c>
       <c r="D9">
-        <v>45.22985238095233</v>
+        <v>45.290455555555504</v>
       </c>
       <c r="E9">
-        <v>-64.7016285714285</v>
+        <v>-64.793014814814839</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B10">
-        <v>45.110823809523836</v>
+        <v>45.15218888888883</v>
       </c>
       <c r="C10">
         <v>-65.233333333333334</v>
       </c>
       <c r="D10">
-        <v>45.270759523809502</v>
+        <v>45.301061111110997</v>
       </c>
       <c r="E10">
-        <v>-64.76331428571433</v>
+        <v>-64.809007407407336</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>45.036366666666666</v>
+        <v>45.166666666666664</v>
       </c>
       <c r="C11">
         <v>-65.233333333333334</v>
       </c>
       <c r="D11">
-        <v>45.216216666666668</v>
+        <v>45.311666666666667</v>
       </c>
       <c r="E11">
-        <v>-64.681066666666666</v>
+        <v>-64.825000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
         <v>45.224583333333335</v>
@@ -3344,7 +3376,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B13" s="6">
         <v>45.239277777777836</v>
@@ -3361,7 +3393,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B14" s="6">
         <v>45.253972222222167</v>
@@ -3378,7 +3410,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B15" s="6">
         <v>45.268666666666668</v>
@@ -3398,16 +3430,16 @@
         <v>41</v>
       </c>
       <c r="B16">
-        <v>45.092209523809501</v>
+        <v>45.244999999999997</v>
       </c>
       <c r="C16">
-        <v>-65.233333333333334</v>
+        <v>-65.052999999999997</v>
       </c>
       <c r="D16">
-        <v>45.257123809523833</v>
+        <v>45.314999999999998</v>
       </c>
       <c r="E16">
-        <v>-64.742752380952339</v>
+        <v>-64.828000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3415,31 +3447,51 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <v>45.148052380952336</v>
+        <v>45.260333333333328</v>
       </c>
       <c r="C17">
-        <v>-65.233333333333334</v>
+        <v>-65.052999999999997</v>
       </c>
       <c r="D17">
-        <v>45.298030952380834</v>
+        <v>45.324333333333335</v>
       </c>
       <c r="E17">
-        <v>-64.804438095237998</v>
+        <v>-64.845333333333329</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="A18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45.275666666666659</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-65.052999999999997</v>
+      </c>
+      <c r="D18" s="6">
+        <v>45.333666666666673</v>
+      </c>
+      <c r="E18" s="6">
+        <v>-64.862666666666655</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="A19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45.29099999999999</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-65.052999999999997</v>
+      </c>
+      <c r="D19" s="6">
+        <v>45.343000000000011</v>
+      </c>
+      <c r="E19" s="6">
+        <v>-64.879999999999981</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4431,7 +4483,7 @@
   <dimension ref="A1:E997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4458,178 +4510,178 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>39</v>
+      <c r="A2" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B2">
-        <v>4509.9999999999991</v>
+        <v>4502.1819999999998</v>
       </c>
       <c r="C2">
         <v>6514</v>
       </c>
       <c r="D2">
-        <v>4518.6999999999971</v>
+        <v>4512.973</v>
       </c>
       <c r="E2">
-        <v>6449.4999999999982</v>
+        <v>6440.8639999999996</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4503.0506666666661</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6514</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4513.6093333333329</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6441.8235555555548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4503.9193333333324</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6514</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4514.2456666666658</v>
+      </c>
+      <c r="E4" s="6">
+        <v>6442.78311111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4504.7879999999986</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6514</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4514.8819999999987</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6443.7426666666652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="6">
-        <v>4514.4199939999999</v>
-      </c>
-      <c r="C3" s="6">
-        <v>6503</v>
-      </c>
-      <c r="D3" s="6">
-        <v>4518.5399939999998</v>
-      </c>
-      <c r="E3" s="6">
-        <v>6449.4080000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="6">
-        <v>4515.3719940000001</v>
-      </c>
-      <c r="C4" s="6">
-        <v>6503</v>
-      </c>
-      <c r="D4" s="6">
-        <v>4519.1426626666662</v>
-      </c>
-      <c r="E4" s="6">
-        <v>6450.431998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4516.3239940000003</v>
-      </c>
-      <c r="C5" s="6">
-        <v>6503</v>
-      </c>
-      <c r="D5" s="6">
-        <v>4519.7453313333326</v>
-      </c>
-      <c r="E5" s="6">
-        <v>6451.4559959999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="B6" s="6">
-        <v>4517.2759940000005</v>
+        <v>4505.6566666666649</v>
       </c>
       <c r="C6" s="6">
-        <v>6503</v>
+        <v>6514</v>
       </c>
       <c r="D6" s="6">
-        <v>4520.347999999999</v>
+        <v>4515.5183333333316</v>
       </c>
       <c r="E6" s="6">
-        <v>6452.4799939999994</v>
+        <v>6444.7022222222204</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
+      <c r="A7" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B7">
-        <v>4504.4157142857139</v>
+        <v>4506.5253333333312</v>
       </c>
       <c r="C7">
         <v>6514</v>
       </c>
       <c r="D7">
-        <v>4514.6092857142849</v>
+        <v>4516.1546666666645</v>
       </c>
       <c r="E7">
-        <v>6443.3314285714278</v>
+        <v>6445.6617777777756</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B8">
-        <v>4507.766285714285</v>
+        <v>4507.3939999999975</v>
       </c>
       <c r="C8">
         <v>6514</v>
       </c>
       <c r="D8">
-        <v>4517.0637142857122</v>
+        <v>4516.7909999999974</v>
       </c>
       <c r="E8">
-        <v>6447.03257142857</v>
+        <v>6446.6213333333308</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
+      <c r="A9" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B9">
-        <v>4503.2988571428568</v>
+        <v>4508.2626666666638</v>
       </c>
       <c r="C9">
         <v>6514</v>
       </c>
       <c r="D9">
-        <v>4513.7911428571424</v>
+        <v>4517.4273333333304</v>
       </c>
       <c r="E9">
-        <v>6442.0977142857137</v>
+        <v>6447.580888888886</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
+      <c r="A10" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B10">
-        <v>4506.649428571428</v>
+        <v>4509.1313333333301</v>
       </c>
       <c r="C10">
         <v>6514</v>
       </c>
       <c r="D10">
-        <v>4516.2455714285697</v>
+        <v>4518.0636666666633</v>
       </c>
       <c r="E10">
-        <v>6445.7988571428559</v>
+        <v>6448.5404444444412</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
+      <c r="A11" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>4502.1819999999998</v>
+        <v>4509.9999999999964</v>
       </c>
       <c r="C11">
         <v>6514</v>
       </c>
       <c r="D11">
-        <v>4512.973</v>
+        <v>4518.6999999999962</v>
       </c>
       <c r="E11">
-        <v>6440.8639999999996</v>
+        <v>6449.4999999999964</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
+      <c r="A12" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B12">
         <v>4513.4750000000004</v>
@@ -4645,8 +4697,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
+      <c r="A13" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B13" s="6">
         <v>4514.3566666666666</v>
@@ -4662,8 +4714,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>40</v>
+      <c r="A14" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B14" s="6">
         <v>4515.2383333333328</v>
@@ -4679,8 +4731,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
+      <c r="A15" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B15" s="6">
         <v>4516.119999999999</v>
@@ -4696,47 +4748,73 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B16">
-        <v>4505.5325714285709</v>
+        <v>4514.4199939999999</v>
       </c>
       <c r="C16">
-        <v>6514</v>
+        <v>6503</v>
       </c>
       <c r="D16">
-        <v>4515.4274285714273</v>
+        <v>4518.5399939999998</v>
       </c>
       <c r="E16">
-        <v>6444.5651428571418</v>
+        <v>6449.4080000000004</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B17">
-        <v>4508.883142857142</v>
+        <v>4515.3719940000001</v>
       </c>
       <c r="C17">
-        <v>6514</v>
+        <v>6503</v>
       </c>
       <c r="D17">
-        <v>4517.8818571428546</v>
+        <v>4519.1426626666662</v>
       </c>
       <c r="E17">
-        <v>6448.2662857142841</v>
+        <v>6450.431998</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4516.3239940000003</v>
+      </c>
+      <c r="C18" s="6">
+        <v>6503</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4519.7453313333326</v>
+      </c>
+      <c r="E18" s="6">
+        <v>6451.4559959999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>4517.2759940000005</v>
+      </c>
+      <c r="C19">
+        <v>6503</v>
+      </c>
+      <c r="D19">
+        <v>4520.347999999999</v>
+      </c>
+      <c r="E19">
+        <v>6452.4799939999994</v>
+      </c>
+    </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5848,11 +5926,11 @@
       </c>
       <c r="V3" s="8">
         <f>B4</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X3" s="6">
         <f t="shared" ref="X3:X4" si="8">V3</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE3" s="6" t="s">
         <v>23</v>
@@ -5879,7 +5957,7 @@
       </c>
       <c r="B4" s="8">
         <f>'Data Entry'!B1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -5894,7 +5972,7 @@
       </c>
       <c r="L4" s="8">
         <f>B4</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -5906,15 +5984,15 @@
       </c>
       <c r="V4" s="6">
         <f>V3*2</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X4" s="6">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="6">
         <f>X4</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE4" s="6" t="s">
         <v>24</v>
@@ -5942,7 +6020,7 @@
       </c>
       <c r="B5" s="6">
         <f>B4*2</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -5954,7 +6032,7 @@
       </c>
       <c r="L5" s="6">
         <f>(L31-L3)/(L4-1)</f>
-        <v>2.1000000000000605</v>
+        <v>1.5750000000000455</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>26</v>
@@ -5964,15 +6042,15 @@
       </c>
       <c r="V5" s="6">
         <f>(V2-V25)/(V4-1)</f>
-        <v>1.116857142857173</v>
+        <v>0.86866666666669012</v>
       </c>
       <c r="X5" s="6">
         <f t="shared" ref="X5:Y5" si="10">(X2-X25)/(X4-1)</f>
-        <v>0.81814285714283741</v>
+        <v>0.63633333333331799</v>
       </c>
       <c r="Y5" s="6">
         <f t="shared" si="10"/>
-        <v>1.2337142857143459</v>
+        <v>0.95955555555560246</v>
       </c>
       <c r="Z5" s="8" t="s">
         <v>26</v>
@@ -6002,7 +6080,7 @@
       </c>
       <c r="B6" s="6">
         <f>(B32-B3)/(B5-1)</f>
-        <v>2.1714285714286752</v>
+        <v>1.6888888888889697</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>26</v>
@@ -6208,14 +6286,14 @@
       </c>
       <c r="M8" s="6">
         <f>M7+L5</f>
-        <v>6609.6</v>
+        <v>6609.0749999999998</v>
       </c>
       <c r="N8" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="12"/>
-        <v>6609.6</v>
+        <v>6609.0749999999998</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="13"/>
@@ -6223,7 +6301,7 @@
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="14"/>
-        <v>-66.16</v>
+        <v>-66.151250000000005</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" ref="R8:S8" si="29">P8</f>
@@ -6231,7 +6309,7 @@
       </c>
       <c r="S8" s="6">
         <f t="shared" si="29"/>
-        <v>-66.16</v>
+        <v>-66.151250000000005</v>
       </c>
       <c r="U8" s="6">
         <f t="shared" ref="U8:U24" si="30">U7+1</f>
@@ -6239,22 +6317,22 @@
       </c>
       <c r="V8" s="6">
         <f>V7+$V5</f>
-        <v>4503.2988571428568</v>
+        <v>4503.0506666666661</v>
       </c>
       <c r="W8" s="6">
         <v>6514</v>
       </c>
       <c r="X8" s="6">
         <f t="shared" ref="X8:Y8" si="31">X7+X5</f>
-        <v>4513.7911428571424</v>
+        <v>4513.6093333333329</v>
       </c>
       <c r="Y8" s="6">
         <f t="shared" si="31"/>
-        <v>6442.0977142857137</v>
+        <v>6441.8235555555548</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="16"/>
-        <v>45.054980952381001</v>
+        <v>45.0508444444445</v>
       </c>
       <c r="AA8" s="6">
         <f t="shared" si="17"/>
@@ -6262,11 +6340,11 @@
       </c>
       <c r="AB8" s="6">
         <f t="shared" si="18"/>
-        <v>45.22985238095233</v>
+        <v>45.226822222222168</v>
       </c>
       <c r="AC8" s="6">
         <f t="shared" si="19"/>
-        <v>-64.7016285714285</v>
+        <v>-64.697059259259163</v>
       </c>
       <c r="AE8" s="6">
         <v>2</v>
@@ -6313,14 +6391,14 @@
       </c>
       <c r="C9" s="6">
         <f>C8+B6</f>
-        <v>6616.5714285714284</v>
+        <v>6616.0888888888885</v>
       </c>
       <c r="D9" s="6">
         <v>4314</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="24"/>
-        <v>6616.5714285714284</v>
+        <v>6616.0888888888885</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="25"/>
@@ -6328,7 +6406,7 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="26"/>
-        <v>-66.276190476190493</v>
+        <v>-66.268148148148171</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ref="H9:I9" si="34">F9</f>
@@ -6336,7 +6414,7 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" si="34"/>
-        <v>-66.276190476190493</v>
+        <v>-66.268148148148171</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="28"/>
@@ -6347,14 +6425,14 @@
       </c>
       <c r="M9" s="6">
         <f>M8+L5</f>
-        <v>6611.7000000000007</v>
+        <v>6610.65</v>
       </c>
       <c r="N9" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="12"/>
-        <v>6611.7000000000007</v>
+        <v>6610.65</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="13"/>
@@ -6362,7 +6440,7 @@
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="14"/>
-        <v>-66.194999999999993</v>
+        <v>-66.177499999999995</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" ref="R9:S9" si="35">P9</f>
@@ -6370,7 +6448,7 @@
       </c>
       <c r="S9" s="6">
         <f t="shared" si="35"/>
-        <v>-66.194999999999993</v>
+        <v>-66.177499999999995</v>
       </c>
       <c r="U9" s="6">
         <f t="shared" si="30"/>
@@ -6378,22 +6456,22 @@
       </c>
       <c r="V9" s="6">
         <f>V8+$V5</f>
-        <v>4504.4157142857139</v>
+        <v>4503.9193333333324</v>
       </c>
       <c r="W9" s="6">
         <v>6514</v>
       </c>
       <c r="X9" s="6">
         <f t="shared" ref="X9:Y9" si="36">X8+X5</f>
-        <v>4514.6092857142849</v>
+        <v>4514.2456666666658</v>
       </c>
       <c r="Y9" s="6">
         <f t="shared" si="36"/>
-        <v>6443.3314285714278</v>
+        <v>6442.78311111111</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="16"/>
-        <v>45.073595238095166</v>
+        <v>45.065322222222164</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" si="17"/>
@@ -6401,11 +6479,11 @@
       </c>
       <c r="AB9" s="6">
         <f t="shared" si="18"/>
-        <v>45.243488095238</v>
+        <v>45.237427777777832</v>
       </c>
       <c r="AC9" s="6">
         <f t="shared" si="19"/>
-        <v>-64.722190476190505</v>
+        <v>-64.71305185185183</v>
       </c>
       <c r="AE9" s="6">
         <v>3</v>
@@ -6452,14 +6530,14 @@
       </c>
       <c r="C10" s="6">
         <f>C9+B6</f>
-        <v>6618.7428571428572</v>
+        <v>6617.7777777777774</v>
       </c>
       <c r="D10" s="6">
         <v>4314</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="24"/>
-        <v>6618.7428571428572</v>
+        <v>6617.7777777777774</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="25"/>
@@ -6467,7 +6545,7 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="26"/>
-        <v>-66.312380952381005</v>
+        <v>-66.296296296296333</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ref="H10:I10" si="38">F10</f>
@@ -6475,7 +6553,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" si="38"/>
-        <v>-66.312380952381005</v>
+        <v>-66.296296296296333</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="28"/>
@@ -6486,14 +6564,14 @@
       </c>
       <c r="M10" s="6">
         <f>M9+L5</f>
-        <v>6613.8000000000011</v>
+        <v>6612.2249999999995</v>
       </c>
       <c r="N10" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="12"/>
-        <v>6613.8000000000011</v>
+        <v>6612.2249999999995</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="13"/>
@@ -6501,7 +6579,7 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="14"/>
-        <v>-66.23</v>
+        <v>-66.203749999999999</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" ref="R10:S10" si="39">P10</f>
@@ -6509,7 +6587,7 @@
       </c>
       <c r="S10" s="6">
         <f t="shared" si="39"/>
-        <v>-66.23</v>
+        <v>-66.203749999999999</v>
       </c>
       <c r="U10" s="6">
         <f t="shared" si="30"/>
@@ -6517,22 +6595,22 @@
       </c>
       <c r="V10" s="6">
         <f>V9+$V5</f>
-        <v>4505.5325714285709</v>
+        <v>4504.7879999999986</v>
       </c>
       <c r="W10" s="6">
         <v>6514</v>
       </c>
       <c r="X10" s="6">
         <f t="shared" ref="X10:Y10" si="40">X9+X5</f>
-        <v>4515.4274285714273</v>
+        <v>4514.8819999999987</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" si="40"/>
-        <v>6444.5651428571418</v>
+        <v>6443.7426666666652</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="16"/>
-        <v>45.092209523809501</v>
+        <v>45.079799999999999</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="17"/>
@@ -6540,11 +6618,11 @@
       </c>
       <c r="AB10" s="6">
         <f t="shared" si="18"/>
-        <v>45.257123809523833</v>
+        <v>45.248033333333332</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" si="19"/>
-        <v>-64.742752380952339</v>
+        <v>-64.729044444444497</v>
       </c>
       <c r="AE10" s="6">
         <v>4</v>
@@ -6591,14 +6669,14 @@
       </c>
       <c r="C11" s="6">
         <f>C10+B6</f>
-        <v>6620.9142857142861</v>
+        <v>6619.4666666666662</v>
       </c>
       <c r="D11" s="6">
         <v>4314</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="24"/>
-        <v>6620.9142857142861</v>
+        <v>6619.4666666666662</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="25"/>
@@ -6606,7 +6684,7 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="26"/>
-        <v>-66.348571428571503</v>
+        <v>-66.324444444444495</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ref="H11:I11" si="42">F11</f>
@@ -6614,7 +6692,7 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" si="42"/>
-        <v>-66.348571428571503</v>
+        <v>-66.324444444444495</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="28"/>
@@ -6625,14 +6703,14 @@
       </c>
       <c r="M11" s="6">
         <f>M10+L5</f>
-        <v>6615.9000000000015</v>
+        <v>6613.7999999999993</v>
       </c>
       <c r="N11" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="12"/>
-        <v>6615.9000000000015</v>
+        <v>6613.7999999999993</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="13"/>
@@ -6640,7 +6718,7 @@
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="14"/>
-        <v>-66.265000000000001</v>
+        <v>-66.23</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" ref="R11:S11" si="43">P11</f>
@@ -6648,7 +6726,7 @@
       </c>
       <c r="S11" s="6">
         <f t="shared" si="43"/>
-        <v>-66.265000000000001</v>
+        <v>-66.23</v>
       </c>
       <c r="U11" s="6">
         <f t="shared" si="30"/>
@@ -6656,22 +6734,22 @@
       </c>
       <c r="V11" s="6">
         <f>V10+$V5</f>
-        <v>4506.649428571428</v>
+        <v>4505.6566666666649</v>
       </c>
       <c r="W11" s="6">
         <v>6514</v>
       </c>
       <c r="X11" s="6">
         <f t="shared" ref="X11:Y11" si="44">X10+X5</f>
-        <v>4516.2455714285697</v>
+        <v>4515.5183333333316</v>
       </c>
       <c r="Y11" s="6">
         <f t="shared" si="44"/>
-        <v>6445.7988571428559</v>
+        <v>6444.7022222222204</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" si="16"/>
-        <v>45.110823809523836</v>
+        <v>45.09427777777767</v>
       </c>
       <c r="AA11" s="6">
         <f t="shared" si="17"/>
@@ -6679,11 +6757,11 @@
       </c>
       <c r="AB11" s="6">
         <f t="shared" si="18"/>
-        <v>45.270759523809502</v>
+        <v>45.258638888888832</v>
       </c>
       <c r="AC11" s="6">
         <f t="shared" si="19"/>
-        <v>-64.76331428571433</v>
+        <v>-64.745037037036994</v>
       </c>
       <c r="AE11" s="6" t="s">
         <v>28</v>
@@ -6727,14 +6805,14 @@
       </c>
       <c r="C12" s="6">
         <f>C11+B6</f>
-        <v>6623.0857142857149</v>
+        <v>6621.1555555555551</v>
       </c>
       <c r="D12" s="6">
         <v>4314</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="24"/>
-        <v>6623.0857142857149</v>
+        <v>6621.1555555555551</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="25"/>
@@ -6742,7 +6820,7 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="26"/>
-        <v>-66.384761904761831</v>
+        <v>-66.352592592592671</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ref="H12:I12" si="49">F12</f>
@@ -6750,7 +6828,7 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" si="49"/>
-        <v>-66.384761904761831</v>
+        <v>-66.352592592592671</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="28"/>
@@ -6761,14 +6839,14 @@
       </c>
       <c r="M12" s="6">
         <f>M11+L5</f>
-        <v>6618.0000000000018</v>
+        <v>6615.3749999999991</v>
       </c>
       <c r="N12" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="12"/>
-        <v>6618.0000000000018</v>
+        <v>6615.3749999999991</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="13"/>
@@ -6776,7 +6854,7 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="14"/>
-        <v>-66.3</v>
+        <v>-66.256249999999994</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" ref="R12:S12" si="50">P12</f>
@@ -6784,7 +6862,7 @@
       </c>
       <c r="S12" s="6">
         <f t="shared" si="50"/>
-        <v>-66.3</v>
+        <v>-66.256249999999994</v>
       </c>
       <c r="U12" s="6">
         <f t="shared" si="30"/>
@@ -6792,22 +6870,22 @@
       </c>
       <c r="V12" s="6">
         <f>V11+$V5</f>
-        <v>4507.766285714285</v>
+        <v>4506.5253333333312</v>
       </c>
       <c r="W12" s="6">
         <v>6514</v>
       </c>
       <c r="X12" s="6">
         <f t="shared" ref="X12:Y12" si="51">X11+X5</f>
-        <v>4517.0637142857122</v>
+        <v>4516.1546666666645</v>
       </c>
       <c r="Y12" s="6">
         <f t="shared" si="51"/>
-        <v>6447.03257142857</v>
+        <v>6445.6617777777756</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" si="16"/>
-        <v>45.129438095238164</v>
+        <v>45.108755555555497</v>
       </c>
       <c r="AA12" s="6">
         <f t="shared" si="17"/>
@@ -6815,11 +6893,11 @@
       </c>
       <c r="AB12" s="6">
         <f t="shared" si="18"/>
-        <v>45.284395238095165</v>
+        <v>45.269244444444332</v>
       </c>
       <c r="AC12" s="6">
         <f t="shared" si="19"/>
-        <v>-64.783876190476164</v>
+        <v>-64.761029629629661</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -6832,14 +6910,14 @@
       </c>
       <c r="C13" s="6">
         <f>C12+B6</f>
-        <v>6625.2571428571437</v>
+        <v>6622.844444444444</v>
       </c>
       <c r="D13" s="6">
         <v>4314</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="24"/>
-        <v>6625.2571428571437</v>
+        <v>6622.844444444444</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="25"/>
@@ -6847,7 +6925,7 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="26"/>
-        <v>-66.420952380952329</v>
+        <v>-66.380740740740663</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ref="H13:I13" si="52">F13</f>
@@ -6855,7 +6933,7 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" si="52"/>
-        <v>-66.420952380952329</v>
+        <v>-66.380740740740663</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="28"/>
@@ -6866,14 +6944,14 @@
       </c>
       <c r="M13" s="6">
         <f>M12+L5</f>
-        <v>6620.1000000000022</v>
+        <v>6616.9499999999989</v>
       </c>
       <c r="N13" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="12"/>
-        <v>6620.1000000000022</v>
+        <v>6616.9499999999989</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="13"/>
@@ -6881,7 +6959,7 @@
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="14"/>
-        <v>-66.334999999999994</v>
+        <v>-66.282499999999999</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" ref="R13:S13" si="53">P13</f>
@@ -6889,7 +6967,7 @@
       </c>
       <c r="S13" s="6">
         <f t="shared" si="53"/>
-        <v>-66.334999999999994</v>
+        <v>-66.282499999999999</v>
       </c>
       <c r="U13" s="6">
         <f t="shared" si="30"/>
@@ -6897,22 +6975,22 @@
       </c>
       <c r="V13" s="6">
         <f>V12+$V5</f>
-        <v>4508.883142857142</v>
+        <v>4507.3939999999975</v>
       </c>
       <c r="W13" s="6">
         <v>6514</v>
       </c>
       <c r="X13" s="6">
         <f t="shared" ref="X13:Y13" si="54">X12+X5</f>
-        <v>4517.8818571428546</v>
+        <v>4516.7909999999974</v>
       </c>
       <c r="Y13" s="6">
         <f t="shared" si="54"/>
-        <v>6448.2662857142841</v>
+        <v>6446.6213333333308</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="16"/>
-        <v>45.148052380952336</v>
+        <v>45.123233333333332</v>
       </c>
       <c r="AA13" s="6">
         <f t="shared" si="17"/>
@@ -6920,11 +6998,11 @@
       </c>
       <c r="AB13" s="6">
         <f t="shared" si="18"/>
-        <v>45.298030952380834</v>
+        <v>45.279850000000003</v>
       </c>
       <c r="AC13" s="6">
         <f t="shared" si="19"/>
-        <v>-64.804438095237998</v>
+        <v>-64.777022222222172</v>
       </c>
       <c r="AE13" s="8" t="s">
         <v>29</v>
@@ -6940,14 +7018,14 @@
       </c>
       <c r="C14" s="6">
         <f>C13+B6</f>
-        <v>6627.4285714285725</v>
+        <v>6624.5333333333328</v>
       </c>
       <c r="D14" s="6">
         <v>4314</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="24"/>
-        <v>6627.4285714285725</v>
+        <v>6624.5333333333328</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="25"/>
@@ -6955,7 +7033,7 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="26"/>
-        <v>-66.457142857142827</v>
+        <v>-66.408888888888839</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ref="H14:I14" si="55">F14</f>
@@ -6963,7 +7041,7 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" si="55"/>
-        <v>-66.457142857142827</v>
+        <v>-66.408888888888839</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="28"/>
@@ -6974,14 +7052,14 @@
       </c>
       <c r="M14" s="6">
         <f>M13+L5</f>
-        <v>6622.2000000000025</v>
+        <v>6618.5249999999987</v>
       </c>
       <c r="N14" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="12"/>
-        <v>6622.2000000000025</v>
+        <v>6618.5249999999987</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="13"/>
@@ -6989,7 +7067,7 @@
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="14"/>
-        <v>-66.37</v>
+        <v>-66.308750000000003</v>
       </c>
       <c r="R14" s="6">
         <f t="shared" ref="R14:S14" si="56">P14</f>
@@ -6997,7 +7075,7 @@
       </c>
       <c r="S14" s="6">
         <f t="shared" si="56"/>
-        <v>-66.37</v>
+        <v>-66.308750000000003</v>
       </c>
       <c r="U14" s="6">
         <f t="shared" si="30"/>
@@ -7005,22 +7083,22 @@
       </c>
       <c r="V14" s="6">
         <f>V13+$V5</f>
-        <v>4509.9999999999991</v>
+        <v>4508.2626666666638</v>
       </c>
       <c r="W14" s="6">
         <v>6514</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" ref="X14:Y14" si="57">X13+X5</f>
-        <v>4518.6999999999971</v>
+        <v>4517.4273333333304</v>
       </c>
       <c r="Y14" s="6">
         <f t="shared" si="57"/>
-        <v>6449.4999999999982</v>
+        <v>6447.580888888886</v>
       </c>
       <c r="Z14" s="6">
         <f t="shared" si="16"/>
-        <v>45.166666666666664</v>
+        <v>45.137711111111003</v>
       </c>
       <c r="AA14" s="6">
         <f t="shared" si="17"/>
@@ -7028,11 +7106,11 @@
       </c>
       <c r="AB14" s="6">
         <f t="shared" si="18"/>
-        <v>45.311666666666667</v>
+        <v>45.290455555555504</v>
       </c>
       <c r="AC14" s="6">
         <f t="shared" si="19"/>
-        <v>-64.825000000000003</v>
+        <v>-64.793014814814839</v>
       </c>
       <c r="AE14" s="6" t="s">
         <v>21</v>
@@ -7072,14 +7150,14 @@
       </c>
       <c r="C15" s="6">
         <f>C14+B6</f>
-        <v>6629.6000000000013</v>
+        <v>6626.2222222222217</v>
       </c>
       <c r="D15" s="6">
         <v>4314</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="24"/>
-        <v>6629.6000000000013</v>
+        <v>6626.2222222222217</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="25"/>
@@ -7087,7 +7165,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="26"/>
-        <v>-66.493333333333339</v>
+        <v>-66.437037037037001</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ref="H15:I15" si="58">F15</f>
@@ -7095,7 +7173,7 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" si="58"/>
-        <v>-66.493333333333339</v>
+        <v>-66.437037037037001</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="28"/>
@@ -7106,14 +7184,14 @@
       </c>
       <c r="M15" s="6">
         <f>M14+L5</f>
-        <v>6624.3000000000029</v>
+        <v>6620.0999999999985</v>
       </c>
       <c r="N15" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="12"/>
-        <v>6624.3000000000029</v>
+        <v>6620.0999999999985</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="13"/>
@@ -7121,7 +7199,7 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="14"/>
-        <v>-66.405000000000001</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" ref="R15:S15" si="59">P15</f>
@@ -7129,7 +7207,7 @@
       </c>
       <c r="S15" s="6">
         <f t="shared" si="59"/>
-        <v>-66.405000000000001</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="U15" s="6">
         <f t="shared" si="30"/>
@@ -7137,22 +7215,22 @@
       </c>
       <c r="V15" s="6">
         <f>V14+$V5</f>
-        <v>4511.1168571428561</v>
+        <v>4509.1313333333301</v>
       </c>
       <c r="W15" s="6">
         <v>6514</v>
       </c>
       <c r="X15" s="6">
         <f t="shared" ref="X15:Y15" si="60">X14+X5</f>
-        <v>4519.5181428571395</v>
+        <v>4518.0636666666633</v>
       </c>
       <c r="Y15" s="6">
         <f t="shared" si="60"/>
-        <v>6450.7337142857123</v>
+        <v>6448.5404444444412</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" si="16"/>
-        <v>45.185280952381</v>
+        <v>45.15218888888883</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="17"/>
@@ -7160,11 +7238,11 @@
       </c>
       <c r="AB15" s="6">
         <f t="shared" si="18"/>
-        <v>45.32530238095233</v>
+        <v>45.301061111110997</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" si="19"/>
-        <v>-64.845561904761837</v>
+        <v>-64.809007407407336</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>23</v>
@@ -7194,14 +7272,14 @@
       </c>
       <c r="C16" s="6">
         <f>C15+B6</f>
-        <v>6631.7714285714301</v>
+        <v>6627.9111111111106</v>
       </c>
       <c r="D16" s="6">
         <v>4314</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="24"/>
-        <v>6631.7714285714301</v>
+        <v>6627.9111111111106</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="25"/>
@@ -7209,7 +7287,7 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="26"/>
-        <v>-66.529523809523837</v>
+        <v>-66.465185185185163</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ref="H16:I16" si="61">F16</f>
@@ -7217,7 +7295,7 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" si="61"/>
-        <v>-66.529523809523837</v>
+        <v>-66.465185185185163</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="28"/>
@@ -7228,14 +7306,14 @@
       </c>
       <c r="M16" s="6">
         <f>M15+L5</f>
-        <v>6626.4000000000033</v>
+        <v>6621.6749999999984</v>
       </c>
       <c r="N16" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="12"/>
-        <v>6626.4000000000033</v>
+        <v>6621.6749999999984</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="13"/>
@@ -7243,7 +7321,7 @@
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="14"/>
-        <v>-66.44</v>
+        <v>-66.361249999999998</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" ref="R16:S16" si="62">P16</f>
@@ -7251,7 +7329,7 @@
       </c>
       <c r="S16" s="6">
         <f t="shared" si="62"/>
-        <v>-66.44</v>
+        <v>-66.361249999999998</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="30"/>
@@ -7259,22 +7337,22 @@
       </c>
       <c r="V16" s="6">
         <f>V15+$V5</f>
-        <v>4512.2337142857132</v>
+        <v>4509.9999999999964</v>
       </c>
       <c r="W16" s="6">
         <v>6514</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" ref="X16:Y16" si="63">X15+X5</f>
-        <v>4520.336285714282</v>
+        <v>4518.6999999999962</v>
       </c>
       <c r="Y16" s="6">
         <f t="shared" si="63"/>
-        <v>6451.9674285714264</v>
+        <v>6449.4999999999964</v>
       </c>
       <c r="Z16" s="6">
         <f t="shared" si="16"/>
-        <v>45.203895238095164</v>
+        <v>45.166666666666664</v>
       </c>
       <c r="AA16" s="6">
         <f t="shared" si="17"/>
@@ -7282,11 +7360,11 @@
       </c>
       <c r="AB16" s="6">
         <f t="shared" si="18"/>
-        <v>45.338938095237999</v>
+        <v>45.311666666666667</v>
       </c>
       <c r="AC16" s="6">
         <f t="shared" si="19"/>
-        <v>-64.866123809523828</v>
+        <v>-64.825000000000003</v>
       </c>
       <c r="AE16" s="6" t="s">
         <v>24</v>
@@ -7323,14 +7401,14 @@
       </c>
       <c r="C17" s="6">
         <f>C16+B6</f>
-        <v>6633.9428571428589</v>
+        <v>6629.5999999999995</v>
       </c>
       <c r="D17" s="6">
         <v>4314</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="24"/>
-        <v>6633.9428571428589</v>
+        <v>6629.5999999999995</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="25"/>
@@ -7338,7 +7416,7 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="26"/>
-        <v>-66.565714285714336</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17:I17" si="65">F17</f>
@@ -7346,7 +7424,7 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" si="65"/>
-        <v>-66.565714285714336</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="28"/>
@@ -7357,14 +7435,14 @@
       </c>
       <c r="M17" s="6">
         <f>M16+L5</f>
-        <v>6628.5000000000036</v>
+        <v>6623.2499999999982</v>
       </c>
       <c r="N17" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="12"/>
-        <v>6628.5000000000036</v>
+        <v>6623.2499999999982</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="13"/>
@@ -7372,7 +7450,7 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="14"/>
-        <v>-66.474999999999994</v>
+        <v>-66.387500000000003</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ref="R17:S17" si="66">P17</f>
@@ -7380,7 +7458,7 @@
       </c>
       <c r="S17" s="6">
         <f t="shared" si="66"/>
-        <v>-66.474999999999994</v>
+        <v>-66.387500000000003</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="30"/>
@@ -7388,22 +7466,22 @@
       </c>
       <c r="V17" s="6">
         <f>V16+$V5</f>
-        <v>4513.3505714285702</v>
+        <v>4510.8686666666626</v>
       </c>
       <c r="W17" s="6">
         <v>6514</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17:Y17" si="67">X16+X5</f>
-        <v>4521.1544285714244</v>
+        <v>4519.3363333333291</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" si="67"/>
-        <v>6453.2011428571404</v>
+        <v>6450.4595555555516</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="16"/>
-        <v>45.222509523809499</v>
+        <v>45.181144444444335</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" si="17"/>
@@ -7411,11 +7489,11 @@
       </c>
       <c r="AB17" s="6">
         <f t="shared" si="18"/>
-        <v>45.352573809523669</v>
+        <v>45.322272222222168</v>
       </c>
       <c r="AC17" s="6">
         <f t="shared" si="19"/>
-        <v>-64.886685714285662</v>
+        <v>-64.840992592592499</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>25</v>
@@ -7455,14 +7533,14 @@
       </c>
       <c r="C18" s="6">
         <f>C17+B6</f>
-        <v>6636.1142857142877</v>
+        <v>6631.2888888888883</v>
       </c>
       <c r="D18" s="6">
         <v>4314</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="24"/>
-        <v>6636.1142857142877</v>
+        <v>6631.2888888888883</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="25"/>
@@ -7470,7 +7548,7 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="26"/>
-        <v>-66.601904761904834</v>
+        <v>-66.521481481481501</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ref="H18:I18" si="68">F18</f>
@@ -7478,7 +7556,7 @@
       </c>
       <c r="I18" s="6">
         <f t="shared" si="68"/>
-        <v>-66.601904761904834</v>
+        <v>-66.521481481481501</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="28"/>
@@ -7489,14 +7567,14 @@
       </c>
       <c r="M18" s="6">
         <f>M17+L5</f>
-        <v>6630.600000000004</v>
+        <v>6624.824999999998</v>
       </c>
       <c r="N18" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="12"/>
-        <v>6630.600000000004</v>
+        <v>6624.824999999998</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="13"/>
@@ -7504,7 +7582,7 @@
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="14"/>
-        <v>-66.510000000000005</v>
+        <v>-66.413749999999993</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" ref="R18:S18" si="69">P18</f>
@@ -7512,7 +7590,7 @@
       </c>
       <c r="S18" s="6">
         <f t="shared" si="69"/>
-        <v>-66.510000000000005</v>
+        <v>-66.413749999999993</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="30"/>
@@ -7520,22 +7598,22 @@
       </c>
       <c r="V18" s="6">
         <f>V17+$V5</f>
-        <v>4514.4674285714273</v>
+        <v>4511.7373333333289</v>
       </c>
       <c r="W18" s="6">
         <v>6514</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" ref="X18:Y18" si="70">X17+X5</f>
-        <v>4521.9725714285669</v>
+        <v>4519.972666666662</v>
       </c>
       <c r="Y18" s="6">
         <f t="shared" si="70"/>
-        <v>6454.4348571428545</v>
+        <v>6451.4191111111068</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" si="16"/>
-        <v>45.241123809523835</v>
+        <v>45.19562222222217</v>
       </c>
       <c r="AA18" s="6">
         <f t="shared" si="17"/>
@@ -7543,11 +7621,11 @@
       </c>
       <c r="AB18" s="6">
         <f t="shared" si="18"/>
-        <v>45.366209523809502</v>
+        <v>45.332877777777668</v>
       </c>
       <c r="AC18" s="6">
         <f t="shared" si="19"/>
-        <v>-64.907247619047496</v>
+        <v>-64.856985185185167</v>
       </c>
       <c r="AE18" s="6" t="s">
         <v>27</v>
@@ -7575,14 +7653,14 @@
       </c>
       <c r="C19" s="6">
         <f>C18+B6</f>
-        <v>6638.2857142857165</v>
+        <v>6632.9777777777772</v>
       </c>
       <c r="D19" s="6">
         <v>4314</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="24"/>
-        <v>6638.2857142857165</v>
+        <v>6632.9777777777772</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="25"/>
@@ -7590,7 +7668,7 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="26"/>
-        <v>-66.638095238095332</v>
+        <v>-66.549629629629663</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ref="H19:I19" si="71">F19</f>
@@ -7598,7 +7676,7 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" si="71"/>
-        <v>-66.638095238095332</v>
+        <v>-66.549629629629663</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="28"/>
@@ -7609,14 +7687,14 @@
       </c>
       <c r="M19" s="6">
         <f>M18+L5</f>
-        <v>6632.7000000000044</v>
+        <v>6626.3999999999978</v>
       </c>
       <c r="N19" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="12"/>
-        <v>6632.7000000000044</v>
+        <v>6626.3999999999978</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="13"/>
@@ -7624,7 +7702,7 @@
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="14"/>
-        <v>-66.545000000000002</v>
+        <v>-66.44</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" ref="R19:S19" si="72">P19</f>
@@ -7632,7 +7710,7 @@
       </c>
       <c r="S19" s="6">
         <f t="shared" si="72"/>
-        <v>-66.545000000000002</v>
+        <v>-66.44</v>
       </c>
       <c r="U19" s="6">
         <f t="shared" si="30"/>
@@ -7640,22 +7718,22 @@
       </c>
       <c r="V19" s="6">
         <f>V18+$V5</f>
-        <v>4515.5842857142843</v>
+        <v>4512.6059999999952</v>
       </c>
       <c r="W19" s="6">
         <v>6514</v>
       </c>
       <c r="X19" s="6">
         <f t="shared" ref="X19:Y19" si="73">X18+X5</f>
-        <v>4522.7907142857093</v>
+        <v>4520.6089999999949</v>
       </c>
       <c r="Y19" s="6">
         <f t="shared" si="73"/>
-        <v>6455.6685714285686</v>
+        <v>6452.378666666662</v>
       </c>
       <c r="Z19" s="6">
         <f t="shared" si="16"/>
-        <v>45.259738095237999</v>
+        <v>45.210099999999997</v>
       </c>
       <c r="AA19" s="6">
         <f t="shared" si="17"/>
@@ -7663,11 +7741,11 @@
       </c>
       <c r="AB19" s="6">
         <f t="shared" si="18"/>
-        <v>45.379845238095164</v>
+        <v>45.343483333333168</v>
       </c>
       <c r="AC19" s="6">
         <f t="shared" si="19"/>
-        <v>-64.927809523809501</v>
+        <v>-64.872977777777663</v>
       </c>
       <c r="AE19" s="6">
         <v>1</v>
@@ -7714,14 +7792,14 @@
       </c>
       <c r="C20" s="6">
         <f>C19+B6</f>
-        <v>6640.4571428571453</v>
+        <v>6634.6666666666661</v>
       </c>
       <c r="D20" s="6">
         <v>4314</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="24"/>
-        <v>6640.4571428571453</v>
+        <v>6634.6666666666661</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="25"/>
@@ -7729,7 +7807,7 @@
       </c>
       <c r="G20" s="6">
         <f t="shared" si="26"/>
-        <v>-66.67428571428583</v>
+        <v>-66.57777777777784</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ref="H20:I20" si="75">F20</f>
@@ -7737,7 +7815,7 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" si="75"/>
-        <v>-66.67428571428583</v>
+        <v>-66.57777777777784</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="28"/>
@@ -7748,14 +7826,14 @@
       </c>
       <c r="M20" s="6">
         <f>M19+L5</f>
-        <v>6634.8000000000047</v>
+        <v>6627.9749999999976</v>
       </c>
       <c r="N20" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="12"/>
-        <v>6634.8000000000047</v>
+        <v>6627.9749999999976</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="13"/>
@@ -7763,7 +7841,7 @@
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="14"/>
-        <v>-66.58</v>
+        <v>-66.466250000000002</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" ref="R20:S20" si="76">P20</f>
@@ -7771,7 +7849,7 @@
       </c>
       <c r="S20" s="6">
         <f t="shared" si="76"/>
-        <v>-66.58</v>
+        <v>-66.466250000000002</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="30"/>
@@ -7779,22 +7857,22 @@
       </c>
       <c r="V20" s="6">
         <f>V19+$V5</f>
-        <v>4516.7011428571413</v>
+        <v>4513.4746666666615</v>
       </c>
       <c r="W20" s="6">
         <v>6514</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" ref="X20:Y20" si="77">X19+X5</f>
-        <v>4523.6088571428518</v>
+        <v>4521.2453333333278</v>
       </c>
       <c r="Y20" s="6">
         <f t="shared" si="77"/>
-        <v>6456.9022857142827</v>
+        <v>6453.3382222222172</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" si="16"/>
-        <v>45.278352380952334</v>
+        <v>45.224577777777668</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="17"/>
@@ -7802,11 +7880,11 @@
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="18"/>
-        <v>45.393480952380834</v>
+        <v>45.354088888888832</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="19"/>
-        <v>-64.948371428571335</v>
+        <v>-64.88897037037033</v>
       </c>
       <c r="AE20" s="6">
         <v>2</v>
@@ -7853,14 +7931,14 @@
       </c>
       <c r="C21" s="6">
         <f>C20+B6</f>
-        <v>6642.6285714285741</v>
+        <v>6636.3555555555549</v>
       </c>
       <c r="D21" s="6">
         <v>4314</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="24"/>
-        <v>6642.6285714285741</v>
+        <v>6636.3555555555549</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="25"/>
@@ -7868,7 +7946,7 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="26"/>
-        <v>-66.710476190476172</v>
+        <v>-66.605925925925831</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ref="H21:I21" si="79">F21</f>
@@ -7876,7 +7954,7 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" si="79"/>
-        <v>-66.710476190476172</v>
+        <v>-66.605925925925831</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="28"/>
@@ -7887,14 +7965,14 @@
       </c>
       <c r="M21" s="6">
         <f>M20+L5</f>
-        <v>6636.9000000000051</v>
+        <v>6629.5499999999975</v>
       </c>
       <c r="N21" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O21" s="6">
         <f t="shared" si="12"/>
-        <v>6636.9000000000051</v>
+        <v>6629.5499999999975</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="13"/>
@@ -7902,7 +7980,7 @@
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="14"/>
-        <v>-66.615000000000165</v>
+        <v>-66.492500000000007</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" ref="R21:S21" si="80">P21</f>
@@ -7910,7 +7988,7 @@
       </c>
       <c r="S21" s="6">
         <f t="shared" si="80"/>
-        <v>-66.615000000000165</v>
+        <v>-66.492500000000007</v>
       </c>
       <c r="U21" s="6">
         <f t="shared" si="30"/>
@@ -7918,22 +7996,22 @@
       </c>
       <c r="V21" s="6">
         <f>V20+$V5</f>
-        <v>4517.8179999999984</v>
+        <v>4514.3433333333278</v>
       </c>
       <c r="W21" s="6">
         <v>6514</v>
       </c>
       <c r="X21" s="6">
         <f t="shared" ref="X21:Y21" si="81">X20+X5</f>
-        <v>4524.4269999999942</v>
+        <v>4521.8816666666607</v>
       </c>
       <c r="Y21" s="6">
         <f t="shared" si="81"/>
-        <v>6458.1359999999968</v>
+        <v>6454.2977777777724</v>
       </c>
       <c r="Z21" s="6">
         <f t="shared" si="16"/>
-        <v>45.29696666666667</v>
+        <v>45.239055555555503</v>
       </c>
       <c r="AA21" s="6">
         <f t="shared" si="17"/>
@@ -7941,11 +8019,11 @@
       </c>
       <c r="AB21" s="6">
         <f t="shared" si="18"/>
-        <v>45.407116666666496</v>
+        <v>45.364694444444332</v>
       </c>
       <c r="AC21" s="6">
         <f t="shared" si="19"/>
-        <v>-64.968933333333339</v>
+        <v>-64.904962962962827</v>
       </c>
       <c r="AE21" s="6">
         <v>3</v>
@@ -7992,14 +8070,14 @@
       </c>
       <c r="C22" s="6">
         <f>C21+B6</f>
-        <v>6644.8000000000029</v>
+        <v>6638.0444444444438</v>
       </c>
       <c r="D22" s="6">
         <v>4314</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="24"/>
-        <v>6644.8000000000029</v>
+        <v>6638.0444444444438</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="25"/>
@@ -8007,7 +8085,7 @@
       </c>
       <c r="G22" s="6">
         <f t="shared" si="26"/>
-        <v>-66.74666666666667</v>
+        <v>-66.634074074073993</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ref="H22:I22" si="82">F22</f>
@@ -8015,7 +8093,7 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" si="82"/>
-        <v>-66.74666666666667</v>
+        <v>-66.634074074073993</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="28"/>
@@ -8026,14 +8104,14 @@
       </c>
       <c r="M22" s="6">
         <f>M21+EW5</f>
-        <v>6636.9000000000051</v>
+        <v>6629.5499999999975</v>
       </c>
       <c r="N22" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="12"/>
-        <v>6636.9000000000051</v>
+        <v>6629.5499999999975</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="13"/>
@@ -8041,7 +8119,7 @@
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="14"/>
-        <v>-66.615000000000165</v>
+        <v>-66.492500000000007</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" ref="R22:S22" si="83">P22</f>
@@ -8049,7 +8127,7 @@
       </c>
       <c r="S22" s="6">
         <f t="shared" si="83"/>
-        <v>-66.615000000000165</v>
+        <v>-66.492500000000007</v>
       </c>
       <c r="U22" s="6">
         <f t="shared" si="30"/>
@@ -8057,22 +8135,22 @@
       </c>
       <c r="V22" s="6">
         <f>V21+$V5</f>
-        <v>4518.9348571428554</v>
+        <v>4515.2119999999941</v>
       </c>
       <c r="W22" s="6">
         <v>6514</v>
       </c>
       <c r="X22" s="6">
         <f t="shared" ref="X22:Y22" si="84">X21+X5</f>
-        <v>4525.2451428571367</v>
+        <v>4522.5179999999937</v>
       </c>
       <c r="Y22" s="6">
         <f t="shared" si="84"/>
-        <v>6459.3697142857109</v>
+        <v>6455.2573333333276</v>
       </c>
       <c r="Z22" s="6">
         <f t="shared" si="16"/>
-        <v>45.315580952380998</v>
+        <v>45.253533333333166</v>
       </c>
       <c r="AA22" s="6">
         <f t="shared" si="17"/>
@@ -8080,11 +8158,11 @@
       </c>
       <c r="AB22" s="6">
         <f t="shared" si="18"/>
-        <v>45.420752380952337</v>
+        <v>45.375299999999832</v>
       </c>
       <c r="AC22" s="6">
         <f t="shared" si="19"/>
-        <v>-64.989495238095174</v>
+        <v>-64.920955555555494</v>
       </c>
       <c r="AE22" s="6">
         <v>4</v>
@@ -8131,14 +8209,14 @@
       </c>
       <c r="C23" s="6">
         <f>C22+B6</f>
-        <v>6646.9714285714317</v>
+        <v>6639.7333333333327</v>
       </c>
       <c r="D23" s="6">
         <v>4314</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="24"/>
-        <v>6646.9714285714317</v>
+        <v>6639.7333333333327</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="25"/>
@@ -8146,7 +8224,7 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="26"/>
-        <v>-66.782857142857168</v>
+        <v>-66.662222222222169</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ref="H23:I23" si="85">F23</f>
@@ -8154,7 +8232,7 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" si="85"/>
-        <v>-66.782857142857168</v>
+        <v>-66.662222222222169</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="28"/>
@@ -8165,14 +8243,14 @@
       </c>
       <c r="M23" s="6">
         <f>M22+L5</f>
-        <v>6639.0000000000055</v>
+        <v>6631.1249999999973</v>
       </c>
       <c r="N23" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="12"/>
-        <v>6639.0000000000055</v>
+        <v>6631.1249999999973</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="13"/>
@@ -8180,7 +8258,7 @@
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="14"/>
-        <v>-66.650000000000162</v>
+        <v>-66.518749999999997</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" ref="R23:S23" si="86">P23</f>
@@ -8188,7 +8266,7 @@
       </c>
       <c r="S23" s="6">
         <f t="shared" si="86"/>
-        <v>-66.650000000000162</v>
+        <v>-66.518749999999997</v>
       </c>
       <c r="U23" s="6">
         <f t="shared" si="30"/>
@@ -8196,22 +8274,22 @@
       </c>
       <c r="V23" s="6">
         <f>V22+$V5</f>
-        <v>4520.0517142857125</v>
+        <v>4516.0806666666604</v>
       </c>
       <c r="W23" s="6">
         <v>6514</v>
       </c>
       <c r="X23" s="6">
         <f t="shared" ref="X23:Y23" si="87">X22+X5</f>
-        <v>4526.0632857142791</v>
+        <v>4523.1543333333266</v>
       </c>
       <c r="Y23" s="6">
         <f t="shared" si="87"/>
-        <v>6460.603428571425</v>
+        <v>6456.2168888888827</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" si="16"/>
-        <v>45.33419523809517</v>
+        <v>45.268011111111001</v>
       </c>
       <c r="AA23" s="6">
         <f t="shared" si="17"/>
@@ -8219,11 +8297,11 @@
       </c>
       <c r="AB23" s="6">
         <f t="shared" si="18"/>
-        <v>45.434388095237999</v>
+        <v>45.385905555555503</v>
       </c>
       <c r="AC23" s="6">
         <f t="shared" si="19"/>
-        <v>-65.010057142856994</v>
+        <v>-64.936948148148005</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>28</v>
@@ -8263,14 +8341,14 @@
       </c>
       <c r="C24" s="6">
         <f>C23+B6</f>
-        <v>6649.1428571428605</v>
+        <v>6641.4222222222215</v>
       </c>
       <c r="D24" s="6">
         <v>4314</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="24"/>
-        <v>6649.1428571428605</v>
+        <v>6641.4222222222215</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="25"/>
@@ -8278,7 +8356,7 @@
       </c>
       <c r="G24" s="6">
         <f t="shared" si="26"/>
-        <v>-66.819047619047666</v>
+        <v>-66.690370370370331</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ref="H24:I24" si="88">F24</f>
@@ -8286,7 +8364,7 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" si="88"/>
-        <v>-66.819047619047666</v>
+        <v>-66.690370370370331</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="28"/>
@@ -8297,14 +8375,14 @@
       </c>
       <c r="M24" s="6">
         <f>M23+L5</f>
-        <v>6641.1000000000058</v>
+        <v>6632.6999999999971</v>
       </c>
       <c r="N24" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="12"/>
-        <v>6641.1000000000058</v>
+        <v>6632.6999999999971</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" si="13"/>
@@ -8312,7 +8390,7 @@
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="14"/>
-        <v>-66.685000000000173</v>
+        <v>-66.545000000000002</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" ref="R24:S24" si="89">P24</f>
@@ -8320,7 +8398,7 @@
       </c>
       <c r="S24" s="6">
         <f t="shared" si="89"/>
-        <v>-66.685000000000173</v>
+        <v>-66.545000000000002</v>
       </c>
       <c r="U24" s="6">
         <f t="shared" si="30"/>
@@ -8328,22 +8406,22 @@
       </c>
       <c r="V24" s="6">
         <f>V23+$V5</f>
-        <v>4521.1685714285695</v>
+        <v>4516.9493333333266</v>
       </c>
       <c r="W24" s="6">
         <v>6514</v>
       </c>
       <c r="X24" s="6">
         <f t="shared" ref="X24:Y24" si="90">X23+X5</f>
-        <v>4526.8814285714216</v>
+        <v>4523.7906666666595</v>
       </c>
       <c r="Y24" s="6">
         <f t="shared" si="90"/>
-        <v>6461.837142857139</v>
+        <v>6457.1764444444379</v>
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="16"/>
-        <v>45.352809523809498</v>
+        <v>45.282488888888835</v>
       </c>
       <c r="AA24" s="6">
         <f t="shared" si="17"/>
@@ -8351,11 +8429,11 @@
       </c>
       <c r="AB24" s="6">
         <f t="shared" si="18"/>
-        <v>45.448023809523669</v>
+        <v>45.396511111111003</v>
       </c>
       <c r="AC24" s="6">
         <f t="shared" si="19"/>
-        <v>-65.030619047618998</v>
+        <v>-64.952940740740672</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8368,14 +8446,14 @@
       </c>
       <c r="C25" s="6">
         <f>C24+B6</f>
-        <v>6651.3142857142893</v>
+        <v>6643.1111111111104</v>
       </c>
       <c r="D25" s="6">
         <v>4314</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="24"/>
-        <v>6651.3142857142893</v>
+        <v>6643.1111111111104</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="25"/>
@@ -8383,7 +8461,7 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="26"/>
-        <v>-66.855238095238164</v>
+        <v>-66.718518518518493</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ref="H25:I25" si="91">F25</f>
@@ -8391,7 +8469,7 @@
       </c>
       <c r="I25" s="6">
         <f t="shared" si="91"/>
-        <v>-66.855238095238164</v>
+        <v>-66.718518518518493</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="28"/>
@@ -8402,14 +8480,14 @@
       </c>
       <c r="M25" s="6">
         <f>M24+L5</f>
-        <v>6643.2000000000062</v>
+        <v>6634.2749999999969</v>
       </c>
       <c r="N25" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="12"/>
-        <v>6643.2000000000062</v>
+        <v>6634.2749999999969</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="13"/>
@@ -8417,7 +8495,7 @@
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="14"/>
-        <v>-66.720000000000169</v>
+        <v>-66.571250000000006</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" ref="R25:S25" si="92">P25</f>
@@ -8425,7 +8503,7 @@
       </c>
       <c r="S25" s="6">
         <f t="shared" si="92"/>
-        <v>-66.720000000000169</v>
+        <v>-66.571250000000006</v>
       </c>
       <c r="U25" s="6" t="s">
         <v>28</v>
@@ -8469,14 +8547,14 @@
       </c>
       <c r="C26" s="6">
         <f>C25+B6</f>
-        <v>6653.4857142857181</v>
+        <v>6644.7999999999993</v>
       </c>
       <c r="D26" s="6">
         <v>4314</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="24"/>
-        <v>6653.4857142857181</v>
+        <v>6644.7999999999993</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="25"/>
@@ -8484,7 +8562,7 @@
       </c>
       <c r="G26" s="6">
         <f t="shared" si="26"/>
-        <v>-66.891428571428662</v>
+        <v>-66.74666666666667</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ref="H26:I26" si="93">F26</f>
@@ -8492,7 +8570,7 @@
       </c>
       <c r="I26" s="6">
         <f t="shared" si="93"/>
-        <v>-66.891428571428662</v>
+        <v>-66.74666666666667</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="28"/>
@@ -8503,14 +8581,14 @@
       </c>
       <c r="M26" s="6">
         <f>M25+L5</f>
-        <v>6645.3000000000065</v>
+        <v>6635.8499999999967</v>
       </c>
       <c r="N26" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O26" s="6">
         <f t="shared" si="12"/>
-        <v>6645.3000000000065</v>
+        <v>6635.8499999999967</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="13"/>
@@ -8518,7 +8596,7 @@
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="14"/>
-        <v>-66.755000000000166</v>
+        <v>-66.597499999999997</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" ref="R26:S26" si="94">P26</f>
@@ -8526,7 +8604,7 @@
       </c>
       <c r="S26" s="6">
         <f t="shared" si="94"/>
-        <v>-66.755000000000166</v>
+        <v>-66.597499999999997</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8539,14 +8617,14 @@
       </c>
       <c r="C27" s="6">
         <f>C26+B6</f>
-        <v>6655.6571428571469</v>
+        <v>6646.4888888888881</v>
       </c>
       <c r="D27" s="6">
         <v>4314</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="24"/>
-        <v>6655.6571428571469</v>
+        <v>6646.4888888888881</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="25"/>
@@ -8554,7 +8632,7 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="26"/>
-        <v>-66.92761904761916</v>
+        <v>-66.774814814814832</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ref="H27:I27" si="95">F27</f>
@@ -8562,7 +8640,7 @@
       </c>
       <c r="I27" s="6">
         <f t="shared" si="95"/>
-        <v>-66.92761904761916</v>
+        <v>-66.774814814814832</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="28"/>
@@ -8573,14 +8651,14 @@
       </c>
       <c r="M27" s="6">
         <f>M26+L5</f>
-        <v>6647.4000000000069</v>
+        <v>6637.4249999999965</v>
       </c>
       <c r="N27" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O27" s="6">
         <f t="shared" si="12"/>
-        <v>6647.4000000000069</v>
+        <v>6637.4249999999965</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" si="13"/>
@@ -8588,7 +8666,7 @@
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="14"/>
-        <v>-66.790000000000163</v>
+        <v>-66.623750000000001</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" ref="R27:S27" si="96">P27</f>
@@ -8596,7 +8674,7 @@
       </c>
       <c r="S27" s="6">
         <f t="shared" si="96"/>
-        <v>-66.790000000000163</v>
+        <v>-66.623750000000001</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8609,14 +8687,14 @@
       </c>
       <c r="C28" s="6">
         <f>C27+B6</f>
-        <v>6657.8285714285757</v>
+        <v>6648.177777777777</v>
       </c>
       <c r="D28" s="6">
         <v>4314</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="24"/>
-        <v>6657.8285714285757</v>
+        <v>6648.177777777777</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="25"/>
@@ -8624,7 +8702,7 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" si="26"/>
-        <v>-66.963809523809672</v>
+        <v>-66.802962962962994</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ref="H28:I28" si="97">F28</f>
@@ -8632,7 +8710,7 @@
       </c>
       <c r="I28" s="6">
         <f t="shared" si="97"/>
-        <v>-66.963809523809672</v>
+        <v>-66.802962962962994</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="28"/>
@@ -8643,14 +8721,14 @@
       </c>
       <c r="M28" s="6">
         <f>M27+L5</f>
-        <v>6649.5000000000073</v>
+        <v>6638.9999999999964</v>
       </c>
       <c r="N28" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" si="12"/>
-        <v>6649.5000000000073</v>
+        <v>6638.9999999999964</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" si="13"/>
@@ -8658,7 +8736,7 @@
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="14"/>
-        <v>-66.825000000000173</v>
+        <v>-66.650000000000006</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" ref="R28:S28" si="98">P28</f>
@@ -8666,7 +8744,7 @@
       </c>
       <c r="S28" s="6">
         <f t="shared" si="98"/>
-        <v>-66.825000000000173</v>
+        <v>-66.650000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8679,14 +8757,14 @@
       </c>
       <c r="C29" s="6">
         <f>C28+B6</f>
-        <v>6660.0000000000045</v>
+        <v>6649.8666666666659</v>
       </c>
       <c r="D29" s="6">
         <v>4314</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="24"/>
-        <v>6660.0000000000045</v>
+        <v>6649.8666666666659</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="25"/>
@@ -8694,7 +8772,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="26"/>
-        <v>-67</v>
+        <v>-66.83111111111117</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ref="H29:I29" si="99">F29</f>
@@ -8702,7 +8780,7 @@
       </c>
       <c r="I29" s="6">
         <f t="shared" si="99"/>
-        <v>-67</v>
+        <v>-66.83111111111117</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="28"/>
@@ -8713,14 +8791,14 @@
       </c>
       <c r="M29" s="6">
         <f>M28+L5</f>
-        <v>6651.6000000000076</v>
+        <v>6640.5749999999962</v>
       </c>
       <c r="N29" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" si="12"/>
-        <v>6651.6000000000076</v>
+        <v>6640.5749999999962</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="13"/>
@@ -8728,7 +8806,7 @@
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="14"/>
-        <v>-66.86000000000017</v>
+        <v>-66.676249999999996</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" ref="R29:S29" si="100">P29</f>
@@ -8736,7 +8814,7 @@
       </c>
       <c r="S29" s="6">
         <f t="shared" si="100"/>
-        <v>-66.86000000000017</v>
+        <v>-66.676249999999996</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8749,14 +8827,14 @@
       </c>
       <c r="C30" s="6">
         <f>C29+B6</f>
-        <v>6662.1714285714334</v>
+        <v>6651.5555555555547</v>
       </c>
       <c r="D30" s="6">
         <v>4314</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="24"/>
-        <v>6662.1714285714334</v>
+        <v>6651.5555555555547</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="25"/>
@@ -8764,7 +8842,7 @@
       </c>
       <c r="G30" s="6">
         <f t="shared" si="26"/>
-        <v>-67.036190476190498</v>
+        <v>-66.859259259259161</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ref="H30:I30" si="101">F30</f>
@@ -8772,7 +8850,7 @@
       </c>
       <c r="I30" s="6">
         <f t="shared" si="101"/>
-        <v>-67.036190476190498</v>
+        <v>-66.859259259259161</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="28"/>
@@ -8783,14 +8861,14 @@
       </c>
       <c r="M30" s="6">
         <f>M29+L5</f>
-        <v>6653.700000000008</v>
+        <v>6642.149999999996</v>
       </c>
       <c r="N30" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="12"/>
-        <v>6653.700000000008</v>
+        <v>6642.149999999996</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" si="13"/>
@@ -8798,7 +8876,7 @@
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="14"/>
-        <v>-66.895000000000167</v>
+        <v>-66.702500000000001</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" ref="R30:S30" si="102">P30</f>
@@ -8806,7 +8884,7 @@
       </c>
       <c r="S30" s="6">
         <f t="shared" si="102"/>
-        <v>-66.895000000000167</v>
+        <v>-66.702500000000001</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8819,14 +8897,14 @@
       </c>
       <c r="C31" s="6">
         <f>C30+B6</f>
-        <v>6664.3428571428622</v>
+        <v>6653.2444444444436</v>
       </c>
       <c r="D31" s="6">
         <v>4314</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="24"/>
-        <v>6664.3428571428622</v>
+        <v>6653.2444444444436</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="25"/>
@@ -8834,7 +8912,7 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="26"/>
-        <v>-67.072380952380996</v>
+        <v>-66.887407407407338</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ref="H31:I31" si="103">F31</f>
@@ -8842,7 +8920,7 @@
       </c>
       <c r="I31" s="6">
         <f t="shared" si="103"/>
-        <v>-67.072380952380996</v>
+        <v>-66.887407407407338</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>30</v>

--- a/Survey Lines.xlsx
+++ b/Survey Lines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDB914F-0DA2-4536-A0BF-504B7425951A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC63B035-0AB5-43DD-BF33-59ADB11AB6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
   <si>
     <t>INSTRUCTIONS:</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Tasha Marie</t>
+  </si>
+  <si>
+    <t>Lady Janice</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23:T26"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -566,7 +569,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -888,28 +891,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="6">
-        <v>4503.0506666666661</v>
+        <v>4502.8927272727269</v>
       </c>
       <c r="C12" s="6">
         <v>6514</v>
       </c>
       <c r="D12" s="6">
-        <v>4513.6093333333329</v>
+        <v>4513.4936363636361</v>
       </c>
       <c r="E12" s="6">
-        <v>6441.8235555555548</v>
+        <v>6441.6490909090908</v>
       </c>
       <c r="F12" s="6">
-        <v>45.0508444444445</v>
+        <v>45.048212121212167</v>
       </c>
       <c r="G12" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H12" s="6">
-        <v>45.226822222222168</v>
+        <v>45.224893939394001</v>
       </c>
       <c r="I12" s="6">
-        <v>-64.697059259259163</v>
+        <v>-64.694151515151503</v>
       </c>
       <c r="L12" s="6">
         <v>2</v>
@@ -944,28 +947,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="6">
-        <v>4503.9193333333324</v>
+        <v>4503.603454545454</v>
       </c>
       <c r="C13" s="6">
         <v>6514</v>
       </c>
       <c r="D13" s="6">
-        <v>4514.2456666666658</v>
+        <v>4514.0142727272723</v>
       </c>
       <c r="E13" s="6">
-        <v>6442.78311111111</v>
+        <v>6442.434181818182</v>
       </c>
       <c r="F13" s="6">
-        <v>45.065322222222164</v>
+        <v>45.060057575757497</v>
       </c>
       <c r="G13" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H13" s="6">
-        <v>45.237427777777832</v>
+        <v>45.23357121212117</v>
       </c>
       <c r="I13" s="6">
-        <v>-64.71305185185183</v>
+        <v>-64.707236363636326</v>
       </c>
       <c r="L13" s="6">
         <v>3</v>
@@ -1000,28 +1003,28 @@
         <v>4</v>
       </c>
       <c r="B14" s="6">
-        <v>4504.7879999999986</v>
+        <v>4504.3141818181812</v>
       </c>
       <c r="C14" s="6">
         <v>6514</v>
       </c>
       <c r="D14" s="6">
-        <v>4514.8819999999987</v>
+        <v>4514.5349090909085</v>
       </c>
       <c r="E14" s="6">
-        <v>6443.7426666666652</v>
+        <v>6443.2192727272732</v>
       </c>
       <c r="F14" s="6">
-        <v>45.079799999999999</v>
+        <v>45.071903030302998</v>
       </c>
       <c r="G14" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H14" s="6">
-        <v>45.248033333333332</v>
+        <v>45.242248484848503</v>
       </c>
       <c r="I14" s="6">
-        <v>-64.729044444444497</v>
+        <v>-64.720321212121164</v>
       </c>
       <c r="L14" s="6">
         <v>4</v>
@@ -1056,28 +1059,28 @@
         <v>5</v>
       </c>
       <c r="B15" s="6">
-        <v>4505.6566666666649</v>
+        <v>4505.0249090909083</v>
       </c>
       <c r="C15" s="6">
         <v>6514</v>
       </c>
       <c r="D15" s="6">
-        <v>4515.5183333333316</v>
+        <v>4515.0555454545447</v>
       </c>
       <c r="E15" s="6">
-        <v>6444.7022222222204</v>
+        <v>6444.0043636363644</v>
       </c>
       <c r="F15" s="6">
-        <v>45.09427777777767</v>
+        <v>45.083748484848499</v>
       </c>
       <c r="G15" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H15" s="6">
-        <v>45.258638888888832</v>
+        <v>45.250925757575665</v>
       </c>
       <c r="I15" s="6">
-        <v>-64.745037037036994</v>
+        <v>-64.733406060606001</v>
       </c>
       <c r="L15" s="6" t="str">
         <v>BOTTOM</v>
@@ -1112,28 +1115,28 @@
         <v>6</v>
       </c>
       <c r="B16" s="6">
-        <v>4506.5253333333312</v>
+        <v>4505.7356363636354</v>
       </c>
       <c r="C16" s="6">
         <v>6514</v>
       </c>
       <c r="D16" s="6">
-        <v>4516.1546666666645</v>
+        <v>4515.5761818181809</v>
       </c>
       <c r="E16" s="6">
-        <v>6445.6617777777756</v>
+        <v>6444.7894545454556</v>
       </c>
       <c r="F16" s="6">
-        <v>45.108755555555497</v>
+        <v>45.095593939394</v>
       </c>
       <c r="G16" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H16" s="6">
-        <v>45.269244444444332</v>
+        <v>45.259603030302998</v>
       </c>
       <c r="I16" s="6">
-        <v>-64.761029629629661</v>
+        <v>-64.746490909090994</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -1168,28 +1171,28 @@
         <v>7</v>
       </c>
       <c r="B17" s="6">
-        <v>4507.3939999999975</v>
+        <v>4506.4463636363625</v>
       </c>
       <c r="C17" s="6">
         <v>6514</v>
       </c>
       <c r="D17" s="6">
-        <v>4516.7909999999974</v>
+        <v>4516.0968181818171</v>
       </c>
       <c r="E17" s="6">
-        <v>6446.6213333333308</v>
+        <v>6445.5745454545468</v>
       </c>
       <c r="F17" s="6">
-        <v>45.123233333333332</v>
+        <v>45.10743939393933</v>
       </c>
       <c r="G17" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H17" s="6">
-        <v>45.279850000000003</v>
+        <v>45.26828030303033</v>
       </c>
       <c r="I17" s="6">
-        <v>-64.777022222222172</v>
+        <v>-64.759575757575831</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="6" t="str">
@@ -1225,28 +1228,28 @@
         <v>8</v>
       </c>
       <c r="B18" s="6">
-        <v>4508.2626666666638</v>
+        <v>4507.1570909090897</v>
       </c>
       <c r="C18" s="6">
         <v>6514</v>
       </c>
       <c r="D18" s="6">
-        <v>4517.4273333333304</v>
+        <v>4516.6174545454533</v>
       </c>
       <c r="E18" s="6">
-        <v>6447.580888888886</v>
+        <v>6446.3596363636379</v>
       </c>
       <c r="F18" s="6">
-        <v>45.137711111111003</v>
+        <v>45.119284848484831</v>
       </c>
       <c r="G18" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H18" s="6">
-        <v>45.290455555555504</v>
+        <v>45.2769575757575</v>
       </c>
       <c r="I18" s="6">
-        <v>-64.793014814814839</v>
+        <v>-64.772660606060668</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6" t="str">
@@ -1282,28 +1285,28 @@
         <v>9</v>
       </c>
       <c r="B19" s="6">
-        <v>4509.1313333333301</v>
+        <v>4507.8678181818168</v>
       </c>
       <c r="C19" s="6">
         <v>6514</v>
       </c>
       <c r="D19" s="6">
-        <v>4518.0636666666633</v>
+        <v>4517.1380909090894</v>
       </c>
       <c r="E19" s="6">
-        <v>6448.5404444444412</v>
+        <v>6447.1447272727291</v>
       </c>
       <c r="F19" s="6">
-        <v>45.15218888888883</v>
+        <v>45.131130303030332</v>
       </c>
       <c r="G19" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H19" s="6">
-        <v>45.301061111110997</v>
+        <v>45.285634848484833</v>
       </c>
       <c r="I19" s="6">
-        <v>-64.809007407407336</v>
+        <v>-64.785745454545506</v>
       </c>
       <c r="L19" s="6" t="str">
         <v>BOATS</v>
@@ -1338,28 +1341,28 @@
         <v>10</v>
       </c>
       <c r="B20" s="6">
-        <v>4509.9999999999964</v>
+        <v>4508.5785454545439</v>
       </c>
       <c r="C20" s="6">
         <v>6514</v>
       </c>
       <c r="D20" s="6">
-        <v>4518.6999999999962</v>
+        <v>4517.6587272727256</v>
       </c>
       <c r="E20" s="6">
-        <v>6449.4999999999964</v>
+        <v>6447.9298181818203</v>
       </c>
       <c r="F20" s="6">
-        <v>45.166666666666664</v>
+        <v>45.14297575757567</v>
       </c>
       <c r="G20" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H20" s="6">
-        <v>45.311666666666667</v>
+        <v>45.294312121212165</v>
       </c>
       <c r="I20" s="6">
-        <v>-64.825000000000003</v>
+        <v>-64.798830303030329</v>
       </c>
       <c r="L20" s="6" t="str">
         <v>LINES</v>
@@ -1394,28 +1397,28 @@
         <v>11</v>
       </c>
       <c r="B21" s="6">
-        <v>4510.8686666666626</v>
+        <v>4509.2892727272711</v>
       </c>
       <c r="C21" s="6">
         <v>6514</v>
       </c>
       <c r="D21" s="6">
-        <v>4519.3363333333291</v>
+        <v>4518.1793636363618</v>
       </c>
       <c r="E21" s="6">
-        <v>6450.4595555555516</v>
+        <v>6448.7149090909115</v>
       </c>
       <c r="F21" s="6">
-        <v>45.181144444444335</v>
+        <v>45.154821212121163</v>
       </c>
       <c r="G21" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H21" s="6">
-        <v>45.322272222222168</v>
+        <v>45.302989393939335</v>
       </c>
       <c r="I21" s="6">
-        <v>-64.840992592592499</v>
+        <v>-64.811915151515166</v>
       </c>
       <c r="L21" s="6" t="str">
         <v>SPACING</v>
@@ -1450,28 +1453,28 @@
         <v>12</v>
       </c>
       <c r="B22" s="6">
-        <v>4511.7373333333289</v>
+        <v>4509.9999999999982</v>
       </c>
       <c r="C22" s="6">
         <v>6514</v>
       </c>
       <c r="D22" s="6">
-        <v>4519.972666666662</v>
+        <v>4518.699999999998</v>
       </c>
       <c r="E22" s="6">
-        <v>6451.4191111111068</v>
+        <v>6449.5000000000027</v>
       </c>
       <c r="F22" s="6">
-        <v>45.19562222222217</v>
+        <v>45.166666666666664</v>
       </c>
       <c r="G22" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H22" s="6">
-        <v>45.332877777777668</v>
+        <v>45.311666666666667</v>
       </c>
       <c r="I22" s="6">
-        <v>-64.856985185185167</v>
+        <v>-64.825000000000003</v>
       </c>
       <c r="L22" s="6" t="str">
         <v>LINE #</v>
@@ -1506,28 +1509,28 @@
         <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>4512.6059999999952</v>
+        <v>4510.7107272727253</v>
       </c>
       <c r="C23" s="6">
         <v>6514</v>
       </c>
       <c r="D23" s="6">
-        <v>4520.6089999999949</v>
+        <v>4519.2206363636342</v>
       </c>
       <c r="E23" s="6">
-        <v>6452.378666666662</v>
+        <v>6450.2850909090939</v>
       </c>
       <c r="F23" s="6">
-        <v>45.210099999999997</v>
+        <v>45.178512121212165</v>
       </c>
       <c r="G23" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H23" s="6">
-        <v>45.343483333333168</v>
+        <v>45.320343939393837</v>
       </c>
       <c r="I23" s="6">
-        <v>-64.872977777777663</v>
+        <v>-64.83808484848484</v>
       </c>
       <c r="L23" s="6">
         <v>1</v>
@@ -1562,28 +1565,28 @@
         <v>14</v>
       </c>
       <c r="B24" s="6">
-        <v>4513.4746666666615</v>
+        <v>4511.4214545454524</v>
       </c>
       <c r="C24" s="6">
         <v>6514</v>
       </c>
       <c r="D24" s="6">
-        <v>4521.2453333333278</v>
+        <v>4519.7412727272704</v>
       </c>
       <c r="E24" s="6">
-        <v>6453.3382222222172</v>
+        <v>6451.0701818181851</v>
       </c>
       <c r="F24" s="6">
-        <v>45.224577777777668</v>
+        <v>45.190357575757503</v>
       </c>
       <c r="G24" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H24" s="6">
-        <v>45.354088888888832</v>
+        <v>45.32902121212117</v>
       </c>
       <c r="I24" s="6">
-        <v>-64.88897037037033</v>
+        <v>-64.851169696969833</v>
       </c>
       <c r="L24" s="6">
         <v>2</v>
@@ -1618,28 +1621,28 @@
         <v>15</v>
       </c>
       <c r="B25" s="6">
-        <v>4514.3433333333278</v>
+        <v>4512.1321818181796</v>
       </c>
       <c r="C25" s="6">
         <v>6514</v>
       </c>
       <c r="D25" s="6">
-        <v>4521.8816666666607</v>
+        <v>4520.2619090909066</v>
       </c>
       <c r="E25" s="6">
-        <v>6454.2977777777724</v>
+        <v>6451.8552727272763</v>
       </c>
       <c r="F25" s="6">
-        <v>45.239055555555503</v>
+        <v>45.202203030302996</v>
       </c>
       <c r="G25" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H25" s="6">
-        <v>45.364694444444332</v>
+        <v>45.337698484848502</v>
       </c>
       <c r="I25" s="6">
-        <v>-64.904962962962827</v>
+        <v>-64.864254545454671</v>
       </c>
       <c r="L25" s="6">
         <v>3</v>
@@ -1674,28 +1677,28 @@
         <v>16</v>
       </c>
       <c r="B26" s="6">
-        <v>4515.2119999999941</v>
+        <v>4512.8429090909067</v>
       </c>
       <c r="C26" s="6">
         <v>6514</v>
       </c>
       <c r="D26" s="6">
-        <v>4522.5179999999937</v>
+        <v>4520.7825454545427</v>
       </c>
       <c r="E26" s="6">
-        <v>6455.2573333333276</v>
+        <v>6452.6403636363675</v>
       </c>
       <c r="F26" s="6">
-        <v>45.253533333333166</v>
+        <v>45.214048484848497</v>
       </c>
       <c r="G26" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H26" s="6">
-        <v>45.375299999999832</v>
+        <v>45.346375757575665</v>
       </c>
       <c r="I26" s="6">
-        <v>-64.920955555555494</v>
+        <v>-64.877339393939494</v>
       </c>
       <c r="L26" s="6">
         <v>4</v>
@@ -1730,28 +1733,28 @@
         <v>17</v>
       </c>
       <c r="B27" s="6">
-        <v>4516.0806666666604</v>
+        <v>4513.5536363636338</v>
       </c>
       <c r="C27" s="6">
         <v>6514</v>
       </c>
       <c r="D27" s="6">
-        <v>4523.1543333333266</v>
+        <v>4521.3031818181789</v>
       </c>
       <c r="E27" s="6">
-        <v>6456.2168888888827</v>
+        <v>6453.4254545454587</v>
       </c>
       <c r="F27" s="6">
-        <v>45.268011111111001</v>
+        <v>45.225893939393835</v>
       </c>
       <c r="G27" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H27" s="6">
-        <v>45.385905555555503</v>
+        <v>45.355053030302997</v>
       </c>
       <c r="I27" s="6">
-        <v>-64.936948148148005</v>
+        <v>-64.890424242424331</v>
       </c>
       <c r="L27" s="6" t="e">
         <v>#N/A</v>
@@ -1786,28 +1789,28 @@
         <v>18</v>
       </c>
       <c r="B28" s="6">
-        <v>4516.9493333333266</v>
+        <v>4514.2643636363609</v>
       </c>
       <c r="C28" s="6">
         <v>6514</v>
       </c>
       <c r="D28" s="6">
-        <v>4523.7906666666595</v>
+        <v>4521.8238181818151</v>
       </c>
       <c r="E28" s="6">
-        <v>6457.1764444444379</v>
+        <v>6454.2105454545499</v>
       </c>
       <c r="F28" s="6">
-        <v>45.282488888888835</v>
+        <v>45.237739393939336</v>
       </c>
       <c r="G28" s="6">
         <v>-65.233333333333334</v>
       </c>
       <c r="H28" s="6">
-        <v>45.396511111111003</v>
+        <v>45.36373030303033</v>
       </c>
       <c r="I28" s="6">
-        <v>-64.952940740740672</v>
+        <v>-64.903509090909168</v>
       </c>
       <c r="L28" s="6" t="e">
         <v>#N/A</v>
@@ -3158,10 +3161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E998"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3188,207 +3191,207 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>38</v>
+      <c r="A2" t="s">
+        <v>47</v>
       </c>
       <c r="B2">
-        <v>45.036366666666666</v>
+        <v>4502.1819999999998</v>
       </c>
       <c r="C2">
-        <v>-65.233333333333334</v>
+        <v>6514</v>
       </c>
       <c r="D2">
-        <v>45.216216666666668</v>
+        <v>4512.973</v>
       </c>
       <c r="E2">
-        <v>-64.681066666666666</v>
+        <v>6440.8639999999996</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
-        <v>45.0508444444445</v>
+        <v>4502.8927272727269</v>
       </c>
       <c r="C3">
-        <v>-65.233333333333334</v>
+        <v>6514</v>
       </c>
       <c r="D3">
-        <v>45.226822222222168</v>
+        <v>4513.4936363636361</v>
       </c>
       <c r="E3">
-        <v>-64.697059259259163</v>
+        <v>6441.6490909090908</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>45.065322222222164</v>
+        <v>4503.603454545454</v>
       </c>
       <c r="C4">
-        <v>-65.233333333333334</v>
+        <v>6514</v>
       </c>
       <c r="D4">
-        <v>45.237427777777832</v>
+        <v>4514.0142727272723</v>
       </c>
       <c r="E4">
-        <v>-64.71305185185183</v>
+        <v>6442.434181818182</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B5">
-        <v>45.079799999999999</v>
+        <v>4504.3141818181812</v>
       </c>
       <c r="C5">
-        <v>-65.233333333333334</v>
+        <v>6514</v>
       </c>
       <c r="D5">
-        <v>45.248033333333332</v>
+        <v>4514.5349090909085</v>
       </c>
       <c r="E5">
-        <v>-64.729044444444497</v>
+        <v>6443.2192727272732</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>4505.0249090909083</v>
+      </c>
+      <c r="C6">
+        <v>6514</v>
+      </c>
+      <c r="D6">
+        <v>4515.0555454545447</v>
+      </c>
+      <c r="E6">
+        <v>6444.0043636363644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B6">
-        <v>45.09427777777767</v>
-      </c>
-      <c r="C6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="D6">
-        <v>45.258638888888832</v>
-      </c>
-      <c r="E6">
-        <v>-64.745037037036994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
       <c r="B7">
-        <v>45.108755555555497</v>
+        <v>4505.7356363636354</v>
       </c>
       <c r="C7">
-        <v>-65.233333333333334</v>
+        <v>6514</v>
       </c>
       <c r="D7">
-        <v>45.269244444444332</v>
+        <v>4515.5761818181809</v>
       </c>
       <c r="E7">
-        <v>-64.761029629629661</v>
+        <v>6444.7894545454556</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>45.123233333333332</v>
+        <v>4506.4463636363625</v>
       </c>
       <c r="C8">
-        <v>-65.233333333333334</v>
+        <v>6514</v>
       </c>
       <c r="D8">
-        <v>45.279850000000003</v>
+        <v>4516.0968181818171</v>
       </c>
       <c r="E8">
-        <v>-64.777022222222172</v>
+        <v>6445.5745454545468</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9">
-        <v>45.137711111111003</v>
+        <v>4507.1570909090897</v>
       </c>
       <c r="C9">
-        <v>-65.233333333333334</v>
+        <v>6514</v>
       </c>
       <c r="D9">
-        <v>45.290455555555504</v>
+        <v>4516.6174545454533</v>
       </c>
       <c r="E9">
-        <v>-64.793014814814839</v>
+        <v>6446.3596363636379</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10">
-        <v>45.15218888888883</v>
+        <v>4507.8678181818168</v>
       </c>
       <c r="C10">
-        <v>-65.233333333333334</v>
+        <v>6514</v>
       </c>
       <c r="D10">
-        <v>45.301061111110997</v>
+        <v>4517.1380909090894</v>
       </c>
       <c r="E10">
-        <v>-64.809007407407336</v>
+        <v>6447.1447272727291</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>45.166666666666664</v>
+        <v>4508.5785454545439</v>
       </c>
       <c r="C11">
-        <v>-65.233333333333334</v>
+        <v>6514</v>
       </c>
       <c r="D11">
-        <v>45.311666666666667</v>
+        <v>4517.6587272727256</v>
       </c>
       <c r="E11">
-        <v>-64.825000000000003</v>
+        <v>6447.9298181818203</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="6">
-        <v>45.224583333333335</v>
-      </c>
-      <c r="C12" s="6">
-        <v>-64.691333333333333</v>
-      </c>
-      <c r="D12" s="6">
-        <v>45.263750000000002</v>
-      </c>
-      <c r="E12" s="6">
-        <v>-64.55</v>
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>4509.2892727272711</v>
+      </c>
+      <c r="C12">
+        <v>6514</v>
+      </c>
+      <c r="D12">
+        <v>4518.1793636363618</v>
+      </c>
+      <c r="E12">
+        <v>6448.7149090909115</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="6">
-        <v>45.239277777777836</v>
-      </c>
-      <c r="C13" s="6">
-        <v>-64.713277777777833</v>
-      </c>
-      <c r="D13" s="6">
-        <v>45.285277777777836</v>
-      </c>
-      <c r="E13" s="6">
-        <v>-64.55</v>
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>4509.9999999999982</v>
+      </c>
+      <c r="C13">
+        <v>6514</v>
+      </c>
+      <c r="D13">
+        <v>4518.699999999998</v>
+      </c>
+      <c r="E13">
+        <v>6449.5000000000027</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3396,13 +3399,13 @@
         <v>46</v>
       </c>
       <c r="B14" s="6">
-        <v>45.253972222222167</v>
+        <v>45.224583333333335</v>
       </c>
       <c r="C14" s="6">
-        <v>-64.735222222222163</v>
+        <v>-64.691333333333333</v>
       </c>
       <c r="D14" s="6">
-        <v>45.306805555555499</v>
+        <v>45.263750000000002</v>
       </c>
       <c r="E14" s="6">
         <v>-64.55</v>
@@ -3413,13 +3416,13 @@
         <v>46</v>
       </c>
       <c r="B15" s="6">
-        <v>45.268666666666668</v>
+        <v>45.239277777777836</v>
       </c>
       <c r="C15" s="6">
-        <v>-64.757166666666663</v>
+        <v>-64.713277777777833</v>
       </c>
       <c r="D15" s="6">
-        <v>45.328333333333333</v>
+        <v>45.285277777777836</v>
       </c>
       <c r="E15" s="6">
         <v>-64.55</v>
@@ -3427,74 +3430,106 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16">
-        <v>45.244999999999997</v>
-      </c>
-      <c r="C16">
-        <v>-65.052999999999997</v>
-      </c>
-      <c r="D16">
-        <v>45.314999999999998</v>
-      </c>
-      <c r="E16">
-        <v>-64.828000000000003</v>
+        <v>46</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45.253972222222167</v>
+      </c>
+      <c r="C16" s="6">
+        <v>-64.735222222222163</v>
+      </c>
+      <c r="D16" s="6">
+        <v>45.306805555555499</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-64.55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45.268666666666668</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-64.757166666666663</v>
+      </c>
+      <c r="D17" s="6">
+        <v>45.328333333333333</v>
+      </c>
+      <c r="E17" s="6">
+        <v>-64.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B17">
+      <c r="B18">
+        <v>45.244999999999997</v>
+      </c>
+      <c r="C18">
+        <v>-65.052999999999997</v>
+      </c>
+      <c r="D18">
+        <v>45.314999999999998</v>
+      </c>
+      <c r="E18">
+        <v>-64.828000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
         <v>45.260333333333328</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>-65.052999999999997</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>45.324333333333335</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>-64.845333333333329</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B20" s="6">
         <v>45.275666666666659</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C20" s="6">
         <v>-65.052999999999997</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D20" s="6">
         <v>45.333666666666673</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E20" s="6">
         <v>-64.862666666666655</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B21" s="6">
         <v>45.29099999999999</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C21" s="6">
         <v>-65.052999999999997</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D21" s="6">
         <v>45.343000000000011</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E21" s="6">
         <v>-64.879999999999981</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4472,6 +4507,8 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5803,8 +5840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AJ23" sqref="AJ23:AK23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Z51" sqref="Z51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5926,11 +5963,11 @@
       </c>
       <c r="V3" s="8">
         <f>B4</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X3" s="6">
         <f t="shared" ref="X3:X4" si="8">V3</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE3" s="6" t="s">
         <v>23</v>
@@ -5957,7 +5994,7 @@
       </c>
       <c r="B4" s="8">
         <f>'Data Entry'!B1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -5972,7 +6009,7 @@
       </c>
       <c r="L4" s="8">
         <f>B4</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -5984,15 +6021,15 @@
       </c>
       <c r="V4" s="6">
         <f>V3*2</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X4" s="6">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y4" s="6">
         <f>X4</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE4" s="6" t="s">
         <v>24</v>
@@ -6020,7 +6057,7 @@
       </c>
       <c r="B5" s="6">
         <f>B4*2</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -6032,7 +6069,7 @@
       </c>
       <c r="L5" s="6">
         <f>(L31-L3)/(L4-1)</f>
-        <v>1.5750000000000455</v>
+        <v>1.2600000000000364</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>26</v>
@@ -6042,15 +6079,15 @@
       </c>
       <c r="V5" s="6">
         <f>(V2-V25)/(V4-1)</f>
-        <v>0.86866666666669012</v>
+        <v>0.71072727272729186</v>
       </c>
       <c r="X5" s="6">
         <f t="shared" ref="X5:Y5" si="10">(X2-X25)/(X4-1)</f>
-        <v>0.63633333333331799</v>
+        <v>0.52063636363635102</v>
       </c>
       <c r="Y5" s="6">
         <f t="shared" si="10"/>
-        <v>0.95955555555560246</v>
+        <v>0.78509090909094748</v>
       </c>
       <c r="Z5" s="8" t="s">
         <v>26</v>
@@ -6080,7 +6117,7 @@
       </c>
       <c r="B6" s="6">
         <f>(B32-B3)/(B5-1)</f>
-        <v>1.6888888888889697</v>
+        <v>1.381818181818248</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>26</v>
@@ -6286,14 +6323,14 @@
       </c>
       <c r="M8" s="6">
         <f>M7+L5</f>
-        <v>6609.0749999999998</v>
+        <v>6608.76</v>
       </c>
       <c r="N8" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="12"/>
-        <v>6609.0749999999998</v>
+        <v>6608.76</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="13"/>
@@ -6301,7 +6338,7 @@
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="14"/>
-        <v>-66.151250000000005</v>
+        <v>-66.146000000000001</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" ref="R8:S8" si="29">P8</f>
@@ -6309,7 +6346,7 @@
       </c>
       <c r="S8" s="6">
         <f t="shared" si="29"/>
-        <v>-66.151250000000005</v>
+        <v>-66.146000000000001</v>
       </c>
       <c r="U8" s="6">
         <f t="shared" ref="U8:U24" si="30">U7+1</f>
@@ -6317,22 +6354,22 @@
       </c>
       <c r="V8" s="6">
         <f>V7+$V5</f>
-        <v>4503.0506666666661</v>
+        <v>4502.8927272727269</v>
       </c>
       <c r="W8" s="6">
         <v>6514</v>
       </c>
       <c r="X8" s="6">
         <f t="shared" ref="X8:Y8" si="31">X7+X5</f>
-        <v>4513.6093333333329</v>
+        <v>4513.4936363636361</v>
       </c>
       <c r="Y8" s="6">
         <f t="shared" si="31"/>
-        <v>6441.8235555555548</v>
+        <v>6441.6490909090908</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="16"/>
-        <v>45.0508444444445</v>
+        <v>45.048212121212167</v>
       </c>
       <c r="AA8" s="6">
         <f t="shared" si="17"/>
@@ -6340,11 +6377,11 @@
       </c>
       <c r="AB8" s="6">
         <f t="shared" si="18"/>
-        <v>45.226822222222168</v>
+        <v>45.224893939394001</v>
       </c>
       <c r="AC8" s="6">
         <f t="shared" si="19"/>
-        <v>-64.697059259259163</v>
+        <v>-64.694151515151503</v>
       </c>
       <c r="AE8" s="6">
         <v>2</v>
@@ -6391,14 +6428,14 @@
       </c>
       <c r="C9" s="6">
         <f>C8+B6</f>
-        <v>6616.0888888888885</v>
+        <v>6615.7818181818175</v>
       </c>
       <c r="D9" s="6">
         <v>4314</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="24"/>
-        <v>6616.0888888888885</v>
+        <v>6615.7818181818175</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="25"/>
@@ -6406,7 +6443,7 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="26"/>
-        <v>-66.268148148148171</v>
+        <v>-66.263030303030334</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ref="H9:I9" si="34">F9</f>
@@ -6414,7 +6451,7 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" si="34"/>
-        <v>-66.268148148148171</v>
+        <v>-66.263030303030334</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="28"/>
@@ -6425,14 +6462,14 @@
       </c>
       <c r="M9" s="6">
         <f>M8+L5</f>
-        <v>6610.65</v>
+        <v>6610.02</v>
       </c>
       <c r="N9" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="12"/>
-        <v>6610.65</v>
+        <v>6610.02</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="13"/>
@@ -6440,7 +6477,7 @@
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="14"/>
-        <v>-66.177499999999995</v>
+        <v>-66.167000000000002</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" ref="R9:S9" si="35">P9</f>
@@ -6448,7 +6485,7 @@
       </c>
       <c r="S9" s="6">
         <f t="shared" si="35"/>
-        <v>-66.177499999999995</v>
+        <v>-66.167000000000002</v>
       </c>
       <c r="U9" s="6">
         <f t="shared" si="30"/>
@@ -6456,22 +6493,22 @@
       </c>
       <c r="V9" s="6">
         <f>V8+$V5</f>
-        <v>4503.9193333333324</v>
+        <v>4503.603454545454</v>
       </c>
       <c r="W9" s="6">
         <v>6514</v>
       </c>
       <c r="X9" s="6">
         <f t="shared" ref="X9:Y9" si="36">X8+X5</f>
-        <v>4514.2456666666658</v>
+        <v>4514.0142727272723</v>
       </c>
       <c r="Y9" s="6">
         <f t="shared" si="36"/>
-        <v>6442.78311111111</v>
+        <v>6442.434181818182</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="16"/>
-        <v>45.065322222222164</v>
+        <v>45.060057575757497</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" si="17"/>
@@ -6479,11 +6516,11 @@
       </c>
       <c r="AB9" s="6">
         <f t="shared" si="18"/>
-        <v>45.237427777777832</v>
+        <v>45.23357121212117</v>
       </c>
       <c r="AC9" s="6">
         <f t="shared" si="19"/>
-        <v>-64.71305185185183</v>
+        <v>-64.707236363636326</v>
       </c>
       <c r="AE9" s="6">
         <v>3</v>
@@ -6530,14 +6567,14 @@
       </c>
       <c r="C10" s="6">
         <f>C9+B6</f>
-        <v>6617.7777777777774</v>
+        <v>6617.1636363636353</v>
       </c>
       <c r="D10" s="6">
         <v>4314</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="24"/>
-        <v>6617.7777777777774</v>
+        <v>6617.1636363636353</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="25"/>
@@ -6545,7 +6582,7 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="26"/>
-        <v>-66.296296296296333</v>
+        <v>-66.286060606060673</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ref="H10:I10" si="38">F10</f>
@@ -6553,7 +6590,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" si="38"/>
-        <v>-66.296296296296333</v>
+        <v>-66.286060606060673</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="28"/>
@@ -6564,14 +6601,14 @@
       </c>
       <c r="M10" s="6">
         <f>M9+L5</f>
-        <v>6612.2249999999995</v>
+        <v>6611.2800000000007</v>
       </c>
       <c r="N10" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="12"/>
-        <v>6612.2249999999995</v>
+        <v>6611.2800000000007</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="13"/>
@@ -6579,7 +6616,7 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="14"/>
-        <v>-66.203749999999999</v>
+        <v>-66.188000000000002</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" ref="R10:S10" si="39">P10</f>
@@ -6587,7 +6624,7 @@
       </c>
       <c r="S10" s="6">
         <f t="shared" si="39"/>
-        <v>-66.203749999999999</v>
+        <v>-66.188000000000002</v>
       </c>
       <c r="U10" s="6">
         <f t="shared" si="30"/>
@@ -6595,22 +6632,22 @@
       </c>
       <c r="V10" s="6">
         <f>V9+$V5</f>
-        <v>4504.7879999999986</v>
+        <v>4504.3141818181812</v>
       </c>
       <c r="W10" s="6">
         <v>6514</v>
       </c>
       <c r="X10" s="6">
         <f t="shared" ref="X10:Y10" si="40">X9+X5</f>
-        <v>4514.8819999999987</v>
+        <v>4514.5349090909085</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" si="40"/>
-        <v>6443.7426666666652</v>
+        <v>6443.2192727272732</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="16"/>
-        <v>45.079799999999999</v>
+        <v>45.071903030302998</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="17"/>
@@ -6618,11 +6655,11 @@
       </c>
       <c r="AB10" s="6">
         <f t="shared" si="18"/>
-        <v>45.248033333333332</v>
+        <v>45.242248484848503</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" si="19"/>
-        <v>-64.729044444444497</v>
+        <v>-64.720321212121164</v>
       </c>
       <c r="AE10" s="6">
         <v>4</v>
@@ -6669,14 +6706,14 @@
       </c>
       <c r="C11" s="6">
         <f>C10+B6</f>
-        <v>6619.4666666666662</v>
+        <v>6618.5454545454531</v>
       </c>
       <c r="D11" s="6">
         <v>4314</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="24"/>
-        <v>6619.4666666666662</v>
+        <v>6618.5454545454531</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="25"/>
@@ -6684,7 +6721,7 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="26"/>
-        <v>-66.324444444444495</v>
+        <v>-66.309090909090827</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ref="H11:I11" si="42">F11</f>
@@ -6692,7 +6729,7 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" si="42"/>
-        <v>-66.324444444444495</v>
+        <v>-66.309090909090827</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="28"/>
@@ -6703,14 +6740,14 @@
       </c>
       <c r="M11" s="6">
         <f>M10+L5</f>
-        <v>6613.7999999999993</v>
+        <v>6612.5400000000009</v>
       </c>
       <c r="N11" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="12"/>
-        <v>6613.7999999999993</v>
+        <v>6612.5400000000009</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="13"/>
@@ -6718,7 +6755,7 @@
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="14"/>
-        <v>-66.23</v>
+        <v>-66.209000000000003</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" ref="R11:S11" si="43">P11</f>
@@ -6726,7 +6763,7 @@
       </c>
       <c r="S11" s="6">
         <f t="shared" si="43"/>
-        <v>-66.23</v>
+        <v>-66.209000000000003</v>
       </c>
       <c r="U11" s="6">
         <f t="shared" si="30"/>
@@ -6734,22 +6771,22 @@
       </c>
       <c r="V11" s="6">
         <f>V10+$V5</f>
-        <v>4505.6566666666649</v>
+        <v>4505.0249090909083</v>
       </c>
       <c r="W11" s="6">
         <v>6514</v>
       </c>
       <c r="X11" s="6">
         <f t="shared" ref="X11:Y11" si="44">X10+X5</f>
-        <v>4515.5183333333316</v>
+        <v>4515.0555454545447</v>
       </c>
       <c r="Y11" s="6">
         <f t="shared" si="44"/>
-        <v>6444.7022222222204</v>
+        <v>6444.0043636363644</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" si="16"/>
-        <v>45.09427777777767</v>
+        <v>45.083748484848499</v>
       </c>
       <c r="AA11" s="6">
         <f t="shared" si="17"/>
@@ -6757,11 +6794,11 @@
       </c>
       <c r="AB11" s="6">
         <f t="shared" si="18"/>
-        <v>45.258638888888832</v>
+        <v>45.250925757575665</v>
       </c>
       <c r="AC11" s="6">
         <f t="shared" si="19"/>
-        <v>-64.745037037036994</v>
+        <v>-64.733406060606001</v>
       </c>
       <c r="AE11" s="6" t="s">
         <v>28</v>
@@ -6805,14 +6842,14 @@
       </c>
       <c r="C12" s="6">
         <f>C11+B6</f>
-        <v>6621.1555555555551</v>
+        <v>6619.927272727271</v>
       </c>
       <c r="D12" s="6">
         <v>4314</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="24"/>
-        <v>6621.1555555555551</v>
+        <v>6619.927272727271</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="25"/>
@@ -6820,7 +6857,7 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="26"/>
-        <v>-66.352592592592671</v>
+        <v>-66.332121212121166</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ref="H12:I12" si="49">F12</f>
@@ -6828,7 +6865,7 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" si="49"/>
-        <v>-66.352592592592671</v>
+        <v>-66.332121212121166</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="28"/>
@@ -6839,14 +6876,14 @@
       </c>
       <c r="M12" s="6">
         <f>M11+L5</f>
-        <v>6615.3749999999991</v>
+        <v>6613.8000000000011</v>
       </c>
       <c r="N12" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="12"/>
-        <v>6615.3749999999991</v>
+        <v>6613.8000000000011</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="13"/>
@@ -6854,7 +6891,7 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="14"/>
-        <v>-66.256249999999994</v>
+        <v>-66.23</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" ref="R12:S12" si="50">P12</f>
@@ -6862,7 +6899,7 @@
       </c>
       <c r="S12" s="6">
         <f t="shared" si="50"/>
-        <v>-66.256249999999994</v>
+        <v>-66.23</v>
       </c>
       <c r="U12" s="6">
         <f t="shared" si="30"/>
@@ -6870,22 +6907,22 @@
       </c>
       <c r="V12" s="6">
         <f>V11+$V5</f>
-        <v>4506.5253333333312</v>
+        <v>4505.7356363636354</v>
       </c>
       <c r="W12" s="6">
         <v>6514</v>
       </c>
       <c r="X12" s="6">
         <f t="shared" ref="X12:Y12" si="51">X11+X5</f>
-        <v>4516.1546666666645</v>
+        <v>4515.5761818181809</v>
       </c>
       <c r="Y12" s="6">
         <f t="shared" si="51"/>
-        <v>6445.6617777777756</v>
+        <v>6444.7894545454556</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" si="16"/>
-        <v>45.108755555555497</v>
+        <v>45.095593939394</v>
       </c>
       <c r="AA12" s="6">
         <f t="shared" si="17"/>
@@ -6893,11 +6930,11 @@
       </c>
       <c r="AB12" s="6">
         <f t="shared" si="18"/>
-        <v>45.269244444444332</v>
+        <v>45.259603030302998</v>
       </c>
       <c r="AC12" s="6">
         <f t="shared" si="19"/>
-        <v>-64.761029629629661</v>
+        <v>-64.746490909090994</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -6910,14 +6947,14 @@
       </c>
       <c r="C13" s="6">
         <f>C12+B6</f>
-        <v>6622.844444444444</v>
+        <v>6621.3090909090888</v>
       </c>
       <c r="D13" s="6">
         <v>4314</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="24"/>
-        <v>6622.844444444444</v>
+        <v>6621.3090909090888</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="25"/>
@@ -6925,7 +6962,7 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="26"/>
-        <v>-66.380740740740663</v>
+        <v>-66.355151515151505</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ref="H13:I13" si="52">F13</f>
@@ -6933,7 +6970,7 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" si="52"/>
-        <v>-66.380740740740663</v>
+        <v>-66.355151515151505</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="28"/>
@@ -6944,14 +6981,14 @@
       </c>
       <c r="M13" s="6">
         <f>M12+L5</f>
-        <v>6616.9499999999989</v>
+        <v>6615.0600000000013</v>
       </c>
       <c r="N13" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="12"/>
-        <v>6616.9499999999989</v>
+        <v>6615.0600000000013</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="13"/>
@@ -6959,7 +6996,7 @@
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="14"/>
-        <v>-66.282499999999999</v>
+        <v>-66.251000000000005</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" ref="R13:S13" si="53">P13</f>
@@ -6967,7 +7004,7 @@
       </c>
       <c r="S13" s="6">
         <f t="shared" si="53"/>
-        <v>-66.282499999999999</v>
+        <v>-66.251000000000005</v>
       </c>
       <c r="U13" s="6">
         <f t="shared" si="30"/>
@@ -6975,22 +7012,22 @@
       </c>
       <c r="V13" s="6">
         <f>V12+$V5</f>
-        <v>4507.3939999999975</v>
+        <v>4506.4463636363625</v>
       </c>
       <c r="W13" s="6">
         <v>6514</v>
       </c>
       <c r="X13" s="6">
         <f t="shared" ref="X13:Y13" si="54">X12+X5</f>
-        <v>4516.7909999999974</v>
+        <v>4516.0968181818171</v>
       </c>
       <c r="Y13" s="6">
         <f t="shared" si="54"/>
-        <v>6446.6213333333308</v>
+        <v>6445.5745454545468</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="16"/>
-        <v>45.123233333333332</v>
+        <v>45.10743939393933</v>
       </c>
       <c r="AA13" s="6">
         <f t="shared" si="17"/>
@@ -6998,11 +7035,11 @@
       </c>
       <c r="AB13" s="6">
         <f t="shared" si="18"/>
-        <v>45.279850000000003</v>
+        <v>45.26828030303033</v>
       </c>
       <c r="AC13" s="6">
         <f t="shared" si="19"/>
-        <v>-64.777022222222172</v>
+        <v>-64.759575757575831</v>
       </c>
       <c r="AE13" s="8" t="s">
         <v>29</v>
@@ -7018,14 +7055,14 @@
       </c>
       <c r="C14" s="6">
         <f>C13+B6</f>
-        <v>6624.5333333333328</v>
+        <v>6622.6909090909066</v>
       </c>
       <c r="D14" s="6">
         <v>4314</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="24"/>
-        <v>6624.5333333333328</v>
+        <v>6622.6909090909066</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="25"/>
@@ -7033,7 +7070,7 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="26"/>
-        <v>-66.408888888888839</v>
+        <v>-66.378181818181829</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ref="H14:I14" si="55">F14</f>
@@ -7041,7 +7078,7 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" si="55"/>
-        <v>-66.408888888888839</v>
+        <v>-66.378181818181829</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="28"/>
@@ -7052,14 +7089,14 @@
       </c>
       <c r="M14" s="6">
         <f>M13+L5</f>
-        <v>6618.5249999999987</v>
+        <v>6616.3200000000015</v>
       </c>
       <c r="N14" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="12"/>
-        <v>6618.5249999999987</v>
+        <v>6616.3200000000015</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="13"/>
@@ -7067,7 +7104,7 @@
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="14"/>
-        <v>-66.308750000000003</v>
+        <v>-66.272000000000006</v>
       </c>
       <c r="R14" s="6">
         <f t="shared" ref="R14:S14" si="56">P14</f>
@@ -7075,7 +7112,7 @@
       </c>
       <c r="S14" s="6">
         <f t="shared" si="56"/>
-        <v>-66.308750000000003</v>
+        <v>-66.272000000000006</v>
       </c>
       <c r="U14" s="6">
         <f t="shared" si="30"/>
@@ -7083,22 +7120,22 @@
       </c>
       <c r="V14" s="6">
         <f>V13+$V5</f>
-        <v>4508.2626666666638</v>
+        <v>4507.1570909090897</v>
       </c>
       <c r="W14" s="6">
         <v>6514</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" ref="X14:Y14" si="57">X13+X5</f>
-        <v>4517.4273333333304</v>
+        <v>4516.6174545454533</v>
       </c>
       <c r="Y14" s="6">
         <f t="shared" si="57"/>
-        <v>6447.580888888886</v>
+        <v>6446.3596363636379</v>
       </c>
       <c r="Z14" s="6">
         <f t="shared" si="16"/>
-        <v>45.137711111111003</v>
+        <v>45.119284848484831</v>
       </c>
       <c r="AA14" s="6">
         <f t="shared" si="17"/>
@@ -7106,11 +7143,11 @@
       </c>
       <c r="AB14" s="6">
         <f t="shared" si="18"/>
-        <v>45.290455555555504</v>
+        <v>45.2769575757575</v>
       </c>
       <c r="AC14" s="6">
         <f t="shared" si="19"/>
-        <v>-64.793014814814839</v>
+        <v>-64.772660606060668</v>
       </c>
       <c r="AE14" s="6" t="s">
         <v>21</v>
@@ -7150,14 +7187,14 @@
       </c>
       <c r="C15" s="6">
         <f>C14+B6</f>
-        <v>6626.2222222222217</v>
+        <v>6624.0727272727245</v>
       </c>
       <c r="D15" s="6">
         <v>4314</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="24"/>
-        <v>6626.2222222222217</v>
+        <v>6624.0727272727245</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="25"/>
@@ -7165,7 +7202,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="26"/>
-        <v>-66.437037037037001</v>
+        <v>-66.401212121211998</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ref="H15:I15" si="58">F15</f>
@@ -7173,7 +7210,7 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" si="58"/>
-        <v>-66.437037037037001</v>
+        <v>-66.401212121211998</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="28"/>
@@ -7184,14 +7221,14 @@
       </c>
       <c r="M15" s="6">
         <f>M14+L5</f>
-        <v>6620.0999999999985</v>
+        <v>6617.5800000000017</v>
       </c>
       <c r="N15" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="12"/>
-        <v>6620.0999999999985</v>
+        <v>6617.5800000000017</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="13"/>
@@ -7199,7 +7236,7 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="14"/>
-        <v>-66.334999999999994</v>
+        <v>-66.293000000000006</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" ref="R15:S15" si="59">P15</f>
@@ -7207,7 +7244,7 @@
       </c>
       <c r="S15" s="6">
         <f t="shared" si="59"/>
-        <v>-66.334999999999994</v>
+        <v>-66.293000000000006</v>
       </c>
       <c r="U15" s="6">
         <f t="shared" si="30"/>
@@ -7215,22 +7252,22 @@
       </c>
       <c r="V15" s="6">
         <f>V14+$V5</f>
-        <v>4509.1313333333301</v>
+        <v>4507.8678181818168</v>
       </c>
       <c r="W15" s="6">
         <v>6514</v>
       </c>
       <c r="X15" s="6">
         <f t="shared" ref="X15:Y15" si="60">X14+X5</f>
-        <v>4518.0636666666633</v>
+        <v>4517.1380909090894</v>
       </c>
       <c r="Y15" s="6">
         <f t="shared" si="60"/>
-        <v>6448.5404444444412</v>
+        <v>6447.1447272727291</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" si="16"/>
-        <v>45.15218888888883</v>
+        <v>45.131130303030332</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="17"/>
@@ -7238,11 +7275,11 @@
       </c>
       <c r="AB15" s="6">
         <f t="shared" si="18"/>
-        <v>45.301061111110997</v>
+        <v>45.285634848484833</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" si="19"/>
-        <v>-64.809007407407336</v>
+        <v>-64.785745454545506</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>23</v>
@@ -7272,14 +7309,14 @@
       </c>
       <c r="C16" s="6">
         <f>C15+B6</f>
-        <v>6627.9111111111106</v>
+        <v>6625.4545454545423</v>
       </c>
       <c r="D16" s="6">
         <v>4314</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="24"/>
-        <v>6627.9111111111106</v>
+        <v>6625.4545454545423</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="25"/>
@@ -7287,7 +7324,7 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="26"/>
-        <v>-66.465185185185163</v>
+        <v>-66.424242424242337</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ref="H16:I16" si="61">F16</f>
@@ -7295,7 +7332,7 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" si="61"/>
-        <v>-66.465185185185163</v>
+        <v>-66.424242424242337</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="28"/>
@@ -7306,14 +7343,14 @@
       </c>
       <c r="M16" s="6">
         <f>M15+L5</f>
-        <v>6621.6749999999984</v>
+        <v>6618.840000000002</v>
       </c>
       <c r="N16" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="12"/>
-        <v>6621.6749999999984</v>
+        <v>6618.840000000002</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="13"/>
@@ -7321,7 +7358,7 @@
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="14"/>
-        <v>-66.361249999999998</v>
+        <v>-66.313999999999993</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" ref="R16:S16" si="62">P16</f>
@@ -7329,7 +7366,7 @@
       </c>
       <c r="S16" s="6">
         <f t="shared" si="62"/>
-        <v>-66.361249999999998</v>
+        <v>-66.313999999999993</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="30"/>
@@ -7337,22 +7374,22 @@
       </c>
       <c r="V16" s="6">
         <f>V15+$V5</f>
-        <v>4509.9999999999964</v>
+        <v>4508.5785454545439</v>
       </c>
       <c r="W16" s="6">
         <v>6514</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" ref="X16:Y16" si="63">X15+X5</f>
-        <v>4518.6999999999962</v>
+        <v>4517.6587272727256</v>
       </c>
       <c r="Y16" s="6">
         <f t="shared" si="63"/>
-        <v>6449.4999999999964</v>
+        <v>6447.9298181818203</v>
       </c>
       <c r="Z16" s="6">
         <f t="shared" si="16"/>
-        <v>45.166666666666664</v>
+        <v>45.14297575757567</v>
       </c>
       <c r="AA16" s="6">
         <f t="shared" si="17"/>
@@ -7360,11 +7397,11 @@
       </c>
       <c r="AB16" s="6">
         <f t="shared" si="18"/>
-        <v>45.311666666666667</v>
+        <v>45.294312121212165</v>
       </c>
       <c r="AC16" s="6">
         <f t="shared" si="19"/>
-        <v>-64.825000000000003</v>
+        <v>-64.798830303030329</v>
       </c>
       <c r="AE16" s="6" t="s">
         <v>24</v>
@@ -7401,14 +7438,14 @@
       </c>
       <c r="C17" s="6">
         <f>C16+B6</f>
-        <v>6629.5999999999995</v>
+        <v>6626.8363636363601</v>
       </c>
       <c r="D17" s="6">
         <v>4314</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="24"/>
-        <v>6629.5999999999995</v>
+        <v>6626.8363636363601</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="25"/>
@@ -7416,7 +7453,7 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="26"/>
-        <v>-66.493333333333339</v>
+        <v>-66.447272727272662</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17:I17" si="65">F17</f>
@@ -7424,7 +7461,7 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" si="65"/>
-        <v>-66.493333333333339</v>
+        <v>-66.447272727272662</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="28"/>
@@ -7435,14 +7472,14 @@
       </c>
       <c r="M17" s="6">
         <f>M16+L5</f>
-        <v>6623.2499999999982</v>
+        <v>6620.1000000000022</v>
       </c>
       <c r="N17" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="12"/>
-        <v>6623.2499999999982</v>
+        <v>6620.1000000000022</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="13"/>
@@ -7450,7 +7487,7 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="14"/>
-        <v>-66.387500000000003</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ref="R17:S17" si="66">P17</f>
@@ -7458,7 +7495,7 @@
       </c>
       <c r="S17" s="6">
         <f t="shared" si="66"/>
-        <v>-66.387500000000003</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="30"/>
@@ -7466,22 +7503,22 @@
       </c>
       <c r="V17" s="6">
         <f>V16+$V5</f>
-        <v>4510.8686666666626</v>
+        <v>4509.2892727272711</v>
       </c>
       <c r="W17" s="6">
         <v>6514</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17:Y17" si="67">X16+X5</f>
-        <v>4519.3363333333291</v>
+        <v>4518.1793636363618</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" si="67"/>
-        <v>6450.4595555555516</v>
+        <v>6448.7149090909115</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="16"/>
-        <v>45.181144444444335</v>
+        <v>45.154821212121163</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" si="17"/>
@@ -7489,11 +7526,11 @@
       </c>
       <c r="AB17" s="6">
         <f t="shared" si="18"/>
-        <v>45.322272222222168</v>
+        <v>45.302989393939335</v>
       </c>
       <c r="AC17" s="6">
         <f t="shared" si="19"/>
-        <v>-64.840992592592499</v>
+        <v>-64.811915151515166</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>25</v>
@@ -7533,14 +7570,14 @@
       </c>
       <c r="C18" s="6">
         <f>C17+B6</f>
-        <v>6631.2888888888883</v>
+        <v>6628.218181818178</v>
       </c>
       <c r="D18" s="6">
         <v>4314</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="24"/>
-        <v>6631.2888888888883</v>
+        <v>6628.218181818178</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="25"/>
@@ -7548,7 +7585,7 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="26"/>
-        <v>-66.521481481481501</v>
+        <v>-66.470303030303</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ref="H18:I18" si="68">F18</f>
@@ -7556,7 +7593,7 @@
       </c>
       <c r="I18" s="6">
         <f t="shared" si="68"/>
-        <v>-66.521481481481501</v>
+        <v>-66.470303030303</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="28"/>
@@ -7567,14 +7604,14 @@
       </c>
       <c r="M18" s="6">
         <f>M17+L5</f>
-        <v>6624.824999999998</v>
+        <v>6621.3600000000024</v>
       </c>
       <c r="N18" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="12"/>
-        <v>6624.824999999998</v>
+        <v>6621.3600000000024</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="13"/>
@@ -7582,7 +7619,7 @@
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="14"/>
-        <v>-66.413749999999993</v>
+        <v>-66.355999999999995</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" ref="R18:S18" si="69">P18</f>
@@ -7590,7 +7627,7 @@
       </c>
       <c r="S18" s="6">
         <f t="shared" si="69"/>
-        <v>-66.413749999999993</v>
+        <v>-66.355999999999995</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="30"/>
@@ -7598,22 +7635,22 @@
       </c>
       <c r="V18" s="6">
         <f>V17+$V5</f>
-        <v>4511.7373333333289</v>
+        <v>4509.9999999999982</v>
       </c>
       <c r="W18" s="6">
         <v>6514</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" ref="X18:Y18" si="70">X17+X5</f>
-        <v>4519.972666666662</v>
+        <v>4518.699999999998</v>
       </c>
       <c r="Y18" s="6">
         <f t="shared" si="70"/>
-        <v>6451.4191111111068</v>
+        <v>6449.5000000000027</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" si="16"/>
-        <v>45.19562222222217</v>
+        <v>45.166666666666664</v>
       </c>
       <c r="AA18" s="6">
         <f t="shared" si="17"/>
@@ -7621,11 +7658,11 @@
       </c>
       <c r="AB18" s="6">
         <f t="shared" si="18"/>
-        <v>45.332877777777668</v>
+        <v>45.311666666666667</v>
       </c>
       <c r="AC18" s="6">
         <f t="shared" si="19"/>
-        <v>-64.856985185185167</v>
+        <v>-64.825000000000003</v>
       </c>
       <c r="AE18" s="6" t="s">
         <v>27</v>
@@ -7653,14 +7690,14 @@
       </c>
       <c r="C19" s="6">
         <f>C18+B6</f>
-        <v>6632.9777777777772</v>
+        <v>6629.5999999999958</v>
       </c>
       <c r="D19" s="6">
         <v>4314</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="24"/>
-        <v>6632.9777777777772</v>
+        <v>6629.5999999999958</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="25"/>
@@ -7668,7 +7705,7 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="26"/>
-        <v>-66.549629629629663</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ref="H19:I19" si="71">F19</f>
@@ -7676,7 +7713,7 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" si="71"/>
-        <v>-66.549629629629663</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="28"/>
@@ -7687,14 +7724,14 @@
       </c>
       <c r="M19" s="6">
         <f>M18+L5</f>
-        <v>6626.3999999999978</v>
+        <v>6622.6200000000026</v>
       </c>
       <c r="N19" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="12"/>
-        <v>6626.3999999999978</v>
+        <v>6622.6200000000026</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="13"/>
@@ -7702,7 +7739,7 @@
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="14"/>
-        <v>-66.44</v>
+        <v>-66.376999999999995</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" ref="R19:S19" si="72">P19</f>
@@ -7710,7 +7747,7 @@
       </c>
       <c r="S19" s="6">
         <f t="shared" si="72"/>
-        <v>-66.44</v>
+        <v>-66.376999999999995</v>
       </c>
       <c r="U19" s="6">
         <f t="shared" si="30"/>
@@ -7718,22 +7755,22 @@
       </c>
       <c r="V19" s="6">
         <f>V18+$V5</f>
-        <v>4512.6059999999952</v>
+        <v>4510.7107272727253</v>
       </c>
       <c r="W19" s="6">
         <v>6514</v>
       </c>
       <c r="X19" s="6">
         <f t="shared" ref="X19:Y19" si="73">X18+X5</f>
-        <v>4520.6089999999949</v>
+        <v>4519.2206363636342</v>
       </c>
       <c r="Y19" s="6">
         <f t="shared" si="73"/>
-        <v>6452.378666666662</v>
+        <v>6450.2850909090939</v>
       </c>
       <c r="Z19" s="6">
         <f t="shared" si="16"/>
-        <v>45.210099999999997</v>
+        <v>45.178512121212165</v>
       </c>
       <c r="AA19" s="6">
         <f t="shared" si="17"/>
@@ -7741,11 +7778,11 @@
       </c>
       <c r="AB19" s="6">
         <f t="shared" si="18"/>
-        <v>45.343483333333168</v>
+        <v>45.320343939393837</v>
       </c>
       <c r="AC19" s="6">
         <f t="shared" si="19"/>
-        <v>-64.872977777777663</v>
+        <v>-64.83808484848484</v>
       </c>
       <c r="AE19" s="6">
         <v>1</v>
@@ -7792,14 +7829,14 @@
       </c>
       <c r="C20" s="6">
         <f>C19+B6</f>
-        <v>6634.6666666666661</v>
+        <v>6630.9818181818137</v>
       </c>
       <c r="D20" s="6">
         <v>4314</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="24"/>
-        <v>6634.6666666666661</v>
+        <v>6630.9818181818137</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="25"/>
@@ -7807,7 +7844,7 @@
       </c>
       <c r="G20" s="6">
         <f t="shared" si="26"/>
-        <v>-66.57777777777784</v>
+        <v>-66.516363636363494</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ref="H20:I20" si="75">F20</f>
@@ -7815,7 +7852,7 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" si="75"/>
-        <v>-66.57777777777784</v>
+        <v>-66.516363636363494</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="28"/>
@@ -7826,14 +7863,14 @@
       </c>
       <c r="M20" s="6">
         <f>M19+L5</f>
-        <v>6627.9749999999976</v>
+        <v>6623.8800000000028</v>
       </c>
       <c r="N20" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="12"/>
-        <v>6627.9749999999976</v>
+        <v>6623.8800000000028</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="13"/>
@@ -7841,7 +7878,7 @@
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="14"/>
-        <v>-66.466250000000002</v>
+        <v>-66.397999999999996</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" ref="R20:S20" si="76">P20</f>
@@ -7849,7 +7886,7 @@
       </c>
       <c r="S20" s="6">
         <f t="shared" si="76"/>
-        <v>-66.466250000000002</v>
+        <v>-66.397999999999996</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="30"/>
@@ -7857,22 +7894,22 @@
       </c>
       <c r="V20" s="6">
         <f>V19+$V5</f>
-        <v>4513.4746666666615</v>
+        <v>4511.4214545454524</v>
       </c>
       <c r="W20" s="6">
         <v>6514</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" ref="X20:Y20" si="77">X19+X5</f>
-        <v>4521.2453333333278</v>
+        <v>4519.7412727272704</v>
       </c>
       <c r="Y20" s="6">
         <f t="shared" si="77"/>
-        <v>6453.3382222222172</v>
+        <v>6451.0701818181851</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" si="16"/>
-        <v>45.224577777777668</v>
+        <v>45.190357575757503</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="17"/>
@@ -7880,11 +7917,11 @@
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="18"/>
-        <v>45.354088888888832</v>
+        <v>45.32902121212117</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="19"/>
-        <v>-64.88897037037033</v>
+        <v>-64.851169696969833</v>
       </c>
       <c r="AE20" s="6">
         <v>2</v>
@@ -7931,14 +7968,14 @@
       </c>
       <c r="C21" s="6">
         <f>C20+B6</f>
-        <v>6636.3555555555549</v>
+        <v>6632.3636363636315</v>
       </c>
       <c r="D21" s="6">
         <v>4314</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="24"/>
-        <v>6636.3555555555549</v>
+        <v>6632.3636363636315</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="25"/>
@@ -7946,7 +7983,7 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="26"/>
-        <v>-66.605925925925831</v>
+        <v>-66.539393939393833</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ref="H21:I21" si="79">F21</f>
@@ -7954,7 +7991,7 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" si="79"/>
-        <v>-66.605925925925831</v>
+        <v>-66.539393939393833</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="28"/>
@@ -7965,14 +8002,14 @@
       </c>
       <c r="M21" s="6">
         <f>M20+L5</f>
-        <v>6629.5499999999975</v>
+        <v>6625.1400000000031</v>
       </c>
       <c r="N21" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O21" s="6">
         <f t="shared" si="12"/>
-        <v>6629.5499999999975</v>
+        <v>6625.1400000000031</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="13"/>
@@ -7980,7 +8017,7 @@
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="14"/>
-        <v>-66.492500000000007</v>
+        <v>-66.418999999999997</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" ref="R21:S21" si="80">P21</f>
@@ -7988,7 +8025,7 @@
       </c>
       <c r="S21" s="6">
         <f t="shared" si="80"/>
-        <v>-66.492500000000007</v>
+        <v>-66.418999999999997</v>
       </c>
       <c r="U21" s="6">
         <f t="shared" si="30"/>
@@ -7996,22 +8033,22 @@
       </c>
       <c r="V21" s="6">
         <f>V20+$V5</f>
-        <v>4514.3433333333278</v>
+        <v>4512.1321818181796</v>
       </c>
       <c r="W21" s="6">
         <v>6514</v>
       </c>
       <c r="X21" s="6">
         <f t="shared" ref="X21:Y21" si="81">X20+X5</f>
-        <v>4521.8816666666607</v>
+        <v>4520.2619090909066</v>
       </c>
       <c r="Y21" s="6">
         <f t="shared" si="81"/>
-        <v>6454.2977777777724</v>
+        <v>6451.8552727272763</v>
       </c>
       <c r="Z21" s="6">
         <f t="shared" si="16"/>
-        <v>45.239055555555503</v>
+        <v>45.202203030302996</v>
       </c>
       <c r="AA21" s="6">
         <f t="shared" si="17"/>
@@ -8019,11 +8056,11 @@
       </c>
       <c r="AB21" s="6">
         <f t="shared" si="18"/>
-        <v>45.364694444444332</v>
+        <v>45.337698484848502</v>
       </c>
       <c r="AC21" s="6">
         <f t="shared" si="19"/>
-        <v>-64.904962962962827</v>
+        <v>-64.864254545454671</v>
       </c>
       <c r="AE21" s="6">
         <v>3</v>
@@ -8070,14 +8107,14 @@
       </c>
       <c r="C22" s="6">
         <f>C21+B6</f>
-        <v>6638.0444444444438</v>
+        <v>6633.7454545454493</v>
       </c>
       <c r="D22" s="6">
         <v>4314</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="24"/>
-        <v>6638.0444444444438</v>
+        <v>6633.7454545454493</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="25"/>
@@ -8085,7 +8122,7 @@
       </c>
       <c r="G22" s="6">
         <f t="shared" si="26"/>
-        <v>-66.634074074073993</v>
+        <v>-66.562424242424171</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ref="H22:I22" si="82">F22</f>
@@ -8093,7 +8130,7 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" si="82"/>
-        <v>-66.634074074073993</v>
+        <v>-66.562424242424171</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="28"/>
@@ -8103,15 +8140,15 @@
         <v>4330.12</v>
       </c>
       <c r="M22" s="6">
-        <f>M21+EW5</f>
-        <v>6629.5499999999975</v>
+        <f>M21+EM5</f>
+        <v>6625.1400000000031</v>
       </c>
       <c r="N22" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="12"/>
-        <v>6629.5499999999975</v>
+        <v>6625.1400000000031</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="13"/>
@@ -8119,7 +8156,7 @@
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="14"/>
-        <v>-66.492500000000007</v>
+        <v>-66.418999999999997</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" ref="R22:S22" si="83">P22</f>
@@ -8127,7 +8164,7 @@
       </c>
       <c r="S22" s="6">
         <f t="shared" si="83"/>
-        <v>-66.492500000000007</v>
+        <v>-66.418999999999997</v>
       </c>
       <c r="U22" s="6">
         <f t="shared" si="30"/>
@@ -8135,22 +8172,22 @@
       </c>
       <c r="V22" s="6">
         <f>V21+$V5</f>
-        <v>4515.2119999999941</v>
+        <v>4512.8429090909067</v>
       </c>
       <c r="W22" s="6">
         <v>6514</v>
       </c>
       <c r="X22" s="6">
         <f t="shared" ref="X22:Y22" si="84">X21+X5</f>
-        <v>4522.5179999999937</v>
+        <v>4520.7825454545427</v>
       </c>
       <c r="Y22" s="6">
         <f t="shared" si="84"/>
-        <v>6455.2573333333276</v>
+        <v>6452.6403636363675</v>
       </c>
       <c r="Z22" s="6">
         <f t="shared" si="16"/>
-        <v>45.253533333333166</v>
+        <v>45.214048484848497</v>
       </c>
       <c r="AA22" s="6">
         <f t="shared" si="17"/>
@@ -8158,11 +8195,11 @@
       </c>
       <c r="AB22" s="6">
         <f t="shared" si="18"/>
-        <v>45.375299999999832</v>
+        <v>45.346375757575665</v>
       </c>
       <c r="AC22" s="6">
         <f t="shared" si="19"/>
-        <v>-64.920955555555494</v>
+        <v>-64.877339393939494</v>
       </c>
       <c r="AE22" s="6">
         <v>4</v>
@@ -8209,14 +8246,14 @@
       </c>
       <c r="C23" s="6">
         <f>C22+B6</f>
-        <v>6639.7333333333327</v>
+        <v>6635.1272727272672</v>
       </c>
       <c r="D23" s="6">
         <v>4314</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="24"/>
-        <v>6639.7333333333327</v>
+        <v>6635.1272727272672</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="25"/>
@@ -8224,7 +8261,7 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="26"/>
-        <v>-66.662222222222169</v>
+        <v>-66.585454545454496</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ref="H23:I23" si="85">F23</f>
@@ -8232,7 +8269,7 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" si="85"/>
-        <v>-66.662222222222169</v>
+        <v>-66.585454545454496</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="28"/>
@@ -8243,14 +8280,14 @@
       </c>
       <c r="M23" s="6">
         <f>M22+L5</f>
-        <v>6631.1249999999973</v>
+        <v>6626.4000000000033</v>
       </c>
       <c r="N23" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="12"/>
-        <v>6631.1249999999973</v>
+        <v>6626.4000000000033</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="13"/>
@@ -8258,7 +8295,7 @@
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="14"/>
-        <v>-66.518749999999997</v>
+        <v>-66.44</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" ref="R23:S23" si="86">P23</f>
@@ -8266,7 +8303,7 @@
       </c>
       <c r="S23" s="6">
         <f t="shared" si="86"/>
-        <v>-66.518749999999997</v>
+        <v>-66.44</v>
       </c>
       <c r="U23" s="6">
         <f t="shared" si="30"/>
@@ -8274,22 +8311,22 @@
       </c>
       <c r="V23" s="6">
         <f>V22+$V5</f>
-        <v>4516.0806666666604</v>
+        <v>4513.5536363636338</v>
       </c>
       <c r="W23" s="6">
         <v>6514</v>
       </c>
       <c r="X23" s="6">
         <f t="shared" ref="X23:Y23" si="87">X22+X5</f>
-        <v>4523.1543333333266</v>
+        <v>4521.3031818181789</v>
       </c>
       <c r="Y23" s="6">
         <f t="shared" si="87"/>
-        <v>6456.2168888888827</v>
+        <v>6453.4254545454587</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" si="16"/>
-        <v>45.268011111111001</v>
+        <v>45.225893939393835</v>
       </c>
       <c r="AA23" s="6">
         <f t="shared" si="17"/>
@@ -8297,11 +8334,11 @@
       </c>
       <c r="AB23" s="6">
         <f t="shared" si="18"/>
-        <v>45.385905555555503</v>
+        <v>45.355053030302997</v>
       </c>
       <c r="AC23" s="6">
         <f t="shared" si="19"/>
-        <v>-64.936948148148005</v>
+        <v>-64.890424242424331</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>28</v>
@@ -8341,14 +8378,14 @@
       </c>
       <c r="C24" s="6">
         <f>C23+B6</f>
-        <v>6641.4222222222215</v>
+        <v>6636.509090909085</v>
       </c>
       <c r="D24" s="6">
         <v>4314</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="24"/>
-        <v>6641.4222222222215</v>
+        <v>6636.509090909085</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="25"/>
@@ -8356,7 +8393,7 @@
       </c>
       <c r="G24" s="6">
         <f t="shared" si="26"/>
-        <v>-66.690370370370331</v>
+        <v>-66.608484848484665</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ref="H24:I24" si="88">F24</f>
@@ -8364,7 +8401,7 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" si="88"/>
-        <v>-66.690370370370331</v>
+        <v>-66.608484848484665</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="28"/>
@@ -8375,14 +8412,14 @@
       </c>
       <c r="M24" s="6">
         <f>M23+L5</f>
-        <v>6632.6999999999971</v>
+        <v>6627.6600000000035</v>
       </c>
       <c r="N24" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="12"/>
-        <v>6632.6999999999971</v>
+        <v>6627.6600000000035</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" si="13"/>
@@ -8390,7 +8427,7 @@
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="14"/>
-        <v>-66.545000000000002</v>
+        <v>-66.460999999999999</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" ref="R24:S24" si="89">P24</f>
@@ -8398,7 +8435,7 @@
       </c>
       <c r="S24" s="6">
         <f t="shared" si="89"/>
-        <v>-66.545000000000002</v>
+        <v>-66.460999999999999</v>
       </c>
       <c r="U24" s="6">
         <f t="shared" si="30"/>
@@ -8406,22 +8443,22 @@
       </c>
       <c r="V24" s="6">
         <f>V23+$V5</f>
-        <v>4516.9493333333266</v>
+        <v>4514.2643636363609</v>
       </c>
       <c r="W24" s="6">
         <v>6514</v>
       </c>
       <c r="X24" s="6">
         <f t="shared" ref="X24:Y24" si="90">X23+X5</f>
-        <v>4523.7906666666595</v>
+        <v>4521.8238181818151</v>
       </c>
       <c r="Y24" s="6">
         <f t="shared" si="90"/>
-        <v>6457.1764444444379</v>
+        <v>6454.2105454545499</v>
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="16"/>
-        <v>45.282488888888835</v>
+        <v>45.237739393939336</v>
       </c>
       <c r="AA24" s="6">
         <f t="shared" si="17"/>
@@ -8429,11 +8466,11 @@
       </c>
       <c r="AB24" s="6">
         <f t="shared" si="18"/>
-        <v>45.396511111111003</v>
+        <v>45.36373030303033</v>
       </c>
       <c r="AC24" s="6">
         <f t="shared" si="19"/>
-        <v>-64.952940740740672</v>
+        <v>-64.903509090909168</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8446,14 +8483,14 @@
       </c>
       <c r="C25" s="6">
         <f>C24+B6</f>
-        <v>6643.1111111111104</v>
+        <v>6637.8909090909028</v>
       </c>
       <c r="D25" s="6">
         <v>4314</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="24"/>
-        <v>6643.1111111111104</v>
+        <v>6637.8909090909028</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="25"/>
@@ -8461,7 +8498,7 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="26"/>
-        <v>-66.718518518518493</v>
+        <v>-66.631515151515003</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ref="H25:I25" si="91">F25</f>
@@ -8469,7 +8506,7 @@
       </c>
       <c r="I25" s="6">
         <f t="shared" si="91"/>
-        <v>-66.718518518518493</v>
+        <v>-66.631515151515003</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="28"/>
@@ -8480,14 +8517,14 @@
       </c>
       <c r="M25" s="6">
         <f>M24+L5</f>
-        <v>6634.2749999999969</v>
+        <v>6628.9200000000037</v>
       </c>
       <c r="N25" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="12"/>
-        <v>6634.2749999999969</v>
+        <v>6628.9200000000037</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="13"/>
@@ -8495,7 +8532,7 @@
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="14"/>
-        <v>-66.571250000000006</v>
+        <v>-66.481999999999999</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" ref="R25:S25" si="92">P25</f>
@@ -8503,7 +8540,7 @@
       </c>
       <c r="S25" s="6">
         <f t="shared" si="92"/>
-        <v>-66.571250000000006</v>
+        <v>-66.481999999999999</v>
       </c>
       <c r="U25" s="6" t="s">
         <v>28</v>
@@ -8547,14 +8584,14 @@
       </c>
       <c r="C26" s="6">
         <f>C25+B6</f>
-        <v>6644.7999999999993</v>
+        <v>6639.2727272727207</v>
       </c>
       <c r="D26" s="6">
         <v>4314</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="24"/>
-        <v>6644.7999999999993</v>
+        <v>6639.2727272727207</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="25"/>
@@ -8562,7 +8599,7 @@
       </c>
       <c r="G26" s="6">
         <f t="shared" si="26"/>
-        <v>-66.74666666666667</v>
+        <v>-66.654545454545328</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ref="H26:I26" si="93">F26</f>
@@ -8570,7 +8607,7 @@
       </c>
       <c r="I26" s="6">
         <f t="shared" si="93"/>
-        <v>-66.74666666666667</v>
+        <v>-66.654545454545328</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="28"/>
@@ -8581,14 +8618,14 @@
       </c>
       <c r="M26" s="6">
         <f>M25+L5</f>
-        <v>6635.8499999999967</v>
+        <v>6630.1800000000039</v>
       </c>
       <c r="N26" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O26" s="6">
         <f t="shared" si="12"/>
-        <v>6635.8499999999967</v>
+        <v>6630.1800000000039</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="13"/>
@@ -8596,7 +8633,7 @@
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="14"/>
-        <v>-66.597499999999997</v>
+        <v>-66.503</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" ref="R26:S26" si="94">P26</f>
@@ -8604,7 +8641,7 @@
       </c>
       <c r="S26" s="6">
         <f t="shared" si="94"/>
-        <v>-66.597499999999997</v>
+        <v>-66.503</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8617,14 +8654,14 @@
       </c>
       <c r="C27" s="6">
         <f>C26+B6</f>
-        <v>6646.4888888888881</v>
+        <v>6640.6545454545385</v>
       </c>
       <c r="D27" s="6">
         <v>4314</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="24"/>
-        <v>6646.4888888888881</v>
+        <v>6640.6545454545385</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="25"/>
@@ -8632,7 +8669,7 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="26"/>
-        <v>-66.774814814814832</v>
+        <v>-66.677575757575667</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ref="H27:I27" si="95">F27</f>
@@ -8640,7 +8677,7 @@
       </c>
       <c r="I27" s="6">
         <f t="shared" si="95"/>
-        <v>-66.774814814814832</v>
+        <v>-66.677575757575667</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="28"/>
@@ -8651,14 +8688,14 @@
       </c>
       <c r="M27" s="6">
         <f>M26+L5</f>
-        <v>6637.4249999999965</v>
+        <v>6631.4400000000041</v>
       </c>
       <c r="N27" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O27" s="6">
         <f t="shared" si="12"/>
-        <v>6637.4249999999965</v>
+        <v>6631.4400000000041</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" si="13"/>
@@ -8666,7 +8703,7 @@
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="14"/>
-        <v>-66.623750000000001</v>
+        <v>-66.524000000000001</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" ref="R27:S27" si="96">P27</f>
@@ -8674,7 +8711,7 @@
       </c>
       <c r="S27" s="6">
         <f t="shared" si="96"/>
-        <v>-66.623750000000001</v>
+        <v>-66.524000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8687,14 +8724,14 @@
       </c>
       <c r="C28" s="6">
         <f>C27+B6</f>
-        <v>6648.177777777777</v>
+        <v>6642.0363636363563</v>
       </c>
       <c r="D28" s="6">
         <v>4314</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="24"/>
-        <v>6648.177777777777</v>
+        <v>6642.0363636363563</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="25"/>
@@ -8702,7 +8739,7 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" si="26"/>
-        <v>-66.802962962962994</v>
+        <v>-66.700606060606006</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ref="H28:I28" si="97">F28</f>
@@ -8710,7 +8747,7 @@
       </c>
       <c r="I28" s="6">
         <f t="shared" si="97"/>
-        <v>-66.802962962962994</v>
+        <v>-66.700606060606006</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="28"/>
@@ -8721,14 +8758,14 @@
       </c>
       <c r="M28" s="6">
         <f>M27+L5</f>
-        <v>6638.9999999999964</v>
+        <v>6632.7000000000044</v>
       </c>
       <c r="N28" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" si="12"/>
-        <v>6638.9999999999964</v>
+        <v>6632.7000000000044</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" si="13"/>
@@ -8736,7 +8773,7 @@
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="14"/>
-        <v>-66.650000000000006</v>
+        <v>-66.545000000000002</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" ref="R28:S28" si="98">P28</f>
@@ -8744,7 +8781,7 @@
       </c>
       <c r="S28" s="6">
         <f t="shared" si="98"/>
-        <v>-66.650000000000006</v>
+        <v>-66.545000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8757,14 +8794,14 @@
       </c>
       <c r="C29" s="6">
         <f>C28+B6</f>
-        <v>6649.8666666666659</v>
+        <v>6643.4181818181742</v>
       </c>
       <c r="D29" s="6">
         <v>4314</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="24"/>
-        <v>6649.8666666666659</v>
+        <v>6643.4181818181742</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="25"/>
@@ -8772,7 +8809,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="26"/>
-        <v>-66.83111111111117</v>
+        <v>-66.72363636363616</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ref="H29:I29" si="99">F29</f>
@@ -8780,7 +8817,7 @@
       </c>
       <c r="I29" s="6">
         <f t="shared" si="99"/>
-        <v>-66.83111111111117</v>
+        <v>-66.72363636363616</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="28"/>
@@ -8791,14 +8828,14 @@
       </c>
       <c r="M29" s="6">
         <f>M28+L5</f>
-        <v>6640.5749999999962</v>
+        <v>6633.9600000000046</v>
       </c>
       <c r="N29" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" si="12"/>
-        <v>6640.5749999999962</v>
+        <v>6633.9600000000046</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="13"/>
@@ -8806,7 +8843,7 @@
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="14"/>
-        <v>-66.676249999999996</v>
+        <v>-66.566000000000003</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" ref="R29:S29" si="100">P29</f>
@@ -8814,7 +8851,7 @@
       </c>
       <c r="S29" s="6">
         <f t="shared" si="100"/>
-        <v>-66.676249999999996</v>
+        <v>-66.566000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8827,14 +8864,14 @@
       </c>
       <c r="C30" s="6">
         <f>C29+B6</f>
-        <v>6651.5555555555547</v>
+        <v>6644.799999999992</v>
       </c>
       <c r="D30" s="6">
         <v>4314</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="24"/>
-        <v>6651.5555555555547</v>
+        <v>6644.799999999992</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="25"/>
@@ -8842,7 +8879,7 @@
       </c>
       <c r="G30" s="6">
         <f t="shared" si="26"/>
-        <v>-66.859259259259161</v>
+        <v>-66.746666666666499</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ref="H30:I30" si="101">F30</f>
@@ -8850,7 +8887,7 @@
       </c>
       <c r="I30" s="6">
         <f t="shared" si="101"/>
-        <v>-66.859259259259161</v>
+        <v>-66.746666666666499</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="28"/>
@@ -8861,14 +8898,14 @@
       </c>
       <c r="M30" s="6">
         <f>M29+L5</f>
-        <v>6642.149999999996</v>
+        <v>6635.2200000000048</v>
       </c>
       <c r="N30" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="12"/>
-        <v>6642.149999999996</v>
+        <v>6635.2200000000048</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" si="13"/>
@@ -8876,7 +8913,7 @@
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="14"/>
-        <v>-66.702500000000001</v>
+        <v>-66.587000000000003</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" ref="R30:S30" si="102">P30</f>
@@ -8884,7 +8921,7 @@
       </c>
       <c r="S30" s="6">
         <f t="shared" si="102"/>
-        <v>-66.702500000000001</v>
+        <v>-66.587000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8897,14 +8934,14 @@
       </c>
       <c r="C31" s="6">
         <f>C30+B6</f>
-        <v>6653.2444444444436</v>
+        <v>6646.1818181818098</v>
       </c>
       <c r="D31" s="6">
         <v>4314</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="24"/>
-        <v>6653.2444444444436</v>
+        <v>6646.1818181818098</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="25"/>
@@ -8912,7 +8949,7 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="26"/>
-        <v>-66.887407407407338</v>
+        <v>-66.769696969696838</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ref="H31:I31" si="103">F31</f>
@@ -8920,7 +8957,7 @@
       </c>
       <c r="I31" s="6">
         <f t="shared" si="103"/>
-        <v>-66.887407407407338</v>
+        <v>-66.769696969696838</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>30</v>

--- a/Survey Lines.xlsx
+++ b/Survey Lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC63B035-0AB5-43DD-BF33-59ADB11AB6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0178FE35-18D9-4B40-8746-07F1E0EB3697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,11 +221,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,19 +318,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1536,28 +1544,28 @@
         <v>1</v>
       </c>
       <c r="M23" s="6">
-        <v>4514.4199939999999</v>
+        <v>4515</v>
       </c>
       <c r="N23" s="6">
         <v>6503</v>
       </c>
       <c r="O23" s="6">
-        <v>4518.5399939999998</v>
+        <v>4519</v>
       </c>
       <c r="P23" s="6">
-        <v>6449.4080000000004</v>
+        <v>6450</v>
       </c>
       <c r="Q23" s="6">
-        <v>45.244999999999997</v>
+        <v>45.25</v>
       </c>
       <c r="R23" s="6">
-        <v>-65.052999999999997</v>
+        <v>-65.05</v>
       </c>
       <c r="S23" s="6">
-        <v>45.314999999999998</v>
+        <v>45.31666666666667</v>
       </c>
       <c r="T23">
-        <v>-64.828000000000003</v>
+        <v>-64.833333333333329</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1592,28 +1600,28 @@
         <v>2</v>
       </c>
       <c r="M24" s="6">
-        <v>4515.3719940000001</v>
+        <v>4515.7830000000004</v>
       </c>
       <c r="N24" s="6">
         <v>6503</v>
       </c>
       <c r="O24" s="6">
-        <v>4519.1426626666662</v>
+        <v>4519.4669999999996</v>
       </c>
       <c r="P24" s="6">
-        <v>6450.431998</v>
+        <v>6451</v>
       </c>
       <c r="Q24" s="6">
-        <v>45.260333333333328</v>
+        <v>45.26305</v>
       </c>
       <c r="R24" s="6">
-        <v>-65.052999999999997</v>
+        <v>-65.05</v>
       </c>
       <c r="S24" s="6">
-        <v>45.324333333333335</v>
+        <v>45.324449999999999</v>
       </c>
       <c r="T24">
-        <v>-64.845333333333329</v>
+        <v>-64.849999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1648,28 +1656,28 @@
         <v>3</v>
       </c>
       <c r="M25" s="6">
-        <v>4516.3239940000003</v>
+        <v>4516.567</v>
       </c>
       <c r="N25" s="6">
         <v>6503</v>
       </c>
       <c r="O25" s="6">
-        <v>4519.7453313333326</v>
+        <v>4519.933</v>
       </c>
       <c r="P25" s="6">
-        <v>6451.4559959999997</v>
+        <v>6452</v>
       </c>
       <c r="Q25" s="6">
-        <v>45.275666666666659</v>
+        <v>45.276116666666667</v>
       </c>
       <c r="R25" s="6">
-        <v>-65.052999999999997</v>
+        <v>-65.05</v>
       </c>
       <c r="S25" s="6">
-        <v>45.333666666666673</v>
+        <v>45.332216666666667</v>
       </c>
       <c r="T25">
-        <v>-64.862666666666655</v>
+        <v>-64.86666666666666</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1704,28 +1712,28 @@
         <v>4</v>
       </c>
       <c r="M26" s="6">
-        <v>4517.2759940000005</v>
+        <v>4517.3500000000004</v>
       </c>
       <c r="N26" s="6">
         <v>6503</v>
       </c>
       <c r="O26" s="6">
-        <v>4520.347999999999</v>
+        <v>4520.3999999999996</v>
       </c>
       <c r="P26" s="6">
-        <v>6452.4799939999994</v>
+        <v>6453</v>
       </c>
       <c r="Q26" s="6">
-        <v>45.29099999999999</v>
+        <v>45.289166666666667</v>
       </c>
       <c r="R26" s="6">
-        <v>-65.052999999999997</v>
+        <v>-65.05</v>
       </c>
       <c r="S26" s="6">
-        <v>45.343000000000011</v>
+        <v>45.34</v>
       </c>
       <c r="T26">
-        <v>-64.879999999999981</v>
+        <v>-64.88333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5841,7 +5849,7 @@
   <dimension ref="A1:AM1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Z51" sqref="Z51"/>
+      <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7640,7 +7648,7 @@
       <c r="W18" s="6">
         <v>6514</v>
       </c>
-      <c r="X18" s="6">
+      <c r="X18" s="11">
         <f t="shared" ref="X18:Y18" si="70">X17+X5</f>
         <v>4518.699999999998</v>
       </c>
@@ -7788,35 +7796,32 @@
         <v>1</v>
       </c>
       <c r="AF19" s="6">
-        <f>AF23</f>
-        <v>4514.4199939999999</v>
+        <v>4515</v>
       </c>
       <c r="AG19" s="6">
         <v>6503</v>
       </c>
       <c r="AH19" s="6">
-        <f t="shared" ref="AH19:AM19" si="74">AH23</f>
-        <v>4518.5399939999998</v>
+        <v>4519</v>
       </c>
       <c r="AI19" s="6">
-        <f t="shared" si="74"/>
-        <v>6449.4080000000004</v>
+        <v>6450</v>
       </c>
       <c r="AJ19" s="6">
-        <f t="shared" si="74"/>
-        <v>45.244999999999997</v>
+        <f>(LEFT(AF19,2)+((RIGHT(AF19,LEN(AF19)-2))/60))</f>
+        <v>45.25</v>
       </c>
       <c r="AK19" s="6">
-        <f t="shared" si="74"/>
-        <v>-65.052999999999997</v>
+        <f>-(LEFT(AG19,2)+((RIGHT(AG19,LEN(AG19)-2))/60))</f>
+        <v>-65.05</v>
       </c>
       <c r="AL19" s="6">
-        <f t="shared" si="74"/>
-        <v>45.314999999999998</v>
+        <f t="shared" ref="AK19:AM22" si="74">(LEFT(AH19,2)+((RIGHT(AH19,LEN(AH19)-2))/60))</f>
+        <v>45.31666666666667</v>
       </c>
       <c r="AM19" s="6">
-        <f t="shared" si="74"/>
-        <v>-64.828000000000003</v>
+        <f>-(LEFT(AI19,2)+((RIGHT(AI19,LEN(AI19)-2))/60))</f>
+        <v>-64.833333333333329</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
@@ -7927,35 +7932,32 @@
         <v>2</v>
       </c>
       <c r="AF20" s="6">
-        <f>AF19+AF17</f>
-        <v>4515.3719940000001</v>
+        <v>4515.7830000000004</v>
       </c>
       <c r="AG20" s="6">
         <v>6503</v>
       </c>
       <c r="AH20" s="6">
-        <f t="shared" ref="AH20:AI20" si="78">AH19+AH17</f>
-        <v>4519.1426626666662</v>
+        <v>4519.4669999999996</v>
       </c>
       <c r="AI20" s="6">
-        <f t="shared" si="78"/>
-        <v>6450.431998</v>
+        <v>6451</v>
       </c>
       <c r="AJ20" s="6">
-        <f>AJ19+AJ17</f>
-        <v>45.260333333333328</v>
+        <f t="shared" ref="AJ20:AJ22" si="78">(LEFT(AF20,2)+((RIGHT(AF20,LEN(AF20)-2))/60))</f>
+        <v>45.26305</v>
       </c>
       <c r="AK20" s="6">
-        <f>AK23</f>
-        <v>-65.052999999999997</v>
+        <f t="shared" ref="AK20:AK22" si="79">-(LEFT(AG20,2)+((RIGHT(AG20,LEN(AG20)-2))/60))</f>
+        <v>-65.05</v>
       </c>
       <c r="AL20" s="6">
-        <f>AL19+AL17</f>
-        <v>45.324333333333335</v>
+        <f t="shared" si="74"/>
+        <v>45.324449999999999</v>
       </c>
       <c r="AM20" s="6">
-        <f>AM19+AM17</f>
-        <v>-64.845333333333329</v>
+        <f t="shared" ref="AM20:AM22" si="80">-(LEFT(AI20,2)+((RIGHT(AI20,LEN(AI20)-2))/60))</f>
+        <v>-64.849999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7986,11 +7988,11 @@
         <v>-66.539393939393833</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" ref="H21:I21" si="79">F21</f>
+        <f t="shared" ref="H21:I21" si="81">F21</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>-66.539393939393833</v>
       </c>
       <c r="K21" s="6">
@@ -8020,11 +8022,11 @@
         <v>-66.418999999999997</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" ref="R21:S21" si="80">P21</f>
+        <f t="shared" ref="R21:S21" si="82">P21</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-66.418999999999997</v>
       </c>
       <c r="U21" s="6">
@@ -8039,11 +8041,11 @@
         <v>6514</v>
       </c>
       <c r="X21" s="6">
-        <f t="shared" ref="X21:Y21" si="81">X20+X5</f>
+        <f t="shared" ref="X21:Y21" si="83">X20+X5</f>
         <v>4520.2619090909066</v>
       </c>
       <c r="Y21" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>6451.8552727272763</v>
       </c>
       <c r="Z21" s="6">
@@ -8066,35 +8068,32 @@
         <v>3</v>
       </c>
       <c r="AF21" s="6">
-        <f>AF20+AF17</f>
-        <v>4516.3239940000003</v>
+        <v>4516.567</v>
       </c>
       <c r="AG21" s="6">
         <v>6503</v>
       </c>
       <c r="AH21" s="6">
-        <f>AH20+AH17</f>
-        <v>4519.7453313333326</v>
+        <v>4519.933</v>
       </c>
       <c r="AI21" s="6">
-        <f>AI20+AI17</f>
-        <v>6451.4559959999997</v>
+        <v>6452</v>
       </c>
       <c r="AJ21" s="6">
-        <f>AJ20+AJ17</f>
-        <v>45.275666666666659</v>
+        <f t="shared" si="78"/>
+        <v>45.276116666666667</v>
       </c>
       <c r="AK21" s="6">
-        <f>AK23</f>
-        <v>-65.052999999999997</v>
+        <f t="shared" si="79"/>
+        <v>-65.05</v>
       </c>
       <c r="AL21" s="6">
-        <f>AL20+AL17</f>
-        <v>45.333666666666673</v>
+        <f t="shared" si="74"/>
+        <v>45.332216666666667</v>
       </c>
       <c r="AM21" s="6">
-        <f>AM20+AM17</f>
-        <v>-64.862666666666655</v>
+        <f t="shared" si="80"/>
+        <v>-64.86666666666666</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8125,11 +8124,11 @@
         <v>-66.562424242424171</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:I22" si="82">F22</f>
+        <f t="shared" ref="H22:I22" si="84">F22</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-66.562424242424171</v>
       </c>
       <c r="K22" s="6">
@@ -8159,11 +8158,11 @@
         <v>-66.418999999999997</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" ref="R22:S22" si="83">P22</f>
+        <f t="shared" ref="R22:S22" si="85">P22</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-66.418999999999997</v>
       </c>
       <c r="U22" s="6">
@@ -8178,11 +8177,11 @@
         <v>6514</v>
       </c>
       <c r="X22" s="6">
-        <f t="shared" ref="X22:Y22" si="84">X21+X5</f>
+        <f t="shared" ref="X22:Y22" si="86">X21+X5</f>
         <v>4520.7825454545427</v>
       </c>
       <c r="Y22" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>6452.6403636363675</v>
       </c>
       <c r="Z22" s="6">
@@ -8205,35 +8204,32 @@
         <v>4</v>
       </c>
       <c r="AF22" s="6">
-        <f>AF21+AF17</f>
-        <v>4517.2759940000005</v>
+        <v>4517.3500000000004</v>
       </c>
       <c r="AG22" s="6">
         <v>6503</v>
       </c>
       <c r="AH22" s="6">
-        <f>AH21+AH17</f>
-        <v>4520.347999999999</v>
+        <v>4520.3999999999996</v>
       </c>
       <c r="AI22" s="6">
-        <f>AI21+AI17</f>
-        <v>6452.4799939999994</v>
+        <v>6453</v>
       </c>
       <c r="AJ22" s="6">
-        <f>AJ21+AJ17</f>
-        <v>45.29099999999999</v>
+        <f t="shared" si="78"/>
+        <v>45.289166666666667</v>
       </c>
       <c r="AK22" s="6">
-        <f>AK23</f>
-        <v>-65.052999999999997</v>
+        <f t="shared" si="79"/>
+        <v>-65.05</v>
       </c>
       <c r="AL22" s="6">
-        <f>AL21+AL17</f>
-        <v>45.343000000000011</v>
+        <f t="shared" si="74"/>
+        <v>45.34</v>
       </c>
       <c r="AM22" s="6">
-        <f>AM21+AM17</f>
-        <v>-64.879999999999981</v>
+        <f t="shared" si="80"/>
+        <v>-64.88333333333334</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8264,11 +8260,11 @@
         <v>-66.585454545454496</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ref="H23:I23" si="85">F23</f>
+        <f t="shared" ref="H23:I23" si="87">F23</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>-66.585454545454496</v>
       </c>
       <c r="K23" s="6">
@@ -8298,11 +8294,11 @@
         <v>-66.44</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" ref="R23:S23" si="86">P23</f>
+        <f t="shared" ref="R23:S23" si="88">P23</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>-66.44</v>
       </c>
       <c r="U23" s="6">
@@ -8317,11 +8313,11 @@
         <v>6514</v>
       </c>
       <c r="X23" s="6">
-        <f t="shared" ref="X23:Y23" si="87">X22+X5</f>
+        <f t="shared" ref="X23:Y23" si="89">X22+X5</f>
         <v>4521.3031818181789</v>
       </c>
       <c r="Y23" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>6453.4254545454587</v>
       </c>
       <c r="Z23" s="6">
@@ -8349,7 +8345,7 @@
       <c r="AG23" s="6">
         <v>6503.107994</v>
       </c>
-      <c r="AH23" s="6">
+      <c r="AH23" s="11">
         <v>4518.5399939999998</v>
       </c>
       <c r="AI23" s="6">
@@ -8396,11 +8392,11 @@
         <v>-66.608484848484665</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" ref="H24:I24" si="88">F24</f>
+        <f t="shared" ref="H24:I24" si="90">F24</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>-66.608484848484665</v>
       </c>
       <c r="K24" s="6">
@@ -8430,11 +8426,11 @@
         <v>-66.460999999999999</v>
       </c>
       <c r="R24" s="6">
-        <f t="shared" ref="R24:S24" si="89">P24</f>
+        <f t="shared" ref="R24:S24" si="91">P24</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S24" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>-66.460999999999999</v>
       </c>
       <c r="U24" s="6">
@@ -8449,11 +8445,11 @@
         <v>6514</v>
       </c>
       <c r="X24" s="6">
-        <f t="shared" ref="X24:Y24" si="90">X23+X5</f>
+        <f t="shared" ref="X24:Y24" si="92">X23+X5</f>
         <v>4521.8238181818151</v>
       </c>
       <c r="Y24" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>6454.2105454545499</v>
       </c>
       <c r="Z24" s="6">
@@ -8501,11 +8497,11 @@
         <v>-66.631515151515003</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" ref="H25:I25" si="91">F25</f>
+        <f t="shared" ref="H25:I25" si="93">F25</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>-66.631515151515003</v>
       </c>
       <c r="K25" s="6">
@@ -8535,11 +8531,11 @@
         <v>-66.481999999999999</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" ref="R25:S25" si="92">P25</f>
+        <f t="shared" ref="R25:S25" si="94">P25</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S25" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>-66.481999999999999</v>
       </c>
       <c r="U25" s="6" t="s">
@@ -8602,11 +8598,11 @@
         <v>-66.654545454545328</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" ref="H26:I26" si="93">F26</f>
+        <f t="shared" ref="H26:I26" si="95">F26</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>-66.654545454545328</v>
       </c>
       <c r="K26" s="6">
@@ -8636,11 +8632,11 @@
         <v>-66.503</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" ref="R26:S26" si="94">P26</f>
+        <f t="shared" ref="R26:S26" si="96">P26</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S26" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>-66.503</v>
       </c>
     </row>
@@ -8672,11 +8668,11 @@
         <v>-66.677575757575667</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" ref="H27:I27" si="95">F27</f>
+        <f t="shared" ref="H27:I27" si="97">F27</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-66.677575757575667</v>
       </c>
       <c r="K27" s="6">
@@ -8706,11 +8702,11 @@
         <v>-66.524000000000001</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" ref="R27:S27" si="96">P27</f>
+        <f t="shared" ref="R27:S27" si="98">P27</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S27" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-66.524000000000001</v>
       </c>
     </row>
@@ -8742,11 +8738,11 @@
         <v>-66.700606060606006</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" ref="H28:I28" si="97">F28</f>
+        <f t="shared" ref="H28:I28" si="99">F28</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>-66.700606060606006</v>
       </c>
       <c r="K28" s="6">
@@ -8776,11 +8772,11 @@
         <v>-66.545000000000002</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" ref="R28:S28" si="98">P28</f>
+        <f t="shared" ref="R28:S28" si="100">P28</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S28" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>-66.545000000000002</v>
       </c>
     </row>
@@ -8812,11 +8808,11 @@
         <v>-66.72363636363616</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" ref="H29:I29" si="99">F29</f>
+        <f t="shared" ref="H29:I29" si="101">F29</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-66.72363636363616</v>
       </c>
       <c r="K29" s="6">
@@ -8846,11 +8842,11 @@
         <v>-66.566000000000003</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" ref="R29:S29" si="100">P29</f>
+        <f t="shared" ref="R29:S29" si="102">P29</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S29" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>-66.566000000000003</v>
       </c>
     </row>
@@ -8882,11 +8878,11 @@
         <v>-66.746666666666499</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" ref="H30:I30" si="101">F30</f>
+        <f t="shared" ref="H30:I30" si="103">F30</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>-66.746666666666499</v>
       </c>
       <c r="K30" s="6">
@@ -8916,11 +8912,11 @@
         <v>-66.587000000000003</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" ref="R30:S30" si="102">P30</f>
+        <f t="shared" ref="R30:S30" si="104">P30</f>
         <v>43.502000000000002</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>-66.587000000000003</v>
       </c>
     </row>
@@ -8952,11 +8948,11 @@
         <v>-66.769696969696838</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" ref="H31:I31" si="103">F31</f>
+        <f t="shared" ref="H31:I31" si="105">F31</f>
         <v>43.56666666666667</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>-66.769696969696838</v>
       </c>
       <c r="K31" s="6" t="s">
@@ -9965,6 +9961,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Survey Lines.xlsx
+++ b/Survey Lines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0178FE35-18D9-4B40-8746-07F1E0EB3697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90303F0F-5C1F-4A7A-A469-0F4327942C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="555" windowWidth="27930" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
   <si>
     <t>INSTRUCTIONS:</t>
   </si>
@@ -172,34 +172,10 @@
     <t>BOTTOM (END)</t>
   </si>
   <si>
-    <t>Scots Bay</t>
-  </si>
-  <si>
     <t>Main Box</t>
   </si>
   <si>
     <t>1) Use the "Main Box", "Ground", and "Extra Boxes" drop downs to select the proper configuration for the survey.</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>Sealife II</t>
-  </si>
-  <si>
-    <t>Lady Melissa</t>
-  </si>
-  <si>
-    <t>Fundy Monarch</t>
-  </si>
-  <si>
-    <t>Morning Star</t>
-  </si>
-  <si>
-    <t>Brunswick Provider</t>
-  </si>
-  <si>
-    <t>2) Copy standard/leftside format for "Table" sheet, use Converted/rightside format for "survey plan" sheet</t>
   </si>
   <si>
     <t>Converted Format for "survey plan" Sheet</t>
@@ -208,20 +184,38 @@
     <t>for 'Table' sheet</t>
   </si>
   <si>
-    <t>Canada 100</t>
+    <t>2) Copy standard/leftside format for "Table" sheet (BLUE), use Converted/rightside format for "survey plan" sheet (GREEN)</t>
   </si>
   <si>
-    <t>Tasha Marie</t>
+    <t>SL</t>
   </si>
   <si>
-    <t>Lady Janice</t>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>LJ</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>German Bank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +272,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +295,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -318,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -330,9 +353,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -574,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -605,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -633,22 +666,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -761,1032 +794,1043 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="13" t="str">
         <f>IF(B2="German Bank", "German Bank Box", IF(B2="Scots Bay", "Main Survey Box",""))</f>
-        <v>Main Survey Box</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>German Bank Box</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="L9" s="1" t="str">
         <f>IF(B2="German Bank", "Seal Island Box", IF(B3="North", "North Box", IF(B3="East", "East Box", IF(B3="Both", "East Box",""))))</f>
-        <v>East Box</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>Seal Island Box</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
       <c r="P9" s="1" t="str">
         <f>IF(B2="German Bank", "Converted Format for 'survey plan' Sheet", IF(B3&lt;&gt;"None", "Converted Format for 'survey plan' Sheet", ""))</f>
         <v>Converted Format for 'survey plan' Sheet</v>
       </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="str">
+      <c r="B10" s="16" t="str">
         <f t="array" ref="B10:I34">IF(B2="Scots Bay",'Back End'!V6:AC24,IF(B2="German Bank",'Back End'!B7:I31,""))</f>
         <v>START POINT</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="16">
         <v>0</v>
       </c>
-      <c r="D10" s="6" t="str">
+      <c r="D10" s="16" t="str">
         <v>TURN POINT</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="16">
         <v>0</v>
       </c>
-      <c r="F10" s="6" t="str">
+      <c r="F10" s="12" t="str">
         <v>START POINT</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="12">
         <v>0</v>
       </c>
-      <c r="H10" s="6" t="str">
+      <c r="H10" s="12" t="str">
         <v>TURN POINT</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="12">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="str">
         <f t="array" ref="L10:T34">IF(B2="German Bank",'Back End'!L6:S30, IF(B3="North", 'Back End'!AF18:AM22, IF(B3="East", 'Back End'!AF6:AM10,IF(B3="Both", 'Back End'!AE6:AM22,""))))</f>
-        <v>LINE #</v>
-      </c>
-      <c r="M10" s="6" t="str">
         <v>START POINT</v>
       </c>
-      <c r="N10" s="6">
+      <c r="M10" s="20">
         <v>0</v>
       </c>
-      <c r="O10" s="6" t="str">
+      <c r="N10" s="20" t="str">
         <v>TURN POINT</v>
       </c>
-      <c r="P10" s="6">
+      <c r="O10" s="20">
         <v>0</v>
       </c>
-      <c r="Q10" s="6" t="str">
+      <c r="P10" s="20" t="str">
         <v>START POINT</v>
       </c>
-      <c r="R10" s="6">
+      <c r="Q10" s="20">
         <v>0</v>
       </c>
-      <c r="S10" s="6" t="str">
+      <c r="R10" s="20" t="str">
         <v>TURN POINT</v>
       </c>
-      <c r="T10">
+      <c r="S10" s="20">
         <v>0</v>
+      </c>
+      <c r="T10" s="21" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1</v>
       </c>
-      <c r="B11" s="6">
-        <v>4502.1819999999998</v>
-      </c>
-      <c r="C11" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D11" s="6">
-        <v>4512.973</v>
-      </c>
-      <c r="E11" s="6">
-        <v>6440.8639999999996</v>
-      </c>
-      <c r="F11" s="6">
-        <v>45.036366666666666</v>
-      </c>
-      <c r="G11" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H11" s="6">
-        <v>45.216216666666668</v>
-      </c>
-      <c r="I11" s="6">
-        <v>-64.681066666666666</v>
+      <c r="B11" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C11" s="16">
+        <v>6614.4</v>
+      </c>
+      <c r="D11" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E11" s="16">
+        <v>6614.4</v>
+      </c>
+      <c r="F11" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G11" s="12">
+        <v>-66.239999999999995</v>
+      </c>
+      <c r="H11" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I11" s="12">
+        <v>-66.239999999999995</v>
       </c>
       <c r="L11" s="6">
-        <v>1</v>
+        <v>4330.12</v>
       </c>
       <c r="M11" s="6">
-        <v>4513.4750000000004</v>
+        <v>6607.5</v>
       </c>
       <c r="N11" s="6">
-        <v>6441.48</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O11" s="6">
-        <v>4515.8249999999998</v>
+        <v>6607.5</v>
       </c>
       <c r="P11" s="6">
-        <v>6433</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q11" s="6">
-        <v>45.224583333333335</v>
+        <v>-66.125</v>
       </c>
       <c r="R11" s="6">
-        <v>-64.691333333333333</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="S11" s="6">
-        <v>45.263750000000002</v>
-      </c>
-      <c r="T11">
-        <v>-64.55</v>
+        <v>-66.125</v>
+      </c>
+      <c r="T11" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2</v>
       </c>
-      <c r="B12" s="6">
-        <v>4502.8927272727269</v>
-      </c>
-      <c r="C12" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D12" s="6">
-        <v>4513.4936363636361</v>
-      </c>
-      <c r="E12" s="6">
-        <v>6441.6490909090908</v>
-      </c>
-      <c r="F12" s="6">
-        <v>45.048212121212167</v>
-      </c>
-      <c r="G12" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H12" s="6">
-        <v>45.224893939394001</v>
-      </c>
-      <c r="I12" s="6">
-        <v>-64.694151515151503</v>
+      <c r="B12" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C12" s="16">
+        <v>6615.2941176470586</v>
+      </c>
+      <c r="D12" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E12" s="16">
+        <v>6615.2941176470586</v>
+      </c>
+      <c r="F12" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G12" s="12">
+        <v>-66.254901960784338</v>
+      </c>
+      <c r="H12" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I12" s="12">
+        <v>-66.254901960784338</v>
       </c>
       <c r="L12" s="6">
-        <v>2</v>
+        <v>4330.12</v>
       </c>
       <c r="M12" s="6">
-        <v>4514.3566666666666</v>
+        <v>6608.2875000000004</v>
       </c>
       <c r="N12" s="6">
-        <v>6442.7966666666662</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O12" s="6">
-        <v>4517.1166666666668</v>
+        <v>6608.2875000000004</v>
       </c>
       <c r="P12" s="6">
-        <v>6433</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q12" s="6">
-        <v>45.239277777777836</v>
+        <v>-66.138125000000002</v>
       </c>
       <c r="R12" s="6">
-        <v>-64.713277777777833</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="S12" s="6">
-        <v>45.285277777777836</v>
-      </c>
-      <c r="T12">
-        <v>-64.55</v>
+        <v>-66.138125000000002</v>
+      </c>
+      <c r="T12" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>3</v>
       </c>
-      <c r="B13" s="6">
-        <v>4503.603454545454</v>
-      </c>
-      <c r="C13" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D13" s="6">
-        <v>4514.0142727272723</v>
-      </c>
-      <c r="E13" s="6">
-        <v>6442.434181818182</v>
-      </c>
-      <c r="F13" s="6">
-        <v>45.060057575757497</v>
-      </c>
-      <c r="G13" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H13" s="6">
-        <v>45.23357121212117</v>
-      </c>
-      <c r="I13" s="6">
-        <v>-64.707236363636326</v>
+      <c r="B13" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C13" s="16">
+        <v>6616.1882352941175</v>
+      </c>
+      <c r="D13" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E13" s="16">
+        <v>6616.1882352941175</v>
+      </c>
+      <c r="F13" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G13" s="12">
+        <v>-66.269803921568666</v>
+      </c>
+      <c r="H13" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I13" s="12">
+        <v>-66.269803921568666</v>
       </c>
       <c r="L13" s="6">
-        <v>3</v>
+        <v>4330.12</v>
       </c>
       <c r="M13" s="6">
-        <v>4515.2383333333328</v>
+        <v>6609.0750000000007</v>
       </c>
       <c r="N13" s="6">
-        <v>6444.1133333333328</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O13" s="6">
-        <v>4518.4083333333338</v>
+        <v>6609.0750000000007</v>
       </c>
       <c r="P13" s="6">
-        <v>6433</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q13" s="6">
-        <v>45.253972222222167</v>
+        <v>-66.151250000000005</v>
       </c>
       <c r="R13" s="6">
-        <v>-64.735222222222163</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="S13" s="6">
-        <v>45.306805555555499</v>
-      </c>
-      <c r="T13">
-        <v>-64.55</v>
+        <v>-66.151250000000005</v>
+      </c>
+      <c r="T13" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>4</v>
       </c>
-      <c r="B14" s="6">
-        <v>4504.3141818181812</v>
-      </c>
-      <c r="C14" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D14" s="6">
-        <v>4514.5349090909085</v>
-      </c>
-      <c r="E14" s="6">
-        <v>6443.2192727272732</v>
-      </c>
-      <c r="F14" s="6">
-        <v>45.071903030302998</v>
-      </c>
-      <c r="G14" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H14" s="6">
-        <v>45.242248484848503</v>
-      </c>
-      <c r="I14" s="6">
-        <v>-64.720321212121164</v>
+      <c r="B14" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C14" s="16">
+        <v>6617.0823529411764</v>
+      </c>
+      <c r="D14" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E14" s="16">
+        <v>6617.0823529411764</v>
+      </c>
+      <c r="F14" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G14" s="12">
+        <v>-66.284705882352995</v>
+      </c>
+      <c r="H14" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I14" s="12">
+        <v>-66.284705882352995</v>
       </c>
       <c r="L14" s="6">
-        <v>4</v>
+        <v>4330.12</v>
       </c>
       <c r="M14" s="6">
-        <v>4516.119999999999</v>
+        <v>6609.8625000000011</v>
       </c>
       <c r="N14" s="6">
-        <v>6445.4299999999994</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O14" s="6">
-        <v>4519.7000000000007</v>
+        <v>6609.8625000000011</v>
       </c>
       <c r="P14" s="6">
-        <v>6433</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q14" s="6">
-        <v>45.268666666666668</v>
+        <v>-66.164375000000007</v>
       </c>
       <c r="R14" s="6">
-        <v>-64.757166666666663</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="S14" s="6">
-        <v>45.328333333333333</v>
-      </c>
-      <c r="T14">
-        <v>-64.55</v>
+        <v>-66.164375000000007</v>
+      </c>
+      <c r="T14" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>5</v>
       </c>
-      <c r="B15" s="6">
-        <v>4505.0249090909083</v>
-      </c>
-      <c r="C15" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D15" s="6">
-        <v>4515.0555454545447</v>
-      </c>
-      <c r="E15" s="6">
-        <v>6444.0043636363644</v>
-      </c>
-      <c r="F15" s="6">
-        <v>45.083748484848499</v>
-      </c>
-      <c r="G15" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H15" s="6">
-        <v>45.250925757575665</v>
-      </c>
-      <c r="I15" s="6">
-        <v>-64.733406060606001</v>
-      </c>
-      <c r="L15" s="6" t="str">
-        <v>BOTTOM</v>
+      <c r="B15" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C15" s="16">
+        <v>6617.9764705882353</v>
+      </c>
+      <c r="D15" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E15" s="16">
+        <v>6617.9764705882353</v>
+      </c>
+      <c r="F15" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G15" s="12">
+        <v>-66.299607843137338</v>
+      </c>
+      <c r="H15" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I15" s="12">
+        <v>-66.299607843137338</v>
+      </c>
+      <c r="L15" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M15" s="6">
-        <v>4513.4750000000004</v>
+        <v>6610.6500000000015</v>
       </c>
       <c r="N15" s="6">
-        <v>6441.48</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O15" s="6">
-        <v>4515.8249999999998</v>
+        <v>6610.6500000000015</v>
       </c>
       <c r="P15" s="6">
-        <v>6433</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q15" s="6">
-        <v>45.224583333333335</v>
+        <v>-66.177499999999995</v>
       </c>
       <c r="R15" s="6">
-        <v>-64.691333333333333</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="S15" s="6">
-        <v>45.263750000000002</v>
-      </c>
-      <c r="T15">
-        <v>-64.55</v>
+        <v>-66.177499999999995</v>
+      </c>
+      <c r="T15" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>6</v>
       </c>
-      <c r="B16" s="6">
-        <v>4505.7356363636354</v>
-      </c>
-      <c r="C16" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4515.5761818181809</v>
-      </c>
-      <c r="E16" s="6">
-        <v>6444.7894545454556</v>
-      </c>
-      <c r="F16" s="6">
-        <v>45.095593939394</v>
-      </c>
-      <c r="G16" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H16" s="6">
-        <v>45.259603030302998</v>
-      </c>
-      <c r="I16" s="6">
-        <v>-64.746490909090994</v>
+      <c r="B16" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C16" s="16">
+        <v>6618.8705882352942</v>
+      </c>
+      <c r="D16" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E16" s="16">
+        <v>6618.8705882352942</v>
+      </c>
+      <c r="F16" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G16" s="12">
+        <v>-66.314509803921496</v>
+      </c>
+      <c r="H16" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I16" s="12">
+        <v>-66.314509803921496</v>
       </c>
       <c r="L16" s="6">
-        <v>0</v>
+        <v>4330.12</v>
       </c>
       <c r="M16" s="6">
-        <v>0</v>
+        <v>6611.4375000000018</v>
       </c>
       <c r="N16" s="6">
-        <v>0</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O16" s="6">
-        <v>0</v>
+        <v>6611.4375000000018</v>
       </c>
       <c r="P16" s="6">
-        <v>0</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q16" s="6">
-        <v>0</v>
+        <v>-66.190624999999997</v>
       </c>
       <c r="R16" s="6">
-        <v>0</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="S16" s="6">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
+        <v>-66.190624999999997</v>
+      </c>
+      <c r="T16" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>7</v>
       </c>
-      <c r="B17" s="6">
-        <v>4506.4463636363625</v>
-      </c>
-      <c r="C17" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D17" s="6">
-        <v>4516.0968181818171</v>
-      </c>
-      <c r="E17" s="6">
-        <v>6445.5745454545468</v>
-      </c>
-      <c r="F17" s="6">
-        <v>45.10743939393933</v>
-      </c>
-      <c r="G17" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H17" s="6">
-        <v>45.26828030303033</v>
-      </c>
-      <c r="I17" s="6">
-        <v>-64.759575757575831</v>
+      <c r="B17" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C17" s="16">
+        <v>6619.7647058823532</v>
+      </c>
+      <c r="D17" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E17" s="16">
+        <v>6619.7647058823532</v>
+      </c>
+      <c r="F17" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G17" s="12">
+        <v>-66.329411764705839</v>
+      </c>
+      <c r="H17" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I17" s="12">
+        <v>-66.329411764705839</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="6" t="str">
-        <v>NORTH BOX</v>
+      <c r="L17" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M17" s="6">
-        <v>0</v>
+        <v>6612.2250000000022</v>
       </c>
       <c r="N17" s="6">
-        <v>0</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O17" s="6">
-        <v>0</v>
+        <v>6612.2250000000022</v>
       </c>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q17" s="6">
-        <v>0</v>
+        <v>-66.203749999999999</v>
       </c>
       <c r="R17" s="6">
-        <v>0</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="S17" s="6">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
+        <v>-66.203749999999999</v>
+      </c>
+      <c r="T17" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>8</v>
       </c>
-      <c r="B18" s="6">
-        <v>4507.1570909090897</v>
-      </c>
-      <c r="C18" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D18" s="6">
-        <v>4516.6174545454533</v>
-      </c>
-      <c r="E18" s="6">
-        <v>6446.3596363636379</v>
-      </c>
-      <c r="F18" s="6">
-        <v>45.119284848484831</v>
-      </c>
-      <c r="G18" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H18" s="6">
-        <v>45.2769575757575</v>
-      </c>
-      <c r="I18" s="6">
-        <v>-64.772660606060668</v>
+      <c r="B18" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C18" s="16">
+        <v>6620.6588235294121</v>
+      </c>
+      <c r="D18" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E18" s="16">
+        <v>6620.6588235294121</v>
+      </c>
+      <c r="F18" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G18" s="12">
+        <v>-66.344313725490167</v>
+      </c>
+      <c r="H18" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I18" s="12">
+        <v>-66.344313725490167</v>
       </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="6" t="str">
-        <v>TOP</v>
+      <c r="L18" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M18" s="6">
-        <v>4517.2759939999996</v>
+        <v>6613.0125000000025</v>
       </c>
       <c r="N18" s="6">
-        <v>6503.107994</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O18" s="6">
-        <v>4520.348</v>
+        <v>6613.0125000000025</v>
       </c>
       <c r="P18" s="6">
-        <v>6452.4799940000003</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q18" s="6">
-        <v>45.290999999999997</v>
+        <v>-66.216875000000002</v>
       </c>
       <c r="R18" s="6">
-        <v>-65.052999999999997</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="S18" s="6">
-        <v>45.343000000000004</v>
-      </c>
-      <c r="T18">
-        <v>-64.88</v>
+        <v>-66.216875000000002</v>
+      </c>
+      <c r="T18" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>9</v>
       </c>
-      <c r="B19" s="6">
-        <v>4507.8678181818168</v>
-      </c>
-      <c r="C19" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D19" s="6">
-        <v>4517.1380909090894</v>
-      </c>
-      <c r="E19" s="6">
-        <v>6447.1447272727291</v>
-      </c>
-      <c r="F19" s="6">
-        <v>45.131130303030332</v>
-      </c>
-      <c r="G19" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H19" s="6">
-        <v>45.285634848484833</v>
-      </c>
-      <c r="I19" s="6">
-        <v>-64.785745454545506</v>
-      </c>
-      <c r="L19" s="6" t="str">
-        <v>BOATS</v>
+      <c r="B19" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C19" s="16">
+        <v>6621.552941176471</v>
+      </c>
+      <c r="D19" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E19" s="16">
+        <v>6621.552941176471</v>
+      </c>
+      <c r="F19" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G19" s="12">
+        <v>-66.359215686274496</v>
+      </c>
+      <c r="H19" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I19" s="12">
+        <v>-66.359215686274496</v>
+      </c>
+      <c r="L19" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M19" s="6">
-        <v>1</v>
+        <v>6613.8000000000029</v>
       </c>
       <c r="N19" s="6">
-        <v>0</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O19" s="6">
-        <v>1</v>
+        <v>6613.8000000000029</v>
       </c>
       <c r="P19" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="6" t="str">
-        <v>Converted</v>
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>-66.23</v>
       </c>
       <c r="R19" s="6">
-        <v>0</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="S19" s="6">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
+        <v>-66.23</v>
+      </c>
+      <c r="T19" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>10</v>
       </c>
-      <c r="B20" s="6">
-        <v>4508.5785454545439</v>
-      </c>
-      <c r="C20" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D20" s="6">
-        <v>4517.6587272727256</v>
-      </c>
-      <c r="E20" s="6">
-        <v>6447.9298181818203</v>
-      </c>
-      <c r="F20" s="6">
-        <v>45.14297575757567</v>
-      </c>
-      <c r="G20" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H20" s="6">
-        <v>45.294312121212165</v>
-      </c>
-      <c r="I20" s="6">
-        <v>-64.798830303030329</v>
-      </c>
-      <c r="L20" s="6" t="str">
-        <v>LINES</v>
+      <c r="B20" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C20" s="16">
+        <v>6622.4470588235299</v>
+      </c>
+      <c r="D20" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E20" s="16">
+        <v>6622.4470588235299</v>
+      </c>
+      <c r="F20" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G20" s="12">
+        <v>-66.374117647058839</v>
+      </c>
+      <c r="H20" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I20" s="12">
+        <v>-66.374117647058839</v>
+      </c>
+      <c r="L20" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M20" s="6">
-        <v>4</v>
+        <v>6614.5875000000033</v>
       </c>
       <c r="N20" s="6">
-        <v>0</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O20" s="6">
-        <v>4</v>
+        <v>6614.5875000000033</v>
       </c>
       <c r="P20" s="6">
-        <v>4</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q20" s="6">
-        <v>4</v>
+        <v>-66.243125000000006</v>
       </c>
       <c r="R20" s="6">
-        <v>0</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="S20" s="6">
-        <v>4</v>
-      </c>
-      <c r="T20">
-        <v>4</v>
+        <v>-66.243125000000006</v>
+      </c>
+      <c r="T20" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>11</v>
       </c>
-      <c r="B21" s="6">
-        <v>4509.2892727272711</v>
-      </c>
-      <c r="C21" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D21" s="6">
-        <v>4518.1793636363618</v>
-      </c>
-      <c r="E21" s="6">
-        <v>6448.7149090909115</v>
-      </c>
-      <c r="F21" s="6">
-        <v>45.154821212121163</v>
-      </c>
-      <c r="G21" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H21" s="6">
-        <v>45.302989393939335</v>
-      </c>
-      <c r="I21" s="6">
-        <v>-64.811915151515166</v>
-      </c>
-      <c r="L21" s="6" t="str">
-        <v>SPACING</v>
+      <c r="B21" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C21" s="16">
+        <v>6623.3411764705888</v>
+      </c>
+      <c r="D21" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E21" s="16">
+        <v>6623.3411764705888</v>
+      </c>
+      <c r="F21" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G21" s="12">
+        <v>-66.389019607843167</v>
+      </c>
+      <c r="H21" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I21" s="12">
+        <v>-66.389019607843167</v>
+      </c>
+      <c r="L21" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M21" s="6">
-        <v>0.95199999999992235</v>
+        <v>6615.3750000000036</v>
       </c>
       <c r="N21" s="6">
-        <v>0</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O21" s="6">
-        <v>0.60266866666673502</v>
+        <v>6615.3750000000036</v>
       </c>
       <c r="P21" s="6">
-        <v>1.023997999999968</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q21" s="6">
-        <v>1.5333333333333124E-2</v>
+        <v>-66.256249999999994</v>
       </c>
       <c r="R21" s="6">
-        <v>0</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="S21" s="6">
-        <v>9.3333333333352666E-3</v>
-      </c>
-      <c r="T21">
-        <v>-1.7333333333330831E-2</v>
+        <v>-66.256249999999994</v>
+      </c>
+      <c r="T21" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>12</v>
       </c>
-      <c r="B22" s="6">
-        <v>4509.9999999999982</v>
-      </c>
-      <c r="C22" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D22" s="6">
-        <v>4518.699999999998</v>
-      </c>
-      <c r="E22" s="6">
-        <v>6449.5000000000027</v>
-      </c>
-      <c r="F22" s="6">
-        <v>45.166666666666664</v>
-      </c>
-      <c r="G22" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H22" s="6">
-        <v>45.311666666666667</v>
-      </c>
-      <c r="I22" s="6">
-        <v>-64.825000000000003</v>
-      </c>
-      <c r="L22" s="6" t="str">
-        <v>LINE #</v>
-      </c>
-      <c r="M22" s="6" t="str">
-        <v>START POINT</v>
+      <c r="B22" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C22" s="16">
+        <v>6624.2352941176478</v>
+      </c>
+      <c r="D22" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E22" s="16">
+        <v>6624.2352941176478</v>
+      </c>
+      <c r="F22" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G22" s="12">
+        <v>-66.403921568627496</v>
+      </c>
+      <c r="H22" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I22" s="12">
+        <v>-66.403921568627496</v>
+      </c>
+      <c r="L22" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M22" s="6">
+        <v>6616.162500000004</v>
       </c>
       <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6" t="str">
-        <v>TURN POINT</v>
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O22" s="6">
+        <v>6616.162500000004</v>
       </c>
       <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6" t="str">
-        <v>START POINT</v>
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>-66.269374999999997</v>
       </c>
       <c r="R22" s="6">
-        <v>0</v>
-      </c>
-      <c r="S22" s="6" t="str">
-        <v>TURN POINT</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
+        <v>43.502000000000002</v>
+      </c>
+      <c r="S22" s="6">
+        <v>-66.269374999999997</v>
+      </c>
+      <c r="T22" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>13</v>
       </c>
-      <c r="B23" s="6">
-        <v>4510.7107272727253</v>
-      </c>
-      <c r="C23" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D23" s="6">
-        <v>4519.2206363636342</v>
-      </c>
-      <c r="E23" s="6">
-        <v>6450.2850909090939</v>
-      </c>
-      <c r="F23" s="6">
-        <v>45.178512121212165</v>
-      </c>
-      <c r="G23" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H23" s="6">
-        <v>45.320343939393837</v>
-      </c>
-      <c r="I23" s="6">
-        <v>-64.83808484848484</v>
+      <c r="B23" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C23" s="16">
+        <v>6625.1294117647067</v>
+      </c>
+      <c r="D23" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E23" s="16">
+        <v>6625.1294117647067</v>
+      </c>
+      <c r="F23" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G23" s="12">
+        <v>-66.418823529411839</v>
+      </c>
+      <c r="H23" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I23" s="12">
+        <v>-66.418823529411839</v>
       </c>
       <c r="L23" s="6">
-        <v>1</v>
+        <v>4330.12</v>
       </c>
       <c r="M23" s="6">
-        <v>4515</v>
+        <v>6616.9500000000044</v>
       </c>
       <c r="N23" s="6">
-        <v>6503</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O23" s="6">
-        <v>4519</v>
+        <v>6616.9500000000044</v>
       </c>
       <c r="P23" s="6">
-        <v>6450</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q23" s="6">
-        <v>45.25</v>
+        <v>-66.282499999999999</v>
       </c>
       <c r="R23" s="6">
-        <v>-65.05</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="S23" s="6">
-        <v>45.31666666666667</v>
-      </c>
-      <c r="T23">
-        <v>-64.833333333333329</v>
+        <v>-66.282499999999999</v>
+      </c>
+      <c r="T23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>14</v>
       </c>
-      <c r="B24" s="6">
-        <v>4511.4214545454524</v>
-      </c>
-      <c r="C24" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D24" s="6">
-        <v>4519.7412727272704</v>
-      </c>
-      <c r="E24" s="6">
-        <v>6451.0701818181851</v>
-      </c>
-      <c r="F24" s="6">
-        <v>45.190357575757503</v>
-      </c>
-      <c r="G24" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H24" s="6">
-        <v>45.32902121212117</v>
-      </c>
-      <c r="I24" s="6">
-        <v>-64.851169696969833</v>
+      <c r="B24" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C24" s="16">
+        <v>6626.0235294117656</v>
+      </c>
+      <c r="D24" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E24" s="16">
+        <v>6626.0235294117656</v>
+      </c>
+      <c r="F24" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G24" s="12">
+        <v>-66.433725490196167</v>
+      </c>
+      <c r="H24" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I24" s="12">
+        <v>-66.433725490196167</v>
       </c>
       <c r="L24" s="6">
-        <v>2</v>
+        <v>4330.12</v>
       </c>
       <c r="M24" s="6">
-        <v>4515.7830000000004</v>
+        <v>6617.7375000000047</v>
       </c>
       <c r="N24" s="6">
-        <v>6503</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O24" s="6">
-        <v>4519.4669999999996</v>
+        <v>6617.7375000000047</v>
       </c>
       <c r="P24" s="6">
-        <v>6451</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q24" s="6">
-        <v>45.26305</v>
+        <v>-66.295625000000001</v>
       </c>
       <c r="R24" s="6">
-        <v>-65.05</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="S24" s="6">
-        <v>45.324449999999999</v>
-      </c>
-      <c r="T24">
-        <v>-64.849999999999994</v>
+        <v>-66.295625000000001</v>
+      </c>
+      <c r="T24" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>15</v>
       </c>
-      <c r="B25" s="6">
-        <v>4512.1321818181796</v>
-      </c>
-      <c r="C25" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D25" s="6">
-        <v>4520.2619090909066</v>
-      </c>
-      <c r="E25" s="6">
-        <v>6451.8552727272763</v>
-      </c>
-      <c r="F25" s="6">
-        <v>45.202203030302996</v>
-      </c>
-      <c r="G25" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H25" s="6">
-        <v>45.337698484848502</v>
-      </c>
-      <c r="I25" s="6">
-        <v>-64.864254545454671</v>
+      <c r="B25" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C25" s="16">
+        <v>6626.9176470588245</v>
+      </c>
+      <c r="D25" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E25" s="16">
+        <v>6626.9176470588245</v>
+      </c>
+      <c r="F25" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G25" s="12">
+        <v>-66.448627450980339</v>
+      </c>
+      <c r="H25" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I25" s="12">
+        <v>-66.448627450980339</v>
       </c>
       <c r="L25" s="6">
-        <v>3</v>
+        <v>4330.12</v>
       </c>
       <c r="M25" s="6">
-        <v>4516.567</v>
+        <v>6618.5250000000051</v>
       </c>
       <c r="N25" s="6">
-        <v>6503</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O25" s="6">
-        <v>4519.933</v>
+        <v>6618.5250000000051</v>
       </c>
       <c r="P25" s="6">
-        <v>6452</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q25" s="6">
-        <v>45.276116666666667</v>
+        <v>-66.30875000000016</v>
       </c>
       <c r="R25" s="6">
-        <v>-65.05</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="S25" s="6">
-        <v>45.332216666666667</v>
-      </c>
-      <c r="T25">
-        <v>-64.86666666666666</v>
+        <v>-66.30875000000016</v>
+      </c>
+      <c r="T25" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>16</v>
       </c>
-      <c r="B26" s="6">
-        <v>4512.8429090909067</v>
-      </c>
-      <c r="C26" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D26" s="6">
-        <v>4520.7825454545427</v>
-      </c>
-      <c r="E26" s="6">
-        <v>6452.6403636363675</v>
-      </c>
-      <c r="F26" s="6">
-        <v>45.214048484848497</v>
-      </c>
-      <c r="G26" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H26" s="6">
-        <v>45.346375757575665</v>
-      </c>
-      <c r="I26" s="6">
-        <v>-64.877339393939494</v>
+      <c r="B26" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C26" s="16">
+        <v>6627.8117647058834</v>
+      </c>
+      <c r="D26" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E26" s="16">
+        <v>6627.8117647058834</v>
+      </c>
+      <c r="F26" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G26" s="12">
+        <v>-66.463529411764668</v>
+      </c>
+      <c r="H26" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I26" s="12">
+        <v>-66.463529411764668</v>
       </c>
       <c r="L26" s="6">
-        <v>4</v>
+        <v>4330.12</v>
       </c>
       <c r="M26" s="6">
-        <v>4517.3500000000004</v>
+        <v>6618.5250000000051</v>
       </c>
       <c r="N26" s="6">
-        <v>6503</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O26" s="6">
-        <v>4520.3999999999996</v>
+        <v>6618.5250000000051</v>
       </c>
       <c r="P26" s="6">
-        <v>6453</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q26" s="6">
-        <v>45.289166666666667</v>
+        <v>-66.30875000000016</v>
       </c>
       <c r="R26" s="6">
-        <v>-65.05</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="S26" s="6">
-        <v>45.34</v>
-      </c>
-      <c r="T26">
-        <v>-64.88333333333334</v>
+        <v>-66.30875000000016</v>
+      </c>
+      <c r="T26" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>17</v>
       </c>
-      <c r="B27" s="6">
-        <v>4513.5536363636338</v>
-      </c>
-      <c r="C27" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D27" s="6">
-        <v>4521.3031818181789</v>
-      </c>
-      <c r="E27" s="6">
-        <v>6453.4254545454587</v>
-      </c>
-      <c r="F27" s="6">
-        <v>45.225893939393835</v>
-      </c>
-      <c r="G27" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H27" s="6">
-        <v>45.355053030302997</v>
-      </c>
-      <c r="I27" s="6">
-        <v>-64.890424242424331</v>
-      </c>
-      <c r="L27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S27" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B27" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C27" s="16">
+        <v>6628.7058823529424</v>
+      </c>
+      <c r="D27" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E27" s="16">
+        <v>6628.7058823529424</v>
+      </c>
+      <c r="F27" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G27" s="12">
+        <v>-66.478431372548997</v>
+      </c>
+      <c r="H27" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I27" s="12">
+        <v>-66.478431372548997</v>
+      </c>
+      <c r="L27" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M27" s="6">
+        <v>6619.3125000000055</v>
+      </c>
+      <c r="N27" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O27" s="6">
+        <v>6619.3125000000055</v>
+      </c>
+      <c r="P27" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>-66.321875000000162</v>
+      </c>
+      <c r="R27" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="S27" s="6">
+        <v>-66.321875000000162</v>
       </c>
       <c r="T27" t="e">
         <v>#N/A</v>
@@ -1796,53 +1840,53 @@
       <c r="A28" s="6">
         <v>18</v>
       </c>
-      <c r="B28" s="6">
-        <v>4514.2643636363609</v>
-      </c>
-      <c r="C28" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D28" s="6">
-        <v>4521.8238181818151</v>
-      </c>
-      <c r="E28" s="6">
-        <v>6454.2105454545499</v>
-      </c>
-      <c r="F28" s="6">
-        <v>45.237739393939336</v>
-      </c>
-      <c r="G28" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="H28" s="6">
-        <v>45.36373030303033</v>
-      </c>
-      <c r="I28" s="6">
-        <v>-64.903509090909168</v>
-      </c>
-      <c r="L28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S28" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B28" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C28" s="16">
+        <v>6629.6000000000013</v>
+      </c>
+      <c r="D28" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E28" s="16">
+        <v>6629.6000000000013</v>
+      </c>
+      <c r="F28" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G28" s="12">
+        <v>-66.493333333333339</v>
+      </c>
+      <c r="H28" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I28" s="12">
+        <v>-66.493333333333339</v>
+      </c>
+      <c r="L28" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M28" s="6">
+        <v>6620.1000000000058</v>
+      </c>
+      <c r="N28" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O28" s="6">
+        <v>6620.1000000000058</v>
+      </c>
+      <c r="P28" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>-66.335000000000164</v>
+      </c>
+      <c r="R28" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="S28" s="6">
+        <v>-66.335000000000164</v>
       </c>
       <c r="T28" t="e">
         <v>#N/A</v>
@@ -1852,53 +1896,53 @@
       <c r="A29" s="6">
         <v>19</v>
       </c>
-      <c r="B29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S29" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B29" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C29" s="16">
+        <v>6630.4941176470602</v>
+      </c>
+      <c r="D29" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E29" s="16">
+        <v>6630.4941176470602</v>
+      </c>
+      <c r="F29" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G29" s="12">
+        <v>-66.508235294117668</v>
+      </c>
+      <c r="H29" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I29" s="12">
+        <v>-66.508235294117668</v>
+      </c>
+      <c r="L29" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M29" s="6">
+        <v>6620.8875000000062</v>
+      </c>
+      <c r="N29" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O29" s="6">
+        <v>6620.8875000000062</v>
+      </c>
+      <c r="P29" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>-66.348125000000167</v>
+      </c>
+      <c r="R29" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="S29" s="6">
+        <v>-66.348125000000167</v>
       </c>
       <c r="T29" t="e">
         <v>#N/A</v>
@@ -1908,53 +1952,53 @@
       <c r="A30" s="6">
         <v>20</v>
       </c>
-      <c r="B30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S30" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B30" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C30" s="16">
+        <v>6631.3882352941191</v>
+      </c>
+      <c r="D30" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E30" s="16">
+        <v>6631.3882352941191</v>
+      </c>
+      <c r="F30" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G30" s="12">
+        <v>-66.523137254901997</v>
+      </c>
+      <c r="H30" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I30" s="12">
+        <v>-66.523137254901997</v>
+      </c>
+      <c r="L30" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M30" s="6">
+        <v>6621.6750000000065</v>
+      </c>
+      <c r="N30" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O30" s="6">
+        <v>6621.6750000000065</v>
+      </c>
+      <c r="P30" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>-66.361250000000169</v>
+      </c>
+      <c r="R30" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="S30" s="6">
+        <v>-66.361250000000169</v>
       </c>
       <c r="T30" t="e">
         <v>#N/A</v>
@@ -1964,53 +2008,53 @@
       <c r="A31" s="6">
         <v>21</v>
       </c>
-      <c r="B31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S31" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B31" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C31" s="16">
+        <v>6632.282352941178</v>
+      </c>
+      <c r="D31" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E31" s="16">
+        <v>6632.282352941178</v>
+      </c>
+      <c r="F31" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G31" s="12">
+        <v>-66.538039215686339</v>
+      </c>
+      <c r="H31" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I31" s="12">
+        <v>-66.538039215686339</v>
+      </c>
+      <c r="L31" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M31" s="6">
+        <v>6622.4625000000069</v>
+      </c>
+      <c r="N31" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O31" s="6">
+        <v>6622.4625000000069</v>
+      </c>
+      <c r="P31" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>-66.374375000000171</v>
+      </c>
+      <c r="R31" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="S31" s="6">
+        <v>-66.374375000000171</v>
       </c>
       <c r="T31" t="e">
         <v>#N/A</v>
@@ -2020,53 +2064,53 @@
       <c r="A32" s="6">
         <v>22</v>
       </c>
-      <c r="B32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S32" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B32" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C32" s="16">
+        <v>6633.176470588237</v>
+      </c>
+      <c r="D32" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E32" s="16">
+        <v>6633.176470588237</v>
+      </c>
+      <c r="F32" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G32" s="12">
+        <v>-66.552941176470668</v>
+      </c>
+      <c r="H32" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I32" s="12">
+        <v>-66.552941176470668</v>
+      </c>
+      <c r="L32" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M32" s="6">
+        <v>6623.2500000000073</v>
+      </c>
+      <c r="N32" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O32" s="6">
+        <v>6623.2500000000073</v>
+      </c>
+      <c r="P32" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>-66.387500000000173</v>
+      </c>
+      <c r="R32" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="S32" s="6">
+        <v>-66.387500000000173</v>
       </c>
       <c r="T32" t="e">
         <v>#N/A</v>
@@ -2076,53 +2120,53 @@
       <c r="A33" s="6">
         <v>23</v>
       </c>
-      <c r="B33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S33" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B33" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C33" s="16">
+        <v>6634.0705882352959</v>
+      </c>
+      <c r="D33" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E33" s="16">
+        <v>6634.0705882352959</v>
+      </c>
+      <c r="F33" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G33" s="12">
+        <v>-66.567843137254997</v>
+      </c>
+      <c r="H33" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I33" s="12">
+        <v>-66.567843137254997</v>
+      </c>
+      <c r="L33" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M33" s="6">
+        <v>6624.0375000000076</v>
+      </c>
+      <c r="N33" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O33" s="6">
+        <v>6624.0375000000076</v>
+      </c>
+      <c r="P33" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>-66.400625000000161</v>
+      </c>
+      <c r="R33" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="S33" s="6">
+        <v>-66.400625000000161</v>
       </c>
       <c r="T33" t="e">
         <v>#N/A</v>
@@ -2132,53 +2176,53 @@
       <c r="A34" s="6">
         <v>24</v>
       </c>
-      <c r="B34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S34" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B34" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C34" s="16">
+        <v>6634.9647058823548</v>
+      </c>
+      <c r="D34" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E34" s="16">
+        <v>6634.9647058823548</v>
+      </c>
+      <c r="F34" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G34" s="12">
+        <v>-66.582745098039169</v>
+      </c>
+      <c r="H34" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="I34" s="12">
+        <v>-66.582745098039169</v>
+      </c>
+      <c r="L34" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M34" s="6">
+        <v>6624.825000000008</v>
+      </c>
+      <c r="N34" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O34" s="6">
+        <v>6624.825000000008</v>
+      </c>
+      <c r="P34" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>-66.413750000000164</v>
+      </c>
+      <c r="R34" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="S34" s="6">
+        <v>-66.413750000000164</v>
       </c>
       <c r="T34" t="e">
         <v>#N/A</v>
@@ -3169,15 +3213,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3200,19 +3247,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B2">
-        <v>4502.1819999999998</v>
+        <v>45.224583333333335</v>
       </c>
       <c r="C2">
-        <v>6514</v>
+        <v>-64.691333333333333</v>
       </c>
       <c r="D2">
-        <v>4512.973</v>
+        <v>45.263750000000002</v>
       </c>
       <c r="E2">
-        <v>6440.8639999999996</v>
+        <v>-64.55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3220,169 +3267,169 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>4502.8927272727269</v>
+        <v>45.239277777777836</v>
       </c>
       <c r="C3">
-        <v>6514</v>
+        <v>-64.713277777777833</v>
       </c>
       <c r="D3">
-        <v>4513.4936363636361</v>
+        <v>45.285277777777836</v>
       </c>
       <c r="E3">
-        <v>6441.6490909090908</v>
+        <v>-64.55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>37</v>
+      <c r="A4" t="s">
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>4503.603454545454</v>
+        <v>45.253972222222167</v>
       </c>
       <c r="C4">
-        <v>6514</v>
+        <v>-64.735222222222163</v>
       </c>
       <c r="D4">
-        <v>4514.0142727272723</v>
+        <v>45.306805555555499</v>
       </c>
       <c r="E4">
-        <v>6442.434181818182</v>
+        <v>-64.55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>40</v>
+      <c r="A5" t="s">
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>4504.3141818181812</v>
+        <v>45.268666666666668</v>
       </c>
       <c r="C5">
-        <v>6514</v>
+        <v>-64.757166666666663</v>
       </c>
       <c r="D5">
-        <v>4514.5349090909085</v>
+        <v>45.328333333333333</v>
       </c>
       <c r="E5">
-        <v>6443.2192727272732</v>
+        <v>-64.55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>45</v>
+      <c r="A6" t="s">
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>4505.0249090909083</v>
+        <v>45.25</v>
       </c>
       <c r="C6">
-        <v>6514</v>
+        <v>-65.05</v>
       </c>
       <c r="D6">
-        <v>4515.0555454545447</v>
+        <v>45.31666666666667</v>
       </c>
       <c r="E6">
-        <v>6444.0043636363644</v>
+        <v>-64.833333333333329</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>39</v>
+      <c r="A7" t="s">
+        <v>43</v>
       </c>
       <c r="B7">
-        <v>4505.7356363636354</v>
+        <v>45.26305</v>
       </c>
       <c r="C7">
-        <v>6514</v>
+        <v>-65.05</v>
       </c>
       <c r="D7">
-        <v>4515.5761818181809</v>
+        <v>45.324449999999999</v>
       </c>
       <c r="E7">
-        <v>6444.7894545454556</v>
+        <v>-64.849999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B8">
-        <v>4506.4463636363625</v>
+        <v>45.276116666666667</v>
       </c>
       <c r="C8">
-        <v>6514</v>
+        <v>-65.05</v>
       </c>
       <c r="D8">
-        <v>4516.0968181818171</v>
+        <v>45.332216666666667</v>
       </c>
       <c r="E8">
-        <v>6445.5745454545468</v>
+        <v>-64.86666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B9">
-        <v>4507.1570909090897</v>
+        <v>45.289166666666667</v>
       </c>
       <c r="C9">
-        <v>6514</v>
+        <v>-65.05</v>
       </c>
       <c r="D9">
-        <v>4516.6174545454533</v>
+        <v>45.34</v>
       </c>
       <c r="E9">
-        <v>6446.3596363636379</v>
+        <v>-64.88333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>4507.8678181818168</v>
+        <v>45.036366666666666</v>
       </c>
       <c r="C10">
-        <v>6514</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="D10">
-        <v>4517.1380909090894</v>
+        <v>45.216216666666668</v>
       </c>
       <c r="E10">
-        <v>6447.1447272727291</v>
+        <v>-64.681066666666666</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11">
-        <v>4508.5785454545439</v>
+        <v>45.054980952381001</v>
       </c>
       <c r="C11">
-        <v>6514</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="D11">
-        <v>4517.6587272727256</v>
+        <v>45.22985238095233</v>
       </c>
       <c r="E11">
-        <v>6447.9298181818203</v>
+        <v>-64.7016285714285</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12">
-        <v>4509.2892727272711</v>
+        <v>45.073595238095166</v>
       </c>
       <c r="C12">
-        <v>6514</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="D12">
-        <v>4518.1793636363618</v>
+        <v>45.243488095238</v>
       </c>
       <c r="E12">
-        <v>6448.7149090909115</v>
+        <v>-64.722190476190505</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3390,153 +3437,101 @@
         <v>39</v>
       </c>
       <c r="B13">
-        <v>4509.9999999999982</v>
+        <v>45.092209523809501</v>
       </c>
       <c r="C13">
-        <v>6514</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="D13">
-        <v>4518.699999999998</v>
+        <v>45.257123809523833</v>
       </c>
       <c r="E13">
-        <v>6449.5000000000027</v>
+        <v>-64.742752380952339</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B14" s="6">
-        <v>45.224583333333335</v>
+        <v>45.110823809523836</v>
       </c>
       <c r="C14" s="6">
-        <v>-64.691333333333333</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="D14" s="6">
-        <v>45.263750000000002</v>
+        <v>45.270759523809502</v>
       </c>
       <c r="E14" s="6">
-        <v>-64.55</v>
+        <v>-64.76331428571433</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B15" s="6">
-        <v>45.239277777777836</v>
+        <v>45.129438095238164</v>
       </c>
       <c r="C15" s="6">
-        <v>-64.713277777777833</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="D15" s="6">
-        <v>45.285277777777836</v>
+        <v>45.284395238095165</v>
       </c>
       <c r="E15" s="6">
-        <v>-64.55</v>
+        <v>-64.783876190476164</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6">
-        <v>45.253972222222167</v>
+        <v>45.148052380952336</v>
       </c>
       <c r="C16" s="6">
-        <v>-64.735222222222163</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="D16" s="6">
-        <v>45.306805555555499</v>
+        <v>45.298030952380834</v>
       </c>
       <c r="E16" s="6">
-        <v>-64.55</v>
+        <v>-64.804438095237998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B17" s="6">
-        <v>45.268666666666668</v>
+        <v>45.166666666666664</v>
       </c>
       <c r="C17" s="6">
-        <v>-64.757166666666663</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="D17" s="6">
-        <v>45.328333333333333</v>
+        <v>45.311666666666667</v>
       </c>
       <c r="E17" s="6">
-        <v>-64.55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18">
-        <v>45.244999999999997</v>
-      </c>
-      <c r="C18">
-        <v>-65.052999999999997</v>
-      </c>
-      <c r="D18">
-        <v>45.314999999999998</v>
-      </c>
-      <c r="E18">
-        <v>-64.828000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19">
-        <v>45.260333333333328</v>
-      </c>
-      <c r="C19">
-        <v>-65.052999999999997</v>
-      </c>
-      <c r="D19">
-        <v>45.324333333333335</v>
-      </c>
-      <c r="E19">
-        <v>-64.845333333333329</v>
-      </c>
-    </row>
+        <v>-64.825000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="6">
-        <v>45.275666666666659</v>
-      </c>
-      <c r="C20" s="6">
-        <v>-65.052999999999997</v>
-      </c>
-      <c r="D20" s="6">
-        <v>45.333666666666673</v>
-      </c>
-      <c r="E20" s="6">
-        <v>-64.862666666666655</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="6">
-        <v>45.29099999999999</v>
-      </c>
-      <c r="C21" s="6">
-        <v>-65.052999999999997</v>
-      </c>
-      <c r="D21" s="6">
-        <v>45.343000000000011</v>
-      </c>
-      <c r="E21" s="6">
-        <v>-64.879999999999981</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4525,15 +4520,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
   <dimension ref="A1:E997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4555,310 +4553,286 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B2">
+        <v>4513.4750000000004</v>
+      </c>
+      <c r="C2">
+        <v>6441.48</v>
+      </c>
+      <c r="D2">
+        <v>4515.8249999999998</v>
+      </c>
+      <c r="E2">
+        <v>6433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4514.3566666666666</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6442.7966666666662</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4517.1166666666668</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4515.2383333333328</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6444.1133333333328</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4518.4083333333338</v>
+      </c>
+      <c r="E4" s="6">
+        <v>6433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4516.119999999999</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6445.4299999999994</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4519.7000000000007</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4515</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6503</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4519</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>4515.7830000000004</v>
+      </c>
+      <c r="C7">
+        <v>6503</v>
+      </c>
+      <c r="D7">
+        <v>4519.4669999999996</v>
+      </c>
+      <c r="E7">
+        <v>6451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>4516.567</v>
+      </c>
+      <c r="C8">
+        <v>6503</v>
+      </c>
+      <c r="D8">
+        <v>4519.933</v>
+      </c>
+      <c r="E8">
+        <v>6452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>4517.3500000000004</v>
+      </c>
+      <c r="C9">
+        <v>6503</v>
+      </c>
+      <c r="D9">
+        <v>4520.3999999999996</v>
+      </c>
+      <c r="E9">
+        <v>6453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
         <v>4502.1819999999998</v>
-      </c>
-      <c r="C2">
-        <v>6514</v>
-      </c>
-      <c r="D2">
-        <v>4512.973</v>
-      </c>
-      <c r="E2">
-        <v>6440.8639999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="6">
-        <v>4503.0506666666661</v>
-      </c>
-      <c r="C3" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D3" s="6">
-        <v>4513.6093333333329</v>
-      </c>
-      <c r="E3" s="6">
-        <v>6441.8235555555548</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="6">
-        <v>4503.9193333333324</v>
-      </c>
-      <c r="C4" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D4" s="6">
-        <v>4514.2456666666658</v>
-      </c>
-      <c r="E4" s="6">
-        <v>6442.78311111111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4504.7879999999986</v>
-      </c>
-      <c r="C5" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D5" s="6">
-        <v>4514.8819999999987</v>
-      </c>
-      <c r="E5" s="6">
-        <v>6443.7426666666652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="6">
-        <v>4505.6566666666649</v>
-      </c>
-      <c r="C6" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D6" s="6">
-        <v>4515.5183333333316</v>
-      </c>
-      <c r="E6" s="6">
-        <v>6444.7022222222204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7">
-        <v>4506.5253333333312</v>
-      </c>
-      <c r="C7">
-        <v>6514</v>
-      </c>
-      <c r="D7">
-        <v>4516.1546666666645</v>
-      </c>
-      <c r="E7">
-        <v>6445.6617777777756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8">
-        <v>4507.3939999999975</v>
-      </c>
-      <c r="C8">
-        <v>6514</v>
-      </c>
-      <c r="D8">
-        <v>4516.7909999999974</v>
-      </c>
-      <c r="E8">
-        <v>6446.6213333333308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9">
-        <v>4508.2626666666638</v>
-      </c>
-      <c r="C9">
-        <v>6514</v>
-      </c>
-      <c r="D9">
-        <v>4517.4273333333304</v>
-      </c>
-      <c r="E9">
-        <v>6447.580888888886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10">
-        <v>4509.1313333333301</v>
       </c>
       <c r="C10">
         <v>6514</v>
       </c>
       <c r="D10">
-        <v>4518.0636666666633</v>
+        <v>4512.973</v>
       </c>
       <c r="E10">
-        <v>6448.5404444444412</v>
+        <v>6440.8639999999996</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>39</v>
+      <c r="A11" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="B11">
-        <v>4509.9999999999964</v>
+        <v>4503.2988571428568</v>
       </c>
       <c r="C11">
         <v>6514</v>
       </c>
       <c r="D11">
-        <v>4518.6999999999962</v>
+        <v>4513.7911428571424</v>
       </c>
       <c r="E11">
-        <v>6449.4999999999964</v>
+        <v>6442.0977142857137</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>46</v>
+      <c r="A12" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B12">
-        <v>4513.4750000000004</v>
+        <v>4504.4157142857139</v>
       </c>
       <c r="C12">
-        <v>6441.48</v>
+        <v>6514</v>
       </c>
       <c r="D12">
-        <v>4515.8249999999998</v>
+        <v>4514.6092857142849</v>
       </c>
       <c r="E12">
-        <v>6433</v>
+        <v>6443.3314285714278</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>46</v>
+      <c r="A13" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="6">
-        <v>4514.3566666666666</v>
+        <v>4505.5325714285709</v>
       </c>
       <c r="C13" s="6">
-        <v>6442.7966666666662</v>
+        <v>6514</v>
       </c>
       <c r="D13" s="6">
-        <v>4517.1166666666668</v>
+        <v>4515.4274285714273</v>
       </c>
       <c r="E13" s="6">
-        <v>6433</v>
+        <v>6444.5651428571418</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>46</v>
+      <c r="A14" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="B14" s="6">
-        <v>4515.2383333333328</v>
+        <v>4506.649428571428</v>
       </c>
       <c r="C14" s="6">
-        <v>6444.1133333333328</v>
+        <v>6514</v>
       </c>
       <c r="D14" s="6">
-        <v>4518.4083333333338</v>
+        <v>4516.2455714285697</v>
       </c>
       <c r="E14" s="6">
-        <v>6433</v>
+        <v>6445.7988571428559</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>46</v>
+      <c r="A15" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="B15" s="6">
-        <v>4516.119999999999</v>
+        <v>4507.766285714285</v>
       </c>
       <c r="C15" s="6">
-        <v>6445.4299999999994</v>
+        <v>6514</v>
       </c>
       <c r="D15" s="6">
-        <v>4519.7000000000007</v>
+        <v>4517.0637142857122</v>
       </c>
       <c r="E15" s="6">
-        <v>6433</v>
+        <v>6447.03257142857</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>41</v>
+      <c r="A16" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B16">
-        <v>4514.4199939999999</v>
+        <v>4508.883142857142</v>
       </c>
       <c r="C16">
-        <v>6503</v>
+        <v>6514</v>
       </c>
       <c r="D16">
-        <v>4518.5399939999998</v>
+        <v>4517.8818571428546</v>
       </c>
       <c r="E16">
-        <v>6449.4080000000004</v>
+        <v>6448.2662857142841</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>41</v>
+      <c r="A17" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="B17">
-        <v>4515.3719940000001</v>
+        <v>4509.9999999999991</v>
       </c>
       <c r="C17">
-        <v>6503</v>
+        <v>6514</v>
       </c>
       <c r="D17">
-        <v>4519.1426626666662</v>
+        <v>4518.6999999999971</v>
       </c>
       <c r="E17">
-        <v>6450.431998</v>
+        <v>6449.4999999999982</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="6">
-        <v>4516.3239940000003</v>
-      </c>
-      <c r="C18" s="6">
-        <v>6503</v>
-      </c>
-      <c r="D18" s="6">
-        <v>4519.7453313333326</v>
-      </c>
-      <c r="E18" s="6">
-        <v>6451.4559959999997</v>
-      </c>
+      <c r="A18" s="17"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19">
-        <v>4517.2759940000005</v>
-      </c>
-      <c r="C19">
-        <v>6503</v>
-      </c>
-      <c r="D19">
-        <v>4520.347999999999</v>
-      </c>
-      <c r="E19">
-        <v>6452.4799939999994</v>
-      </c>
+      <c r="A19" s="17"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5848,7 +5822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
@@ -5971,11 +5945,11 @@
       </c>
       <c r="V3" s="8">
         <f>B4</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X3" s="6">
         <f t="shared" ref="X3:X4" si="8">V3</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE3" s="6" t="s">
         <v>23</v>
@@ -6002,7 +5976,7 @@
       </c>
       <c r="B4" s="8">
         <f>'Data Entry'!B1</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -6017,7 +5991,7 @@
       </c>
       <c r="L4" s="8">
         <f>B4</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -6029,15 +6003,15 @@
       </c>
       <c r="V4" s="6">
         <f>V3*2</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="X4" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Y4" s="6">
         <f>X4</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE4" s="6" t="s">
         <v>24</v>
@@ -6065,7 +6039,7 @@
       </c>
       <c r="B5" s="6">
         <f>B4*2</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -6077,7 +6051,7 @@
       </c>
       <c r="L5" s="6">
         <f>(L31-L3)/(L4-1)</f>
-        <v>1.2600000000000364</v>
+        <v>0.78750000000002274</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>26</v>
@@ -6087,15 +6061,15 @@
       </c>
       <c r="V5" s="6">
         <f>(V2-V25)/(V4-1)</f>
-        <v>0.71072727272729186</v>
+        <v>0.4598823529411889</v>
       </c>
       <c r="X5" s="6">
         <f t="shared" ref="X5:Y5" si="10">(X2-X25)/(X4-1)</f>
-        <v>0.52063636363635102</v>
+        <v>0.33688235294116836</v>
       </c>
       <c r="Y5" s="6">
         <f t="shared" si="10"/>
-        <v>0.78509090909094748</v>
+        <v>0.50800000000002488</v>
       </c>
       <c r="Z5" s="8" t="s">
         <v>26</v>
@@ -6125,7 +6099,7 @@
       </c>
       <c r="B6" s="6">
         <f>(B32-B3)/(B5-1)</f>
-        <v>1.381818181818248</v>
+        <v>0.89411764705886632</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>26</v>
@@ -6331,14 +6305,14 @@
       </c>
       <c r="M8" s="6">
         <f>M7+L5</f>
-        <v>6608.76</v>
+        <v>6608.2875000000004</v>
       </c>
       <c r="N8" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="12"/>
-        <v>6608.76</v>
+        <v>6608.2875000000004</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="13"/>
@@ -6346,7 +6320,7 @@
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="14"/>
-        <v>-66.146000000000001</v>
+        <v>-66.138125000000002</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" ref="R8:S8" si="29">P8</f>
@@ -6354,7 +6328,7 @@
       </c>
       <c r="S8" s="6">
         <f t="shared" si="29"/>
-        <v>-66.146000000000001</v>
+        <v>-66.138125000000002</v>
       </c>
       <c r="U8" s="6">
         <f t="shared" ref="U8:U24" si="30">U7+1</f>
@@ -6362,22 +6336,22 @@
       </c>
       <c r="V8" s="6">
         <f>V7+$V5</f>
-        <v>4502.8927272727269</v>
+        <v>4502.6418823529411</v>
       </c>
       <c r="W8" s="6">
         <v>6514</v>
       </c>
       <c r="X8" s="6">
         <f t="shared" ref="X8:Y8" si="31">X7+X5</f>
-        <v>4513.4936363636361</v>
+        <v>4513.3098823529408</v>
       </c>
       <c r="Y8" s="6">
         <f t="shared" si="31"/>
-        <v>6441.6490909090908</v>
+        <v>6441.3719999999994</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="16"/>
-        <v>45.048212121212167</v>
+        <v>45.044031372549</v>
       </c>
       <c r="AA8" s="6">
         <f t="shared" si="17"/>
@@ -6385,11 +6359,11 @@
       </c>
       <c r="AB8" s="6">
         <f t="shared" si="18"/>
-        <v>45.224893939394001</v>
+        <v>45.221831372548998</v>
       </c>
       <c r="AC8" s="6">
         <f t="shared" si="19"/>
-        <v>-64.694151515151503</v>
+        <v>-64.68953333333333</v>
       </c>
       <c r="AE8" s="6">
         <v>2</v>
@@ -6436,14 +6410,14 @@
       </c>
       <c r="C9" s="6">
         <f>C8+B6</f>
-        <v>6615.7818181818175</v>
+        <v>6615.2941176470586</v>
       </c>
       <c r="D9" s="6">
         <v>4314</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="24"/>
-        <v>6615.7818181818175</v>
+        <v>6615.2941176470586</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="25"/>
@@ -6451,7 +6425,7 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="26"/>
-        <v>-66.263030303030334</v>
+        <v>-66.254901960784338</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ref="H9:I9" si="34">F9</f>
@@ -6459,7 +6433,7 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" si="34"/>
-        <v>-66.263030303030334</v>
+        <v>-66.254901960784338</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="28"/>
@@ -6470,14 +6444,14 @@
       </c>
       <c r="M9" s="6">
         <f>M8+L5</f>
-        <v>6610.02</v>
+        <v>6609.0750000000007</v>
       </c>
       <c r="N9" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="12"/>
-        <v>6610.02</v>
+        <v>6609.0750000000007</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="13"/>
@@ -6485,7 +6459,7 @@
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="14"/>
-        <v>-66.167000000000002</v>
+        <v>-66.151250000000005</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" ref="R9:S9" si="35">P9</f>
@@ -6493,7 +6467,7 @@
       </c>
       <c r="S9" s="6">
         <f t="shared" si="35"/>
-        <v>-66.167000000000002</v>
+        <v>-66.151250000000005</v>
       </c>
       <c r="U9" s="6">
         <f t="shared" si="30"/>
@@ -6501,22 +6475,22 @@
       </c>
       <c r="V9" s="6">
         <f>V8+$V5</f>
-        <v>4503.603454545454</v>
+        <v>4503.1017647058825</v>
       </c>
       <c r="W9" s="6">
         <v>6514</v>
       </c>
       <c r="X9" s="6">
         <f t="shared" ref="X9:Y9" si="36">X8+X5</f>
-        <v>4514.0142727272723</v>
+        <v>4513.6467647058817</v>
       </c>
       <c r="Y9" s="6">
         <f t="shared" si="36"/>
-        <v>6442.434181818182</v>
+        <v>6441.8799999999992</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="16"/>
-        <v>45.060057575757497</v>
+        <v>45.051696078431334</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" si="17"/>
@@ -6524,11 +6498,11 @@
       </c>
       <c r="AB9" s="6">
         <f t="shared" si="18"/>
-        <v>45.23357121212117</v>
+        <v>45.227446078431335</v>
       </c>
       <c r="AC9" s="6">
         <f t="shared" si="19"/>
-        <v>-64.707236363636326</v>
+        <v>-64.697999999999993</v>
       </c>
       <c r="AE9" s="6">
         <v>3</v>
@@ -6575,14 +6549,14 @@
       </c>
       <c r="C10" s="6">
         <f>C9+B6</f>
-        <v>6617.1636363636353</v>
+        <v>6616.1882352941175</v>
       </c>
       <c r="D10" s="6">
         <v>4314</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="24"/>
-        <v>6617.1636363636353</v>
+        <v>6616.1882352941175</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="25"/>
@@ -6590,7 +6564,7 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="26"/>
-        <v>-66.286060606060673</v>
+        <v>-66.269803921568666</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ref="H10:I10" si="38">F10</f>
@@ -6598,7 +6572,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" si="38"/>
-        <v>-66.286060606060673</v>
+        <v>-66.269803921568666</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="28"/>
@@ -6609,14 +6583,14 @@
       </c>
       <c r="M10" s="6">
         <f>M9+L5</f>
-        <v>6611.2800000000007</v>
+        <v>6609.8625000000011</v>
       </c>
       <c r="N10" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="12"/>
-        <v>6611.2800000000007</v>
+        <v>6609.8625000000011</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="13"/>
@@ -6624,7 +6598,7 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="14"/>
-        <v>-66.188000000000002</v>
+        <v>-66.164375000000007</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" ref="R10:S10" si="39">P10</f>
@@ -6632,7 +6606,7 @@
       </c>
       <c r="S10" s="6">
         <f t="shared" si="39"/>
-        <v>-66.188000000000002</v>
+        <v>-66.164375000000007</v>
       </c>
       <c r="U10" s="6">
         <f t="shared" si="30"/>
@@ -6640,22 +6614,22 @@
       </c>
       <c r="V10" s="6">
         <f>V9+$V5</f>
-        <v>4504.3141818181812</v>
+        <v>4503.5616470588238</v>
       </c>
       <c r="W10" s="6">
         <v>6514</v>
       </c>
       <c r="X10" s="6">
         <f t="shared" ref="X10:Y10" si="40">X9+X5</f>
-        <v>4514.5349090909085</v>
+        <v>4513.9836470588225</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" si="40"/>
-        <v>6443.2192727272732</v>
+        <v>6442.387999999999</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="16"/>
-        <v>45.071903030302998</v>
+        <v>45.059360784313668</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="17"/>
@@ -6663,11 +6637,11 @@
       </c>
       <c r="AB10" s="6">
         <f t="shared" si="18"/>
-        <v>45.242248484848503</v>
+        <v>45.233060784313665</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" si="19"/>
-        <v>-64.720321212121164</v>
+        <v>-64.706466666666671</v>
       </c>
       <c r="AE10" s="6">
         <v>4</v>
@@ -6714,14 +6688,14 @@
       </c>
       <c r="C11" s="6">
         <f>C10+B6</f>
-        <v>6618.5454545454531</v>
+        <v>6617.0823529411764</v>
       </c>
       <c r="D11" s="6">
         <v>4314</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="24"/>
-        <v>6618.5454545454531</v>
+        <v>6617.0823529411764</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="25"/>
@@ -6729,7 +6703,7 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="26"/>
-        <v>-66.309090909090827</v>
+        <v>-66.284705882352995</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ref="H11:I11" si="42">F11</f>
@@ -6737,7 +6711,7 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" si="42"/>
-        <v>-66.309090909090827</v>
+        <v>-66.284705882352995</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="28"/>
@@ -6748,14 +6722,14 @@
       </c>
       <c r="M11" s="6">
         <f>M10+L5</f>
-        <v>6612.5400000000009</v>
+        <v>6610.6500000000015</v>
       </c>
       <c r="N11" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="12"/>
-        <v>6612.5400000000009</v>
+        <v>6610.6500000000015</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="13"/>
@@ -6763,7 +6737,7 @@
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="14"/>
-        <v>-66.209000000000003</v>
+        <v>-66.177499999999995</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" ref="R11:S11" si="43">P11</f>
@@ -6771,7 +6745,7 @@
       </c>
       <c r="S11" s="6">
         <f t="shared" si="43"/>
-        <v>-66.209000000000003</v>
+        <v>-66.177499999999995</v>
       </c>
       <c r="U11" s="6">
         <f t="shared" si="30"/>
@@ -6779,22 +6753,22 @@
       </c>
       <c r="V11" s="6">
         <f>V10+$V5</f>
-        <v>4505.0249090909083</v>
+        <v>4504.0215294117652</v>
       </c>
       <c r="W11" s="6">
         <v>6514</v>
       </c>
       <c r="X11" s="6">
         <f t="shared" ref="X11:Y11" si="44">X10+X5</f>
-        <v>4515.0555454545447</v>
+        <v>4514.3205294117633</v>
       </c>
       <c r="Y11" s="6">
         <f t="shared" si="44"/>
-        <v>6444.0043636363644</v>
+        <v>6442.8959999999988</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" si="16"/>
-        <v>45.083748484848499</v>
+        <v>45.067025490196166</v>
       </c>
       <c r="AA11" s="6">
         <f t="shared" si="17"/>
@@ -6802,11 +6776,11 @@
       </c>
       <c r="AB11" s="6">
         <f t="shared" si="18"/>
-        <v>45.250925757575665</v>
+        <v>45.238675490196002</v>
       </c>
       <c r="AC11" s="6">
         <f t="shared" si="19"/>
-        <v>-64.733406060606001</v>
+        <v>-64.714933333333335</v>
       </c>
       <c r="AE11" s="6" t="s">
         <v>28</v>
@@ -6850,14 +6824,14 @@
       </c>
       <c r="C12" s="6">
         <f>C11+B6</f>
-        <v>6619.927272727271</v>
+        <v>6617.9764705882353</v>
       </c>
       <c r="D12" s="6">
         <v>4314</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="24"/>
-        <v>6619.927272727271</v>
+        <v>6617.9764705882353</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="25"/>
@@ -6865,7 +6839,7 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="26"/>
-        <v>-66.332121212121166</v>
+        <v>-66.299607843137338</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ref="H12:I12" si="49">F12</f>
@@ -6873,7 +6847,7 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" si="49"/>
-        <v>-66.332121212121166</v>
+        <v>-66.299607843137338</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="28"/>
@@ -6884,14 +6858,14 @@
       </c>
       <c r="M12" s="6">
         <f>M11+L5</f>
-        <v>6613.8000000000011</v>
+        <v>6611.4375000000018</v>
       </c>
       <c r="N12" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="12"/>
-        <v>6613.8000000000011</v>
+        <v>6611.4375000000018</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="13"/>
@@ -6899,7 +6873,7 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="14"/>
-        <v>-66.23</v>
+        <v>-66.190624999999997</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" ref="R12:S12" si="50">P12</f>
@@ -6907,7 +6881,7 @@
       </c>
       <c r="S12" s="6">
         <f t="shared" si="50"/>
-        <v>-66.23</v>
+        <v>-66.190624999999997</v>
       </c>
       <c r="U12" s="6">
         <f t="shared" si="30"/>
@@ -6915,22 +6889,22 @@
       </c>
       <c r="V12" s="6">
         <f>V11+$V5</f>
-        <v>4505.7356363636354</v>
+        <v>4504.4814117647065</v>
       </c>
       <c r="W12" s="6">
         <v>6514</v>
       </c>
       <c r="X12" s="6">
         <f t="shared" ref="X12:Y12" si="51">X11+X5</f>
-        <v>4515.5761818181809</v>
+        <v>4514.6574117647042</v>
       </c>
       <c r="Y12" s="6">
         <f t="shared" si="51"/>
-        <v>6444.7894545454556</v>
+        <v>6443.4039999999986</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" si="16"/>
-        <v>45.095593939394</v>
+        <v>45.0746901960785</v>
       </c>
       <c r="AA12" s="6">
         <f t="shared" si="17"/>
@@ -6938,11 +6912,11 @@
       </c>
       <c r="AB12" s="6">
         <f t="shared" si="18"/>
-        <v>45.259603030302998</v>
+        <v>45.244290196078332</v>
       </c>
       <c r="AC12" s="6">
         <f t="shared" si="19"/>
-        <v>-64.746490909090994</v>
+        <v>-64.723399999999998</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -6955,14 +6929,14 @@
       </c>
       <c r="C13" s="6">
         <f>C12+B6</f>
-        <v>6621.3090909090888</v>
+        <v>6618.8705882352942</v>
       </c>
       <c r="D13" s="6">
         <v>4314</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="24"/>
-        <v>6621.3090909090888</v>
+        <v>6618.8705882352942</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="25"/>
@@ -6970,7 +6944,7 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="26"/>
-        <v>-66.355151515151505</v>
+        <v>-66.314509803921496</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ref="H13:I13" si="52">F13</f>
@@ -6978,7 +6952,7 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" si="52"/>
-        <v>-66.355151515151505</v>
+        <v>-66.314509803921496</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="28"/>
@@ -6989,14 +6963,14 @@
       </c>
       <c r="M13" s="6">
         <f>M12+L5</f>
-        <v>6615.0600000000013</v>
+        <v>6612.2250000000022</v>
       </c>
       <c r="N13" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="12"/>
-        <v>6615.0600000000013</v>
+        <v>6612.2250000000022</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="13"/>
@@ -7004,7 +6978,7 @@
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="14"/>
-        <v>-66.251000000000005</v>
+        <v>-66.203749999999999</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" ref="R13:S13" si="53">P13</f>
@@ -7012,7 +6986,7 @@
       </c>
       <c r="S13" s="6">
         <f t="shared" si="53"/>
-        <v>-66.251000000000005</v>
+        <v>-66.203749999999999</v>
       </c>
       <c r="U13" s="6">
         <f t="shared" si="30"/>
@@ -7020,22 +6994,22 @@
       </c>
       <c r="V13" s="6">
         <f>V12+$V5</f>
-        <v>4506.4463636363625</v>
+        <v>4504.9412941176479</v>
       </c>
       <c r="W13" s="6">
         <v>6514</v>
       </c>
       <c r="X13" s="6">
         <f t="shared" ref="X13:Y13" si="54">X12+X5</f>
-        <v>4516.0968181818171</v>
+        <v>4514.994294117645</v>
       </c>
       <c r="Y13" s="6">
         <f t="shared" si="54"/>
-        <v>6445.5745454545468</v>
+        <v>6443.9119999999984</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="16"/>
-        <v>45.10743939393933</v>
+        <v>45.082354901960834</v>
       </c>
       <c r="AA13" s="6">
         <f t="shared" si="17"/>
@@ -7043,11 +7017,11 @@
       </c>
       <c r="AB13" s="6">
         <f t="shared" si="18"/>
-        <v>45.26828030303033</v>
+        <v>45.249904901960832</v>
       </c>
       <c r="AC13" s="6">
         <f t="shared" si="19"/>
-        <v>-64.759575757575831</v>
+        <v>-64.731866666666662</v>
       </c>
       <c r="AE13" s="8" t="s">
         <v>29</v>
@@ -7063,14 +7037,14 @@
       </c>
       <c r="C14" s="6">
         <f>C13+B6</f>
-        <v>6622.6909090909066</v>
+        <v>6619.7647058823532</v>
       </c>
       <c r="D14" s="6">
         <v>4314</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="24"/>
-        <v>6622.6909090909066</v>
+        <v>6619.7647058823532</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="25"/>
@@ -7078,7 +7052,7 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="26"/>
-        <v>-66.378181818181829</v>
+        <v>-66.329411764705839</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ref="H14:I14" si="55">F14</f>
@@ -7086,7 +7060,7 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" si="55"/>
-        <v>-66.378181818181829</v>
+        <v>-66.329411764705839</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="28"/>
@@ -7097,14 +7071,14 @@
       </c>
       <c r="M14" s="6">
         <f>M13+L5</f>
-        <v>6616.3200000000015</v>
+        <v>6613.0125000000025</v>
       </c>
       <c r="N14" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="12"/>
-        <v>6616.3200000000015</v>
+        <v>6613.0125000000025</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="13"/>
@@ -7112,7 +7086,7 @@
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="14"/>
-        <v>-66.272000000000006</v>
+        <v>-66.216875000000002</v>
       </c>
       <c r="R14" s="6">
         <f t="shared" ref="R14:S14" si="56">P14</f>
@@ -7120,7 +7094,7 @@
       </c>
       <c r="S14" s="6">
         <f t="shared" si="56"/>
-        <v>-66.272000000000006</v>
+        <v>-66.216875000000002</v>
       </c>
       <c r="U14" s="6">
         <f t="shared" si="30"/>
@@ -7128,22 +7102,22 @@
       </c>
       <c r="V14" s="6">
         <f>V13+$V5</f>
-        <v>4507.1570909090897</v>
+        <v>4505.4011764705892</v>
       </c>
       <c r="W14" s="6">
         <v>6514</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" ref="X14:Y14" si="57">X13+X5</f>
-        <v>4516.6174545454533</v>
+        <v>4515.3311764705859</v>
       </c>
       <c r="Y14" s="6">
         <f t="shared" si="57"/>
-        <v>6446.3596363636379</v>
+        <v>6444.4199999999983</v>
       </c>
       <c r="Z14" s="6">
         <f t="shared" si="16"/>
-        <v>45.119284848484831</v>
+        <v>45.090019607843168</v>
       </c>
       <c r="AA14" s="6">
         <f t="shared" si="17"/>
@@ -7151,11 +7125,11 @@
       </c>
       <c r="AB14" s="6">
         <f t="shared" si="18"/>
-        <v>45.2769575757575</v>
+        <v>45.255519607843169</v>
       </c>
       <c r="AC14" s="6">
         <f t="shared" si="19"/>
-        <v>-64.772660606060668</v>
+        <v>-64.740333333333339</v>
       </c>
       <c r="AE14" s="6" t="s">
         <v>21</v>
@@ -7195,14 +7169,14 @@
       </c>
       <c r="C15" s="6">
         <f>C14+B6</f>
-        <v>6624.0727272727245</v>
+        <v>6620.6588235294121</v>
       </c>
       <c r="D15" s="6">
         <v>4314</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="24"/>
-        <v>6624.0727272727245</v>
+        <v>6620.6588235294121</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="25"/>
@@ -7210,7 +7184,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="26"/>
-        <v>-66.401212121211998</v>
+        <v>-66.344313725490167</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ref="H15:I15" si="58">F15</f>
@@ -7218,7 +7192,7 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" si="58"/>
-        <v>-66.401212121211998</v>
+        <v>-66.344313725490167</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="28"/>
@@ -7229,14 +7203,14 @@
       </c>
       <c r="M15" s="6">
         <f>M14+L5</f>
-        <v>6617.5800000000017</v>
+        <v>6613.8000000000029</v>
       </c>
       <c r="N15" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="12"/>
-        <v>6617.5800000000017</v>
+        <v>6613.8000000000029</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="13"/>
@@ -7244,7 +7218,7 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="14"/>
-        <v>-66.293000000000006</v>
+        <v>-66.23</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" ref="R15:S15" si="59">P15</f>
@@ -7252,7 +7226,7 @@
       </c>
       <c r="S15" s="6">
         <f t="shared" si="59"/>
-        <v>-66.293000000000006</v>
+        <v>-66.23</v>
       </c>
       <c r="U15" s="6">
         <f t="shared" si="30"/>
@@ -7260,22 +7234,22 @@
       </c>
       <c r="V15" s="6">
         <f>V14+$V5</f>
-        <v>4507.8678181818168</v>
+        <v>4505.8610588235306</v>
       </c>
       <c r="W15" s="6">
         <v>6514</v>
       </c>
       <c r="X15" s="6">
         <f t="shared" ref="X15:Y15" si="60">X14+X5</f>
-        <v>4517.1380909090894</v>
+        <v>4515.6680588235267</v>
       </c>
       <c r="Y15" s="6">
         <f t="shared" si="60"/>
-        <v>6447.1447272727291</v>
+        <v>6444.9279999999981</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" si="16"/>
-        <v>45.131130303030332</v>
+        <v>45.097684313725502</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="17"/>
@@ -7283,11 +7257,11 @@
       </c>
       <c r="AB15" s="6">
         <f t="shared" si="18"/>
-        <v>45.285634848484833</v>
+        <v>45.261134313725499</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" si="19"/>
-        <v>-64.785745454545506</v>
+        <v>-64.748800000000003</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>23</v>
@@ -7317,14 +7291,14 @@
       </c>
       <c r="C16" s="6">
         <f>C15+B6</f>
-        <v>6625.4545454545423</v>
+        <v>6621.552941176471</v>
       </c>
       <c r="D16" s="6">
         <v>4314</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="24"/>
-        <v>6625.4545454545423</v>
+        <v>6621.552941176471</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="25"/>
@@ -7332,7 +7306,7 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="26"/>
-        <v>-66.424242424242337</v>
+        <v>-66.359215686274496</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ref="H16:I16" si="61">F16</f>
@@ -7340,7 +7314,7 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" si="61"/>
-        <v>-66.424242424242337</v>
+        <v>-66.359215686274496</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="28"/>
@@ -7351,14 +7325,14 @@
       </c>
       <c r="M16" s="6">
         <f>M15+L5</f>
-        <v>6618.840000000002</v>
+        <v>6614.5875000000033</v>
       </c>
       <c r="N16" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="12"/>
-        <v>6618.840000000002</v>
+        <v>6614.5875000000033</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="13"/>
@@ -7366,7 +7340,7 @@
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="14"/>
-        <v>-66.313999999999993</v>
+        <v>-66.243125000000006</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" ref="R16:S16" si="62">P16</f>
@@ -7374,7 +7348,7 @@
       </c>
       <c r="S16" s="6">
         <f t="shared" si="62"/>
-        <v>-66.313999999999993</v>
+        <v>-66.243125000000006</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="30"/>
@@ -7382,22 +7356,22 @@
       </c>
       <c r="V16" s="6">
         <f>V15+$V5</f>
-        <v>4508.5785454545439</v>
+        <v>4506.3209411764719</v>
       </c>
       <c r="W16" s="6">
         <v>6514</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" ref="X16:Y16" si="63">X15+X5</f>
-        <v>4517.6587272727256</v>
+        <v>4516.0049411764676</v>
       </c>
       <c r="Y16" s="6">
         <f t="shared" si="63"/>
-        <v>6447.9298181818203</v>
+        <v>6445.4359999999979</v>
       </c>
       <c r="Z16" s="6">
         <f t="shared" si="16"/>
-        <v>45.14297575757567</v>
+        <v>45.105349019607836</v>
       </c>
       <c r="AA16" s="6">
         <f t="shared" si="17"/>
@@ -7405,11 +7379,11 @@
       </c>
       <c r="AB16" s="6">
         <f t="shared" si="18"/>
-        <v>45.294312121212165</v>
+        <v>45.266749019607836</v>
       </c>
       <c r="AC16" s="6">
         <f t="shared" si="19"/>
-        <v>-64.798830303030329</v>
+        <v>-64.757266666666666</v>
       </c>
       <c r="AE16" s="6" t="s">
         <v>24</v>
@@ -7446,14 +7420,14 @@
       </c>
       <c r="C17" s="6">
         <f>C16+B6</f>
-        <v>6626.8363636363601</v>
+        <v>6622.4470588235299</v>
       </c>
       <c r="D17" s="6">
         <v>4314</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="24"/>
-        <v>6626.8363636363601</v>
+        <v>6622.4470588235299</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="25"/>
@@ -7461,7 +7435,7 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="26"/>
-        <v>-66.447272727272662</v>
+        <v>-66.374117647058839</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17:I17" si="65">F17</f>
@@ -7469,7 +7443,7 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" si="65"/>
-        <v>-66.447272727272662</v>
+        <v>-66.374117647058839</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="28"/>
@@ -7480,14 +7454,14 @@
       </c>
       <c r="M17" s="6">
         <f>M16+L5</f>
-        <v>6620.1000000000022</v>
+        <v>6615.3750000000036</v>
       </c>
       <c r="N17" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="12"/>
-        <v>6620.1000000000022</v>
+        <v>6615.3750000000036</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="13"/>
@@ -7495,7 +7469,7 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="14"/>
-        <v>-66.334999999999994</v>
+        <v>-66.256249999999994</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ref="R17:S17" si="66">P17</f>
@@ -7503,7 +7477,7 @@
       </c>
       <c r="S17" s="6">
         <f t="shared" si="66"/>
-        <v>-66.334999999999994</v>
+        <v>-66.256249999999994</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="30"/>
@@ -7511,22 +7485,22 @@
       </c>
       <c r="V17" s="6">
         <f>V16+$V5</f>
-        <v>4509.2892727272711</v>
+        <v>4506.7808235294133</v>
       </c>
       <c r="W17" s="6">
         <v>6514</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17:Y17" si="67">X16+X5</f>
-        <v>4518.1793636363618</v>
+        <v>4516.3418235294084</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" si="67"/>
-        <v>6448.7149090909115</v>
+        <v>6445.9439999999977</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="16"/>
-        <v>45.154821212121163</v>
+        <v>45.11301372549017</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" si="17"/>
@@ -7534,11 +7508,11 @@
       </c>
       <c r="AB17" s="6">
         <f t="shared" si="18"/>
-        <v>45.302989393939335</v>
+        <v>45.272363725490166</v>
       </c>
       <c r="AC17" s="6">
         <f t="shared" si="19"/>
-        <v>-64.811915151515166</v>
+        <v>-64.76573333333333</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>25</v>
@@ -7578,14 +7552,14 @@
       </c>
       <c r="C18" s="6">
         <f>C17+B6</f>
-        <v>6628.218181818178</v>
+        <v>6623.3411764705888</v>
       </c>
       <c r="D18" s="6">
         <v>4314</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="24"/>
-        <v>6628.218181818178</v>
+        <v>6623.3411764705888</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="25"/>
@@ -7593,7 +7567,7 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="26"/>
-        <v>-66.470303030303</v>
+        <v>-66.389019607843167</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ref="H18:I18" si="68">F18</f>
@@ -7601,7 +7575,7 @@
       </c>
       <c r="I18" s="6">
         <f t="shared" si="68"/>
-        <v>-66.470303030303</v>
+        <v>-66.389019607843167</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="28"/>
@@ -7612,14 +7586,14 @@
       </c>
       <c r="M18" s="6">
         <f>M17+L5</f>
-        <v>6621.3600000000024</v>
+        <v>6616.162500000004</v>
       </c>
       <c r="N18" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="12"/>
-        <v>6621.3600000000024</v>
+        <v>6616.162500000004</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="13"/>
@@ -7627,7 +7601,7 @@
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="14"/>
-        <v>-66.355999999999995</v>
+        <v>-66.269374999999997</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" ref="R18:S18" si="69">P18</f>
@@ -7635,7 +7609,7 @@
       </c>
       <c r="S18" s="6">
         <f t="shared" si="69"/>
-        <v>-66.355999999999995</v>
+        <v>-66.269374999999997</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="30"/>
@@ -7643,22 +7617,22 @@
       </c>
       <c r="V18" s="6">
         <f>V17+$V5</f>
-        <v>4509.9999999999982</v>
+        <v>4507.2407058823546</v>
       </c>
       <c r="W18" s="6">
         <v>6514</v>
       </c>
-      <c r="X18" s="11">
+      <c r="X18" s="9">
         <f t="shared" ref="X18:Y18" si="70">X17+X5</f>
-        <v>4518.699999999998</v>
+        <v>4516.6787058823493</v>
       </c>
       <c r="Y18" s="6">
         <f t="shared" si="70"/>
-        <v>6449.5000000000027</v>
+        <v>6446.4519999999975</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" si="16"/>
-        <v>45.166666666666664</v>
+        <v>45.120678431372497</v>
       </c>
       <c r="AA18" s="6">
         <f t="shared" si="17"/>
@@ -7666,11 +7640,11 @@
       </c>
       <c r="AB18" s="6">
         <f t="shared" si="18"/>
-        <v>45.311666666666667</v>
+        <v>45.277978431372503</v>
       </c>
       <c r="AC18" s="6">
         <f t="shared" si="19"/>
-        <v>-64.825000000000003</v>
+        <v>-64.774199999999993</v>
       </c>
       <c r="AE18" s="6" t="s">
         <v>27</v>
@@ -7698,14 +7672,14 @@
       </c>
       <c r="C19" s="6">
         <f>C18+B6</f>
-        <v>6629.5999999999958</v>
+        <v>6624.2352941176478</v>
       </c>
       <c r="D19" s="6">
         <v>4314</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="24"/>
-        <v>6629.5999999999958</v>
+        <v>6624.2352941176478</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="25"/>
@@ -7713,7 +7687,7 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="26"/>
-        <v>-66.493333333333339</v>
+        <v>-66.403921568627496</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ref="H19:I19" si="71">F19</f>
@@ -7721,7 +7695,7 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" si="71"/>
-        <v>-66.493333333333339</v>
+        <v>-66.403921568627496</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="28"/>
@@ -7732,14 +7706,14 @@
       </c>
       <c r="M19" s="6">
         <f>M18+L5</f>
-        <v>6622.6200000000026</v>
+        <v>6616.9500000000044</v>
       </c>
       <c r="N19" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="12"/>
-        <v>6622.6200000000026</v>
+        <v>6616.9500000000044</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="13"/>
@@ -7747,7 +7721,7 @@
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="14"/>
-        <v>-66.376999999999995</v>
+        <v>-66.282499999999999</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" ref="R19:S19" si="72">P19</f>
@@ -7755,7 +7729,7 @@
       </c>
       <c r="S19" s="6">
         <f t="shared" si="72"/>
-        <v>-66.376999999999995</v>
+        <v>-66.282499999999999</v>
       </c>
       <c r="U19" s="6">
         <f t="shared" si="30"/>
@@ -7763,22 +7737,22 @@
       </c>
       <c r="V19" s="6">
         <f>V18+$V5</f>
-        <v>4510.7107272727253</v>
+        <v>4507.700588235296</v>
       </c>
       <c r="W19" s="6">
         <v>6514</v>
       </c>
       <c r="X19" s="6">
         <f t="shared" ref="X19:Y19" si="73">X18+X5</f>
-        <v>4519.2206363636342</v>
+        <v>4517.0155882352901</v>
       </c>
       <c r="Y19" s="6">
         <f t="shared" si="73"/>
-        <v>6450.2850909090939</v>
+        <v>6446.9599999999973</v>
       </c>
       <c r="Z19" s="6">
         <f t="shared" si="16"/>
-        <v>45.178512121212165</v>
+        <v>45.128343137255001</v>
       </c>
       <c r="AA19" s="6">
         <f t="shared" si="17"/>
@@ -7786,11 +7760,11 @@
       </c>
       <c r="AB19" s="6">
         <f t="shared" si="18"/>
-        <v>45.320343939393837</v>
+        <v>45.283593137254833</v>
       </c>
       <c r="AC19" s="6">
         <f t="shared" si="19"/>
-        <v>-64.83808484848484</v>
+        <v>-64.782666666666671</v>
       </c>
       <c r="AE19" s="6">
         <v>1</v>
@@ -7816,7 +7790,7 @@
         <v>-65.05</v>
       </c>
       <c r="AL19" s="6">
-        <f t="shared" ref="AK19:AM22" si="74">(LEFT(AH19,2)+((RIGHT(AH19,LEN(AH19)-2))/60))</f>
+        <f t="shared" ref="AL19:AL22" si="74">(LEFT(AH19,2)+((RIGHT(AH19,LEN(AH19)-2))/60))</f>
         <v>45.31666666666667</v>
       </c>
       <c r="AM19" s="6">
@@ -7834,14 +7808,14 @@
       </c>
       <c r="C20" s="6">
         <f>C19+B6</f>
-        <v>6630.9818181818137</v>
+        <v>6625.1294117647067</v>
       </c>
       <c r="D20" s="6">
         <v>4314</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="24"/>
-        <v>6630.9818181818137</v>
+        <v>6625.1294117647067</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="25"/>
@@ -7849,7 +7823,7 @@
       </c>
       <c r="G20" s="6">
         <f t="shared" si="26"/>
-        <v>-66.516363636363494</v>
+        <v>-66.418823529411839</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ref="H20:I20" si="75">F20</f>
@@ -7857,7 +7831,7 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" si="75"/>
-        <v>-66.516363636363494</v>
+        <v>-66.418823529411839</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="28"/>
@@ -7868,14 +7842,14 @@
       </c>
       <c r="M20" s="6">
         <f>M19+L5</f>
-        <v>6623.8800000000028</v>
+        <v>6617.7375000000047</v>
       </c>
       <c r="N20" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="12"/>
-        <v>6623.8800000000028</v>
+        <v>6617.7375000000047</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="13"/>
@@ -7883,7 +7857,7 @@
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="14"/>
-        <v>-66.397999999999996</v>
+        <v>-66.295625000000001</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" ref="R20:S20" si="76">P20</f>
@@ -7891,7 +7865,7 @@
       </c>
       <c r="S20" s="6">
         <f t="shared" si="76"/>
-        <v>-66.397999999999996</v>
+        <v>-66.295625000000001</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="30"/>
@@ -7899,22 +7873,22 @@
       </c>
       <c r="V20" s="6">
         <f>V19+$V5</f>
-        <v>4511.4214545454524</v>
+        <v>4508.1604705882373</v>
       </c>
       <c r="W20" s="6">
         <v>6514</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" ref="X20:Y20" si="77">X19+X5</f>
-        <v>4519.7412727272704</v>
+        <v>4517.352470588231</v>
       </c>
       <c r="Y20" s="6">
         <f t="shared" si="77"/>
-        <v>6451.0701818181851</v>
+        <v>6447.4679999999971</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" si="16"/>
-        <v>45.190357575757503</v>
+        <v>45.136007843137335</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="17"/>
@@ -7922,11 +7896,11 @@
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="18"/>
-        <v>45.32902121212117</v>
+        <v>45.28920784313717</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="19"/>
-        <v>-64.851169696969833</v>
+        <v>-64.791133333333335</v>
       </c>
       <c r="AE20" s="6">
         <v>2</v>
@@ -7970,14 +7944,14 @@
       </c>
       <c r="C21" s="6">
         <f>C20+B6</f>
-        <v>6632.3636363636315</v>
+        <v>6626.0235294117656</v>
       </c>
       <c r="D21" s="6">
         <v>4314</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="24"/>
-        <v>6632.3636363636315</v>
+        <v>6626.0235294117656</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="25"/>
@@ -7985,7 +7959,7 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="26"/>
-        <v>-66.539393939393833</v>
+        <v>-66.433725490196167</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ref="H21:I21" si="81">F21</f>
@@ -7993,7 +7967,7 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" si="81"/>
-        <v>-66.539393939393833</v>
+        <v>-66.433725490196167</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="28"/>
@@ -8004,14 +7978,14 @@
       </c>
       <c r="M21" s="6">
         <f>M20+L5</f>
-        <v>6625.1400000000031</v>
+        <v>6618.5250000000051</v>
       </c>
       <c r="N21" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O21" s="6">
         <f t="shared" si="12"/>
-        <v>6625.1400000000031</v>
+        <v>6618.5250000000051</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="13"/>
@@ -8019,7 +7993,7 @@
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="14"/>
-        <v>-66.418999999999997</v>
+        <v>-66.30875000000016</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" ref="R21:S21" si="82">P21</f>
@@ -8027,7 +8001,7 @@
       </c>
       <c r="S21" s="6">
         <f t="shared" si="82"/>
-        <v>-66.418999999999997</v>
+        <v>-66.30875000000016</v>
       </c>
       <c r="U21" s="6">
         <f t="shared" si="30"/>
@@ -8035,22 +8009,22 @@
       </c>
       <c r="V21" s="6">
         <f>V20+$V5</f>
-        <v>4512.1321818181796</v>
+        <v>4508.6203529411787</v>
       </c>
       <c r="W21" s="6">
         <v>6514</v>
       </c>
       <c r="X21" s="6">
         <f t="shared" ref="X21:Y21" si="83">X20+X5</f>
-        <v>4520.2619090909066</v>
+        <v>4517.6893529411718</v>
       </c>
       <c r="Y21" s="6">
         <f t="shared" si="83"/>
-        <v>6451.8552727272763</v>
+        <v>6447.9759999999969</v>
       </c>
       <c r="Z21" s="6">
         <f t="shared" si="16"/>
-        <v>45.202203030302996</v>
+        <v>45.143672549019669</v>
       </c>
       <c r="AA21" s="6">
         <f t="shared" si="17"/>
@@ -8058,11 +8032,11 @@
       </c>
       <c r="AB21" s="6">
         <f t="shared" si="18"/>
-        <v>45.337698484848502</v>
+        <v>45.2948225490195</v>
       </c>
       <c r="AC21" s="6">
         <f t="shared" si="19"/>
-        <v>-64.864254545454671</v>
+        <v>-64.799599999999998</v>
       </c>
       <c r="AE21" s="6">
         <v>3</v>
@@ -8106,14 +8080,14 @@
       </c>
       <c r="C22" s="6">
         <f>C21+B6</f>
-        <v>6633.7454545454493</v>
+        <v>6626.9176470588245</v>
       </c>
       <c r="D22" s="6">
         <v>4314</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="24"/>
-        <v>6633.7454545454493</v>
+        <v>6626.9176470588245</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="25"/>
@@ -8121,7 +8095,7 @@
       </c>
       <c r="G22" s="6">
         <f t="shared" si="26"/>
-        <v>-66.562424242424171</v>
+        <v>-66.448627450980339</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ref="H22:I22" si="84">F22</f>
@@ -8129,7 +8103,7 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" si="84"/>
-        <v>-66.562424242424171</v>
+        <v>-66.448627450980339</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="28"/>
@@ -8140,14 +8114,14 @@
       </c>
       <c r="M22" s="6">
         <f>M21+EM5</f>
-        <v>6625.1400000000031</v>
+        <v>6618.5250000000051</v>
       </c>
       <c r="N22" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="12"/>
-        <v>6625.1400000000031</v>
+        <v>6618.5250000000051</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="13"/>
@@ -8155,7 +8129,7 @@
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="14"/>
-        <v>-66.418999999999997</v>
+        <v>-66.30875000000016</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" ref="R22:S22" si="85">P22</f>
@@ -8163,7 +8137,7 @@
       </c>
       <c r="S22" s="6">
         <f t="shared" si="85"/>
-        <v>-66.418999999999997</v>
+        <v>-66.30875000000016</v>
       </c>
       <c r="U22" s="6">
         <f t="shared" si="30"/>
@@ -8171,22 +8145,22 @@
       </c>
       <c r="V22" s="6">
         <f>V21+$V5</f>
-        <v>4512.8429090909067</v>
+        <v>4509.08023529412</v>
       </c>
       <c r="W22" s="6">
         <v>6514</v>
       </c>
       <c r="X22" s="6">
         <f t="shared" ref="X22:Y22" si="86">X21+X5</f>
-        <v>4520.7825454545427</v>
+        <v>4518.0262352941127</v>
       </c>
       <c r="Y22" s="6">
         <f t="shared" si="86"/>
-        <v>6452.6403636363675</v>
+        <v>6448.4839999999967</v>
       </c>
       <c r="Z22" s="6">
         <f t="shared" si="16"/>
-        <v>45.214048484848497</v>
+        <v>45.151337254902003</v>
       </c>
       <c r="AA22" s="6">
         <f t="shared" si="17"/>
@@ -8194,11 +8168,11 @@
       </c>
       <c r="AB22" s="6">
         <f t="shared" si="18"/>
-        <v>45.346375757575665</v>
+        <v>45.30043725490183</v>
       </c>
       <c r="AC22" s="6">
         <f t="shared" si="19"/>
-        <v>-64.877339393939494</v>
+        <v>-64.808066666666662</v>
       </c>
       <c r="AE22" s="6">
         <v>4</v>
@@ -8242,14 +8216,14 @@
       </c>
       <c r="C23" s="6">
         <f>C22+B6</f>
-        <v>6635.1272727272672</v>
+        <v>6627.8117647058834</v>
       </c>
       <c r="D23" s="6">
         <v>4314</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="24"/>
-        <v>6635.1272727272672</v>
+        <v>6627.8117647058834</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="25"/>
@@ -8257,7 +8231,7 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="26"/>
-        <v>-66.585454545454496</v>
+        <v>-66.463529411764668</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ref="H23:I23" si="87">F23</f>
@@ -8265,7 +8239,7 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" si="87"/>
-        <v>-66.585454545454496</v>
+        <v>-66.463529411764668</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="28"/>
@@ -8276,14 +8250,14 @@
       </c>
       <c r="M23" s="6">
         <f>M22+L5</f>
-        <v>6626.4000000000033</v>
+        <v>6619.3125000000055</v>
       </c>
       <c r="N23" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="12"/>
-        <v>6626.4000000000033</v>
+        <v>6619.3125000000055</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="13"/>
@@ -8291,7 +8265,7 @@
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="14"/>
-        <v>-66.44</v>
+        <v>-66.321875000000162</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" ref="R23:S23" si="88">P23</f>
@@ -8299,7 +8273,7 @@
       </c>
       <c r="S23" s="6">
         <f t="shared" si="88"/>
-        <v>-66.44</v>
+        <v>-66.321875000000162</v>
       </c>
       <c r="U23" s="6">
         <f t="shared" si="30"/>
@@ -8307,22 +8281,22 @@
       </c>
       <c r="V23" s="6">
         <f>V22+$V5</f>
-        <v>4513.5536363636338</v>
+        <v>4509.5401176470614</v>
       </c>
       <c r="W23" s="6">
         <v>6514</v>
       </c>
       <c r="X23" s="6">
         <f t="shared" ref="X23:Y23" si="89">X22+X5</f>
-        <v>4521.3031818181789</v>
+        <v>4518.3631176470535</v>
       </c>
       <c r="Y23" s="6">
         <f t="shared" si="89"/>
-        <v>6453.4254545454587</v>
+        <v>6448.9919999999966</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" si="16"/>
-        <v>45.225893939393835</v>
+        <v>45.15900196078433</v>
       </c>
       <c r="AA23" s="6">
         <f t="shared" si="17"/>
@@ -8330,11 +8304,11 @@
       </c>
       <c r="AB23" s="6">
         <f t="shared" si="18"/>
-        <v>45.355053030302997</v>
+        <v>45.306051960784167</v>
       </c>
       <c r="AC23" s="6">
         <f t="shared" si="19"/>
-        <v>-64.890424242424331</v>
+        <v>-64.816533333333339</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>28</v>
@@ -8345,7 +8319,7 @@
       <c r="AG23" s="6">
         <v>6503.107994</v>
       </c>
-      <c r="AH23" s="11">
+      <c r="AH23" s="9">
         <v>4518.5399939999998</v>
       </c>
       <c r="AI23" s="6">
@@ -8374,14 +8348,14 @@
       </c>
       <c r="C24" s="6">
         <f>C23+B6</f>
-        <v>6636.509090909085</v>
+        <v>6628.7058823529424</v>
       </c>
       <c r="D24" s="6">
         <v>4314</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="24"/>
-        <v>6636.509090909085</v>
+        <v>6628.7058823529424</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="25"/>
@@ -8389,7 +8363,7 @@
       </c>
       <c r="G24" s="6">
         <f t="shared" si="26"/>
-        <v>-66.608484848484665</v>
+        <v>-66.478431372548997</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ref="H24:I24" si="90">F24</f>
@@ -8397,7 +8371,7 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" si="90"/>
-        <v>-66.608484848484665</v>
+        <v>-66.478431372548997</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="28"/>
@@ -8408,14 +8382,14 @@
       </c>
       <c r="M24" s="6">
         <f>M23+L5</f>
-        <v>6627.6600000000035</v>
+        <v>6620.1000000000058</v>
       </c>
       <c r="N24" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="12"/>
-        <v>6627.6600000000035</v>
+        <v>6620.1000000000058</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" si="13"/>
@@ -8423,7 +8397,7 @@
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="14"/>
-        <v>-66.460999999999999</v>
+        <v>-66.335000000000164</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" ref="R24:S24" si="91">P24</f>
@@ -8431,7 +8405,7 @@
       </c>
       <c r="S24" s="6">
         <f t="shared" si="91"/>
-        <v>-66.460999999999999</v>
+        <v>-66.335000000000164</v>
       </c>
       <c r="U24" s="6">
         <f t="shared" si="30"/>
@@ -8439,22 +8413,22 @@
       </c>
       <c r="V24" s="6">
         <f>V23+$V5</f>
-        <v>4514.2643636363609</v>
+        <v>4510.0000000000027</v>
       </c>
       <c r="W24" s="6">
         <v>6514</v>
       </c>
       <c r="X24" s="6">
         <f t="shared" ref="X24:Y24" si="92">X23+X5</f>
-        <v>4521.8238181818151</v>
+        <v>4518.6999999999944</v>
       </c>
       <c r="Y24" s="6">
         <f t="shared" si="92"/>
-        <v>6454.2105454545499</v>
+        <v>6449.4999999999964</v>
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="16"/>
-        <v>45.237739393939336</v>
+        <v>45.166666666666664</v>
       </c>
       <c r="AA24" s="6">
         <f t="shared" si="17"/>
@@ -8462,11 +8436,11 @@
       </c>
       <c r="AB24" s="6">
         <f t="shared" si="18"/>
-        <v>45.36373030303033</v>
+        <v>45.311666666666497</v>
       </c>
       <c r="AC24" s="6">
         <f t="shared" si="19"/>
-        <v>-64.903509090909168</v>
+        <v>-64.825000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8479,14 +8453,14 @@
       </c>
       <c r="C25" s="6">
         <f>C24+B6</f>
-        <v>6637.8909090909028</v>
+        <v>6629.6000000000013</v>
       </c>
       <c r="D25" s="6">
         <v>4314</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="24"/>
-        <v>6637.8909090909028</v>
+        <v>6629.6000000000013</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="25"/>
@@ -8494,7 +8468,7 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="26"/>
-        <v>-66.631515151515003</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ref="H25:I25" si="93">F25</f>
@@ -8502,7 +8476,7 @@
       </c>
       <c r="I25" s="6">
         <f t="shared" si="93"/>
-        <v>-66.631515151515003</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="28"/>
@@ -8513,14 +8487,14 @@
       </c>
       <c r="M25" s="6">
         <f>M24+L5</f>
-        <v>6628.9200000000037</v>
+        <v>6620.8875000000062</v>
       </c>
       <c r="N25" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="12"/>
-        <v>6628.9200000000037</v>
+        <v>6620.8875000000062</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="13"/>
@@ -8528,7 +8502,7 @@
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="14"/>
-        <v>-66.481999999999999</v>
+        <v>-66.348125000000167</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" ref="R25:S25" si="94">P25</f>
@@ -8536,7 +8510,7 @@
       </c>
       <c r="S25" s="6">
         <f t="shared" si="94"/>
-        <v>-66.481999999999999</v>
+        <v>-66.348125000000167</v>
       </c>
       <c r="U25" s="6" t="s">
         <v>28</v>
@@ -8580,14 +8554,14 @@
       </c>
       <c r="C26" s="6">
         <f>C25+B6</f>
-        <v>6639.2727272727207</v>
+        <v>6630.4941176470602</v>
       </c>
       <c r="D26" s="6">
         <v>4314</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="24"/>
-        <v>6639.2727272727207</v>
+        <v>6630.4941176470602</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="25"/>
@@ -8595,7 +8569,7 @@
       </c>
       <c r="G26" s="6">
         <f t="shared" si="26"/>
-        <v>-66.654545454545328</v>
+        <v>-66.508235294117668</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ref="H26:I26" si="95">F26</f>
@@ -8603,7 +8577,7 @@
       </c>
       <c r="I26" s="6">
         <f t="shared" si="95"/>
-        <v>-66.654545454545328</v>
+        <v>-66.508235294117668</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="28"/>
@@ -8614,14 +8588,14 @@
       </c>
       <c r="M26" s="6">
         <f>M25+L5</f>
-        <v>6630.1800000000039</v>
+        <v>6621.6750000000065</v>
       </c>
       <c r="N26" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O26" s="6">
         <f t="shared" si="12"/>
-        <v>6630.1800000000039</v>
+        <v>6621.6750000000065</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="13"/>
@@ -8629,7 +8603,7 @@
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="14"/>
-        <v>-66.503</v>
+        <v>-66.361250000000169</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" ref="R26:S26" si="96">P26</f>
@@ -8637,7 +8611,7 @@
       </c>
       <c r="S26" s="6">
         <f t="shared" si="96"/>
-        <v>-66.503</v>
+        <v>-66.361250000000169</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8650,14 +8624,14 @@
       </c>
       <c r="C27" s="6">
         <f>C26+B6</f>
-        <v>6640.6545454545385</v>
+        <v>6631.3882352941191</v>
       </c>
       <c r="D27" s="6">
         <v>4314</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="24"/>
-        <v>6640.6545454545385</v>
+        <v>6631.3882352941191</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="25"/>
@@ -8665,7 +8639,7 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="26"/>
-        <v>-66.677575757575667</v>
+        <v>-66.523137254901997</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ref="H27:I27" si="97">F27</f>
@@ -8673,7 +8647,7 @@
       </c>
       <c r="I27" s="6">
         <f t="shared" si="97"/>
-        <v>-66.677575757575667</v>
+        <v>-66.523137254901997</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="28"/>
@@ -8684,14 +8658,14 @@
       </c>
       <c r="M27" s="6">
         <f>M26+L5</f>
-        <v>6631.4400000000041</v>
+        <v>6622.4625000000069</v>
       </c>
       <c r="N27" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O27" s="6">
         <f t="shared" si="12"/>
-        <v>6631.4400000000041</v>
+        <v>6622.4625000000069</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" si="13"/>
@@ -8699,7 +8673,7 @@
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="14"/>
-        <v>-66.524000000000001</v>
+        <v>-66.374375000000171</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" ref="R27:S27" si="98">P27</f>
@@ -8707,7 +8681,7 @@
       </c>
       <c r="S27" s="6">
         <f t="shared" si="98"/>
-        <v>-66.524000000000001</v>
+        <v>-66.374375000000171</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8720,14 +8694,14 @@
       </c>
       <c r="C28" s="6">
         <f>C27+B6</f>
-        <v>6642.0363636363563</v>
+        <v>6632.282352941178</v>
       </c>
       <c r="D28" s="6">
         <v>4314</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="24"/>
-        <v>6642.0363636363563</v>
+        <v>6632.282352941178</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="25"/>
@@ -8735,7 +8709,7 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" si="26"/>
-        <v>-66.700606060606006</v>
+        <v>-66.538039215686339</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ref="H28:I28" si="99">F28</f>
@@ -8743,7 +8717,7 @@
       </c>
       <c r="I28" s="6">
         <f t="shared" si="99"/>
-        <v>-66.700606060606006</v>
+        <v>-66.538039215686339</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="28"/>
@@ -8754,14 +8728,14 @@
       </c>
       <c r="M28" s="6">
         <f>M27+L5</f>
-        <v>6632.7000000000044</v>
+        <v>6623.2500000000073</v>
       </c>
       <c r="N28" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" si="12"/>
-        <v>6632.7000000000044</v>
+        <v>6623.2500000000073</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" si="13"/>
@@ -8769,7 +8743,7 @@
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="14"/>
-        <v>-66.545000000000002</v>
+        <v>-66.387500000000173</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" ref="R28:S28" si="100">P28</f>
@@ -8777,7 +8751,7 @@
       </c>
       <c r="S28" s="6">
         <f t="shared" si="100"/>
-        <v>-66.545000000000002</v>
+        <v>-66.387500000000173</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8790,14 +8764,14 @@
       </c>
       <c r="C29" s="6">
         <f>C28+B6</f>
-        <v>6643.4181818181742</v>
+        <v>6633.176470588237</v>
       </c>
       <c r="D29" s="6">
         <v>4314</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="24"/>
-        <v>6643.4181818181742</v>
+        <v>6633.176470588237</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="25"/>
@@ -8805,7 +8779,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="26"/>
-        <v>-66.72363636363616</v>
+        <v>-66.552941176470668</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ref="H29:I29" si="101">F29</f>
@@ -8813,7 +8787,7 @@
       </c>
       <c r="I29" s="6">
         <f t="shared" si="101"/>
-        <v>-66.72363636363616</v>
+        <v>-66.552941176470668</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="28"/>
@@ -8824,14 +8798,14 @@
       </c>
       <c r="M29" s="6">
         <f>M28+L5</f>
-        <v>6633.9600000000046</v>
+        <v>6624.0375000000076</v>
       </c>
       <c r="N29" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" si="12"/>
-        <v>6633.9600000000046</v>
+        <v>6624.0375000000076</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="13"/>
@@ -8839,7 +8813,7 @@
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="14"/>
-        <v>-66.566000000000003</v>
+        <v>-66.400625000000161</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" ref="R29:S29" si="102">P29</f>
@@ -8847,7 +8821,7 @@
       </c>
       <c r="S29" s="6">
         <f t="shared" si="102"/>
-        <v>-66.566000000000003</v>
+        <v>-66.400625000000161</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8860,14 +8834,14 @@
       </c>
       <c r="C30" s="6">
         <f>C29+B6</f>
-        <v>6644.799999999992</v>
+        <v>6634.0705882352959</v>
       </c>
       <c r="D30" s="6">
         <v>4314</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="24"/>
-        <v>6644.799999999992</v>
+        <v>6634.0705882352959</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="25"/>
@@ -8875,7 +8849,7 @@
       </c>
       <c r="G30" s="6">
         <f t="shared" si="26"/>
-        <v>-66.746666666666499</v>
+        <v>-66.567843137254997</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ref="H30:I30" si="103">F30</f>
@@ -8883,7 +8857,7 @@
       </c>
       <c r="I30" s="6">
         <f t="shared" si="103"/>
-        <v>-66.746666666666499</v>
+        <v>-66.567843137254997</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="28"/>
@@ -8894,14 +8868,14 @@
       </c>
       <c r="M30" s="6">
         <f>M29+L5</f>
-        <v>6635.2200000000048</v>
+        <v>6624.825000000008</v>
       </c>
       <c r="N30" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="12"/>
-        <v>6635.2200000000048</v>
+        <v>6624.825000000008</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" si="13"/>
@@ -8909,7 +8883,7 @@
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="14"/>
-        <v>-66.587000000000003</v>
+        <v>-66.413750000000164</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" ref="R30:S30" si="104">P30</f>
@@ -8917,7 +8891,7 @@
       </c>
       <c r="S30" s="6">
         <f t="shared" si="104"/>
-        <v>-66.587000000000003</v>
+        <v>-66.413750000000164</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8930,14 +8904,14 @@
       </c>
       <c r="C31" s="6">
         <f>C30+B6</f>
-        <v>6646.1818181818098</v>
+        <v>6634.9647058823548</v>
       </c>
       <c r="D31" s="6">
         <v>4314</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="24"/>
-        <v>6646.1818181818098</v>
+        <v>6634.9647058823548</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="25"/>
@@ -8945,7 +8919,7 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="26"/>
-        <v>-66.769696969696838</v>
+        <v>-66.582745098039169</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ref="H31:I31" si="105">F31</f>
@@ -8953,7 +8927,7 @@
       </c>
       <c r="I31" s="6">
         <f t="shared" si="105"/>
-        <v>-66.769696969696838</v>
+        <v>-66.582745098039169</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>30</v>
